--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t>${name}</t>
   </si>
@@ -1886,10 +1886,28 @@
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Stand_to_Sit_Transition_M.anim</t>
   </si>
   <si>
-    <t>Pre_MonsterTogetherLower</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterTogetherLower.prefab</t>
+    <t>Anim_MonsterEntity0Clip_walking_man</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
+  </si>
+  <si>
+    <t>Pre_UIEntityHealthInfo</t>
+  </si>
+  <si>
+    <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_running</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
+  </si>
+  <si>
+    <t>Pre_PlayerBuffEffect</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/PlayerBuffEffect.prefab</t>
   </si>
   <si>
     <t>Sp_monster0_texture</t>
@@ -1898,46 +1916,70 @@
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.fbm/monster0_texture.png</t>
   </si>
   <si>
+    <t>Pre_PlayerBuffEffect_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/PlayerBuffEffect_1.prefab</t>
+  </si>
+  <si>
     <t>Sp_material_0</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbm/material_0.png</t>
   </si>
   <si>
+    <t>Pre_EffectPoison</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPoison.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPoisonSub</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPoisonSub.prefab</t>
+  </si>
+  <si>
     <t>Anim_68e53aa0d0dde601dc6ae7633158645e</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbx</t>
   </si>
   <si>
+    <t>Pre_EffectPlayerSkill2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_2.prefab</t>
+  </si>
+  <si>
     <t>Pre_MonsterColonyLower</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterColonyLower.prefab</t>
   </si>
   <si>
+    <t>Pre_EffectHit1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectHit1.prefab</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Unsteady_Walk</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Unsteady_Walk.anim</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_walking_man</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
-  </si>
-  <si>
-    <t>Pre_UIEntityHealthInfo</t>
-  </si>
-  <si>
-    <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_running</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1992,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2095,12 +2137,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -2485,10 +2521,10 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
@@ -2497,10 +2533,10 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
@@ -2509,10 +2545,10 @@
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
@@ -2521,10 +2557,10 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
@@ -2533,10 +2569,10 @@
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
@@ -2545,17 +2581,17 @@
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2634,10 +2670,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
@@ -2646,10 +2682,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
@@ -2658,10 +2694,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
@@ -2670,10 +2706,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
@@ -2682,10 +2718,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
@@ -2694,13 +2730,19 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -3066,4433 +3108,4531 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305:C306"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A568" sqref="$A316:$XFD568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="51"/>
-    <col min="4" max="4" width="100" customWidth="1" style="51"/>
+    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="53"/>
+    <col min="4" max="4" width="100" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="54">
+      <c r="A6" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="56">
         <v>1</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="54">
+      <c r="A7" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="56">
         <v>2</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="54">
+      <c r="A8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="56">
         <v>3</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="54">
+      <c r="A9" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="56">
         <v>11</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="54">
+      <c r="A10" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="56">
         <v>12</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="54">
+      <c r="A11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="56">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="54">
-        <v>14</v>
-      </c>
-      <c r="C12" s="54" t="s">
+      <c r="A12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="56">
+        <v>14</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="54">
+      <c r="A13" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="56">
         <v>15</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="54">
+      <c r="A14" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="56">
         <v>21</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="54">
+      <c r="A15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="56">
         <v>22</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="53" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="54">
+      <c r="A16" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="56">
         <v>23</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="54">
+      <c r="A17" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="56">
         <v>24</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="53" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="54">
+      <c r="A18" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="56">
         <v>25</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="54">
+      <c r="A19" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="56">
         <v>26</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="54">
+      <c r="A20" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="56">
         <v>31</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="54">
+      <c r="A21" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="56">
         <v>41</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="53" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="54">
+      <c r="A22" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="56">
         <v>42</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="54">
+      <c r="A23" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="56">
         <v>43</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="54">
+      <c r="A24" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="56">
         <v>44</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="54">
+      <c r="A25" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="56">
         <v>76</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="54">
+      <c r="A26" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="56">
         <v>77</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="54">
+      <c r="A27" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="56">
         <v>78</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="56">
+      <c r="A28" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="58">
         <v>79</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="56">
+      <c r="A29" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="58">
         <v>80</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="56">
+      <c r="A30" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58">
         <v>81</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="51">
+      <c r="A31" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="53">
         <v>82</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="51">
+      <c r="A32" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="53">
         <v>83</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="51">
+      <c r="A33" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="53">
         <v>84</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="53" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="51">
+      <c r="A34" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="53">
         <v>85</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="51">
+      <c r="A35" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="53">
         <v>86</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="51">
+      <c r="A36" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="53">
         <v>87</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="51">
+      <c r="A37" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="53">
         <v>88</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="53" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="51">
+      <c r="A38" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="53">
         <v>89</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="51">
+      <c r="A39" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="53">
         <v>90</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="51">
+      <c r="A40" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="53">
         <v>91</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="53" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="51">
+      <c r="A41" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="53">
         <v>92</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="53" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="51">
+      <c r="A42" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="53">
         <v>93</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="53" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="51">
+      <c r="A43" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="53">
         <v>94</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="53" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="51">
+      <c r="A44" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="53">
         <v>95</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="53" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="51">
+      <c r="A45" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="53">
         <v>97</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="51">
+      <c r="A46" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="53">
         <v>98</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="53" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="51">
+      <c r="A47" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="53">
         <v>99</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="53" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="51">
+      <c r="A48" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="53">
         <v>105</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="53" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="51">
+      <c r="A49" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="53">
         <v>106</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="53" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="51">
+      <c r="A50" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="53">
         <v>107</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="53" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="51">
+      <c r="A51" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="53">
         <v>108</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="53" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="51">
+      <c r="A52" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="53">
         <v>109</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="53" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="51">
+      <c r="A53" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="53">
         <v>110</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="53" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="51">
+      <c r="A54" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="53">
         <v>112</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="53" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="51">
+      <c r="A55" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="53">
         <v>113</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="53" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="51">
+      <c r="A56" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="53">
         <v>115</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="53" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="51">
+      <c r="A57" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="53">
         <v>116</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="53" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="51">
+      <c r="A58" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="53">
         <v>117</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="51">
+      <c r="A59" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="53">
         <v>118</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="53" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="51">
+      <c r="A60" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="53">
         <v>119</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="51">
+      <c r="A61" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="53">
         <v>120</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="51">
+      <c r="A62" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="53">
         <v>121</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="53" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="51">
+      <c r="A63" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="53">
         <v>122</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="53" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="51">
+      <c r="A64" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="53">
         <v>123</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="51">
+      <c r="A65" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="53">
         <v>124</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="53" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="51">
+      <c r="A66" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="53">
         <v>125</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="53" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="51">
+      <c r="A67" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="53">
         <v>126</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="53" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="51">
+      <c r="A68" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="53">
         <v>127</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="51">
+      <c r="A69" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="53">
         <v>128</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="53" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="51">
+      <c r="A70" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="53">
         <v>129</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="53" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="51">
+      <c r="A71" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="53">
         <v>130</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="51">
+      <c r="A72" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="53">
         <v>131</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="53" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="51">
+      <c r="A73" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="53">
         <v>132</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="53" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="51">
+      <c r="A74" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="53">
         <v>133</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="53" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="51">
+      <c r="A75" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="53">
         <v>134</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="53" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="51">
+      <c r="A76" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="53">
         <v>135</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="53" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="51">
+      <c r="A77" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="53">
         <v>136</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="51">
+      <c r="A78" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="53">
         <v>137</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="53" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="51">
+      <c r="A79" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="53">
         <v>138</v>
       </c>
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="51">
+      <c r="A80" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="53">
         <v>139</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="53" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="51">
+      <c r="A81" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="53">
         <v>140</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="53" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="51">
+      <c r="A82" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="53">
         <v>141</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="53" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="51">
+      <c r="A83" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="53">
         <v>142</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="53" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="51">
+      <c r="A84" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="53">
         <v>143</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="53" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="51">
+      <c r="A85" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="53">
         <v>144</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="53" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="51">
+      <c r="A86" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="53">
         <v>145</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="51" t="s">
+      <c r="D86" s="53" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="51">
+      <c r="A87" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="53">
         <v>146</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="51" t="s">
+      <c r="D87" s="53" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="51">
+      <c r="A88" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="53">
         <v>147</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D88" s="53" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="51">
+      <c r="A89" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="53">
         <v>148</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="53" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="51">
+      <c r="A90" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="53">
         <v>149</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="53" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="51">
+      <c r="A91" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="53">
         <v>150</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="51" t="s">
+      <c r="D91" s="53" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="51">
+      <c r="A92" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="53">
         <v>151</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="51" t="s">
+      <c r="D92" s="53" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="51">
+      <c r="A93" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="53">
         <v>152</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="53" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="51">
+      <c r="A94" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="53">
         <v>153</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="53" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="51">
+      <c r="A95" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="53">
         <v>154</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D95" s="53" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="51">
+      <c r="A96" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="53">
         <v>155</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="D96" s="53" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="51">
+      <c r="A97" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="53">
         <v>156</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="53" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="51">
+      <c r="A98" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="53">
         <v>157</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="51" t="s">
+      <c r="D98" s="53" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="51">
+      <c r="A99" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="53">
         <v>158</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="53" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="51">
+      <c r="A100" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="53">
         <v>159</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="51" t="s">
+      <c r="D100" s="53" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="51">
+      <c r="A101" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="53">
         <v>160</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="53" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="51">
+      <c r="A102" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="53">
         <v>161</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="53" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="51">
+      <c r="A103" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="53">
         <v>162</v>
       </c>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D103" s="53" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="51">
+      <c r="A104" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="53">
         <v>163</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="53" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="51">
+      <c r="A105" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="53">
         <v>164</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="53" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="51">
+      <c r="A106" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="53">
         <v>165</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="53" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="51">
+      <c r="A107" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="53">
         <v>166</v>
       </c>
-      <c r="C107" s="51" t="s">
+      <c r="C107" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="D107" s="51" t="s">
+      <c r="D107" s="53" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="51">
+      <c r="A108" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="53">
         <v>167</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="53" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="51">
+      <c r="A109" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="53">
         <v>168</v>
       </c>
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="53" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="51">
+      <c r="A110" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="53">
         <v>169</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="53" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" s="51">
+      <c r="A111" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="53">
         <v>170</v>
       </c>
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="53" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="51">
+      <c r="A112" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" s="53">
         <v>171</v>
       </c>
-      <c r="C112" s="51" t="s">
+      <c r="C112" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="53" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" s="51">
+      <c r="A113" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="53">
         <v>172</v>
       </c>
-      <c r="C113" s="51" t="s">
+      <c r="C113" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="53" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="51">
+      <c r="A114" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="53">
         <v>173</v>
       </c>
-      <c r="C114" s="51" t="s">
+      <c r="C114" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D114" s="51" t="s">
+      <c r="D114" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="51">
+      <c r="A115" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="53">
         <v>174</v>
       </c>
-      <c r="C115" s="51" t="s">
+      <c r="C115" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="D115" s="51" t="s">
+      <c r="D115" s="53" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="51">
+      <c r="A116" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" s="53">
         <v>175</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="51">
+      <c r="A117" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="53">
         <v>176</v>
       </c>
-      <c r="C117" s="51" t="s">
+      <c r="C117" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="53" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="51">
+      <c r="A118" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="53">
         <v>177</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="53" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="51">
+      <c r="A119" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="53">
         <v>178</v>
       </c>
-      <c r="C119" s="51" t="s">
+      <c r="C119" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D119" s="53" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="51">
+      <c r="A120" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="53">
         <v>179</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="51">
+      <c r="A121" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="53">
         <v>181</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="53" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="51">
+      <c r="A122" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="53">
         <v>185</v>
       </c>
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="53" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="51">
+      <c r="A123" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="53">
         <v>186</v>
       </c>
-      <c r="C123" s="51" t="s">
+      <c r="C123" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="53" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="51">
+      <c r="A124" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="53">
         <v>187</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D124" s="53" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="51">
+      <c r="A125" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="53">
         <v>188</v>
       </c>
-      <c r="C125" s="51" t="s">
+      <c r="C125" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="53" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="51">
+      <c r="A126" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="53">
         <v>189</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="53" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="51">
+      <c r="A127" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="53">
         <v>190</v>
       </c>
-      <c r="C127" s="51" t="s">
+      <c r="C127" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="D127" s="51" t="s">
+      <c r="D127" s="53" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="51">
+      <c r="A128" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="53">
         <v>191</v>
       </c>
-      <c r="C128" s="51" t="s">
+      <c r="C128" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D128" s="53" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="51">
+      <c r="A129" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="53">
         <v>192</v>
       </c>
-      <c r="C129" s="51" t="s">
+      <c r="C129" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="53" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="51">
+      <c r="A130" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="53">
         <v>193</v>
       </c>
-      <c r="C130" s="51" t="s">
+      <c r="C130" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D130" s="53" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="51">
+      <c r="A131" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="53">
         <v>194</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="D131" s="51" t="s">
+      <c r="D131" s="53" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="51">
+      <c r="A132" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="53">
         <v>195</v>
       </c>
-      <c r="C132" s="51" t="s">
+      <c r="C132" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D132" s="51" t="s">
+      <c r="D132" s="53" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="51">
+      <c r="A133" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" s="53">
         <v>196</v>
       </c>
-      <c r="C133" s="51" t="s">
+      <c r="C133" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="D133" s="51" t="s">
+      <c r="D133" s="53" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="51">
+      <c r="A134" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="53">
         <v>197</v>
       </c>
-      <c r="C134" s="51" t="s">
+      <c r="C134" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="D134" s="51" t="s">
+      <c r="D134" s="53" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="51">
+      <c r="A135" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="53">
         <v>198</v>
       </c>
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D135" s="51" t="s">
+      <c r="D135" s="53" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="51">
+      <c r="A136" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="53">
         <v>199</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="D136" s="51" t="s">
+      <c r="D136" s="53" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="51">
+      <c r="A137" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="53">
         <v>200</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D137" s="53" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="51">
+      <c r="A138" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="53">
         <v>201</v>
       </c>
-      <c r="C138" s="51" t="s">
+      <c r="C138" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="51" t="s">
+      <c r="D138" s="53" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="51">
+      <c r="A139" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="53">
         <v>202</v>
       </c>
-      <c r="C139" s="51" t="s">
+      <c r="C139" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="D139" s="51" t="s">
+      <c r="D139" s="53" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" s="51">
+      <c r="A140" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="53">
         <v>203</v>
       </c>
-      <c r="C140" s="51" t="s">
+      <c r="C140" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="D140" s="51" t="s">
+      <c r="D140" s="53" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="51">
+      <c r="A141" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="53">
         <v>204</v>
       </c>
-      <c r="C141" s="51" t="s">
+      <c r="C141" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="51" t="s">
+      <c r="D141" s="53" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="51">
+      <c r="A142" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" s="53">
         <v>205</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D142" s="51" t="s">
+      <c r="D142" s="53" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" s="51">
+      <c r="A143" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="53">
         <v>206</v>
       </c>
-      <c r="C143" s="51" t="s">
+      <c r="C143" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="D143" s="51" t="s">
+      <c r="D143" s="53" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" s="51">
+      <c r="A144" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="53">
         <v>207</v>
       </c>
-      <c r="C144" s="51" t="s">
+      <c r="C144" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="D144" s="51" t="s">
+      <c r="D144" s="53" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="51">
+      <c r="A145" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="53">
         <v>208</v>
       </c>
-      <c r="C145" s="51" t="s">
+      <c r="C145" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="D145" s="51" t="s">
+      <c r="D145" s="53" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" s="51">
+      <c r="A146" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" s="53">
         <v>209</v>
       </c>
-      <c r="C146" s="51" t="s">
+      <c r="C146" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="D146" s="51" t="s">
+      <c r="D146" s="53" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" s="51">
+      <c r="A147" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="53">
         <v>210</v>
       </c>
-      <c r="C147" s="51" t="s">
+      <c r="C147" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="D147" s="51" t="s">
+      <c r="D147" s="53" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B148" s="51">
+      <c r="A148" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" s="53">
         <v>211</v>
       </c>
-      <c r="C148" s="51" t="s">
+      <c r="C148" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D148" s="51" t="s">
+      <c r="D148" s="53" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="51">
+      <c r="A149" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="53">
         <v>212</v>
       </c>
-      <c r="C149" s="51" t="s">
+      <c r="C149" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D149" s="51" t="s">
+      <c r="D149" s="53" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150" s="51">
+      <c r="A150" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="53">
         <v>213</v>
       </c>
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="D150" s="51" t="s">
+      <c r="D150" s="53" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="51">
+      <c r="A151" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="53">
         <v>214</v>
       </c>
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D151" s="51" t="s">
+      <c r="D151" s="53" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="51">
+      <c r="A152" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" s="53">
         <v>215</v>
       </c>
-      <c r="C152" s="51" t="s">
+      <c r="C152" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="D152" s="51" t="s">
+      <c r="D152" s="53" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="51">
+      <c r="A153" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" s="53">
         <v>216</v>
       </c>
-      <c r="C153" s="51" t="s">
+      <c r="C153" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="D153" s="51" t="s">
+      <c r="D153" s="53" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" s="51">
+      <c r="A154" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="53">
         <v>217</v>
       </c>
-      <c r="C154" s="51" t="s">
+      <c r="C154" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="D154" s="51" t="s">
+      <c r="D154" s="53" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="51">
+      <c r="A155" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" s="53">
         <v>218</v>
       </c>
-      <c r="C155" s="51" t="s">
+      <c r="C155" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="D155" s="51" t="s">
+      <c r="D155" s="53" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="51">
+      <c r="A156" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" s="53">
         <v>219</v>
       </c>
-      <c r="C156" s="51" t="s">
+      <c r="C156" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="D156" s="51" t="s">
+      <c r="D156" s="53" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="51">
+      <c r="A157" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="53">
         <v>220</v>
       </c>
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="D157" s="51" t="s">
+      <c r="D157" s="53" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" s="51">
+      <c r="A158" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" s="53">
         <v>221</v>
       </c>
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="D158" s="51" t="s">
+      <c r="D158" s="53" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159" s="51">
+      <c r="A159" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="53">
         <v>222</v>
       </c>
-      <c r="C159" s="51" t="s">
+      <c r="C159" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="D159" s="51" t="s">
+      <c r="D159" s="53" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160" s="51">
+      <c r="A160" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="53">
         <v>223</v>
       </c>
-      <c r="C160" s="51" t="s">
+      <c r="C160" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="D160" s="51" t="s">
+      <c r="D160" s="53" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="51">
+      <c r="A161" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="53">
         <v>224</v>
       </c>
-      <c r="C161" s="51" t="s">
+      <c r="C161" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="D161" s="51" t="s">
+      <c r="D161" s="53" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="51">
+      <c r="A162" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="53">
         <v>225</v>
       </c>
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="D162" s="51" t="s">
+      <c r="D162" s="53" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="51">
+      <c r="A163" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="53">
         <v>226</v>
       </c>
-      <c r="C163" s="51" t="s">
+      <c r="C163" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="D163" s="51" t="s">
+      <c r="D163" s="53" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="51">
+      <c r="A164" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="53">
         <v>227</v>
       </c>
-      <c r="C164" s="51" t="s">
+      <c r="C164" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="D164" s="51" t="s">
+      <c r="D164" s="53" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="51">
+      <c r="A165" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="53">
         <v>228</v>
       </c>
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="D165" s="51" t="s">
+      <c r="D165" s="53" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="51">
+      <c r="A166" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" s="53">
         <v>229</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="D166" s="51" t="s">
+      <c r="D166" s="53" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B167" s="51">
+      <c r="A167" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="53">
         <v>230</v>
       </c>
-      <c r="C167" s="51" t="s">
+      <c r="C167" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="D167" s="51" t="s">
+      <c r="D167" s="53" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="51">
+      <c r="A168" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="53">
         <v>231</v>
       </c>
-      <c r="C168" s="51" t="s">
+      <c r="C168" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="D168" s="51" t="s">
+      <c r="D168" s="53" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="51">
+      <c r="A169" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="53">
         <v>232</v>
       </c>
-      <c r="C169" s="51" t="s">
+      <c r="C169" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="D169" s="51" t="s">
+      <c r="D169" s="53" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B170" s="51">
+      <c r="A170" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="53">
         <v>233</v>
       </c>
-      <c r="C170" s="51" t="s">
+      <c r="C170" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="D170" s="51" t="s">
+      <c r="D170" s="53" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B171" s="51">
+      <c r="A171" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="53">
         <v>234</v>
       </c>
-      <c r="C171" s="51" t="s">
+      <c r="C171" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="D171" s="51" t="s">
+      <c r="D171" s="53" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="51">
+      <c r="A172" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="53">
         <v>235</v>
       </c>
-      <c r="C172" s="51" t="s">
+      <c r="C172" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D172" s="53" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="51">
+      <c r="A173" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="53">
         <v>236</v>
       </c>
-      <c r="C173" s="51" t="s">
+      <c r="C173" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="53" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B174" s="51">
+      <c r="A174" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" s="53">
         <v>237</v>
       </c>
-      <c r="C174" s="51" t="s">
+      <c r="C174" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="D174" s="51" t="s">
+      <c r="D174" s="53" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="51">
+      <c r="A175" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="53">
         <v>238</v>
       </c>
-      <c r="C175" s="51" t="s">
+      <c r="C175" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="D175" s="51" t="s">
+      <c r="D175" s="53" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B176" s="51">
+      <c r="A176" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="53">
         <v>239</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="53" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B177" s="51">
+      <c r="A177" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="53">
         <v>240</v>
       </c>
-      <c r="C177" s="51" t="s">
+      <c r="C177" s="53" t="s">
         <v>357</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="53" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178" s="51">
+      <c r="A178" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="53">
         <v>241</v>
       </c>
-      <c r="C178" s="51" t="s">
+      <c r="C178" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="D178" s="51" t="s">
+      <c r="D178" s="53" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B179" s="51">
+      <c r="A179" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="53">
         <v>242</v>
       </c>
-      <c r="C179" s="51" t="s">
+      <c r="C179" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="D179" s="51" t="s">
+      <c r="D179" s="53" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180" s="51">
+      <c r="A180" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="53">
         <v>243</v>
       </c>
-      <c r="C180" s="51" t="s">
+      <c r="C180" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="D180" s="51" t="s">
+      <c r="D180" s="53" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B181" s="51">
+      <c r="A181" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="53">
         <v>244</v>
       </c>
-      <c r="C181" s="51" t="s">
+      <c r="C181" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="51" t="s">
+      <c r="D181" s="53" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="51">
+      <c r="A182" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="53">
         <v>245</v>
       </c>
-      <c r="C182" s="51" t="s">
+      <c r="C182" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="D182" s="51" t="s">
+      <c r="D182" s="53" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B183" s="51">
+      <c r="A183" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="53">
         <v>246</v>
       </c>
-      <c r="C183" s="51" t="s">
+      <c r="C183" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="D183" s="51" t="s">
+      <c r="D183" s="53" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" s="51">
+      <c r="A184" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" s="53">
         <v>247</v>
       </c>
-      <c r="C184" s="51" t="s">
+      <c r="C184" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="D184" s="51" t="s">
+      <c r="D184" s="53" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" s="51">
+      <c r="A185" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="53">
         <v>248</v>
       </c>
-      <c r="C185" s="51" t="s">
+      <c r="C185" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="D185" s="51" t="s">
+      <c r="D185" s="53" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B186" s="51">
+      <c r="A186" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="53">
         <v>249</v>
       </c>
-      <c r="C186" s="51" t="s">
+      <c r="C186" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="D186" s="51" t="s">
+      <c r="D186" s="53" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B187" s="51">
+      <c r="A187" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="53">
         <v>250</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="D187" s="51" t="s">
+      <c r="D187" s="53" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B188" s="51">
+      <c r="A188" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" s="53">
         <v>251</v>
       </c>
-      <c r="C188" s="51" t="s">
+      <c r="C188" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="D188" s="51" t="s">
+      <c r="D188" s="53" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B189" s="51">
+      <c r="A189" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="53">
         <v>252</v>
       </c>
-      <c r="C189" s="51" t="s">
+      <c r="C189" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="D189" s="51" t="s">
+      <c r="D189" s="53" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B190" s="51">
+      <c r="A190" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="53">
         <v>253</v>
       </c>
-      <c r="C190" s="51" t="s">
+      <c r="C190" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="D190" s="51" t="s">
+      <c r="D190" s="53" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B191" s="51">
+      <c r="A191" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" s="53">
         <v>254</v>
       </c>
-      <c r="C191" s="51" t="s">
+      <c r="C191" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="D191" s="51" t="s">
+      <c r="D191" s="53" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B192" s="51">
+      <c r="A192" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="53">
         <v>255</v>
       </c>
-      <c r="C192" s="51" t="s">
+      <c r="C192" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="D192" s="51" t="s">
+      <c r="D192" s="53" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B193" s="51">
+      <c r="A193" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" s="53">
         <v>256</v>
       </c>
-      <c r="C193" s="51" t="s">
+      <c r="C193" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="D193" s="51" t="s">
+      <c r="D193" s="53" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B194" s="51">
+      <c r="A194" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" s="53">
         <v>257</v>
       </c>
-      <c r="C194" s="51" t="s">
+      <c r="C194" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="D194" s="51" t="s">
+      <c r="D194" s="53" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B195" s="51">
+      <c r="A195" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" s="53">
         <v>258</v>
       </c>
-      <c r="C195" s="51" t="s">
+      <c r="C195" s="53" t="s">
         <v>393</v>
       </c>
-      <c r="D195" s="51" t="s">
+      <c r="D195" s="53" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B196" s="51">
+      <c r="A196" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" s="53">
         <v>259</v>
       </c>
-      <c r="C196" s="51" t="s">
+      <c r="C196" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="D196" s="51" t="s">
+      <c r="D196" s="53" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B197" s="51">
+      <c r="A197" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="53">
         <v>260</v>
       </c>
-      <c r="C197" s="51" t="s">
+      <c r="C197" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="D197" s="51" t="s">
+      <c r="D197" s="53" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B198" s="51">
+      <c r="A198" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" s="53">
         <v>261</v>
       </c>
-      <c r="C198" s="51" t="s">
+      <c r="C198" s="53" t="s">
         <v>399</v>
       </c>
-      <c r="D198" s="51" t="s">
+      <c r="D198" s="53" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B199" s="51">
+      <c r="A199" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" s="53">
         <v>262</v>
       </c>
-      <c r="C199" s="51" t="s">
+      <c r="C199" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D199" s="51" t="s">
+      <c r="D199" s="53" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B200" s="51">
+      <c r="A200" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" s="53">
         <v>263</v>
       </c>
-      <c r="C200" s="51" t="s">
+      <c r="C200" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="D200" s="51" t="s">
+      <c r="D200" s="53" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B201" s="51">
+      <c r="A201" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="53">
         <v>264</v>
       </c>
-      <c r="C201" s="51" t="s">
+      <c r="C201" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="D201" s="51" t="s">
+      <c r="D201" s="53" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" s="51">
+      <c r="A202" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" s="53">
         <v>265</v>
       </c>
-      <c r="C202" s="51" t="s">
+      <c r="C202" s="53" t="s">
         <v>407</v>
       </c>
-      <c r="D202" s="51" t="s">
+      <c r="D202" s="53" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B203" s="51">
+      <c r="A203" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" s="53">
         <v>266</v>
       </c>
-      <c r="C203" s="51" t="s">
+      <c r="C203" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="D203" s="51" t="s">
+      <c r="D203" s="53" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204" s="51">
+      <c r="A204" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" s="53">
         <v>267</v>
       </c>
-      <c r="C204" s="51" t="s">
+      <c r="C204" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="D204" s="51" t="s">
+      <c r="D204" s="53" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B205" s="51">
+      <c r="A205" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" s="53">
         <v>268</v>
       </c>
-      <c r="C205" s="51" t="s">
+      <c r="C205" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="D205" s="51" t="s">
+      <c r="D205" s="53" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B206" s="51">
+      <c r="A206" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" s="53">
         <v>270</v>
       </c>
-      <c r="C206" s="51" t="s">
+      <c r="C206" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="D206" s="51" t="s">
+      <c r="D206" s="53" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207" s="51">
+      <c r="A207" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="53">
         <v>271</v>
       </c>
-      <c r="C207" s="51" t="s">
+      <c r="C207" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="53" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" s="51">
+      <c r="A208" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208" s="53">
         <v>272</v>
       </c>
-      <c r="C208" s="51" t="s">
+      <c r="C208" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="D208" s="51" t="s">
+      <c r="D208" s="53" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" s="51">
+      <c r="A209" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" s="53">
         <v>273</v>
       </c>
-      <c r="C209" s="51" t="s">
+      <c r="C209" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="D209" s="51" t="s">
+      <c r="D209" s="53" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B210" s="51">
+      <c r="A210" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" s="53">
         <v>274</v>
       </c>
-      <c r="C210" s="51" t="s">
+      <c r="C210" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="D210" s="51" t="s">
+      <c r="D210" s="53" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B211" s="51">
+      <c r="A211" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" s="53">
         <v>275</v>
       </c>
-      <c r="C211" s="51" t="s">
+      <c r="C211" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="D211" s="51" t="s">
+      <c r="D211" s="53" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B212" s="51">
+      <c r="A212" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" s="53">
         <v>276</v>
       </c>
-      <c r="C212" s="51" t="s">
+      <c r="C212" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="D212" s="51" t="s">
+      <c r="D212" s="53" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B213" s="51">
+      <c r="A213" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" s="53">
         <v>277</v>
       </c>
-      <c r="C213" s="51" t="s">
+      <c r="C213" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="D213" s="51" t="s">
+      <c r="D213" s="53" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B214" s="51">
+      <c r="A214" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" s="53">
         <v>278</v>
       </c>
-      <c r="C214" s="51" t="s">
+      <c r="C214" s="53" t="s">
         <v>431</v>
       </c>
-      <c r="D214" s="51" t="s">
+      <c r="D214" s="53" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B215" s="51">
+      <c r="A215" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="53">
         <v>279</v>
       </c>
-      <c r="C215" s="51" t="s">
+      <c r="C215" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="D215" s="51" t="s">
+      <c r="D215" s="53" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" s="51">
+      <c r="A216" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" s="53">
         <v>280</v>
       </c>
-      <c r="C216" s="51" t="s">
+      <c r="C216" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D216" s="53" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B217" s="51">
+      <c r="A217" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" s="53">
         <v>281</v>
       </c>
-      <c r="C217" s="51" t="s">
+      <c r="C217" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="D217" s="51" t="s">
+      <c r="D217" s="53" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B218" s="51">
+      <c r="A218" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" s="53">
         <v>282</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="D218" s="51" t="s">
+      <c r="D218" s="53" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B219" s="51">
+      <c r="A219" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" s="53">
         <v>283</v>
       </c>
-      <c r="C219" s="51" t="s">
+      <c r="C219" s="53" t="s">
         <v>441</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="53" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B220" s="51">
+      <c r="A220" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" s="53">
         <v>284</v>
       </c>
-      <c r="C220" s="51" t="s">
+      <c r="C220" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="D220" s="51" t="s">
+      <c r="D220" s="53" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" s="51">
+      <c r="A221" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" s="53">
         <v>285</v>
       </c>
-      <c r="C221" s="51" t="s">
+      <c r="C221" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="53" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B222" s="51">
+      <c r="A222" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" s="53">
         <v>286</v>
       </c>
-      <c r="C222" s="51" t="s">
+      <c r="C222" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="53" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B223" s="51">
+      <c r="A223" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" s="53">
         <v>287</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="53" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B224" s="51">
+      <c r="A224" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" s="53">
         <v>288</v>
       </c>
-      <c r="C224" s="51" t="s">
+      <c r="C224" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="D224" s="51" t="s">
+      <c r="D224" s="53" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B225" s="51">
+      <c r="A225" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" s="53">
         <v>292</v>
       </c>
-      <c r="C225" s="51" t="s">
+      <c r="C225" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="53" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B226" s="51">
+      <c r="A226" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" s="53">
         <v>293</v>
       </c>
-      <c r="C226" s="51" t="s">
+      <c r="C226" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="D226" s="51" t="s">
+      <c r="D226" s="53" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B227" s="51">
+      <c r="A227" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="53">
         <v>294</v>
       </c>
-      <c r="C227" s="51" t="s">
+      <c r="C227" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="53" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B228" s="51">
+      <c r="A228" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="53">
         <v>295</v>
       </c>
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="D228" s="51" t="s">
+      <c r="D228" s="53" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B229" s="51">
+      <c r="A229" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" s="53">
         <v>296</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="D229" s="51" t="s">
+      <c r="D229" s="53" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B230" s="51">
+      <c r="A230" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" s="53">
         <v>297</v>
       </c>
-      <c r="C230" s="51" t="s">
+      <c r="C230" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="D230" s="51" t="s">
+      <c r="D230" s="53" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B231" s="51">
+      <c r="A231" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" s="53">
         <v>298</v>
       </c>
-      <c r="C231" s="51" t="s">
+      <c r="C231" s="53" t="s">
         <v>465</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D231" s="53" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" s="51">
+      <c r="A232" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" s="53">
         <v>299</v>
       </c>
-      <c r="C232" s="51" t="s">
+      <c r="C232" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="D232" s="51" t="s">
+      <c r="D232" s="53" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B233" s="51">
+      <c r="A233" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" s="53">
         <v>300</v>
       </c>
-      <c r="C233" s="51" t="s">
+      <c r="C233" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="D233" s="51" t="s">
+      <c r="D233" s="53" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B234" s="51">
+      <c r="A234" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" s="53">
         <v>301</v>
       </c>
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="53" t="s">
         <v>471</v>
       </c>
-      <c r="D234" s="51" t="s">
+      <c r="D234" s="53" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B235" s="51">
+      <c r="A235" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" s="53">
         <v>302</v>
       </c>
-      <c r="C235" s="51" t="s">
+      <c r="C235" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="D235" s="51" t="s">
+      <c r="D235" s="53" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B236" s="51">
+      <c r="A236" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" s="53">
         <v>303</v>
       </c>
-      <c r="C236" s="51" t="s">
+      <c r="C236" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="D236" s="51" t="s">
+      <c r="D236" s="53" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B237" s="51">
+      <c r="A237" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" s="53">
         <v>304</v>
       </c>
-      <c r="C237" s="51" t="s">
+      <c r="C237" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="D237" s="51" t="s">
+      <c r="D237" s="53" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B238" s="51">
+      <c r="A238" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" s="53">
         <v>305</v>
       </c>
-      <c r="C238" s="51" t="s">
+      <c r="C238" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="D238" s="51" t="s">
+      <c r="D238" s="53" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B239" s="51">
+      <c r="A239" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" s="53">
         <v>306</v>
       </c>
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="D239" s="51" t="s">
+      <c r="D239" s="53" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B240" s="51">
+      <c r="A240" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" s="53">
         <v>307</v>
       </c>
-      <c r="C240" s="51" t="s">
+      <c r="C240" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="D240" s="51" t="s">
+      <c r="D240" s="53" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B241" s="51">
+      <c r="A241" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" s="53">
         <v>308</v>
       </c>
-      <c r="C241" s="51" t="s">
+      <c r="C241" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="D241" s="51" t="s">
+      <c r="D241" s="53" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B242" s="51">
+      <c r="A242" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" s="53">
         <v>309</v>
       </c>
-      <c r="C242" s="51" t="s">
+      <c r="C242" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="D242" s="51" t="s">
+      <c r="D242" s="53" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B243" s="51">
+      <c r="A243" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" s="53">
         <v>310</v>
       </c>
-      <c r="C243" s="51" t="s">
+      <c r="C243" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="D243" s="51" t="s">
+      <c r="D243" s="53" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B244" s="51">
+      <c r="A244" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" s="53">
         <v>311</v>
       </c>
-      <c r="C244" s="51" t="s">
+      <c r="C244" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="D244" s="51" t="s">
+      <c r="D244" s="53" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B245" s="51">
+      <c r="A245" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" s="53">
         <v>312</v>
       </c>
-      <c r="C245" s="51" t="s">
+      <c r="C245" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="D245" s="51" t="s">
+      <c r="D245" s="53" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B246" s="51">
+      <c r="A246" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" s="53">
         <v>313</v>
       </c>
-      <c r="C246" s="51" t="s">
+      <c r="C246" s="53" t="s">
         <v>495</v>
       </c>
-      <c r="D246" s="51" t="s">
+      <c r="D246" s="53" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B247" s="51">
+      <c r="A247" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" s="53">
         <v>314</v>
       </c>
-      <c r="C247" s="51" t="s">
+      <c r="C247" s="53" t="s">
         <v>497</v>
       </c>
-      <c r="D247" s="51" t="s">
+      <c r="D247" s="53" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B248" s="51">
+      <c r="A248" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" s="53">
         <v>315</v>
       </c>
-      <c r="C248" s="51" t="s">
+      <c r="C248" s="53" t="s">
         <v>499</v>
       </c>
-      <c r="D248" s="51" t="s">
+      <c r="D248" s="53" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B249" s="51">
+      <c r="A249" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" s="53">
         <v>316</v>
       </c>
-      <c r="C249" s="51" t="s">
+      <c r="C249" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="D249" s="51" t="s">
+      <c r="D249" s="53" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B250" s="51">
+      <c r="A250" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" s="53">
         <v>317</v>
       </c>
-      <c r="C250" s="51" t="s">
+      <c r="C250" s="53" t="s">
         <v>503</v>
       </c>
-      <c r="D250" s="51" t="s">
+      <c r="D250" s="53" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B251" s="51">
+      <c r="A251" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" s="53">
         <v>318</v>
       </c>
-      <c r="C251" s="51" t="s">
+      <c r="C251" s="53" t="s">
         <v>505</v>
       </c>
-      <c r="D251" s="51" t="s">
+      <c r="D251" s="53" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B252" s="51">
+      <c r="A252" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" s="53">
         <v>319</v>
       </c>
-      <c r="C252" s="51" t="s">
+      <c r="C252" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="D252" s="51" t="s">
+      <c r="D252" s="53" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B253" s="51">
+      <c r="A253" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" s="53">
         <v>320</v>
       </c>
-      <c r="C253" s="51" t="s">
+      <c r="C253" s="53" t="s">
         <v>509</v>
       </c>
-      <c r="D253" s="51" t="s">
+      <c r="D253" s="53" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254" s="51">
+      <c r="A254" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B254" s="53">
         <v>321</v>
       </c>
-      <c r="C254" s="51" t="s">
+      <c r="C254" s="53" t="s">
         <v>511</v>
       </c>
-      <c r="D254" s="51" t="s">
+      <c r="D254" s="53" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B255" s="51">
+      <c r="A255" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255" s="53">
         <v>322</v>
       </c>
-      <c r="C255" s="51" t="s">
+      <c r="C255" s="53" t="s">
         <v>513</v>
       </c>
-      <c r="D255" s="51" t="s">
+      <c r="D255" s="53" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B256" s="51">
+      <c r="A256" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256" s="53">
         <v>323</v>
       </c>
-      <c r="C256" s="51" t="s">
+      <c r="C256" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="D256" s="51" t="s">
+      <c r="D256" s="53" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B257" s="51">
+      <c r="A257" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" s="53">
         <v>324</v>
       </c>
-      <c r="C257" s="51" t="s">
+      <c r="C257" s="53" t="s">
         <v>517</v>
       </c>
-      <c r="D257" s="51" t="s">
+      <c r="D257" s="53" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B258" s="51">
+      <c r="A258" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B258" s="53">
         <v>325</v>
       </c>
-      <c r="C258" s="51" t="s">
+      <c r="C258" s="53" t="s">
         <v>519</v>
       </c>
-      <c r="D258" s="51" t="s">
+      <c r="D258" s="53" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B259" s="51">
+      <c r="A259" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259" s="53">
         <v>326</v>
       </c>
-      <c r="C259" s="51" t="s">
+      <c r="C259" s="53" t="s">
         <v>521</v>
       </c>
-      <c r="D259" s="51" t="s">
+      <c r="D259" s="53" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260" s="51">
+      <c r="A260" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260" s="53">
         <v>327</v>
       </c>
-      <c r="C260" s="51" t="s">
+      <c r="C260" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="D260" s="51" t="s">
+      <c r="D260" s="53" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B261" s="51">
+      <c r="A261" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" s="53">
         <v>328</v>
       </c>
-      <c r="C261" s="51" t="s">
+      <c r="C261" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="D261" s="51" t="s">
+      <c r="D261" s="53" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B262" s="51">
+      <c r="A262" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" s="53">
         <v>329</v>
       </c>
-      <c r="C262" s="51" t="s">
+      <c r="C262" s="53" t="s">
         <v>527</v>
       </c>
-      <c r="D262" s="51" t="s">
+      <c r="D262" s="53" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B263" s="51">
+      <c r="A263" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263" s="53">
         <v>330</v>
       </c>
-      <c r="C263" s="51" t="s">
+      <c r="C263" s="53" t="s">
         <v>529</v>
       </c>
-      <c r="D263" s="51" t="s">
+      <c r="D263" s="53" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B264" s="51">
+      <c r="A264" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B264" s="53">
         <v>331</v>
       </c>
-      <c r="C264" s="51" t="s">
+      <c r="C264" s="53" t="s">
         <v>531</v>
       </c>
-      <c r="D264" s="51" t="s">
+      <c r="D264" s="53" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B265" s="51">
+      <c r="A265" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B265" s="53">
         <v>332</v>
       </c>
-      <c r="C265" s="51" t="s">
+      <c r="C265" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="D265" s="51" t="s">
+      <c r="D265" s="53" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B266" s="51">
+      <c r="A266" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" s="53">
         <v>333</v>
       </c>
-      <c r="C266" s="51" t="s">
+      <c r="C266" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="D266" s="51" t="s">
+      <c r="D266" s="53" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B267" s="51">
+      <c r="A267" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="53">
         <v>334</v>
       </c>
-      <c r="C267" s="51" t="s">
+      <c r="C267" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="D267" s="51" t="s">
+      <c r="D267" s="53" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B268" s="51">
+      <c r="A268" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" s="53">
         <v>335</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="D268" s="51" t="s">
+      <c r="D268" s="53" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B269" s="51">
+      <c r="A269" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" s="53">
         <v>336</v>
       </c>
-      <c r="C269" s="51" t="s">
+      <c r="C269" s="53" t="s">
         <v>541</v>
       </c>
-      <c r="D269" s="51" t="s">
+      <c r="D269" s="53" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B270" s="51">
+      <c r="A270" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" s="53">
         <v>337</v>
       </c>
-      <c r="C270" s="51" t="s">
+      <c r="C270" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="D270" s="51" t="s">
+      <c r="D270" s="53" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B271" s="51">
+      <c r="A271" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271" s="53">
         <v>338</v>
       </c>
-      <c r="C271" s="51" t="s">
+      <c r="C271" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="D271" s="51" t="s">
+      <c r="D271" s="53" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B272" s="51">
+      <c r="A272" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" s="53">
         <v>339</v>
       </c>
-      <c r="C272" s="51" t="s">
+      <c r="C272" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="D272" s="51" t="s">
+      <c r="D272" s="53" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B273" s="51">
+      <c r="A273" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273" s="53">
         <v>340</v>
       </c>
-      <c r="C273" s="51" t="s">
+      <c r="C273" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="D273" s="51" t="s">
+      <c r="D273" s="53" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B274" s="51">
+      <c r="A274" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B274" s="53">
         <v>341</v>
       </c>
-      <c r="C274" s="51" t="s">
+      <c r="C274" s="53" t="s">
         <v>551</v>
       </c>
-      <c r="D274" s="51" t="s">
+      <c r="D274" s="53" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B275" s="51">
+      <c r="A275" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275" s="53">
         <v>342</v>
       </c>
-      <c r="C275" s="51" t="s">
+      <c r="C275" s="53" t="s">
         <v>553</v>
       </c>
-      <c r="D275" s="51" t="s">
+      <c r="D275" s="53" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B276" s="51">
+      <c r="A276" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276" s="53">
         <v>343</v>
       </c>
-      <c r="C276" s="51" t="s">
+      <c r="C276" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="D276" s="51" t="s">
+      <c r="D276" s="53" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B277" s="51">
+      <c r="A277" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" s="53">
         <v>344</v>
       </c>
-      <c r="C277" s="51" t="s">
+      <c r="C277" s="53" t="s">
         <v>557</v>
       </c>
-      <c r="D277" s="51" t="s">
+      <c r="D277" s="53" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B278" s="51">
+      <c r="A278" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278" s="53">
         <v>345</v>
       </c>
-      <c r="C278" s="51" t="s">
+      <c r="C278" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="D278" s="51" t="s">
+      <c r="D278" s="53" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279" s="51">
+      <c r="A279" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B279" s="53">
         <v>346</v>
       </c>
-      <c r="C279" s="51" t="s">
+      <c r="C279" s="53" t="s">
         <v>561</v>
       </c>
-      <c r="D279" s="51" t="s">
+      <c r="D279" s="53" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B280" s="51">
+      <c r="A280" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B280" s="53">
         <v>347</v>
       </c>
-      <c r="C280" s="51" t="s">
+      <c r="C280" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="D280" s="51" t="s">
+      <c r="D280" s="53" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B281" s="51">
+      <c r="A281" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B281" s="53">
         <v>348</v>
       </c>
-      <c r="C281" s="51" t="s">
+      <c r="C281" s="53" t="s">
         <v>565</v>
       </c>
-      <c r="D281" s="51" t="s">
+      <c r="D281" s="53" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B282" s="51">
+      <c r="A282" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B282" s="53">
         <v>349</v>
       </c>
-      <c r="C282" s="51" t="s">
+      <c r="C282" s="53" t="s">
         <v>567</v>
       </c>
-      <c r="D282" s="51" t="s">
+      <c r="D282" s="53" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B283" s="51">
+      <c r="A283" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B283" s="53">
         <v>350</v>
       </c>
-      <c r="C283" s="51" t="s">
+      <c r="C283" s="53" t="s">
         <v>569</v>
       </c>
-      <c r="D283" s="51" t="s">
+      <c r="D283" s="53" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B284" s="51">
+      <c r="A284" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" s="53">
         <v>351</v>
       </c>
-      <c r="C284" s="51" t="s">
+      <c r="C284" s="53" t="s">
         <v>571</v>
       </c>
-      <c r="D284" s="51" t="s">
+      <c r="D284" s="53" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B285" s="51">
+      <c r="A285" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" s="53">
         <v>356</v>
       </c>
-      <c r="C285" s="51" t="s">
+      <c r="C285" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="D285" s="51" t="s">
+      <c r="D285" s="53" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B286" s="51">
+      <c r="A286" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B286" s="53">
         <v>357</v>
       </c>
-      <c r="C286" s="51" t="s">
+      <c r="C286" s="53" t="s">
         <v>575</v>
       </c>
-      <c r="D286" s="51" t="s">
+      <c r="D286" s="53" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B287" s="51">
+      <c r="A287" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" s="53">
         <v>358</v>
       </c>
-      <c r="C287" s="51" t="s">
+      <c r="C287" s="53" t="s">
         <v>577</v>
       </c>
-      <c r="D287" s="51" t="s">
+      <c r="D287" s="53" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B288" s="51">
+      <c r="A288" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" s="53">
         <v>359</v>
       </c>
-      <c r="C288" s="51" t="s">
+      <c r="C288" s="53" t="s">
         <v>579</v>
       </c>
-      <c r="D288" s="51" t="s">
+      <c r="D288" s="53" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B289" s="51">
+      <c r="A289" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" s="53">
         <v>372</v>
       </c>
-      <c r="C289" s="51" t="s">
+      <c r="C289" s="53" t="s">
         <v>581</v>
       </c>
-      <c r="D289" s="51" t="s">
+      <c r="D289" s="53" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B290" s="51">
+      <c r="A290" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290" s="53">
         <v>385</v>
       </c>
-      <c r="C290" s="51" t="s">
+      <c r="C290" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="D290" s="51" t="s">
+      <c r="D290" s="53" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B291" s="51">
+      <c r="A291" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291" s="53">
         <v>396</v>
       </c>
-      <c r="C291" s="51" t="s">
+      <c r="C291" s="53" t="s">
         <v>585</v>
       </c>
-      <c r="D291" s="51" t="s">
+      <c r="D291" s="53" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B292" s="51">
+      <c r="A292" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292" s="53">
         <v>397</v>
       </c>
-      <c r="C292" s="51" t="s">
+      <c r="C292" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="D292" s="51" t="s">
+      <c r="D292" s="53" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B293" s="51">
+      <c r="A293" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293" s="53">
         <v>406</v>
       </c>
-      <c r="C293" s="51" t="s">
+      <c r="C293" s="53" t="s">
         <v>589</v>
       </c>
-      <c r="D293" s="51" t="s">
+      <c r="D293" s="53" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B294" s="51">
+      <c r="A294" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" s="53">
         <v>407</v>
       </c>
-      <c r="C294" s="51" t="s">
+      <c r="C294" s="53" t="s">
         <v>591</v>
       </c>
-      <c r="D294" s="51" t="s">
+      <c r="D294" s="53" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B295" s="51">
+      <c r="A295" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" s="53">
         <v>416</v>
       </c>
-      <c r="C295" s="51" t="s">
+      <c r="C295" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="D295" s="51" t="s">
+      <c r="D295" s="53" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B296" s="51">
+      <c r="A296" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296" s="53">
         <v>417</v>
       </c>
-      <c r="C296" s="51" t="s">
+      <c r="C296" s="53" t="s">
         <v>595</v>
       </c>
-      <c r="D296" s="51" t="s">
+      <c r="D296" s="53" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B297" s="51">
+      <c r="A297" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" s="53">
         <v>418</v>
       </c>
-      <c r="C297" s="51" t="s">
+      <c r="C297" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="D297" s="51" t="s">
+      <c r="D297" s="53" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B298" s="51">
+      <c r="A298" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298" s="53">
         <v>673</v>
       </c>
-      <c r="C298" s="51" t="s">
+      <c r="C298" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="D298" s="51" t="s">
+      <c r="D298" s="53" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B299" s="51">
+      <c r="A299" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" s="53">
         <v>674</v>
       </c>
-      <c r="C299" s="51" t="s">
+      <c r="C299" s="53" t="s">
         <v>601</v>
       </c>
-      <c r="D299" s="51" t="s">
+      <c r="D299" s="53" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B300" s="51">
+      <c r="A300" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" s="53">
         <v>675</v>
       </c>
-      <c r="C300" s="51" t="s">
+      <c r="C300" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="D300" s="51" t="s">
+      <c r="D300" s="53" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B301" s="51">
+      <c r="A301" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" s="53">
         <v>676</v>
       </c>
-      <c r="C301" s="51" t="s">
+      <c r="C301" s="53" t="s">
         <v>605</v>
       </c>
-      <c r="D301" s="51" t="s">
+      <c r="D301" s="53" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B302" s="51">
+      <c r="A302" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" s="53">
         <v>677</v>
       </c>
-      <c r="C302" s="51" t="s">
+      <c r="C302" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="D302" s="51" t="s">
+      <c r="D302" s="53" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B303" s="51">
+      <c r="A303" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" s="53">
         <v>678</v>
       </c>
-      <c r="C303" s="51" t="s">
+      <c r="C303" s="53" t="s">
         <v>609</v>
       </c>
-      <c r="D303" s="51" t="s">
+      <c r="D303" s="53" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B304" s="51">
+      <c r="A304" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" s="53">
         <v>679</v>
       </c>
-      <c r="C304" s="51" t="s">
+      <c r="C304" s="53" t="s">
         <v>611</v>
       </c>
-      <c r="D304" s="51" t="s">
+      <c r="D304" s="53" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B305" s="51">
+      <c r="A305" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" s="53">
         <v>680</v>
       </c>
-      <c r="C305" s="51" t="s">
+      <c r="C305" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="D305" s="51" t="s">
+      <c r="D305" s="53" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B306" s="51">
+      <c r="A306" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" s="53">
         <v>681</v>
       </c>
-      <c r="C306" s="51" t="s">
+      <c r="C306" s="53" t="s">
         <v>615</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="D306" s="53" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B307" s="51">
+      <c r="A307" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" s="53">
         <v>682</v>
       </c>
-      <c r="C307" s="51" t="s">
+      <c r="C307" s="53" t="s">
         <v>617</v>
       </c>
-      <c r="D307" s="51" t="s">
+      <c r="D307" s="53" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="308">
-      <c r="B308" s="51">
-        <v>1312</v>
-      </c>
-      <c r="C308" s="51" t="s">
+      <c r="B308" s="53">
+        <v>1927</v>
+      </c>
+      <c r="C308" s="53" t="s">
         <v>619</v>
       </c>
-      <c r="D308" s="51" t="s">
+      <c r="D308" s="53" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B309" s="51">
-        <v>1321</v>
-      </c>
-      <c r="C309" s="51" t="s">
+      <c r="A309" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309" s="53">
+        <v>1944</v>
+      </c>
+      <c r="C309" s="53" t="s">
         <v>621</v>
       </c>
-      <c r="D309" s="51" t="s">
+      <c r="D309" s="53" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B310" s="51">
-        <v>1322</v>
-      </c>
-      <c r="C310" s="51" t="s">
+      <c r="A310" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" s="53">
+        <v>2226</v>
+      </c>
+      <c r="C310" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="D310" s="51" t="s">
+      <c r="D310" s="53" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B311" s="51">
-        <v>1331</v>
-      </c>
-      <c r="C311" s="51" t="s">
+      <c r="A311" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" s="53">
+        <v>2232</v>
+      </c>
+      <c r="C311" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="D311" s="51" t="s">
+      <c r="D311" s="53" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B312" s="51">
-        <v>1344</v>
-      </c>
-      <c r="C312" s="51" t="s">
+      <c r="A312" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312" s="53">
+        <v>2250</v>
+      </c>
+      <c r="C312" s="53" t="s">
         <v>627</v>
       </c>
-      <c r="D312" s="51" t="s">
+      <c r="D312" s="53" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B313" s="51">
-        <v>1628</v>
-      </c>
-      <c r="C313" s="51" t="s">
+      <c r="A313" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" s="53">
+        <v>2257</v>
+      </c>
+      <c r="C313" s="53" t="s">
         <v>629</v>
       </c>
-      <c r="D313" s="51" t="s">
+      <c r="D313" s="53" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B314" s="51">
-        <v>1927</v>
-      </c>
-      <c r="C314" s="51" t="s">
+      <c r="A314" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314" s="53">
+        <v>2276</v>
+      </c>
+      <c r="C314" s="53" t="s">
         <v>631</v>
       </c>
-      <c r="D314" s="51" t="s">
+      <c r="D314" s="53" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B315" s="50">
-        <v>1944</v>
-      </c>
-      <c r="C315" s="51" t="s">
+      <c r="A315" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315" s="53">
+        <v>2282</v>
+      </c>
+      <c r="C315" s="53" t="s">
         <v>633</v>
       </c>
-      <c r="D315" s="51" t="s">
+      <c r="D315" s="53" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B316" s="49">
-        <v>2226</v>
-      </c>
-      <c r="C316" s="51" t="s">
+      <c r="A316" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" s="53">
+        <v>2283</v>
+      </c>
+      <c r="C316" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="D316" s="51" t="s">
+      <c r="D316" s="53" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" s="52">
+        <v>2313</v>
+      </c>
+      <c r="C317" s="53" t="s">
+        <v>637</v>
+      </c>
+      <c r="D317" s="53" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B318" s="51">
+        <v>2319</v>
+      </c>
+      <c r="C318" s="53" t="s">
+        <v>639</v>
+      </c>
+      <c r="D318" s="53" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" s="51">
+        <v>2320</v>
+      </c>
+      <c r="C319" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="D319" s="53" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" s="50">
+        <v>2321</v>
+      </c>
+      <c r="C320" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="D320" s="53" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321" s="50">
+        <v>2333</v>
+      </c>
+      <c r="C321" s="53" t="s">
+        <v>645</v>
+      </c>
+      <c r="D321" s="53" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322" s="50">
+        <v>2339</v>
+      </c>
+      <c r="C322" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="D322" s="53" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323" s="49">
+        <v>2639</v>
+      </c>
+      <c r="C323" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="D323" s="53" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
   <si>
     <t>${name}</t>
   </si>
@@ -1889,118 +1889,136 @@
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Stand_to_Sit_Transition_M.anim</t>
   </si>
   <si>
+    <t>Pre_EffectPoison</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPoison.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPoisonSub</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPoisonSub.prefab</t>
+  </si>
+  <si>
+    <t>Anim_68e53aa0d0dde601dc6ae7633158645e</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbx</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_2.prefab</t>
+  </si>
+  <si>
+    <t>Pre_MonsterColonyLower</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterColonyLower.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectHit1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectHit1.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_Unsteady_Walk</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Unsteady_Walk.anim</t>
+  </si>
+  <si>
+    <t>Pre_EffectHitDefault</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectHitDefault.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_walking_man</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
+  </si>
+  <si>
+    <t>Pre_UIEntityHealthInfo</t>
+  </si>
+  <si>
+    <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectExpiosion1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExpiosion1.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerBuff2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerBuff2.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_running</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
+  </si>
+  <si>
+    <t>Pre_PlayerBuffEffect</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/PlayerBuffEffect.prefab</t>
+  </si>
+  <si>
     <t>Sp_monster0_texture</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.fbm/monster0_texture.png</t>
   </si>
   <si>
+    <t>Pre_EffectExpiosionHit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExpiosionHit.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectFireBuff</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectFireBuff.prefab</t>
+  </si>
+  <si>
     <t>Pre_PlayerBuffEffect_1</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/PlayerBuffEffect_1.prefab</t>
   </si>
   <si>
+    <t>Pre_EffectExpiosionBuff</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExpiosionBuff.prefab</t>
+  </si>
+  <si>
     <t>Sp_material_0</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbm/material_0.png</t>
-  </si>
-  <si>
-    <t>Pre_EffectPoison</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPoison.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPoisonSub</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPoisonSub.prefab</t>
-  </si>
-  <si>
-    <t>Anim_68e53aa0d0dde601dc6ae7633158645e</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbx</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerSkill2</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerSkill2.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerSkill2_1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerSkill2_2</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_2.prefab</t>
-  </si>
-  <si>
-    <t>Pre_MonsterColonyLower</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterColonyLower.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectHit1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectHit1.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_Unsteady_Walk</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Unsteady_Walk.anim</t>
-  </si>
-  <si>
-    <t>Pre_EffectHitDefault</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectHitDefault.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_walking_man</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
-  </si>
-  <si>
-    <t>Pre_UIEntityHealthInfo</t>
-  </si>
-  <si>
-    <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectExpiosion1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectExpiosion1.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerBuff2</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerBuff2.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_running</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
-  </si>
-  <si>
-    <t>Pre_PlayerBuffEffect</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/PlayerBuffEffect.prefab</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2758,6 +2776,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -3117,7 +3141,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -3125,4565 +3149,4607 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="49"/>
-    <col min="4" max="4" width="100" customWidth="1" style="49"/>
+    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="51"/>
+    <col min="4" max="4" width="100" customWidth="1" style="51"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="52">
+      <c r="A6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="54">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="52">
+      <c r="A7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="54">
         <v>2</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="52">
+      <c r="A8" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="54">
         <v>3</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="55" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="52">
+      <c r="A9" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="54">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="52">
+      <c r="A10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="54">
         <v>12</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="52">
+      <c r="A11" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="54">
         <v>13</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="52">
+      <c r="A12" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="54">
         <v>14</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="51" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="52">
-        <v>15</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="54">
+        <v>15</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="51" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="52">
+      <c r="A14" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="54">
         <v>21</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="52">
+      <c r="A15" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="54">
         <v>22</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="51" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="52">
+      <c r="A16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="54">
         <v>23</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="51" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="52">
+      <c r="A17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="54">
         <v>24</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="52">
+      <c r="A18" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="54">
         <v>25</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="52">
+      <c r="A19" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="54">
         <v>26</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="52">
+      <c r="A20" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54">
         <v>31</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="51" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="52">
+      <c r="A21" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="54">
         <v>41</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="52">
+      <c r="A22" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="54">
         <v>42</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="51" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="52">
+      <c r="A23" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="54">
         <v>43</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="52">
+      <c r="A24" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="54">
         <v>44</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="52">
+      <c r="A25" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="54">
         <v>76</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="52">
+      <c r="A26" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="54">
         <v>77</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="52">
+      <c r="A27" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="54">
         <v>78</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="54">
+      <c r="A28" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="56">
         <v>79</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="51" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="54">
+      <c r="A29" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="56">
         <v>80</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="54">
+      <c r="A30" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="56">
         <v>81</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="49">
+      <c r="A31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="51">
         <v>82</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="51" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="49">
+      <c r="A32" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="51">
         <v>83</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="49">
+      <c r="A33" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="51">
         <v>84</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="49">
+      <c r="A34" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="51">
         <v>85</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="51" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="49">
+      <c r="A35" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="51">
         <v>86</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="49">
+      <c r="A36" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="51">
         <v>87</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="49">
+      <c r="A37" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="51">
         <v>88</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="49">
+      <c r="A38" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="51">
         <v>89</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="49">
+      <c r="A39" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="51">
         <v>90</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="49">
+      <c r="A40" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="51">
         <v>91</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="51" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="49">
+      <c r="A41" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="51">
         <v>92</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="49">
+      <c r="A42" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="51">
         <v>93</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="49">
+      <c r="A43" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="51">
         <v>94</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="49">
+      <c r="A44" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="51">
         <v>95</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="49">
+      <c r="A45" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="51">
         <v>97</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="51" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="49">
+      <c r="A46" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="51">
         <v>98</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="49">
+      <c r="A47" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="51">
         <v>99</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="51" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="49">
+      <c r="A48" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="51">
         <v>105</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="49">
+      <c r="A49" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="51">
         <v>106</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="51" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="49">
+      <c r="A50" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="51">
         <v>107</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="51" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="49">
+      <c r="A51" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="51">
         <v>108</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="49">
+      <c r="A52" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="51">
         <v>109</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="51" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="49">
+      <c r="A53" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="51">
         <v>110</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="51" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="49">
+      <c r="A54" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="51">
         <v>112</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="51" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="49">
+      <c r="A55" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="51">
         <v>113</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="51" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="49">
+      <c r="A56" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="51">
         <v>115</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="49">
+      <c r="A57" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="51">
         <v>116</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="51" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="49">
+      <c r="A58" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="51">
         <v>117</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="51" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="49">
+      <c r="A59" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="51">
         <v>118</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="49">
+      <c r="A60" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="51">
         <v>119</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="51" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="49">
+      <c r="A61" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="51">
         <v>120</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="51" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="49">
+      <c r="A62" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="51">
         <v>121</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="51" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="49">
+      <c r="A63" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="51">
         <v>122</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="51" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="49">
+      <c r="A64" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="51">
         <v>123</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="49">
+      <c r="A65" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="51">
         <v>124</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="49">
+      <c r="A66" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="51">
         <v>125</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="51" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="49">
+      <c r="A67" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="51">
         <v>126</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="51" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="49">
+      <c r="A68" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="51">
         <v>127</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="51" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="49">
+      <c r="A69" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="51">
         <v>128</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="51" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="49">
+      <c r="A70" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="51">
         <v>129</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="51" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="49">
+      <c r="A71" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="51">
         <v>130</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="49">
+      <c r="A72" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="51">
         <v>131</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="51" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="49">
+      <c r="A73" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="51">
         <v>132</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="51" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="49">
+      <c r="A74" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="51">
         <v>133</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="49">
+      <c r="A75" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="51">
         <v>134</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="51" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="49">
+      <c r="A76" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="51">
         <v>135</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="51" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="49">
+      <c r="A77" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="51">
         <v>136</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="51" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="49">
+      <c r="A78" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="51">
         <v>137</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="51" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="49">
+      <c r="A79" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="51">
         <v>138</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="51" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="49">
+      <c r="A80" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="51">
         <v>139</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="51" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="49">
+      <c r="A81" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="51">
         <v>140</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="51" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="49">
+      <c r="A82" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="51">
         <v>141</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="49" t="s">
+      <c r="D82" s="51" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="49">
+      <c r="A83" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="51">
         <v>142</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="51" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="49">
+      <c r="A84" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="51">
         <v>143</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="51" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="49">
+      <c r="A85" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="51">
         <v>144</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="51" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="49">
+      <c r="A86" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="51">
         <v>145</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="51" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="49">
+      <c r="A87" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="51">
         <v>146</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="51" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="49">
+      <c r="A88" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="51">
         <v>147</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="51" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="49">
+      <c r="A89" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="51">
         <v>148</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="51" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="49">
+      <c r="A90" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="51">
         <v>149</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="51" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="49">
+      <c r="A91" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="51">
         <v>150</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="51" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="49">
+      <c r="A92" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="51">
         <v>151</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="51" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="49">
+      <c r="A93" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="51">
         <v>152</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="51" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="49">
+      <c r="A94" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="51">
         <v>153</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="51" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="49">
+      <c r="A95" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="51">
         <v>154</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="51" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="49">
+      <c r="A96" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="51">
         <v>155</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="51" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="49">
+      <c r="A97" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="51">
         <v>156</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="51" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="49">
+      <c r="A98" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="51">
         <v>157</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="51" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="49">
+      <c r="A99" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="51">
         <v>158</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="51" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="49">
+      <c r="A100" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="51">
         <v>159</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="51" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="49">
+      <c r="A101" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="51">
         <v>160</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="51" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="49">
+      <c r="A102" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="51">
         <v>161</v>
       </c>
-      <c r="C102" s="49" t="s">
+      <c r="C102" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="49" t="s">
+      <c r="D102" s="51" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="49">
+      <c r="A103" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="51">
         <v>162</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="49" t="s">
+      <c r="D103" s="51" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="49">
+      <c r="A104" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="51">
         <v>163</v>
       </c>
-      <c r="C104" s="49" t="s">
+      <c r="C104" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="49">
+      <c r="A105" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="51">
         <v>164</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D105" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="49">
+      <c r="A106" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="51">
         <v>165</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="51" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="49">
+      <c r="A107" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="51">
         <v>166</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="49" t="s">
+      <c r="D107" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="49">
+      <c r="A108" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="51">
         <v>167</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="49" t="s">
+      <c r="D108" s="51" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="49">
+      <c r="A109" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="51">
         <v>168</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="D109" s="49" t="s">
+      <c r="D109" s="51" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="49">
+      <c r="A110" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="51">
         <v>169</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C110" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="49" t="s">
+      <c r="D110" s="51" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="49">
+      <c r="A111" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="51">
         <v>170</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D111" s="49" t="s">
+      <c r="D111" s="51" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="49">
+      <c r="A112" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="51">
         <v>171</v>
       </c>
-      <c r="C112" s="49" t="s">
+      <c r="C112" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="49" t="s">
+      <c r="D112" s="51" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="49">
+      <c r="A113" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="51">
         <v>172</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="D113" s="49" t="s">
+      <c r="D113" s="51" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="49">
+      <c r="A114" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="51">
         <v>173</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C114" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="49" t="s">
+      <c r="D114" s="51" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="49">
+      <c r="A115" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="51">
         <v>174</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="51" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="49">
+      <c r="A116" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="51">
         <v>175</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D116" s="49" t="s">
+      <c r="D116" s="51" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="49">
+      <c r="A117" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="51">
         <v>176</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D117" s="49" t="s">
+      <c r="D117" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="49">
+      <c r="A118" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="51">
         <v>177</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="49" t="s">
+      <c r="D118" s="51" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="49">
+      <c r="A119" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="51">
         <v>178</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="49" t="s">
+      <c r="D119" s="51" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="49">
+      <c r="A120" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="51">
         <v>179</v>
       </c>
-      <c r="C120" s="49" t="s">
+      <c r="C120" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D120" s="49" t="s">
+      <c r="D120" s="51" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="49">
+      <c r="A121" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="51">
         <v>181</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="D121" s="49" t="s">
+      <c r="D121" s="51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="49">
+      <c r="A122" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="51">
         <v>185</v>
       </c>
-      <c r="C122" s="49" t="s">
+      <c r="C122" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D122" s="49" t="s">
+      <c r="D122" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="49">
+      <c r="A123" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="51">
         <v>186</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D123" s="49" t="s">
+      <c r="D123" s="51" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="49">
+      <c r="A124" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="51">
         <v>187</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D124" s="49" t="s">
+      <c r="D124" s="51" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="49">
+      <c r="A125" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="51">
         <v>188</v>
       </c>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D125" s="49" t="s">
+      <c r="D125" s="51" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="49">
+      <c r="A126" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="51">
         <v>189</v>
       </c>
-      <c r="C126" s="49" t="s">
+      <c r="C126" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D126" s="49" t="s">
+      <c r="D126" s="51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="49">
+      <c r="A127" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="51">
         <v>190</v>
       </c>
-      <c r="C127" s="49" t="s">
+      <c r="C127" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="D127" s="49" t="s">
+      <c r="D127" s="51" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="49">
+      <c r="A128" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="51">
         <v>191</v>
       </c>
-      <c r="C128" s="49" t="s">
+      <c r="C128" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D128" s="49" t="s">
+      <c r="D128" s="51" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="49">
+      <c r="A129" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="51">
         <v>192</v>
       </c>
-      <c r="C129" s="49" t="s">
+      <c r="C129" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="D129" s="49" t="s">
+      <c r="D129" s="51" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="49">
+      <c r="A130" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="51">
         <v>193</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C130" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="D130" s="49" t="s">
+      <c r="D130" s="51" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="49">
+      <c r="A131" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="51">
         <v>194</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="C131" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="D131" s="49" t="s">
+      <c r="D131" s="51" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="49">
+      <c r="A132" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="51">
         <v>195</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D132" s="49" t="s">
+      <c r="D132" s="51" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="49">
+      <c r="A133" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="51">
         <v>196</v>
       </c>
-      <c r="C133" s="49" t="s">
+      <c r="C133" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="D133" s="49" t="s">
+      <c r="D133" s="51" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="49">
+      <c r="A134" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="51">
         <v>197</v>
       </c>
-      <c r="C134" s="49" t="s">
+      <c r="C134" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D134" s="49" t="s">
+      <c r="D134" s="51" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="49">
+      <c r="A135" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="51">
         <v>198</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D135" s="49" t="s">
+      <c r="D135" s="51" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="49">
+      <c r="A136" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="51">
         <v>199</v>
       </c>
-      <c r="C136" s="49" t="s">
+      <c r="C136" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D136" s="49" t="s">
+      <c r="D136" s="51" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="49">
+      <c r="A137" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="51">
         <v>200</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D137" s="49" t="s">
+      <c r="D137" s="51" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="49">
+      <c r="A138" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="51">
         <v>201</v>
       </c>
-      <c r="C138" s="49" t="s">
+      <c r="C138" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="51" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="49">
+      <c r="A139" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="51">
         <v>202</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D139" s="51" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="49">
+      <c r="A140" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="51">
         <v>203</v>
       </c>
-      <c r="C140" s="49" t="s">
+      <c r="C140" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="51" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="49">
+      <c r="A141" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="51">
         <v>204</v>
       </c>
-      <c r="C141" s="49" t="s">
+      <c r="C141" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="D141" s="49" t="s">
+      <c r="D141" s="51" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="49">
+      <c r="A142" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="51">
         <v>205</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="51" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="49">
+      <c r="A143" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="51">
         <v>206</v>
       </c>
-      <c r="C143" s="49" t="s">
+      <c r="C143" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="D143" s="49" t="s">
+      <c r="D143" s="51" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="49">
+      <c r="A144" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="51">
         <v>207</v>
       </c>
-      <c r="C144" s="49" t="s">
+      <c r="C144" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="D144" s="49" t="s">
+      <c r="D144" s="51" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="49">
+      <c r="A145" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="51">
         <v>208</v>
       </c>
-      <c r="C145" s="49" t="s">
+      <c r="C145" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="D145" s="49" t="s">
+      <c r="D145" s="51" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="49">
+      <c r="A146" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="51">
         <v>209</v>
       </c>
-      <c r="C146" s="49" t="s">
+      <c r="C146" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="D146" s="49" t="s">
+      <c r="D146" s="51" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="49">
+      <c r="A147" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="51">
         <v>210</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="D147" s="49" t="s">
+      <c r="D147" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="49">
+      <c r="A148" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="51">
         <v>211</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="D148" s="49" t="s">
+      <c r="D148" s="51" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="49">
+      <c r="A149" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="51">
         <v>212</v>
       </c>
-      <c r="C149" s="49" t="s">
+      <c r="C149" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D149" s="49" t="s">
+      <c r="D149" s="51" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="49">
+      <c r="A150" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="51">
         <v>213</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D150" s="49" t="s">
+      <c r="D150" s="51" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="49">
+      <c r="A151" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="51">
         <v>214</v>
       </c>
-      <c r="C151" s="49" t="s">
+      <c r="C151" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="51" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="49">
+      <c r="A152" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="51">
         <v>215</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C152" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="D152" s="49" t="s">
+      <c r="D152" s="51" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="49">
+      <c r="A153" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="51">
         <v>216</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="D153" s="49" t="s">
+      <c r="D153" s="51" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="49">
+      <c r="A154" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="51">
         <v>217</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="49" t="s">
+      <c r="D154" s="51" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="49">
+      <c r="A155" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="51">
         <v>218</v>
       </c>
-      <c r="C155" s="49" t="s">
+      <c r="C155" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="D155" s="49" t="s">
+      <c r="D155" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="49">
+      <c r="A156" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="51">
         <v>219</v>
       </c>
-      <c r="C156" s="49" t="s">
+      <c r="C156" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="D156" s="49" t="s">
+      <c r="D156" s="51" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="49">
+      <c r="A157" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="51">
         <v>220</v>
       </c>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="D157" s="49" t="s">
+      <c r="D157" s="51" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="49">
+      <c r="A158" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="51">
         <v>221</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="D158" s="49" t="s">
+      <c r="D158" s="51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" s="49">
+      <c r="A159" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="51">
         <v>222</v>
       </c>
-      <c r="C159" s="49" t="s">
+      <c r="C159" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="D159" s="49" t="s">
+      <c r="D159" s="51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" s="49">
+      <c r="A160" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="51">
         <v>223</v>
       </c>
-      <c r="C160" s="49" t="s">
+      <c r="C160" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="D160" s="49" t="s">
+      <c r="D160" s="51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="49">
+      <c r="A161" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="51">
         <v>224</v>
       </c>
-      <c r="C161" s="49" t="s">
+      <c r="C161" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="D161" s="49" t="s">
+      <c r="D161" s="51" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" s="49">
+      <c r="A162" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="51">
         <v>225</v>
       </c>
-      <c r="C162" s="49" t="s">
+      <c r="C162" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="D162" s="49" t="s">
+      <c r="D162" s="51" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="49">
+      <c r="A163" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="51">
         <v>226</v>
       </c>
-      <c r="C163" s="49" t="s">
+      <c r="C163" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="D163" s="49" t="s">
+      <c r="D163" s="51" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="49">
+      <c r="A164" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="51">
         <v>227</v>
       </c>
-      <c r="C164" s="49" t="s">
+      <c r="C164" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="D164" s="49" t="s">
+      <c r="D164" s="51" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="49">
+      <c r="A165" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="51">
         <v>228</v>
       </c>
-      <c r="C165" s="49" t="s">
+      <c r="C165" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="D165" s="49" t="s">
+      <c r="D165" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="49">
+      <c r="A166" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="51">
         <v>229</v>
       </c>
-      <c r="C166" s="49" t="s">
+      <c r="C166" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="D166" s="49" t="s">
+      <c r="D166" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="49">
+      <c r="A167" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="51">
         <v>230</v>
       </c>
-      <c r="C167" s="49" t="s">
+      <c r="C167" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="D167" s="49" t="s">
+      <c r="D167" s="51" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="49">
+      <c r="A168" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="51">
         <v>231</v>
       </c>
-      <c r="C168" s="49" t="s">
+      <c r="C168" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="D168" s="49" t="s">
+      <c r="D168" s="51" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="49">
+      <c r="A169" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="51">
         <v>232</v>
       </c>
-      <c r="C169" s="49" t="s">
+      <c r="C169" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="D169" s="49" t="s">
+      <c r="D169" s="51" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="49">
+      <c r="A170" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="51">
         <v>233</v>
       </c>
-      <c r="C170" s="49" t="s">
+      <c r="C170" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="D170" s="49" t="s">
+      <c r="D170" s="51" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171" s="49">
+      <c r="A171" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="51">
         <v>234</v>
       </c>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="D171" s="49" t="s">
+      <c r="D171" s="51" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="49">
+      <c r="A172" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="51">
         <v>235</v>
       </c>
-      <c r="C172" s="49" t="s">
+      <c r="C172" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="D172" s="49" t="s">
+      <c r="D172" s="51" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="49">
+      <c r="A173" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="51">
         <v>236</v>
       </c>
-      <c r="C173" s="49" t="s">
+      <c r="C173" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="D173" s="49" t="s">
+      <c r="D173" s="51" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="49">
+      <c r="A174" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="51">
         <v>237</v>
       </c>
-      <c r="C174" s="49" t="s">
+      <c r="C174" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="D174" s="49" t="s">
+      <c r="D174" s="51" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="49">
+      <c r="A175" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="51">
         <v>238</v>
       </c>
-      <c r="C175" s="49" t="s">
+      <c r="C175" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D175" s="49" t="s">
+      <c r="D175" s="51" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="49">
+      <c r="A176" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="51">
         <v>239</v>
       </c>
-      <c r="C176" s="49" t="s">
+      <c r="C176" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="D176" s="49" t="s">
+      <c r="D176" s="51" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="49">
+      <c r="A177" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="51">
         <v>240</v>
       </c>
-      <c r="C177" s="49" t="s">
+      <c r="C177" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="D177" s="49" t="s">
+      <c r="D177" s="51" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="49">
+      <c r="A178" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="51">
         <v>241</v>
       </c>
-      <c r="C178" s="49" t="s">
+      <c r="C178" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="D178" s="49" t="s">
+      <c r="D178" s="51" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="49">
+      <c r="A179" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="51">
         <v>242</v>
       </c>
-      <c r="C179" s="49" t="s">
+      <c r="C179" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="D179" s="49" t="s">
+      <c r="D179" s="51" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="49">
+      <c r="A180" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="51">
         <v>243</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="49" t="s">
+      <c r="D180" s="51" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="49">
+      <c r="A181" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="51">
         <v>244</v>
       </c>
-      <c r="C181" s="49" t="s">
+      <c r="C181" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="D181" s="49" t="s">
+      <c r="D181" s="51" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="49">
+      <c r="A182" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="51">
         <v>245</v>
       </c>
-      <c r="C182" s="49" t="s">
+      <c r="C182" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="D182" s="49" t="s">
+      <c r="D182" s="51" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="49">
+      <c r="A183" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="51">
         <v>246</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="C183" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="D183" s="49" t="s">
+      <c r="D183" s="51" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="49">
+      <c r="A184" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="51">
         <v>247</v>
       </c>
-      <c r="C184" s="49" t="s">
+      <c r="C184" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="D184" s="49" t="s">
+      <c r="D184" s="51" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="49">
+      <c r="A185" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="51">
         <v>248</v>
       </c>
-      <c r="C185" s="49" t="s">
+      <c r="C185" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="D185" s="49" t="s">
+      <c r="D185" s="51" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="49">
+      <c r="A186" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="51">
         <v>249</v>
       </c>
-      <c r="C186" s="49" t="s">
+      <c r="C186" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="D186" s="49" t="s">
+      <c r="D186" s="51" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="49">
+      <c r="A187" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="51">
         <v>250</v>
       </c>
-      <c r="C187" s="49" t="s">
+      <c r="C187" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="D187" s="49" t="s">
+      <c r="D187" s="51" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="49">
+      <c r="A188" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="51">
         <v>251</v>
       </c>
-      <c r="C188" s="49" t="s">
+      <c r="C188" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D188" s="49" t="s">
+      <c r="D188" s="51" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="49">
+      <c r="A189" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="51">
         <v>252</v>
       </c>
-      <c r="C189" s="49" t="s">
+      <c r="C189" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="D189" s="49" t="s">
+      <c r="D189" s="51" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="49">
+      <c r="A190" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="51">
         <v>253</v>
       </c>
-      <c r="C190" s="49" t="s">
+      <c r="C190" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="D190" s="49" t="s">
+      <c r="D190" s="51" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="49">
+      <c r="A191" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="51">
         <v>254</v>
       </c>
-      <c r="C191" s="49" t="s">
+      <c r="C191" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="D191" s="49" t="s">
+      <c r="D191" s="51" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="49">
+      <c r="A192" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="51">
         <v>255</v>
       </c>
-      <c r="C192" s="49" t="s">
+      <c r="C192" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="D192" s="49" t="s">
+      <c r="D192" s="51" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="49">
+      <c r="A193" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="51">
         <v>256</v>
       </c>
-      <c r="C193" s="49" t="s">
+      <c r="C193" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="D193" s="49" t="s">
+      <c r="D193" s="51" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="49">
+      <c r="A194" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="51">
         <v>257</v>
       </c>
-      <c r="C194" s="49" t="s">
+      <c r="C194" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="D194" s="49" t="s">
+      <c r="D194" s="51" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="49">
+      <c r="A195" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="51">
         <v>258</v>
       </c>
-      <c r="C195" s="49" t="s">
+      <c r="C195" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="D195" s="49" t="s">
+      <c r="D195" s="51" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="49">
+      <c r="A196" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="51">
         <v>259</v>
       </c>
-      <c r="C196" s="49" t="s">
+      <c r="C196" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="D196" s="49" t="s">
+      <c r="D196" s="51" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="49">
+      <c r="A197" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="51">
         <v>260</v>
       </c>
-      <c r="C197" s="49" t="s">
+      <c r="C197" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="D197" s="49" t="s">
+      <c r="D197" s="51" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="49">
+      <c r="A198" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="51">
         <v>261</v>
       </c>
-      <c r="C198" s="49" t="s">
+      <c r="C198" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="D198" s="49" t="s">
+      <c r="D198" s="51" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="49">
+      <c r="A199" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="51">
         <v>262</v>
       </c>
-      <c r="C199" s="49" t="s">
+      <c r="C199" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="D199" s="49" t="s">
+      <c r="D199" s="51" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="49">
+      <c r="A200" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="51">
         <v>263</v>
       </c>
-      <c r="C200" s="49" t="s">
+      <c r="C200" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="D200" s="49" t="s">
+      <c r="D200" s="51" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="49">
+      <c r="A201" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="51">
         <v>264</v>
       </c>
-      <c r="C201" s="49" t="s">
+      <c r="C201" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="D201" s="49" t="s">
+      <c r="D201" s="51" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="49">
+      <c r="A202" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="51">
         <v>265</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="D202" s="49" t="s">
+      <c r="D202" s="51" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="49">
+      <c r="A203" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="51">
         <v>266</v>
       </c>
-      <c r="C203" s="49" t="s">
+      <c r="C203" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="D203" s="49" t="s">
+      <c r="D203" s="51" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="49">
+      <c r="A204" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="51">
         <v>267</v>
       </c>
-      <c r="C204" s="49" t="s">
+      <c r="C204" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="D204" s="49" t="s">
+      <c r="D204" s="51" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" s="49">
+      <c r="A205" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="51">
         <v>268</v>
       </c>
-      <c r="C205" s="49" t="s">
+      <c r="C205" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="D205" s="49" t="s">
+      <c r="D205" s="51" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="49">
+      <c r="A206" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="51">
         <v>270</v>
       </c>
-      <c r="C206" s="49" t="s">
+      <c r="C206" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="D206" s="49" t="s">
+      <c r="D206" s="51" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="49">
+      <c r="A207" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="51">
         <v>271</v>
       </c>
-      <c r="C207" s="49" t="s">
+      <c r="C207" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="D207" s="49" t="s">
+      <c r="D207" s="51" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="49">
+      <c r="A208" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="51">
         <v>272</v>
       </c>
-      <c r="C208" s="49" t="s">
+      <c r="C208" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="D208" s="49" t="s">
+      <c r="D208" s="51" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="49">
+      <c r="A209" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="51">
         <v>273</v>
       </c>
-      <c r="C209" s="49" t="s">
+      <c r="C209" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="D209" s="49" t="s">
+      <c r="D209" s="51" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="49">
+      <c r="A210" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="51">
         <v>274</v>
       </c>
-      <c r="C210" s="49" t="s">
+      <c r="C210" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="D210" s="49" t="s">
+      <c r="D210" s="51" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" s="49">
+      <c r="A211" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="51">
         <v>275</v>
       </c>
-      <c r="C211" s="49" t="s">
+      <c r="C211" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="D211" s="49" t="s">
+      <c r="D211" s="51" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="49">
+      <c r="A212" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="51">
         <v>276</v>
       </c>
-      <c r="C212" s="49" t="s">
+      <c r="C212" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="D212" s="49" t="s">
+      <c r="D212" s="51" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="49">
+      <c r="A213" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="51">
         <v>277</v>
       </c>
-      <c r="C213" s="49" t="s">
+      <c r="C213" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="D213" s="49" t="s">
+      <c r="D213" s="51" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="49">
+      <c r="A214" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="51">
         <v>278</v>
       </c>
-      <c r="C214" s="49" t="s">
+      <c r="C214" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="D214" s="49" t="s">
+      <c r="D214" s="51" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="49">
+      <c r="A215" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="51">
         <v>279</v>
       </c>
-      <c r="C215" s="49" t="s">
+      <c r="C215" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="D215" s="49" t="s">
+      <c r="D215" s="51" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="49">
+      <c r="A216" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="51">
         <v>280</v>
       </c>
-      <c r="C216" s="49" t="s">
+      <c r="C216" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="D216" s="49" t="s">
+      <c r="D216" s="51" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="49">
+      <c r="A217" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="51">
         <v>281</v>
       </c>
-      <c r="C217" s="49" t="s">
+      <c r="C217" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="D217" s="49" t="s">
+      <c r="D217" s="51" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="49">
+      <c r="A218" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="51">
         <v>282</v>
       </c>
-      <c r="C218" s="49" t="s">
+      <c r="C218" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="D218" s="49" t="s">
+      <c r="D218" s="51" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="49">
+      <c r="A219" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="51">
         <v>283</v>
       </c>
-      <c r="C219" s="49" t="s">
+      <c r="C219" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="D219" s="49" t="s">
+      <c r="D219" s="51" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="49">
+      <c r="A220" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="51">
         <v>284</v>
       </c>
-      <c r="C220" s="49" t="s">
+      <c r="C220" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="D220" s="49" t="s">
+      <c r="D220" s="51" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="49">
+      <c r="A221" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="51">
         <v>285</v>
       </c>
-      <c r="C221" s="49" t="s">
+      <c r="C221" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="D221" s="49" t="s">
+      <c r="D221" s="51" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="49">
+      <c r="A222" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="51">
         <v>286</v>
       </c>
-      <c r="C222" s="49" t="s">
+      <c r="C222" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="D222" s="49" t="s">
+      <c r="D222" s="51" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="49">
+      <c r="A223" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="51">
         <v>287</v>
       </c>
-      <c r="C223" s="49" t="s">
+      <c r="C223" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="D223" s="49" t="s">
+      <c r="D223" s="51" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="49">
+      <c r="A224" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="51">
         <v>288</v>
       </c>
-      <c r="C224" s="49" t="s">
+      <c r="C224" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="D224" s="49" t="s">
+      <c r="D224" s="51" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="49">
+      <c r="A225" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="51">
         <v>292</v>
       </c>
-      <c r="C225" s="49" t="s">
+      <c r="C225" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="D225" s="49" t="s">
+      <c r="D225" s="51" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="49">
+      <c r="A226" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="51">
         <v>293</v>
       </c>
-      <c r="C226" s="49" t="s">
+      <c r="C226" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="D226" s="49" t="s">
+      <c r="D226" s="51" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="49">
+      <c r="A227" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="51">
         <v>294</v>
       </c>
-      <c r="C227" s="49" t="s">
+      <c r="C227" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="D227" s="49" t="s">
+      <c r="D227" s="51" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="49">
+      <c r="A228" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="51">
         <v>295</v>
       </c>
-      <c r="C228" s="49" t="s">
+      <c r="C228" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="D228" s="49" t="s">
+      <c r="D228" s="51" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="49">
+      <c r="A229" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="51">
         <v>296</v>
       </c>
-      <c r="C229" s="49" t="s">
+      <c r="C229" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="D229" s="49" t="s">
+      <c r="D229" s="51" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="49">
+      <c r="A230" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="51">
         <v>297</v>
       </c>
-      <c r="C230" s="49" t="s">
+      <c r="C230" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="D230" s="49" t="s">
+      <c r="D230" s="51" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="49">
+      <c r="A231" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="51">
         <v>298</v>
       </c>
-      <c r="C231" s="49" t="s">
+      <c r="C231" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="D231" s="49" t="s">
+      <c r="D231" s="51" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="49">
+      <c r="A232" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="51">
         <v>299</v>
       </c>
-      <c r="C232" s="49" t="s">
+      <c r="C232" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D232" s="51" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="49">
+      <c r="A233" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="51">
         <v>300</v>
       </c>
-      <c r="C233" s="49" t="s">
+      <c r="C233" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="D233" s="49" t="s">
+      <c r="D233" s="51" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="49">
+      <c r="A234" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="51">
         <v>301</v>
       </c>
-      <c r="C234" s="49" t="s">
+      <c r="C234" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="D234" s="49" t="s">
+      <c r="D234" s="51" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B235" s="49">
+      <c r="A235" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="51">
         <v>302</v>
       </c>
-      <c r="C235" s="49" t="s">
+      <c r="C235" s="51" t="s">
         <v>474</v>
       </c>
-      <c r="D235" s="49" t="s">
+      <c r="D235" s="51" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="49">
+      <c r="A236" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="51">
         <v>303</v>
       </c>
-      <c r="C236" s="49" t="s">
+      <c r="C236" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="D236" s="49" t="s">
+      <c r="D236" s="51" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="49">
+      <c r="A237" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="51">
         <v>304</v>
       </c>
-      <c r="C237" s="49" t="s">
+      <c r="C237" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="D237" s="49" t="s">
+      <c r="D237" s="51" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="49">
+      <c r="A238" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="51">
         <v>305</v>
       </c>
-      <c r="C238" s="49" t="s">
+      <c r="C238" s="51" t="s">
         <v>480</v>
       </c>
-      <c r="D238" s="49" t="s">
+      <c r="D238" s="51" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="49">
+      <c r="A239" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="51">
         <v>306</v>
       </c>
-      <c r="C239" s="49" t="s">
+      <c r="C239" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="D239" s="49" t="s">
+      <c r="D239" s="51" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" s="49">
+      <c r="A240" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="51">
         <v>307</v>
       </c>
-      <c r="C240" s="49" t="s">
+      <c r="C240" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="D240" s="49" t="s">
+      <c r="D240" s="51" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="49">
+      <c r="A241" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="51">
         <v>308</v>
       </c>
-      <c r="C241" s="49" t="s">
+      <c r="C241" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="D241" s="49" t="s">
+      <c r="D241" s="51" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="49">
+      <c r="A242" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="51">
         <v>309</v>
       </c>
-      <c r="C242" s="49" t="s">
+      <c r="C242" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="D242" s="49" t="s">
+      <c r="D242" s="51" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="49">
+      <c r="A243" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="51">
         <v>310</v>
       </c>
-      <c r="C243" s="49" t="s">
+      <c r="C243" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="D243" s="49" t="s">
+      <c r="D243" s="51" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B244" s="49">
+      <c r="A244" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="51">
         <v>311</v>
       </c>
-      <c r="C244" s="49" t="s">
+      <c r="C244" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="D244" s="49" t="s">
+      <c r="D244" s="51" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="49">
+      <c r="A245" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="51">
         <v>312</v>
       </c>
-      <c r="C245" s="49" t="s">
+      <c r="C245" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="D245" s="49" t="s">
+      <c r="D245" s="51" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B246" s="49">
+      <c r="A246" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="51">
         <v>313</v>
       </c>
-      <c r="C246" s="49" t="s">
+      <c r="C246" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="D246" s="49" t="s">
+      <c r="D246" s="51" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" s="49">
+      <c r="A247" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="51">
         <v>314</v>
       </c>
-      <c r="C247" s="49" t="s">
+      <c r="C247" s="51" t="s">
         <v>498</v>
       </c>
-      <c r="D247" s="49" t="s">
+      <c r="D247" s="51" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" s="49">
+      <c r="A248" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="51">
         <v>315</v>
       </c>
-      <c r="C248" s="49" t="s">
+      <c r="C248" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="D248" s="49" t="s">
+      <c r="D248" s="51" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="49">
+      <c r="A249" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="51">
         <v>316</v>
       </c>
-      <c r="C249" s="49" t="s">
+      <c r="C249" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="D249" s="49" t="s">
+      <c r="D249" s="51" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="49">
+      <c r="A250" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="51">
         <v>317</v>
       </c>
-      <c r="C250" s="49" t="s">
+      <c r="C250" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="D250" s="49" t="s">
+      <c r="D250" s="51" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="49">
+      <c r="A251" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="51">
         <v>318</v>
       </c>
-      <c r="C251" s="49" t="s">
+      <c r="C251" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="D251" s="49" t="s">
+      <c r="D251" s="51" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="49">
+      <c r="A252" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="51">
         <v>319</v>
       </c>
-      <c r="C252" s="49" t="s">
+      <c r="C252" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="D252" s="49" t="s">
+      <c r="D252" s="51" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="49">
+      <c r="A253" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="51">
         <v>320</v>
       </c>
-      <c r="C253" s="49" t="s">
+      <c r="C253" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="D253" s="49" t="s">
+      <c r="D253" s="51" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="49">
+      <c r="A254" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="51">
         <v>321</v>
       </c>
-      <c r="C254" s="49" t="s">
+      <c r="C254" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="D254" s="49" t="s">
+      <c r="D254" s="51" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="49">
+      <c r="A255" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="51">
         <v>322</v>
       </c>
-      <c r="C255" s="49" t="s">
+      <c r="C255" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="D255" s="49" t="s">
+      <c r="D255" s="51" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="49">
+      <c r="A256" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="51">
         <v>323</v>
       </c>
-      <c r="C256" s="49" t="s">
+      <c r="C256" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="D256" s="49" t="s">
+      <c r="D256" s="51" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" s="49">
+      <c r="A257" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="51">
         <v>324</v>
       </c>
-      <c r="C257" s="49" t="s">
+      <c r="C257" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="D257" s="49" t="s">
+      <c r="D257" s="51" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" s="49">
+      <c r="A258" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="51">
         <v>325</v>
       </c>
-      <c r="C258" s="49" t="s">
+      <c r="C258" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="D258" s="49" t="s">
+      <c r="D258" s="51" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="49">
+      <c r="A259" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="51">
         <v>326</v>
       </c>
-      <c r="C259" s="49" t="s">
+      <c r="C259" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="D259" s="49" t="s">
+      <c r="D259" s="51" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="49">
+      <c r="A260" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="51">
         <v>327</v>
       </c>
-      <c r="C260" s="49" t="s">
+      <c r="C260" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="D260" s="49" t="s">
+      <c r="D260" s="51" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="49">
+      <c r="A261" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="51">
         <v>328</v>
       </c>
-      <c r="C261" s="49" t="s">
+      <c r="C261" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="D261" s="49" t="s">
+      <c r="D261" s="51" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" s="49">
+      <c r="A262" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="51">
         <v>329</v>
       </c>
-      <c r="C262" s="49" t="s">
+      <c r="C262" s="51" t="s">
         <v>528</v>
       </c>
-      <c r="D262" s="49" t="s">
+      <c r="D262" s="51" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B263" s="49">
+      <c r="A263" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="51">
         <v>330</v>
       </c>
-      <c r="C263" s="49" t="s">
+      <c r="C263" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="D263" s="49" t="s">
+      <c r="D263" s="51" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="49">
+      <c r="A264" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="51">
         <v>331</v>
       </c>
-      <c r="C264" s="49" t="s">
+      <c r="C264" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="D264" s="49" t="s">
+      <c r="D264" s="51" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="49">
+      <c r="A265" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="51">
         <v>332</v>
       </c>
-      <c r="C265" s="49" t="s">
+      <c r="C265" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="D265" s="49" t="s">
+      <c r="D265" s="51" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="49">
+      <c r="A266" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="51">
         <v>333</v>
       </c>
-      <c r="C266" s="49" t="s">
+      <c r="C266" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="D266" s="49" t="s">
+      <c r="D266" s="51" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="49">
+      <c r="A267" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="51">
         <v>334</v>
       </c>
-      <c r="C267" s="49" t="s">
+      <c r="C267" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="D267" s="49" t="s">
+      <c r="D267" s="51" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="49">
+      <c r="A268" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="51">
         <v>335</v>
       </c>
-      <c r="C268" s="49" t="s">
+      <c r="C268" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="D268" s="49" t="s">
+      <c r="D268" s="51" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="49">
+      <c r="A269" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="51">
         <v>336</v>
       </c>
-      <c r="C269" s="49" t="s">
+      <c r="C269" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="D269" s="49" t="s">
+      <c r="D269" s="51" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="49">
+      <c r="A270" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="51">
         <v>337</v>
       </c>
-      <c r="C270" s="49" t="s">
+      <c r="C270" s="51" t="s">
         <v>544</v>
       </c>
-      <c r="D270" s="49" t="s">
+      <c r="D270" s="51" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="49">
+      <c r="A271" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="51">
         <v>338</v>
       </c>
-      <c r="C271" s="49" t="s">
+      <c r="C271" s="51" t="s">
         <v>546</v>
       </c>
-      <c r="D271" s="49" t="s">
+      <c r="D271" s="51" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="49">
+      <c r="A272" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="51">
         <v>339</v>
       </c>
-      <c r="C272" s="49" t="s">
+      <c r="C272" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="D272" s="49" t="s">
+      <c r="D272" s="51" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="49">
+      <c r="A273" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="51">
         <v>340</v>
       </c>
-      <c r="C273" s="49" t="s">
+      <c r="C273" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="D273" s="49" t="s">
+      <c r="D273" s="51" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="49">
+      <c r="A274" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="51">
         <v>341</v>
       </c>
-      <c r="C274" s="49" t="s">
+      <c r="C274" s="51" t="s">
         <v>552</v>
       </c>
-      <c r="D274" s="49" t="s">
+      <c r="D274" s="51" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="49">
+      <c r="A275" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="51">
         <v>342</v>
       </c>
-      <c r="C275" s="49" t="s">
+      <c r="C275" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="D275" s="49" t="s">
+      <c r="D275" s="51" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="49">
+      <c r="A276" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="51">
         <v>343</v>
       </c>
-      <c r="C276" s="49" t="s">
+      <c r="C276" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="D276" s="49" t="s">
+      <c r="D276" s="51" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="49">
+      <c r="A277" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="51">
         <v>344</v>
       </c>
-      <c r="C277" s="49" t="s">
+      <c r="C277" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="D277" s="49" t="s">
+      <c r="D277" s="51" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" s="49">
+      <c r="A278" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="51">
         <v>345</v>
       </c>
-      <c r="C278" s="49" t="s">
+      <c r="C278" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="D278" s="49" t="s">
+      <c r="D278" s="51" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="49">
+      <c r="A279" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="51">
         <v>346</v>
       </c>
-      <c r="C279" s="49" t="s">
+      <c r="C279" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="D279" s="49" t="s">
+      <c r="D279" s="51" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B280" s="49">
+      <c r="A280" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="51">
         <v>347</v>
       </c>
-      <c r="C280" s="49" t="s">
+      <c r="C280" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="D280" s="49" t="s">
+      <c r="D280" s="51" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="49">
+      <c r="A281" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="51">
         <v>348</v>
       </c>
-      <c r="C281" s="49" t="s">
+      <c r="C281" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="D281" s="49" t="s">
+      <c r="D281" s="51" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="49">
+      <c r="A282" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="51">
         <v>349</v>
       </c>
-      <c r="C282" s="49" t="s">
+      <c r="C282" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="D282" s="49" t="s">
+      <c r="D282" s="51" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="49">
+      <c r="A283" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="51">
         <v>350</v>
       </c>
-      <c r="C283" s="49" t="s">
+      <c r="C283" s="51" t="s">
         <v>570</v>
       </c>
-      <c r="D283" s="49" t="s">
+      <c r="D283" s="51" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="49">
+      <c r="A284" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="51">
         <v>351</v>
       </c>
-      <c r="C284" s="49" t="s">
+      <c r="C284" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="D284" s="49" t="s">
+      <c r="D284" s="51" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="49">
+      <c r="A285" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="51">
         <v>356</v>
       </c>
-      <c r="C285" s="49" t="s">
+      <c r="C285" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="D285" s="49" t="s">
+      <c r="D285" s="51" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="49">
+      <c r="A286" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="51">
         <v>357</v>
       </c>
-      <c r="C286" s="49" t="s">
+      <c r="C286" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="D286" s="49" t="s">
+      <c r="D286" s="51" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="49">
+      <c r="A287" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="51">
         <v>358</v>
       </c>
-      <c r="C287" s="49" t="s">
+      <c r="C287" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="D287" s="49" t="s">
+      <c r="D287" s="51" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="49">
+      <c r="A288" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="51">
         <v>359</v>
       </c>
-      <c r="C288" s="49" t="s">
+      <c r="C288" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="D288" s="49" t="s">
+      <c r="D288" s="51" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="49">
+      <c r="A289" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="51">
         <v>372</v>
       </c>
-      <c r="C289" s="49" t="s">
+      <c r="C289" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="D289" s="49" t="s">
+      <c r="D289" s="51" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="49">
+      <c r="A290" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="51">
         <v>385</v>
       </c>
-      <c r="C290" s="49" t="s">
+      <c r="C290" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="D290" s="49" t="s">
+      <c r="D290" s="51" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="49">
+      <c r="A291" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="51">
         <v>396</v>
       </c>
-      <c r="C291" s="49" t="s">
+      <c r="C291" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="D291" s="49" t="s">
+      <c r="D291" s="51" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="49">
+      <c r="A292" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="51">
         <v>397</v>
       </c>
-      <c r="C292" s="49" t="s">
+      <c r="C292" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="D292" s="49" t="s">
+      <c r="D292" s="51" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="49">
+      <c r="A293" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="51">
         <v>406</v>
       </c>
-      <c r="C293" s="49" t="s">
+      <c r="C293" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="D293" s="49" t="s">
+      <c r="D293" s="51" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" s="49">
+      <c r="A294" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="51">
         <v>407</v>
       </c>
-      <c r="C294" s="49" t="s">
+      <c r="C294" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="D294" s="49" t="s">
+      <c r="D294" s="51" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="49">
+      <c r="A295" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="51">
         <v>416</v>
       </c>
-      <c r="C295" s="49" t="s">
+      <c r="C295" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="D295" s="49" t="s">
+      <c r="D295" s="51" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" s="49">
+      <c r="A296" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="51">
         <v>417</v>
       </c>
-      <c r="C296" s="49" t="s">
+      <c r="C296" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="D296" s="49" t="s">
+      <c r="D296" s="51" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="49">
+      <c r="A297" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" s="51">
         <v>418</v>
       </c>
-      <c r="C297" s="49" t="s">
+      <c r="C297" s="51" t="s">
         <v>598</v>
       </c>
-      <c r="D297" s="49" t="s">
+      <c r="D297" s="51" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="49">
+      <c r="A298" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="51">
         <v>673</v>
       </c>
-      <c r="C298" s="49" t="s">
+      <c r="C298" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="D298" s="49" t="s">
+      <c r="D298" s="51" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="49">
+      <c r="A299" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="51">
         <v>674</v>
       </c>
-      <c r="C299" s="49" t="s">
+      <c r="C299" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="D299" s="49" t="s">
+      <c r="D299" s="51" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="49">
+      <c r="A300" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="51">
         <v>675</v>
       </c>
-      <c r="C300" s="49" t="s">
+      <c r="C300" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="D300" s="49" t="s">
+      <c r="D300" s="51" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="49">
+      <c r="A301" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="51">
         <v>676</v>
       </c>
-      <c r="C301" s="49" t="s">
+      <c r="C301" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="D301" s="49" t="s">
+      <c r="D301" s="51" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="49">
+      <c r="A302" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="51">
         <v>677</v>
       </c>
-      <c r="C302" s="49" t="s">
+      <c r="C302" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="D302" s="49" t="s">
+      <c r="D302" s="51" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B303" s="49">
+      <c r="A303" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="51">
         <v>678</v>
       </c>
-      <c r="C303" s="49" t="s">
+      <c r="C303" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="D303" s="49" t="s">
+      <c r="D303" s="51" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="49">
+      <c r="A304" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" s="51">
         <v>679</v>
       </c>
-      <c r="C304" s="49" t="s">
+      <c r="C304" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="D304" s="49" t="s">
+      <c r="D304" s="51" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="49">
+      <c r="A305" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" s="51">
         <v>680</v>
       </c>
-      <c r="C305" s="49" t="s">
+      <c r="C305" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D305" s="51" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="49">
+      <c r="A306" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" s="51">
         <v>681</v>
       </c>
-      <c r="C306" s="49" t="s">
+      <c r="C306" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="D306" s="49" t="s">
+      <c r="D306" s="51" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="49">
+      <c r="A307" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="51">
         <v>682</v>
       </c>
-      <c r="C307" s="49" t="s">
+      <c r="C307" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="D307" s="49" t="s">
+      <c r="D307" s="51" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="308">
-      <c r="B308" s="49">
-        <v>2250</v>
-      </c>
-      <c r="C308" s="49" t="s">
+      <c r="B308" s="51">
+        <v>2282</v>
+      </c>
+      <c r="C308" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D308" s="49" t="s">
+      <c r="D308" s="51" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="49">
-        <v>2257</v>
-      </c>
-      <c r="C309" s="49" t="s">
+      <c r="A309" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="51">
+        <v>2283</v>
+      </c>
+      <c r="C309" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="D309" s="49" t="s">
+      <c r="D309" s="51" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="49">
-        <v>2276</v>
-      </c>
-      <c r="C310" s="49" t="s">
+      <c r="A310" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" s="51">
+        <v>2313</v>
+      </c>
+      <c r="C310" s="51" t="s">
         <v>624</v>
       </c>
-      <c r="D310" s="49" t="s">
+      <c r="D310" s="51" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="49">
-        <v>2282</v>
-      </c>
-      <c r="C311" s="49" t="s">
+      <c r="A311" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="51">
+        <v>2319</v>
+      </c>
+      <c r="C311" s="51" t="s">
         <v>626</v>
       </c>
-      <c r="D311" s="49" t="s">
+      <c r="D311" s="51" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B312" s="49">
-        <v>2283</v>
-      </c>
-      <c r="C312" s="49" t="s">
+      <c r="A312" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" s="51">
+        <v>2320</v>
+      </c>
+      <c r="C312" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="D312" s="49" t="s">
+      <c r="D312" s="51" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="49">
-        <v>2313</v>
-      </c>
-      <c r="C313" s="49" t="s">
+      <c r="A313" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="51">
+        <v>2321</v>
+      </c>
+      <c r="C313" s="51" t="s">
         <v>630</v>
       </c>
-      <c r="D313" s="49" t="s">
+      <c r="D313" s="51" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="49">
-        <v>2319</v>
-      </c>
-      <c r="C314" s="49" t="s">
+      <c r="A314" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="51">
+        <v>2333</v>
+      </c>
+      <c r="C314" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="D314" s="49" t="s">
+      <c r="D314" s="51" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="49">
-        <v>2320</v>
-      </c>
-      <c r="C315" s="49" t="s">
+      <c r="A315" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="51">
+        <v>2339</v>
+      </c>
+      <c r="C315" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="D315" s="49" t="s">
+      <c r="D315" s="51" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316" s="49">
-        <v>2321</v>
-      </c>
-      <c r="C316" s="49" t="s">
+      <c r="A316" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" s="51">
+        <v>2639</v>
+      </c>
+      <c r="C316" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="D316" s="49" t="s">
+      <c r="D316" s="51" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="49">
-        <v>2333</v>
-      </c>
-      <c r="C317" s="49" t="s">
+      <c r="A317" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" s="51">
+        <v>2646</v>
+      </c>
+      <c r="C317" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="D317" s="49" t="s">
+      <c r="D317" s="51" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B318" s="49">
-        <v>2339</v>
-      </c>
-      <c r="C318" s="49" t="s">
+      <c r="A318" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" s="51">
+        <v>2948</v>
+      </c>
+      <c r="C318" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="D318" s="49" t="s">
+      <c r="D318" s="51" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="49">
-        <v>2639</v>
-      </c>
-      <c r="C319" s="49" t="s">
+      <c r="A319" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="51">
+        <v>2974</v>
+      </c>
+      <c r="C319" s="51" t="s">
         <v>642</v>
       </c>
-      <c r="D319" s="49" t="s">
+      <c r="D319" s="51" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="49">
-        <v>2646</v>
-      </c>
-      <c r="C320" s="49" t="s">
+      <c r="A320" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="51">
+        <v>2980</v>
+      </c>
+      <c r="C320" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="D320" s="49" t="s">
+      <c r="D320" s="51" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="49">
-        <v>2948</v>
-      </c>
-      <c r="C321" s="49" t="s">
+      <c r="A321" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="51">
+        <v>2983</v>
+      </c>
+      <c r="C321" s="51" t="s">
         <v>646</v>
       </c>
-      <c r="D321" s="49" t="s">
+      <c r="D321" s="51" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B322" s="49">
-        <v>2974</v>
-      </c>
-      <c r="C322" s="49" t="s">
+      <c r="A322" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="51">
+        <v>3284</v>
+      </c>
+      <c r="C322" s="51" t="s">
         <v>648</v>
       </c>
-      <c r="D322" s="49" t="s">
+      <c r="D322" s="51" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="49">
-        <v>2980</v>
-      </c>
-      <c r="C323" s="49" t="s">
+      <c r="A323" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="51">
+        <v>3299</v>
+      </c>
+      <c r="C323" s="51" t="s">
         <v>650</v>
       </c>
-      <c r="D323" s="49" t="s">
+      <c r="D323" s="51" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="49">
-        <v>2983</v>
-      </c>
-      <c r="C324" s="49" t="s">
+      <c r="A324" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="51">
+        <v>3333</v>
+      </c>
+      <c r="C324" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="D324" s="49" t="s">
+      <c r="D324" s="51" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" s="49">
-        <v>3284</v>
-      </c>
-      <c r="C325" s="49" t="s">
+      <c r="A325" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="51">
+        <v>3340</v>
+      </c>
+      <c r="C325" s="51" t="s">
         <v>654</v>
       </c>
-      <c r="D325" s="49" t="s">
+      <c r="D325" s="51" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="49">
-        <v>3299</v>
-      </c>
-      <c r="C326" s="49" t="s">
+      <c r="A326" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="51">
+        <v>3341</v>
+      </c>
+      <c r="C326" s="51" t="s">
         <v>656</v>
       </c>
-      <c r="D326" s="49" t="s">
+      <c r="D326" s="51" t="s">
         <v>657</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" s="50">
+        <v>3351</v>
+      </c>
+      <c r="C327" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="D327" s="51" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="50">
+        <v>3358</v>
+      </c>
+      <c r="C328" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="D328" s="51" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="49">
+        <v>3388</v>
+      </c>
+      <c r="C329" s="51" t="s">
+        <v>662</v>
+      </c>
+      <c r="D329" s="51" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
   <si>
     <t>${name}</t>
   </si>
@@ -1889,6 +1889,126 @@
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Stand_to_Sit_Transition_M.anim</t>
   </si>
   <si>
+    <t>Pre_EffectPlayerSkill2_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_2.prefab</t>
+  </si>
+  <si>
+    <t>Pre_MonsterColonyLower</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterColonyLower.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectHit1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectHit1.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_Unsteady_Walk</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Unsteady_Walk.anim</t>
+  </si>
+  <si>
+    <t>Pre_EffectHitDefault</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectHitDefault.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_walking_man</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
+  </si>
+  <si>
+    <t>Pre_UIEntityHealthInfo</t>
+  </si>
+  <si>
+    <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectExpiosion1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExpiosion1.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerBuff2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerBuff2.prefab</t>
+  </si>
+  <si>
+    <t>Anim_MonsterEntity0Clip_running</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
+  </si>
+  <si>
+    <t>Pre_PlayerBuffEffect</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/PlayerBuffEffect.prefab</t>
+  </si>
+  <si>
+    <t>Sp_monster0_texture</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.fbm/monster0_texture.png</t>
+  </si>
+  <si>
+    <t>Pre_EffectExpiosionHit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExpiosionHit.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectFireBuff</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectFireBuff.prefab</t>
+  </si>
+  <si>
+    <t>Pre_PlayerBuffEffect_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/PlayerBuffEffect_1.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectExpiosionBuff</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExpiosionBuff.prefab</t>
+  </si>
+  <si>
+    <t>Sp_material_0</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbm/material_0.png</t>
+  </si>
+  <si>
+    <t>Pre_EffectExposionBig</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExposionBig.prefab</t>
+  </si>
+  <si>
+    <t>Pre_EffectExposionSmall</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectExposionSmall.prefab</t>
+  </si>
+  <si>
     <t>Pre_EffectPoison</t>
   </si>
   <si>
@@ -1911,114 +2031,6 @@
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectPlayerSkill2.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerSkill2_1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerSkill2_2</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_2.prefab</t>
-  </si>
-  <si>
-    <t>Pre_MonsterColonyLower</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterColonyLower.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectHit1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectHit1.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_Unsteady_Walk</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Unsteady_Walk.anim</t>
-  </si>
-  <si>
-    <t>Pre_EffectHitDefault</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectHitDefault.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_walking_man</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
-  </si>
-  <si>
-    <t>Pre_UIEntityHealthInfo</t>
-  </si>
-  <si>
-    <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectExpiosion1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectExpiosion1.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectPlayerBuff2</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerBuff2.prefab</t>
-  </si>
-  <si>
-    <t>Anim_MonsterEntity0Clip_running</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
-  </si>
-  <si>
-    <t>Pre_PlayerBuffEffect</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/PlayerBuffEffect.prefab</t>
-  </si>
-  <si>
-    <t>Sp_monster0_texture</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.fbm/monster0_texture.png</t>
-  </si>
-  <si>
-    <t>Pre_EffectExpiosionHit</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectExpiosionHit.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectFireBuff</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectFireBuff.prefab</t>
-  </si>
-  <si>
-    <t>Pre_PlayerBuffEffect_1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/PlayerBuffEffect_1.prefab</t>
-  </si>
-  <si>
-    <t>Pre_EffectExpiosionBuff</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectExpiosionBuff.prefab</t>
-  </si>
-  <si>
-    <t>Sp_material_0</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbm/material_0.png</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2776,6 +2788,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -3141,7 +3159,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -3149,4607 +3167,4635 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="51"/>
-    <col min="4" max="4" width="100" customWidth="1" style="51"/>
+    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="53"/>
+    <col min="4" max="4" width="100" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="54">
+      <c r="A6" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="56">
         <v>1</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="54">
+      <c r="A7" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="56">
         <v>2</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="54">
+      <c r="A8" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="56">
         <v>3</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="57" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="54">
+      <c r="A9" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="56">
         <v>11</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="54">
+      <c r="A10" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="56">
         <v>12</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="54">
+      <c r="A11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="56">
         <v>13</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="54">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="56">
         <v>14</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="54">
-        <v>15</v>
-      </c>
-      <c r="C13" s="54" t="s">
+      <c r="A13" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="56">
+        <v>15</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="53" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="54">
+      <c r="A14" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="56">
         <v>21</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="54">
+      <c r="A15" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="56">
         <v>22</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="54">
+      <c r="A16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="56">
         <v>23</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="54">
+      <c r="A17" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="56">
         <v>24</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="54">
+      <c r="A18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="56">
         <v>25</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="53" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="54">
+      <c r="A19" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="56">
         <v>26</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="54">
+      <c r="A20" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="56">
         <v>31</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="54">
+      <c r="A21" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="56">
         <v>41</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="54">
+      <c r="A22" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="56">
         <v>42</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="53" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="54">
+      <c r="A23" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="56">
         <v>43</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="54">
+      <c r="A24" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="56">
         <v>44</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="54">
+      <c r="A25" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="56">
         <v>76</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="54">
+      <c r="A26" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="56">
         <v>77</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="53" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="54">
+      <c r="A27" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="56">
         <v>78</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="56">
+      <c r="A28" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="58">
         <v>79</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="53" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="56">
+      <c r="A29" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="58">
         <v>80</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="56">
+      <c r="A30" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="58">
         <v>81</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="51">
+      <c r="A31" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="53">
         <v>82</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="53" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="51">
+      <c r="A32" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="53">
         <v>83</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="51">
+      <c r="A33" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="53">
         <v>84</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="53" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="51">
+      <c r="A34" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="53">
         <v>85</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="53" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="51">
+      <c r="A35" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="53">
         <v>86</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="53" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="51">
+      <c r="A36" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="53">
         <v>87</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="51">
+      <c r="A37" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="53">
         <v>88</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="51">
+      <c r="A38" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="53">
         <v>89</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="53" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="51">
+      <c r="A39" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="53">
         <v>90</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="53" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="51">
+      <c r="A40" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="53">
         <v>91</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="53" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="51">
+      <c r="A41" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="53">
         <v>92</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="53" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="51">
+      <c r="A42" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="53">
         <v>93</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="51">
+      <c r="A43" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="53">
         <v>94</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="53" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="51">
+      <c r="A44" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="53">
         <v>95</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="51">
+      <c r="A45" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="53">
         <v>97</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="51">
+      <c r="A46" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="53">
         <v>98</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="53" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="51">
+      <c r="A47" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="53">
         <v>99</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="53" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="51">
+      <c r="A48" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="53">
         <v>105</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="51">
+      <c r="A49" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="53">
         <v>106</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="53" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="51">
+      <c r="A50" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="53">
         <v>107</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="51">
+      <c r="A51" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="53">
         <v>108</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="53" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="51">
+      <c r="A52" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="53">
         <v>109</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="51">
+      <c r="A53" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="53">
         <v>110</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="53" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="51">
+      <c r="A54" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="53">
         <v>112</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="51">
+      <c r="A55" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="53">
         <v>113</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="53" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="51">
+      <c r="A56" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="53">
         <v>115</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="51">
+      <c r="A57" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="53">
         <v>116</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="51">
+      <c r="A58" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="53">
         <v>117</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="53" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="51">
+      <c r="A59" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="53">
         <v>118</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="53" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="51">
+      <c r="A60" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="53">
         <v>119</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="53" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="51">
+      <c r="A61" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="53">
         <v>120</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="51">
+      <c r="A62" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="53">
         <v>121</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="51">
+      <c r="A63" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="53">
         <v>122</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="53" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="51">
+      <c r="A64" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="53">
         <v>123</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="53" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="51">
+      <c r="A65" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="53">
         <v>124</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="53" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="51">
+      <c r="A66" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="53">
         <v>125</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="51">
+      <c r="A67" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="53">
         <v>126</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="53" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="51">
+      <c r="A68" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="53">
         <v>127</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="51">
+      <c r="A69" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="53">
         <v>128</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="53" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="51">
+      <c r="A70" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="53">
         <v>129</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="53" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="51">
+      <c r="A71" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="53">
         <v>130</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="53" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="51">
+      <c r="A72" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="53">
         <v>131</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="53" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="51">
+      <c r="A73" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="53">
         <v>132</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="53" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="51">
+      <c r="A74" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="53">
         <v>133</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="53" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="51">
+      <c r="A75" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="53">
         <v>134</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="53" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="51">
+      <c r="A76" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="53">
         <v>135</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="53" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="51">
+      <c r="A77" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="53">
         <v>136</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="53" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="51">
+      <c r="A78" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="53">
         <v>137</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="53" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="51">
+      <c r="A79" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="53">
         <v>138</v>
       </c>
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="53" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="51">
+      <c r="A80" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="53">
         <v>139</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="53" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="51">
+      <c r="A81" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="53">
         <v>140</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="53" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="51">
+      <c r="A82" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="53">
         <v>141</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="53" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="51">
+      <c r="A83" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="53">
         <v>142</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="53" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="51">
+      <c r="A84" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="53">
         <v>143</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="53" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="51">
+      <c r="A85" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="53">
         <v>144</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="53" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="51">
+      <c r="A86" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="53">
         <v>145</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="51" t="s">
+      <c r="D86" s="53" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="51">
+      <c r="A87" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="53">
         <v>146</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="51" t="s">
+      <c r="D87" s="53" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="51">
+      <c r="A88" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="53">
         <v>147</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D88" s="53" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="51">
+      <c r="A89" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="53">
         <v>148</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="53" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="51">
+      <c r="A90" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="53">
         <v>149</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="53" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="51">
+      <c r="A91" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="53">
         <v>150</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="51" t="s">
+      <c r="D91" s="53" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="51">
+      <c r="A92" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="53">
         <v>151</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="D92" s="51" t="s">
+      <c r="D92" s="53" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="51">
+      <c r="A93" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="53">
         <v>152</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="53" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="51">
+      <c r="A94" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="53">
         <v>153</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="53" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="51">
+      <c r="A95" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="53">
         <v>154</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D95" s="53" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="51">
+      <c r="A96" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="53">
         <v>155</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="D96" s="53" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="51">
+      <c r="A97" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="53">
         <v>156</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="53" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="51">
+      <c r="A98" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="53">
         <v>157</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="51" t="s">
+      <c r="D98" s="53" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="51">
+      <c r="A99" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="53">
         <v>158</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="53" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="51">
+      <c r="A100" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="53">
         <v>159</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="51" t="s">
+      <c r="D100" s="53" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="51">
+      <c r="A101" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="53">
         <v>160</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="53" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="51">
+      <c r="A102" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="53">
         <v>161</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="53" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="51">
+      <c r="A103" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="53">
         <v>162</v>
       </c>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D103" s="53" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="51">
+      <c r="A104" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="53">
         <v>163</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="53" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="51">
+      <c r="A105" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="53">
         <v>164</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="53" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="51">
+      <c r="A106" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="53">
         <v>165</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="53" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="51">
+      <c r="A107" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="53">
         <v>166</v>
       </c>
-      <c r="C107" s="51" t="s">
+      <c r="C107" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="51" t="s">
+      <c r="D107" s="53" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="51">
+      <c r="A108" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="53">
         <v>167</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="53" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="51">
+      <c r="A109" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="53">
         <v>168</v>
       </c>
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="53" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="51">
+      <c r="A110" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="53">
         <v>169</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="53" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="51">
+      <c r="A111" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="53">
         <v>170</v>
       </c>
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="53" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="51">
+      <c r="A112" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="53">
         <v>171</v>
       </c>
-      <c r="C112" s="51" t="s">
+      <c r="C112" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="53" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="51">
+      <c r="A113" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="53">
         <v>172</v>
       </c>
-      <c r="C113" s="51" t="s">
+      <c r="C113" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="53" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="51">
+      <c r="A114" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="53">
         <v>173</v>
       </c>
-      <c r="C114" s="51" t="s">
+      <c r="C114" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="51" t="s">
+      <c r="D114" s="53" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="51">
+      <c r="A115" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="53">
         <v>174</v>
       </c>
-      <c r="C115" s="51" t="s">
+      <c r="C115" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="51" t="s">
+      <c r="D115" s="53" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="51">
+      <c r="A116" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="53">
         <v>175</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="53" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="51">
+      <c r="A117" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="53">
         <v>176</v>
       </c>
-      <c r="C117" s="51" t="s">
+      <c r="C117" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="53" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="51">
+      <c r="A118" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="53">
         <v>177</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="53" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="51">
+      <c r="A119" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="53">
         <v>178</v>
       </c>
-      <c r="C119" s="51" t="s">
+      <c r="C119" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D119" s="53" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="51">
+      <c r="A120" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="53">
         <v>179</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="53" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="51">
+      <c r="A121" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="53">
         <v>181</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="53" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="51">
+      <c r="A122" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="53">
         <v>185</v>
       </c>
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="53" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="51">
+      <c r="A123" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="53">
         <v>186</v>
       </c>
-      <c r="C123" s="51" t="s">
+      <c r="C123" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="53" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="51">
+      <c r="A124" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="53">
         <v>187</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D124" s="53" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="51">
+      <c r="A125" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="53">
         <v>188</v>
       </c>
-      <c r="C125" s="51" t="s">
+      <c r="C125" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="53" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="51">
+      <c r="A126" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="53">
         <v>189</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="53" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="51">
+      <c r="A127" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="53">
         <v>190</v>
       </c>
-      <c r="C127" s="51" t="s">
+      <c r="C127" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="D127" s="51" t="s">
+      <c r="D127" s="53" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="51">
+      <c r="A128" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="53">
         <v>191</v>
       </c>
-      <c r="C128" s="51" t="s">
+      <c r="C128" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D128" s="53" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="51">
+      <c r="A129" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="53">
         <v>192</v>
       </c>
-      <c r="C129" s="51" t="s">
+      <c r="C129" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="53" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="51">
+      <c r="A130" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="53">
         <v>193</v>
       </c>
-      <c r="C130" s="51" t="s">
+      <c r="C130" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D130" s="53" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="51">
+      <c r="A131" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="53">
         <v>194</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D131" s="51" t="s">
+      <c r="D131" s="53" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="51">
+      <c r="A132" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="53">
         <v>195</v>
       </c>
-      <c r="C132" s="51" t="s">
+      <c r="C132" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="D132" s="51" t="s">
+      <c r="D132" s="53" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="51">
+      <c r="A133" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="53">
         <v>196</v>
       </c>
-      <c r="C133" s="51" t="s">
+      <c r="C133" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="D133" s="51" t="s">
+      <c r="D133" s="53" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="51">
+      <c r="A134" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="53">
         <v>197</v>
       </c>
-      <c r="C134" s="51" t="s">
+      <c r="C134" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D134" s="51" t="s">
+      <c r="D134" s="53" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="51">
+      <c r="A135" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="53">
         <v>198</v>
       </c>
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D135" s="51" t="s">
+      <c r="D135" s="53" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="51">
+      <c r="A136" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="53">
         <v>199</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="D136" s="51" t="s">
+      <c r="D136" s="53" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="51">
+      <c r="A137" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="53">
         <v>200</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D137" s="53" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="51">
+      <c r="A138" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="53">
         <v>201</v>
       </c>
-      <c r="C138" s="51" t="s">
+      <c r="C138" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="D138" s="51" t="s">
+      <c r="D138" s="53" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="51">
+      <c r="A139" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="53">
         <v>202</v>
       </c>
-      <c r="C139" s="51" t="s">
+      <c r="C139" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="51" t="s">
+      <c r="D139" s="53" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="51">
+      <c r="A140" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="53">
         <v>203</v>
       </c>
-      <c r="C140" s="51" t="s">
+      <c r="C140" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="51" t="s">
+      <c r="D140" s="53" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="51">
+      <c r="A141" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="53">
         <v>204</v>
       </c>
-      <c r="C141" s="51" t="s">
+      <c r="C141" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="D141" s="51" t="s">
+      <c r="D141" s="53" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="51">
+      <c r="A142" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="53">
         <v>205</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D142" s="51" t="s">
+      <c r="D142" s="53" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="51">
+      <c r="A143" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="53">
         <v>206</v>
       </c>
-      <c r="C143" s="51" t="s">
+      <c r="C143" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="D143" s="51" t="s">
+      <c r="D143" s="53" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="51">
+      <c r="A144" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="53">
         <v>207</v>
       </c>
-      <c r="C144" s="51" t="s">
+      <c r="C144" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="D144" s="51" t="s">
+      <c r="D144" s="53" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="51">
+      <c r="A145" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="53">
         <v>208</v>
       </c>
-      <c r="C145" s="51" t="s">
+      <c r="C145" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="D145" s="51" t="s">
+      <c r="D145" s="53" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="51">
+      <c r="A146" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="53">
         <v>209</v>
       </c>
-      <c r="C146" s="51" t="s">
+      <c r="C146" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="D146" s="51" t="s">
+      <c r="D146" s="53" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="51">
+      <c r="A147" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="53">
         <v>210</v>
       </c>
-      <c r="C147" s="51" t="s">
+      <c r="C147" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="D147" s="51" t="s">
+      <c r="D147" s="53" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="51">
+      <c r="A148" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="53">
         <v>211</v>
       </c>
-      <c r="C148" s="51" t="s">
+      <c r="C148" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="D148" s="51" t="s">
+      <c r="D148" s="53" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="51">
+      <c r="A149" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="53">
         <v>212</v>
       </c>
-      <c r="C149" s="51" t="s">
+      <c r="C149" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="D149" s="51" t="s">
+      <c r="D149" s="53" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="51">
+      <c r="A150" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="53">
         <v>213</v>
       </c>
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="D150" s="51" t="s">
+      <c r="D150" s="53" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="51">
+      <c r="A151" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="53">
         <v>214</v>
       </c>
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="51" t="s">
+      <c r="D151" s="53" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="51">
+      <c r="A152" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="53">
         <v>215</v>
       </c>
-      <c r="C152" s="51" t="s">
+      <c r="C152" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="D152" s="51" t="s">
+      <c r="D152" s="53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="51">
+      <c r="A153" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="53">
         <v>216</v>
       </c>
-      <c r="C153" s="51" t="s">
+      <c r="C153" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="D153" s="51" t="s">
+      <c r="D153" s="53" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="51">
+      <c r="A154" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="53">
         <v>217</v>
       </c>
-      <c r="C154" s="51" t="s">
+      <c r="C154" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="51" t="s">
+      <c r="D154" s="53" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="51">
+      <c r="A155" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="53">
         <v>218</v>
       </c>
-      <c r="C155" s="51" t="s">
+      <c r="C155" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="D155" s="51" t="s">
+      <c r="D155" s="53" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="51">
+      <c r="A156" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="53">
         <v>219</v>
       </c>
-      <c r="C156" s="51" t="s">
+      <c r="C156" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="D156" s="51" t="s">
+      <c r="D156" s="53" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="51">
+      <c r="A157" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="53">
         <v>220</v>
       </c>
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="D157" s="51" t="s">
+      <c r="D157" s="53" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="51">
+      <c r="A158" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="53">
         <v>221</v>
       </c>
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="D158" s="51" t="s">
+      <c r="D158" s="53" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" s="51">
+      <c r="A159" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="53">
         <v>222</v>
       </c>
-      <c r="C159" s="51" t="s">
+      <c r="C159" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="D159" s="51" t="s">
+      <c r="D159" s="53" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" s="51">
+      <c r="A160" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="53">
         <v>223</v>
       </c>
-      <c r="C160" s="51" t="s">
+      <c r="C160" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="D160" s="51" t="s">
+      <c r="D160" s="53" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="51">
+      <c r="A161" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="53">
         <v>224</v>
       </c>
-      <c r="C161" s="51" t="s">
+      <c r="C161" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="D161" s="51" t="s">
+      <c r="D161" s="53" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" s="51">
+      <c r="A162" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="53">
         <v>225</v>
       </c>
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="D162" s="51" t="s">
+      <c r="D162" s="53" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="51">
+      <c r="A163" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="53">
         <v>226</v>
       </c>
-      <c r="C163" s="51" t="s">
+      <c r="C163" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="D163" s="51" t="s">
+      <c r="D163" s="53" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="51">
+      <c r="A164" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="53">
         <v>227</v>
       </c>
-      <c r="C164" s="51" t="s">
+      <c r="C164" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="D164" s="51" t="s">
+      <c r="D164" s="53" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="51">
+      <c r="A165" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="53">
         <v>228</v>
       </c>
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="D165" s="51" t="s">
+      <c r="D165" s="53" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="51">
+      <c r="A166" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="53">
         <v>229</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="D166" s="51" t="s">
+      <c r="D166" s="53" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="51">
+      <c r="A167" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="53">
         <v>230</v>
       </c>
-      <c r="C167" s="51" t="s">
+      <c r="C167" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="D167" s="51" t="s">
+      <c r="D167" s="53" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="51">
+      <c r="A168" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="53">
         <v>231</v>
       </c>
-      <c r="C168" s="51" t="s">
+      <c r="C168" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="D168" s="51" t="s">
+      <c r="D168" s="53" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="51">
+      <c r="A169" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="53">
         <v>232</v>
       </c>
-      <c r="C169" s="51" t="s">
+      <c r="C169" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="D169" s="51" t="s">
+      <c r="D169" s="53" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="51">
+      <c r="A170" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="53">
         <v>233</v>
       </c>
-      <c r="C170" s="51" t="s">
+      <c r="C170" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="D170" s="51" t="s">
+      <c r="D170" s="53" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171" s="51">
+      <c r="A171" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="53">
         <v>234</v>
       </c>
-      <c r="C171" s="51" t="s">
+      <c r="C171" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="D171" s="51" t="s">
+      <c r="D171" s="53" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="51">
+      <c r="A172" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="53">
         <v>235</v>
       </c>
-      <c r="C172" s="51" t="s">
+      <c r="C172" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D172" s="53" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="51">
+      <c r="A173" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="53">
         <v>236</v>
       </c>
-      <c r="C173" s="51" t="s">
+      <c r="C173" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="53" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="51">
+      <c r="A174" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="53">
         <v>237</v>
       </c>
-      <c r="C174" s="51" t="s">
+      <c r="C174" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="D174" s="51" t="s">
+      <c r="D174" s="53" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="51">
+      <c r="A175" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="53">
         <v>238</v>
       </c>
-      <c r="C175" s="51" t="s">
+      <c r="C175" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="D175" s="51" t="s">
+      <c r="D175" s="53" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="51">
+      <c r="A176" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="53">
         <v>239</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="53" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="51">
+      <c r="A177" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="53">
         <v>240</v>
       </c>
-      <c r="C177" s="51" t="s">
+      <c r="C177" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="53" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="51">
+      <c r="A178" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="53">
         <v>241</v>
       </c>
-      <c r="C178" s="51" t="s">
+      <c r="C178" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="D178" s="51" t="s">
+      <c r="D178" s="53" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="51">
+      <c r="A179" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="53">
         <v>242</v>
       </c>
-      <c r="C179" s="51" t="s">
+      <c r="C179" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="D179" s="51" t="s">
+      <c r="D179" s="53" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="51">
+      <c r="A180" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="53">
         <v>243</v>
       </c>
-      <c r="C180" s="51" t="s">
+      <c r="C180" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="51" t="s">
+      <c r="D180" s="53" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="51">
+      <c r="A181" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="53">
         <v>244</v>
       </c>
-      <c r="C181" s="51" t="s">
+      <c r="C181" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="D181" s="51" t="s">
+      <c r="D181" s="53" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="51">
+      <c r="A182" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="53">
         <v>245</v>
       </c>
-      <c r="C182" s="51" t="s">
+      <c r="C182" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="D182" s="51" t="s">
+      <c r="D182" s="53" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="51">
+      <c r="A183" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="53">
         <v>246</v>
       </c>
-      <c r="C183" s="51" t="s">
+      <c r="C183" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="D183" s="51" t="s">
+      <c r="D183" s="53" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="51">
+      <c r="A184" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="53">
         <v>247</v>
       </c>
-      <c r="C184" s="51" t="s">
+      <c r="C184" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="D184" s="51" t="s">
+      <c r="D184" s="53" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="51">
+      <c r="A185" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="53">
         <v>248</v>
       </c>
-      <c r="C185" s="51" t="s">
+      <c r="C185" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="D185" s="51" t="s">
+      <c r="D185" s="53" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="51">
+      <c r="A186" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="53">
         <v>249</v>
       </c>
-      <c r="C186" s="51" t="s">
+      <c r="C186" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="D186" s="51" t="s">
+      <c r="D186" s="53" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="51">
+      <c r="A187" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="53">
         <v>250</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="D187" s="51" t="s">
+      <c r="D187" s="53" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="51">
+      <c r="A188" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="53">
         <v>251</v>
       </c>
-      <c r="C188" s="51" t="s">
+      <c r="C188" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="D188" s="51" t="s">
+      <c r="D188" s="53" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="51">
+      <c r="A189" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="53">
         <v>252</v>
       </c>
-      <c r="C189" s="51" t="s">
+      <c r="C189" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="D189" s="51" t="s">
+      <c r="D189" s="53" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="51">
+      <c r="A190" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="53">
         <v>253</v>
       </c>
-      <c r="C190" s="51" t="s">
+      <c r="C190" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="D190" s="51" t="s">
+      <c r="D190" s="53" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="51">
+      <c r="A191" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="53">
         <v>254</v>
       </c>
-      <c r="C191" s="51" t="s">
+      <c r="C191" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="D191" s="51" t="s">
+      <c r="D191" s="53" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="51">
+      <c r="A192" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="53">
         <v>255</v>
       </c>
-      <c r="C192" s="51" t="s">
+      <c r="C192" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="D192" s="51" t="s">
+      <c r="D192" s="53" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="51">
+      <c r="A193" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="53">
         <v>256</v>
       </c>
-      <c r="C193" s="51" t="s">
+      <c r="C193" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="D193" s="51" t="s">
+      <c r="D193" s="53" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="51">
+      <c r="A194" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="53">
         <v>257</v>
       </c>
-      <c r="C194" s="51" t="s">
+      <c r="C194" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="D194" s="51" t="s">
+      <c r="D194" s="53" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="51">
+      <c r="A195" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="53">
         <v>258</v>
       </c>
-      <c r="C195" s="51" t="s">
+      <c r="C195" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="D195" s="51" t="s">
+      <c r="D195" s="53" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="51">
+      <c r="A196" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="53">
         <v>259</v>
       </c>
-      <c r="C196" s="51" t="s">
+      <c r="C196" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="D196" s="51" t="s">
+      <c r="D196" s="53" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="51">
+      <c r="A197" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="53">
         <v>260</v>
       </c>
-      <c r="C197" s="51" t="s">
+      <c r="C197" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="D197" s="51" t="s">
+      <c r="D197" s="53" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="51">
+      <c r="A198" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="53">
         <v>261</v>
       </c>
-      <c r="C198" s="51" t="s">
+      <c r="C198" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="D198" s="51" t="s">
+      <c r="D198" s="53" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="51">
+      <c r="A199" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="53">
         <v>262</v>
       </c>
-      <c r="C199" s="51" t="s">
+      <c r="C199" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="D199" s="51" t="s">
+      <c r="D199" s="53" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="51">
+      <c r="A200" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="53">
         <v>263</v>
       </c>
-      <c r="C200" s="51" t="s">
+      <c r="C200" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="D200" s="51" t="s">
+      <c r="D200" s="53" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="51">
+      <c r="A201" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="53">
         <v>264</v>
       </c>
-      <c r="C201" s="51" t="s">
+      <c r="C201" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="D201" s="51" t="s">
+      <c r="D201" s="53" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="51">
+      <c r="A202" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="53">
         <v>265</v>
       </c>
-      <c r="C202" s="51" t="s">
+      <c r="C202" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="D202" s="51" t="s">
+      <c r="D202" s="53" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="51">
+      <c r="A203" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="53">
         <v>266</v>
       </c>
-      <c r="C203" s="51" t="s">
+      <c r="C203" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="D203" s="51" t="s">
+      <c r="D203" s="53" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="51">
+      <c r="A204" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="53">
         <v>267</v>
       </c>
-      <c r="C204" s="51" t="s">
+      <c r="C204" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="D204" s="51" t="s">
+      <c r="D204" s="53" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" s="51">
+      <c r="A205" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="53">
         <v>268</v>
       </c>
-      <c r="C205" s="51" t="s">
+      <c r="C205" s="53" t="s">
         <v>414</v>
       </c>
-      <c r="D205" s="51" t="s">
+      <c r="D205" s="53" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="51">
+      <c r="A206" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="53">
         <v>270</v>
       </c>
-      <c r="C206" s="51" t="s">
+      <c r="C206" s="53" t="s">
         <v>416</v>
       </c>
-      <c r="D206" s="51" t="s">
+      <c r="D206" s="53" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="51">
+      <c r="A207" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="53">
         <v>271</v>
       </c>
-      <c r="C207" s="51" t="s">
+      <c r="C207" s="53" t="s">
         <v>418</v>
       </c>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="53" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="51">
+      <c r="A208" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="53">
         <v>272</v>
       </c>
-      <c r="C208" s="51" t="s">
+      <c r="C208" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="D208" s="51" t="s">
+      <c r="D208" s="53" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="51">
+      <c r="A209" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="53">
         <v>273</v>
       </c>
-      <c r="C209" s="51" t="s">
+      <c r="C209" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="D209" s="51" t="s">
+      <c r="D209" s="53" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="51">
+      <c r="A210" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="53">
         <v>274</v>
       </c>
-      <c r="C210" s="51" t="s">
+      <c r="C210" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="D210" s="51" t="s">
+      <c r="D210" s="53" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" s="51">
+      <c r="A211" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="53">
         <v>275</v>
       </c>
-      <c r="C211" s="51" t="s">
+      <c r="C211" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="D211" s="51" t="s">
+      <c r="D211" s="53" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="51">
+      <c r="A212" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="53">
         <v>276</v>
       </c>
-      <c r="C212" s="51" t="s">
+      <c r="C212" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="D212" s="51" t="s">
+      <c r="D212" s="53" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="51">
+      <c r="A213" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="53">
         <v>277</v>
       </c>
-      <c r="C213" s="51" t="s">
+      <c r="C213" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D213" s="51" t="s">
+      <c r="D213" s="53" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="51">
+      <c r="A214" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="53">
         <v>278</v>
       </c>
-      <c r="C214" s="51" t="s">
+      <c r="C214" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="D214" s="51" t="s">
+      <c r="D214" s="53" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="51">
+      <c r="A215" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="53">
         <v>279</v>
       </c>
-      <c r="C215" s="51" t="s">
+      <c r="C215" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="D215" s="51" t="s">
+      <c r="D215" s="53" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="51">
+      <c r="A216" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="53">
         <v>280</v>
       </c>
-      <c r="C216" s="51" t="s">
+      <c r="C216" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D216" s="53" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="51">
+      <c r="A217" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="53">
         <v>281</v>
       </c>
-      <c r="C217" s="51" t="s">
+      <c r="C217" s="53" t="s">
         <v>438</v>
       </c>
-      <c r="D217" s="51" t="s">
+      <c r="D217" s="53" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="51">
+      <c r="A218" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="53">
         <v>282</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="D218" s="51" t="s">
+      <c r="D218" s="53" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="51">
+      <c r="A219" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="53">
         <v>283</v>
       </c>
-      <c r="C219" s="51" t="s">
+      <c r="C219" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="53" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="51">
+      <c r="A220" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="53">
         <v>284</v>
       </c>
-      <c r="C220" s="51" t="s">
+      <c r="C220" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="D220" s="51" t="s">
+      <c r="D220" s="53" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="51">
+      <c r="A221" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="53">
         <v>285</v>
       </c>
-      <c r="C221" s="51" t="s">
+      <c r="C221" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="53" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="51">
+      <c r="A222" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="53">
         <v>286</v>
       </c>
-      <c r="C222" s="51" t="s">
+      <c r="C222" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="53" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="51">
+      <c r="A223" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="53">
         <v>287</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="53" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="51">
+      <c r="A224" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="53">
         <v>288</v>
       </c>
-      <c r="C224" s="51" t="s">
+      <c r="C224" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="D224" s="51" t="s">
+      <c r="D224" s="53" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="51">
+      <c r="A225" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="53">
         <v>292</v>
       </c>
-      <c r="C225" s="51" t="s">
+      <c r="C225" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="53" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="51">
+      <c r="A226" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="53">
         <v>293</v>
       </c>
-      <c r="C226" s="51" t="s">
+      <c r="C226" s="53" t="s">
         <v>456</v>
       </c>
-      <c r="D226" s="51" t="s">
+      <c r="D226" s="53" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="51">
+      <c r="A227" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="53">
         <v>294</v>
       </c>
-      <c r="C227" s="51" t="s">
+      <c r="C227" s="53" t="s">
         <v>458</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="53" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="51">
+      <c r="A228" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="53">
         <v>295</v>
       </c>
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="53" t="s">
         <v>460</v>
       </c>
-      <c r="D228" s="51" t="s">
+      <c r="D228" s="53" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="51">
+      <c r="A229" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="53">
         <v>296</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="D229" s="51" t="s">
+      <c r="D229" s="53" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="51">
+      <c r="A230" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="53">
         <v>297</v>
       </c>
-      <c r="C230" s="51" t="s">
+      <c r="C230" s="53" t="s">
         <v>464</v>
       </c>
-      <c r="D230" s="51" t="s">
+      <c r="D230" s="53" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="51">
+      <c r="A231" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="53">
         <v>298</v>
       </c>
-      <c r="C231" s="51" t="s">
+      <c r="C231" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D231" s="53" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="51">
+      <c r="A232" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="53">
         <v>299</v>
       </c>
-      <c r="C232" s="51" t="s">
+      <c r="C232" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="D232" s="51" t="s">
+      <c r="D232" s="53" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="51">
+      <c r="A233" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="53">
         <v>300</v>
       </c>
-      <c r="C233" s="51" t="s">
+      <c r="C233" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="D233" s="51" t="s">
+      <c r="D233" s="53" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="51">
+      <c r="A234" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="53">
         <v>301</v>
       </c>
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="D234" s="51" t="s">
+      <c r="D234" s="53" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B235" s="51">
+      <c r="A235" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="53">
         <v>302</v>
       </c>
-      <c r="C235" s="51" t="s">
+      <c r="C235" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="D235" s="51" t="s">
+      <c r="D235" s="53" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="51">
+      <c r="A236" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="53">
         <v>303</v>
       </c>
-      <c r="C236" s="51" t="s">
+      <c r="C236" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="D236" s="51" t="s">
+      <c r="D236" s="53" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="51">
+      <c r="A237" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="53">
         <v>304</v>
       </c>
-      <c r="C237" s="51" t="s">
+      <c r="C237" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="D237" s="51" t="s">
+      <c r="D237" s="53" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="51">
+      <c r="A238" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="53">
         <v>305</v>
       </c>
-      <c r="C238" s="51" t="s">
+      <c r="C238" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="D238" s="51" t="s">
+      <c r="D238" s="53" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="51">
+      <c r="A239" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="53">
         <v>306</v>
       </c>
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="D239" s="51" t="s">
+      <c r="D239" s="53" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" s="51">
+      <c r="A240" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="53">
         <v>307</v>
       </c>
-      <c r="C240" s="51" t="s">
+      <c r="C240" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="D240" s="51" t="s">
+      <c r="D240" s="53" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="51">
+      <c r="A241" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="53">
         <v>308</v>
       </c>
-      <c r="C241" s="51" t="s">
+      <c r="C241" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="D241" s="51" t="s">
+      <c r="D241" s="53" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="51">
+      <c r="A242" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="53">
         <v>309</v>
       </c>
-      <c r="C242" s="51" t="s">
+      <c r="C242" s="53" t="s">
         <v>488</v>
       </c>
-      <c r="D242" s="51" t="s">
+      <c r="D242" s="53" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="51">
+      <c r="A243" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="53">
         <v>310</v>
       </c>
-      <c r="C243" s="51" t="s">
+      <c r="C243" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="D243" s="51" t="s">
+      <c r="D243" s="53" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B244" s="51">
+      <c r="A244" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="53">
         <v>311</v>
       </c>
-      <c r="C244" s="51" t="s">
+      <c r="C244" s="53" t="s">
         <v>492</v>
       </c>
-      <c r="D244" s="51" t="s">
+      <c r="D244" s="53" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="51">
+      <c r="A245" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="53">
         <v>312</v>
       </c>
-      <c r="C245" s="51" t="s">
+      <c r="C245" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="D245" s="51" t="s">
+      <c r="D245" s="53" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B246" s="51">
+      <c r="A246" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="53">
         <v>313</v>
       </c>
-      <c r="C246" s="51" t="s">
+      <c r="C246" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="D246" s="51" t="s">
+      <c r="D246" s="53" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" s="51">
+      <c r="A247" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="53">
         <v>314</v>
       </c>
-      <c r="C247" s="51" t="s">
+      <c r="C247" s="53" t="s">
         <v>498</v>
       </c>
-      <c r="D247" s="51" t="s">
+      <c r="D247" s="53" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" s="51">
+      <c r="A248" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="53">
         <v>315</v>
       </c>
-      <c r="C248" s="51" t="s">
+      <c r="C248" s="53" t="s">
         <v>500</v>
       </c>
-      <c r="D248" s="51" t="s">
+      <c r="D248" s="53" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="51">
+      <c r="A249" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="53">
         <v>316</v>
       </c>
-      <c r="C249" s="51" t="s">
+      <c r="C249" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="D249" s="51" t="s">
+      <c r="D249" s="53" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="51">
+      <c r="A250" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="53">
         <v>317</v>
       </c>
-      <c r="C250" s="51" t="s">
+      <c r="C250" s="53" t="s">
         <v>504</v>
       </c>
-      <c r="D250" s="51" t="s">
+      <c r="D250" s="53" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="51">
+      <c r="A251" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="53">
         <v>318</v>
       </c>
-      <c r="C251" s="51" t="s">
+      <c r="C251" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="D251" s="51" t="s">
+      <c r="D251" s="53" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="51">
+      <c r="A252" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="53">
         <v>319</v>
       </c>
-      <c r="C252" s="51" t="s">
+      <c r="C252" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="D252" s="51" t="s">
+      <c r="D252" s="53" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="51">
+      <c r="A253" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="53">
         <v>320</v>
       </c>
-      <c r="C253" s="51" t="s">
+      <c r="C253" s="53" t="s">
         <v>510</v>
       </c>
-      <c r="D253" s="51" t="s">
+      <c r="D253" s="53" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="51">
+      <c r="A254" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="53">
         <v>321</v>
       </c>
-      <c r="C254" s="51" t="s">
+      <c r="C254" s="53" t="s">
         <v>512</v>
       </c>
-      <c r="D254" s="51" t="s">
+      <c r="D254" s="53" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="51">
+      <c r="A255" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="53">
         <v>322</v>
       </c>
-      <c r="C255" s="51" t="s">
+      <c r="C255" s="53" t="s">
         <v>514</v>
       </c>
-      <c r="D255" s="51" t="s">
+      <c r="D255" s="53" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="51">
+      <c r="A256" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="53">
         <v>323</v>
       </c>
-      <c r="C256" s="51" t="s">
+      <c r="C256" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="D256" s="51" t="s">
+      <c r="D256" s="53" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" s="51">
+      <c r="A257" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="53">
         <v>324</v>
       </c>
-      <c r="C257" s="51" t="s">
+      <c r="C257" s="53" t="s">
         <v>518</v>
       </c>
-      <c r="D257" s="51" t="s">
+      <c r="D257" s="53" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" s="51">
+      <c r="A258" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="53">
         <v>325</v>
       </c>
-      <c r="C258" s="51" t="s">
+      <c r="C258" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="D258" s="51" t="s">
+      <c r="D258" s="53" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="51">
+      <c r="A259" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="53">
         <v>326</v>
       </c>
-      <c r="C259" s="51" t="s">
+      <c r="C259" s="53" t="s">
         <v>522</v>
       </c>
-      <c r="D259" s="51" t="s">
+      <c r="D259" s="53" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="51">
+      <c r="A260" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="53">
         <v>327</v>
       </c>
-      <c r="C260" s="51" t="s">
+      <c r="C260" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="D260" s="51" t="s">
+      <c r="D260" s="53" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="51">
+      <c r="A261" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="53">
         <v>328</v>
       </c>
-      <c r="C261" s="51" t="s">
+      <c r="C261" s="53" t="s">
         <v>526</v>
       </c>
-      <c r="D261" s="51" t="s">
+      <c r="D261" s="53" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" s="51">
+      <c r="A262" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="53">
         <v>329</v>
       </c>
-      <c r="C262" s="51" t="s">
+      <c r="C262" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="D262" s="51" t="s">
+      <c r="D262" s="53" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B263" s="51">
+      <c r="A263" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="53">
         <v>330</v>
       </c>
-      <c r="C263" s="51" t="s">
+      <c r="C263" s="53" t="s">
         <v>530</v>
       </c>
-      <c r="D263" s="51" t="s">
+      <c r="D263" s="53" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="51">
+      <c r="A264" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="53">
         <v>331</v>
       </c>
-      <c r="C264" s="51" t="s">
+      <c r="C264" s="53" t="s">
         <v>532</v>
       </c>
-      <c r="D264" s="51" t="s">
+      <c r="D264" s="53" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="51">
+      <c r="A265" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="53">
         <v>332</v>
       </c>
-      <c r="C265" s="51" t="s">
+      <c r="C265" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="D265" s="51" t="s">
+      <c r="D265" s="53" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="51">
+      <c r="A266" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="53">
         <v>333</v>
       </c>
-      <c r="C266" s="51" t="s">
+      <c r="C266" s="53" t="s">
         <v>536</v>
       </c>
-      <c r="D266" s="51" t="s">
+      <c r="D266" s="53" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="51">
+      <c r="A267" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="53">
         <v>334</v>
       </c>
-      <c r="C267" s="51" t="s">
+      <c r="C267" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="D267" s="51" t="s">
+      <c r="D267" s="53" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="51">
+      <c r="A268" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="53">
         <v>335</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="53" t="s">
         <v>540</v>
       </c>
-      <c r="D268" s="51" t="s">
+      <c r="D268" s="53" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="51">
+      <c r="A269" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="53">
         <v>336</v>
       </c>
-      <c r="C269" s="51" t="s">
+      <c r="C269" s="53" t="s">
         <v>542</v>
       </c>
-      <c r="D269" s="51" t="s">
+      <c r="D269" s="53" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="51">
+      <c r="A270" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="53">
         <v>337</v>
       </c>
-      <c r="C270" s="51" t="s">
+      <c r="C270" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="D270" s="51" t="s">
+      <c r="D270" s="53" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="51">
+      <c r="A271" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="53">
         <v>338</v>
       </c>
-      <c r="C271" s="51" t="s">
+      <c r="C271" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="D271" s="51" t="s">
+      <c r="D271" s="53" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="51">
+      <c r="A272" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="53">
         <v>339</v>
       </c>
-      <c r="C272" s="51" t="s">
+      <c r="C272" s="53" t="s">
         <v>548</v>
       </c>
-      <c r="D272" s="51" t="s">
+      <c r="D272" s="53" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="51">
+      <c r="A273" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="53">
         <v>340</v>
       </c>
-      <c r="C273" s="51" t="s">
+      <c r="C273" s="53" t="s">
         <v>550</v>
       </c>
-      <c r="D273" s="51" t="s">
+      <c r="D273" s="53" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="51">
+      <c r="A274" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="53">
         <v>341</v>
       </c>
-      <c r="C274" s="51" t="s">
+      <c r="C274" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="D274" s="51" t="s">
+      <c r="D274" s="53" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="51">
+      <c r="A275" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="53">
         <v>342</v>
       </c>
-      <c r="C275" s="51" t="s">
+      <c r="C275" s="53" t="s">
         <v>554</v>
       </c>
-      <c r="D275" s="51" t="s">
+      <c r="D275" s="53" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="51">
+      <c r="A276" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="53">
         <v>343</v>
       </c>
-      <c r="C276" s="51" t="s">
+      <c r="C276" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="D276" s="51" t="s">
+      <c r="D276" s="53" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="51">
+      <c r="A277" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="53">
         <v>344</v>
       </c>
-      <c r="C277" s="51" t="s">
+      <c r="C277" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="D277" s="51" t="s">
+      <c r="D277" s="53" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" s="51">
+      <c r="A278" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="53">
         <v>345</v>
       </c>
-      <c r="C278" s="51" t="s">
+      <c r="C278" s="53" t="s">
         <v>560</v>
       </c>
-      <c r="D278" s="51" t="s">
+      <c r="D278" s="53" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="51">
+      <c r="A279" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="53">
         <v>346</v>
       </c>
-      <c r="C279" s="51" t="s">
+      <c r="C279" s="53" t="s">
         <v>562</v>
       </c>
-      <c r="D279" s="51" t="s">
+      <c r="D279" s="53" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B280" s="51">
+      <c r="A280" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="53">
         <v>347</v>
       </c>
-      <c r="C280" s="51" t="s">
+      <c r="C280" s="53" t="s">
         <v>564</v>
       </c>
-      <c r="D280" s="51" t="s">
+      <c r="D280" s="53" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="51">
+      <c r="A281" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="53">
         <v>348</v>
       </c>
-      <c r="C281" s="51" t="s">
+      <c r="C281" s="53" t="s">
         <v>566</v>
       </c>
-      <c r="D281" s="51" t="s">
+      <c r="D281" s="53" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="51">
+      <c r="A282" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="53">
         <v>349</v>
       </c>
-      <c r="C282" s="51" t="s">
+      <c r="C282" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="D282" s="51" t="s">
+      <c r="D282" s="53" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="51">
+      <c r="A283" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="53">
         <v>350</v>
       </c>
-      <c r="C283" s="51" t="s">
+      <c r="C283" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="D283" s="51" t="s">
+      <c r="D283" s="53" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="51">
+      <c r="A284" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="53">
         <v>351</v>
       </c>
-      <c r="C284" s="51" t="s">
+      <c r="C284" s="53" t="s">
         <v>572</v>
       </c>
-      <c r="D284" s="51" t="s">
+      <c r="D284" s="53" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="51">
+      <c r="A285" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="53">
         <v>356</v>
       </c>
-      <c r="C285" s="51" t="s">
+      <c r="C285" s="53" t="s">
         <v>574</v>
       </c>
-      <c r="D285" s="51" t="s">
+      <c r="D285" s="53" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="51">
+      <c r="A286" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="53">
         <v>357</v>
       </c>
-      <c r="C286" s="51" t="s">
+      <c r="C286" s="53" t="s">
         <v>576</v>
       </c>
-      <c r="D286" s="51" t="s">
+      <c r="D286" s="53" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="51">
+      <c r="A287" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="53">
         <v>358</v>
       </c>
-      <c r="C287" s="51" t="s">
+      <c r="C287" s="53" t="s">
         <v>578</v>
       </c>
-      <c r="D287" s="51" t="s">
+      <c r="D287" s="53" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="51">
+      <c r="A288" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="53">
         <v>359</v>
       </c>
-      <c r="C288" s="51" t="s">
+      <c r="C288" s="53" t="s">
         <v>580</v>
       </c>
-      <c r="D288" s="51" t="s">
+      <c r="D288" s="53" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="51">
+      <c r="A289" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="53">
         <v>372</v>
       </c>
-      <c r="C289" s="51" t="s">
+      <c r="C289" s="53" t="s">
         <v>582</v>
       </c>
-      <c r="D289" s="51" t="s">
+      <c r="D289" s="53" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="51">
+      <c r="A290" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="53">
         <v>385</v>
       </c>
-      <c r="C290" s="51" t="s">
+      <c r="C290" s="53" t="s">
         <v>584</v>
       </c>
-      <c r="D290" s="51" t="s">
+      <c r="D290" s="53" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="51">
+      <c r="A291" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="53">
         <v>396</v>
       </c>
-      <c r="C291" s="51" t="s">
+      <c r="C291" s="53" t="s">
         <v>586</v>
       </c>
-      <c r="D291" s="51" t="s">
+      <c r="D291" s="53" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="51">
+      <c r="A292" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="53">
         <v>397</v>
       </c>
-      <c r="C292" s="51" t="s">
+      <c r="C292" s="53" t="s">
         <v>588</v>
       </c>
-      <c r="D292" s="51" t="s">
+      <c r="D292" s="53" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="51">
+      <c r="A293" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="53">
         <v>406</v>
       </c>
-      <c r="C293" s="51" t="s">
+      <c r="C293" s="53" t="s">
         <v>590</v>
       </c>
-      <c r="D293" s="51" t="s">
+      <c r="D293" s="53" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" s="51">
+      <c r="A294" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="53">
         <v>407</v>
       </c>
-      <c r="C294" s="51" t="s">
+      <c r="C294" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="D294" s="51" t="s">
+      <c r="D294" s="53" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="51">
+      <c r="A295" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="53">
         <v>416</v>
       </c>
-      <c r="C295" s="51" t="s">
+      <c r="C295" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="D295" s="51" t="s">
+      <c r="D295" s="53" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" s="51">
+      <c r="A296" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="53">
         <v>417</v>
       </c>
-      <c r="C296" s="51" t="s">
+      <c r="C296" s="53" t="s">
         <v>596</v>
       </c>
-      <c r="D296" s="51" t="s">
+      <c r="D296" s="53" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="51">
+      <c r="A297" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" s="53">
         <v>418</v>
       </c>
-      <c r="C297" s="51" t="s">
+      <c r="C297" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="D297" s="51" t="s">
+      <c r="D297" s="53" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="51">
+      <c r="A298" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="53">
         <v>673</v>
       </c>
-      <c r="C298" s="51" t="s">
+      <c r="C298" s="53" t="s">
         <v>600</v>
       </c>
-      <c r="D298" s="51" t="s">
+      <c r="D298" s="53" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="51">
+      <c r="A299" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="53">
         <v>674</v>
       </c>
-      <c r="C299" s="51" t="s">
+      <c r="C299" s="53" t="s">
         <v>602</v>
       </c>
-      <c r="D299" s="51" t="s">
+      <c r="D299" s="53" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="51">
+      <c r="A300" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="53">
         <v>675</v>
       </c>
-      <c r="C300" s="51" t="s">
+      <c r="C300" s="53" t="s">
         <v>604</v>
       </c>
-      <c r="D300" s="51" t="s">
+      <c r="D300" s="53" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="51">
+      <c r="A301" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="53">
         <v>676</v>
       </c>
-      <c r="C301" s="51" t="s">
+      <c r="C301" s="53" t="s">
         <v>606</v>
       </c>
-      <c r="D301" s="51" t="s">
+      <c r="D301" s="53" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="51">
+      <c r="A302" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="53">
         <v>677</v>
       </c>
-      <c r="C302" s="51" t="s">
+      <c r="C302" s="53" t="s">
         <v>608</v>
       </c>
-      <c r="D302" s="51" t="s">
+      <c r="D302" s="53" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B303" s="51">
+      <c r="A303" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="53">
         <v>678</v>
       </c>
-      <c r="C303" s="51" t="s">
+      <c r="C303" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="D303" s="51" t="s">
+      <c r="D303" s="53" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="51">
+      <c r="A304" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" s="53">
         <v>679</v>
       </c>
-      <c r="C304" s="51" t="s">
+      <c r="C304" s="53" t="s">
         <v>612</v>
       </c>
-      <c r="D304" s="51" t="s">
+      <c r="D304" s="53" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="51">
+      <c r="A305" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" s="53">
         <v>680</v>
       </c>
-      <c r="C305" s="51" t="s">
+      <c r="C305" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="D305" s="51" t="s">
+      <c r="D305" s="53" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="51">
+      <c r="A306" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" s="53">
         <v>681</v>
       </c>
-      <c r="C306" s="51" t="s">
+      <c r="C306" s="53" t="s">
         <v>616</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="D306" s="53" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="51">
+      <c r="A307" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="53">
         <v>682</v>
       </c>
-      <c r="C307" s="51" t="s">
+      <c r="C307" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="D307" s="51" t="s">
+      <c r="D307" s="53" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="308">
-      <c r="B308" s="51">
-        <v>2282</v>
-      </c>
-      <c r="C308" s="51" t="s">
+      <c r="B308" s="53">
+        <v>2320</v>
+      </c>
+      <c r="C308" s="53" t="s">
         <v>620</v>
       </c>
-      <c r="D308" s="51" t="s">
+      <c r="D308" s="53" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="51">
-        <v>2283</v>
-      </c>
-      <c r="C309" s="51" t="s">
+      <c r="A309" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="53">
+        <v>2321</v>
+      </c>
+      <c r="C309" s="53" t="s">
         <v>622</v>
       </c>
-      <c r="D309" s="51" t="s">
+      <c r="D309" s="53" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="51">
-        <v>2313</v>
-      </c>
-      <c r="C310" s="51" t="s">
+      <c r="A310" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" s="53">
+        <v>2333</v>
+      </c>
+      <c r="C310" s="53" t="s">
         <v>624</v>
       </c>
-      <c r="D310" s="51" t="s">
+      <c r="D310" s="53" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="51">
-        <v>2319</v>
-      </c>
-      <c r="C311" s="51" t="s">
+      <c r="A311" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="53">
+        <v>2339</v>
+      </c>
+      <c r="C311" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="D311" s="51" t="s">
+      <c r="D311" s="53" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B312" s="51">
-        <v>2320</v>
-      </c>
-      <c r="C312" s="51" t="s">
+      <c r="A312" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" s="53">
+        <v>2639</v>
+      </c>
+      <c r="C312" s="53" t="s">
         <v>628</v>
       </c>
-      <c r="D312" s="51" t="s">
+      <c r="D312" s="53" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="51">
-        <v>2321</v>
-      </c>
-      <c r="C313" s="51" t="s">
+      <c r="A313" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="53">
+        <v>2646</v>
+      </c>
+      <c r="C313" s="53" t="s">
         <v>630</v>
       </c>
-      <c r="D313" s="51" t="s">
+      <c r="D313" s="53" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="51">
-        <v>2333</v>
-      </c>
-      <c r="C314" s="51" t="s">
+      <c r="A314" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="53">
+        <v>2948</v>
+      </c>
+      <c r="C314" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="D314" s="51" t="s">
+      <c r="D314" s="53" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="51">
-        <v>2339</v>
-      </c>
-      <c r="C315" s="51" t="s">
+      <c r="A315" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="53">
+        <v>2974</v>
+      </c>
+      <c r="C315" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="D315" s="51" t="s">
+      <c r="D315" s="53" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316" s="51">
-        <v>2639</v>
-      </c>
-      <c r="C316" s="51" t="s">
+      <c r="A316" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" s="53">
+        <v>2980</v>
+      </c>
+      <c r="C316" s="53" t="s">
         <v>636</v>
       </c>
-      <c r="D316" s="51" t="s">
+      <c r="D316" s="53" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="51">
-        <v>2646</v>
-      </c>
-      <c r="C317" s="51" t="s">
+      <c r="A317" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" s="53">
+        <v>2983</v>
+      </c>
+      <c r="C317" s="53" t="s">
         <v>638</v>
       </c>
-      <c r="D317" s="51" t="s">
+      <c r="D317" s="53" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B318" s="51">
-        <v>2948</v>
-      </c>
-      <c r="C318" s="51" t="s">
+      <c r="A318" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" s="53">
+        <v>3284</v>
+      </c>
+      <c r="C318" s="53" t="s">
         <v>640</v>
       </c>
-      <c r="D318" s="51" t="s">
+      <c r="D318" s="53" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="51">
-        <v>2974</v>
-      </c>
-      <c r="C319" s="51" t="s">
+      <c r="A319" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="53">
+        <v>3299</v>
+      </c>
+      <c r="C319" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="D319" s="51" t="s">
+      <c r="D319" s="53" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="51">
-        <v>2980</v>
-      </c>
-      <c r="C320" s="51" t="s">
+      <c r="A320" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="53">
+        <v>3333</v>
+      </c>
+      <c r="C320" s="53" t="s">
         <v>644</v>
       </c>
-      <c r="D320" s="51" t="s">
+      <c r="D320" s="53" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="51">
-        <v>2983</v>
-      </c>
-      <c r="C321" s="51" t="s">
+      <c r="A321" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="53">
+        <v>3340</v>
+      </c>
+      <c r="C321" s="53" t="s">
         <v>646</v>
       </c>
-      <c r="D321" s="51" t="s">
+      <c r="D321" s="53" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B322" s="51">
-        <v>3284</v>
-      </c>
-      <c r="C322" s="51" t="s">
+      <c r="A322" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="53">
+        <v>3341</v>
+      </c>
+      <c r="C322" s="53" t="s">
         <v>648</v>
       </c>
-      <c r="D322" s="51" t="s">
+      <c r="D322" s="53" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="51">
-        <v>3299</v>
-      </c>
-      <c r="C323" s="51" t="s">
+      <c r="A323" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="53">
+        <v>3351</v>
+      </c>
+      <c r="C323" s="53" t="s">
         <v>650</v>
       </c>
-      <c r="D323" s="51" t="s">
+      <c r="D323" s="53" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="51">
-        <v>3333</v>
-      </c>
-      <c r="C324" s="51" t="s">
+      <c r="A324" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="53">
+        <v>3358</v>
+      </c>
+      <c r="C324" s="53" t="s">
         <v>652</v>
       </c>
-      <c r="D324" s="51" t="s">
+      <c r="D324" s="53" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" s="51">
-        <v>3340</v>
-      </c>
-      <c r="C325" s="51" t="s">
+      <c r="A325" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="53">
+        <v>3388</v>
+      </c>
+      <c r="C325" s="53" t="s">
         <v>654</v>
       </c>
-      <c r="D325" s="51" t="s">
+      <c r="D325" s="53" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="51">
-        <v>3341</v>
-      </c>
-      <c r="C326" s="51" t="s">
+      <c r="A326" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="53">
+        <v>3397</v>
+      </c>
+      <c r="C326" s="53" t="s">
         <v>656</v>
       </c>
-      <c r="D326" s="51" t="s">
+      <c r="D326" s="53" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B327" s="50">
-        <v>3351</v>
-      </c>
-      <c r="C327" s="51" t="s">
+      <c r="A327" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" s="52">
+        <v>3398</v>
+      </c>
+      <c r="C327" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="D327" s="51" t="s">
+      <c r="D327" s="53" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B328" s="50">
-        <v>3358</v>
-      </c>
-      <c r="C328" s="51" t="s">
+      <c r="A328" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="52">
+        <v>3405</v>
+      </c>
+      <c r="C328" s="53" t="s">
         <v>660</v>
       </c>
-      <c r="D328" s="51" t="s">
+      <c r="D328" s="53" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="49">
-        <v>3388</v>
-      </c>
-      <c r="C329" s="51" t="s">
+      <c r="A329" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="51">
+        <v>3423</v>
+      </c>
+      <c r="C329" s="53" t="s">
         <v>662</v>
       </c>
-      <c r="D329" s="51" t="s">
+      <c r="D329" s="53" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="50">
+        <v>3471</v>
+      </c>
+      <c r="C330" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="D330" s="53" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="50">
+        <v>3485</v>
+      </c>
+      <c r="C331" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="D331" s="53" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="994">
   <si>
     <t>${name}</t>
   </si>
@@ -77,1822 +77,2734 @@
     <t>*</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>AvaMask_AvatarLayer_Bottom</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/AvatarLayer_Bottom.mask</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>AvaMask_AvatarLayer_Top</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/AvatarLayer_Top.mask</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>AvaMask_AvatarLayer_Base</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/AvatarLayer_Base.mask</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Pre_EffectPlayerSkill2_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Anim_Battle_idle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_idle.FBX</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>Anim_Rest_idle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_idle.FBX</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Anim_Rest_relax_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_relax_01.FBX</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Anim_Rest_relax_02</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_relax_02.FBX</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Anim_Rest_relax_03</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_relax_03.FBX</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>Anim_Attack_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_01.FBX</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Anim_Attack_02</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_02.FBX</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>Anim_Attack_03</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_03.FBX</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Anim_Attack_04</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_04.FBX</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>Anim_Attack_05</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_05.FBX</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>Anim_Attack_06</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_06.FBX</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>Anim_Battle_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_run.FBX</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>Anim_Jump_inplace</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_inplace.FBX</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>Anim_Jump_fall_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_fall_loop.FBX</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>Anim_Jump_fall_end_H_Battle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_fall_end_H_Battle.FBX</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>Anim_Jump_fall_end_L_Battle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_fall_end_L_Battle.FBX</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>Pre_PlayerEntity</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/PlayerEntity.prefab</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>Pre_Player_ZhanShi</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Player_ZhanShi.prefab</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>Pre_Wizard</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Wizard.prefab</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>Pre_TestPrefab</t>
   </si>
   <si>
     <t>Assets/Resources/Prefab/TestPrefab.prefab</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>Pre_GameManager</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/GameManager.prefab</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>Pre_UILevelWindow</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/UILevelWindow.prefab</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>Pre_UIStartGameWindow</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/UIStartGameWindow.prefab</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>Pre_UIWindow</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/UIWindow.prefab</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>Sp_Square</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Sprites/Square.png</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>Sp_Boy_Tex_Face_Lightmap</t>
   </si>
   <si>
     <t>Assets/Resources/Boy_Tex_Face_Lightmap.png</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>Sp_Common_Tex_MetalMap</t>
   </si>
   <si>
     <t>Assets/Resources/Common_Tex_MetalMap.png</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>Sp_Girl_Tex_Face_Shadow</t>
   </si>
   <si>
     <t>Assets/Resources/Girl_Tex_Face_Shadow.png</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>Sp_OIF_C</t>
   </si>
   <si>
     <t>Assets/Resources/OIF_C.png</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>Sp_OIP_C</t>
   </si>
   <si>
     <t>Assets/Resources/OIP_C.png</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>Anim_Role_Zhanshi_Tz_Boy1</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Role_Zhanshi_Tz_Boy1.FBX</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>Anim_Role_Zhanshi_Tz_Boy</t>
   </si>
   <si>
     <t>Assets/Resources/Role_Zhanshi_Tz_Boy.FBX</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>Anim_Accelerate</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Accelerate.FBX</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>Anim_Accelerate_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Accelerate_01.FBX</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>Anim_Accelerate_attack</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Accelerate_attack.FBX</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>Anim_Attack</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack.FBX</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>Anim_Attack_01_B_Down</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_01_B_Down.FBX</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>Anim_Attack_01_B_Loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_01_B_Loop.FBX</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>Anim_Attack_01_B_Start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_01_B_Start.FBX</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>Anim_Attack_run_B</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_run_B.FBX</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>Anim_Attack_run_F</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_run_F.FBX</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>Anim_Attack_run_L</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_run_L.FBX</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>Anim_Attack_run_R</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_run_R.FBX</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>Anim_Battle_block</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_block.FBX</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Anim_Battle_fail</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_fail.FBX</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Anim_Battle_parryleft</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_parryleft.FBX</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Anim_Battle_parryright</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_parryright.FBX</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>Anim_Battle_run_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_run_Mir.FBX</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>Anim_Battle_runstop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_runstop.FBX</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>Anim_Battle_runstop_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_runstop_Mir.FBX</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>Anim_Battle_to_rest</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_to_rest.FBX</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>Anim_Battle_turn_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_turn_left.FBX</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Anim_Battle_turn_left_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_turn_left_Mir.FBX</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Anim_Battle_turn_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_turn_right.FBX</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Anim_Battle_turn_right_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_turn_right_Mir.FBX</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Anim_Battle_victory</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_victory.FBX</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>Anim_Camp_Magic_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Camp_Magic_01.FBX</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>Anim_Climb_SlipWall_F</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_SlipWall_F.FBX</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>Anim_Climb_down</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_down.FBX</t>
   </si>
   <si>
+    <t>127</t>
+  </si>
+  <si>
     <t>Anim_Climb_down_mirror</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_down_mirror.FBX</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>Anim_Climb_end</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_end.FBX</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump.FBX</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump_idle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump_idle.FBX</t>
   </si>
   <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump_leave_start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump_leave_start.FBX</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump_left.FBX</t>
   </si>
   <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump_left_up</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump_left_up.FBX</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump_right.FBX</t>
   </si>
   <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>Anim_Climb_jump_right_up</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_jump_right_up.FBX</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>Anim_Climb_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_left.FBX</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
     <t>Anim_Climb_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_loop.FBX</t>
   </si>
   <si>
+    <t>138</t>
+  </si>
+  <si>
     <t>Anim_Climb_loop_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_loop_left.FBX</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>Anim_Climb_loop_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_loop_right.FBX</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Anim_Climb_lower</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_lower.FBX</t>
   </si>
   <si>
+    <t>141</t>
+  </si>
+  <si>
     <t>Anim_Climb_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_right.FBX</t>
   </si>
   <si>
+    <t>142</t>
+  </si>
+  <si>
     <t>Anim_Climb_start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_start.FBX</t>
   </si>
   <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>Anim_Climb_top</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_top.FBX</t>
   </si>
   <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>Anim_Climb_turn_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_turn_left.FBX</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
     <t>Anim_Climb_turn_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_turn_right.FBX</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>Anim_Climb_up</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_up.FBX</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
     <t>Anim_Climb_up_mirror</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Climb_up_mirror.FBX</t>
   </si>
   <si>
+    <t>148</t>
+  </si>
+  <si>
     <t>Anim_Collect_end</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Collect_end.FBX</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
     <t>Anim_Collect_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Collect_loop.FBX</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Anim_Collect_star</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Collect_star.FBX</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Anim_Death</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Death.FBX</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Anim_Die</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Die.FBX</t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>Anim_Dizziness</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Dizziness.FBX</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>Anim_Escape</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Escape.FBX</t>
   </si>
   <si>
+    <t>155</t>
+  </si>
+  <si>
     <t>Anim_Felling_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Felling_loop.FBX</t>
   </si>
   <si>
+    <t>156</t>
+  </si>
+  <si>
     <t>Anim_Forge_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Forge_loop.FBX</t>
   </si>
   <si>
+    <t>157</t>
+  </si>
+  <si>
     <t>Anim_Getup</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Getup.FBX</t>
   </si>
   <si>
+    <t>158</t>
+  </si>
+  <si>
     <t>Anim_Hit_common_back</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_common_back.FBX</t>
   </si>
   <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>Anim_Hit_common_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_common_left.FBX</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Anim_Hit_common_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_common_right.FBX</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>Anim_Hit_heavy_back</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_heavy_back.FBX</t>
   </si>
   <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>Anim_Hit_heavy_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_heavy_left.FBX</t>
   </si>
   <si>
+    <t>163</t>
+  </si>
+  <si>
     <t>Anim_Hit_heavy_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_heavy_right.FBX</t>
   </si>
   <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>Anim_Hit_lie</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_lie.FBX</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
     <t>Anim_Hit_light</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_light.FBX</t>
   </si>
   <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>Anim_Hit_roll</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hit_roll.FBX</t>
   </si>
   <si>
+    <t>167</t>
+  </si>
+  <si>
     <t>Anim_Hitdown_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitdown_01.FBX</t>
   </si>
   <si>
+    <t>168</t>
+  </si>
+  <si>
     <t>Anim_Hitfly_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitfly_01.FBX</t>
   </si>
   <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>Anim_Hitfly_02</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitfly_02.FBX</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>Anim_Hitfly_03</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitfly_03.FBX</t>
   </si>
   <si>
+    <t>171</t>
+  </si>
+  <si>
     <t>Anim_Hitfly_04</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitfly_04.FBX</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>Anim_Hitfly_flip_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitfly_flip_01.FBX</t>
   </si>
   <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>Anim_Hitfly_flip_02</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Hitfly_flip_02.FBX</t>
   </si>
   <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>Anim_Interactive_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Interactive_01.FBX</t>
   </si>
   <si>
+    <t>175</t>
+  </si>
+  <si>
     <t>Anim_Interactive_02</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Interactive_02.FBX</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>Anim_Interactive_03</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Interactive_03.FBX</t>
   </si>
   <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>Anim_Interactive_04</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Interactive_04.FBX</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>Anim_Interactive_05</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Interactive_05.FBX</t>
   </si>
   <si>
+    <t>179</t>
+  </si>
+  <si>
     <t>Anim_Jump_fall_end_H</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_fall_end_H.FBX</t>
   </si>
   <si>
+    <t>181</t>
+  </si>
+  <si>
     <t>Anim_Jump_fall_end_L</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_fall_end_L.FBX</t>
   </si>
   <si>
+    <t>185</t>
+  </si>
+  <si>
     <t>Anim_Jump_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_run.FBX</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
     <t>Anim_Jump_run_fallground</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_run_fallground.FBX</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
     <t>Anim_Jump_run_fallground_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_run_fallground_mir.FBX</t>
   </si>
   <si>
+    <t>188</t>
+  </si>
+  <si>
     <t>Anim_Jump_run_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_run_mir.FBX</t>
   </si>
   <si>
+    <t>189</t>
+  </si>
+  <si>
     <t>Anim_Jump_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_sprint.FBX</t>
   </si>
   <si>
+    <t>190</t>
+  </si>
+  <si>
     <t>Anim_Jump_sprint_fallground</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_sprint_fallground.FBX</t>
   </si>
   <si>
+    <t>191</t>
+  </si>
+  <si>
     <t>Anim_Jump_sprint_fallground_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_sprint_fallground_mir.FBX</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>Anim_Jump_sprint_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_sprint_mir.FBX</t>
   </si>
   <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Anim_Jump_walk</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_walk.FBX</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
     <t>Anim_Jump_walk_fallground</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_walk_fallground.FBX</t>
   </si>
   <si>
+    <t>195</t>
+  </si>
+  <si>
     <t>Anim_Jump_walk_fallground_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_walk_fallground_mir.FBX</t>
   </si>
   <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>Anim_Jump_walk_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_walk_mir.FBX</t>
   </si>
   <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Anim_Lie</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Lie.FBX</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>Anim_Live</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Live.FBX</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Anim_Magic_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01.FBX</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_1.FBX</t>
   </si>
   <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_2.FBX</t>
   </si>
   <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_3</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_3.FBX</t>
   </si>
   <si>
+    <t>203</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_4</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_4.FBX</t>
   </si>
   <si>
+    <t>204</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_4_6</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_4_6.FBX</t>
   </si>
   <si>
+    <t>205</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_5</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_5.FBX</t>
   </si>
   <si>
+    <t>206</t>
+  </si>
+  <si>
     <t>Anim_Magic_01_6</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_01_6.FBX</t>
   </si>
   <si>
+    <t>207</t>
+  </si>
+  <si>
     <t>Anim_Magic_02</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_02.FBX</t>
   </si>
   <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>Anim_Magic_02_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_02_1.FBX</t>
   </si>
   <si>
+    <t>209</t>
+  </si>
+  <si>
     <t>Anim_Magic_02_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_02_2.FBX</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Anim_Magic_03_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_03_1.FBX</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
     <t>Anim_Magic_03_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_03_2.FBX</t>
   </si>
   <si>
+    <t>212</t>
+  </si>
+  <si>
     <t>Anim_Magic_03_3</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_03_3.FBX</t>
   </si>
   <si>
+    <t>213</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_1.FBX</t>
   </si>
   <si>
+    <t>214</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_2.FBX</t>
   </si>
   <si>
+    <t>215</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_3</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_3.FBX</t>
   </si>
   <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_4</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_4.FBX</t>
   </si>
   <si>
+    <t>217</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_5_Loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_5_Loop.FBX</t>
   </si>
   <si>
+    <t>218</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_6</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_6.FBX</t>
   </si>
   <si>
+    <t>219</t>
+  </si>
+  <si>
     <t>Anim_Magic_04_BD_01_1_Loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_04_BD_01_1_Loop.FBX</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Anim_Magic_05</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05.FBX</t>
   </si>
   <si>
+    <t>221</t>
+  </si>
+  <si>
     <t>Anim_Magic_05_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05_1.FBX</t>
   </si>
   <si>
+    <t>222</t>
+  </si>
+  <si>
     <t>Anim_Magic_05_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05_2.FBX</t>
   </si>
   <si>
+    <t>223</t>
+  </si>
+  <si>
     <t>Anim_Magic_05_BD_01_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05_BD_01_1.FBX</t>
   </si>
   <si>
+    <t>224</t>
+  </si>
+  <si>
     <t>Anim_Magic_05_BD_01_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05_BD_01_2.FBX</t>
   </si>
   <si>
+    <t>225</t>
+  </si>
+  <si>
     <t>Anim_Magic_05_BD_02_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05_BD_02_1.FBX</t>
   </si>
   <si>
+    <t>226</t>
+  </si>
+  <si>
     <t>Anim_Magic_05_BD_02_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_05_BD_02_2.FBX</t>
   </si>
   <si>
+    <t>227</t>
+  </si>
+  <si>
     <t>Anim_Magic_06_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_06_1.FBX</t>
   </si>
   <si>
+    <t>228</t>
+  </si>
+  <si>
     <t>Anim_Magic_06_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_06_2.FBX</t>
   </si>
   <si>
+    <t>229</t>
+  </si>
+  <si>
     <t>Anim_Magic_06_3</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_06_3.FBX</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Anim_Magic_06_4</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_06_4.FBX</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Anim_Magic_06_5</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_06_5.FBX</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Anim_Magic_06_6</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_06_6.FBX</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Anim_Magic_07</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_07.FBX</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Anim_Magic_07_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_07_1.FBX</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Anim_Magic_07_2</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_07_2.FBX</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Anim_Magic_07_3</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_07_3.FBX</t>
   </si>
   <si>
+    <t>237</t>
+  </si>
+  <si>
     <t>Anim_Magic_07_4</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_07_4.FBX</t>
   </si>
   <si>
+    <t>238</t>
+  </si>
+  <si>
     <t>Anim_Magic_07_5</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_07_5.FBX</t>
   </si>
   <si>
+    <t>239</t>
+  </si>
+  <si>
     <t>Anim_Magic_08_1</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_08_1.FBX</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Anim_Magic_blink</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_blink.FBX</t>
   </si>
   <si>
+    <t>241</t>
+  </si>
+  <si>
     <t>Anim_Magic_run_B</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_run_B.FBX</t>
   </si>
   <si>
+    <t>242</t>
+  </si>
+  <si>
     <t>Anim_Magic_run_F</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_run_F.FBX</t>
   </si>
   <si>
+    <t>243</t>
+  </si>
+  <si>
     <t>Anim_Magic_run_L</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_run_L.FBX</t>
   </si>
   <si>
+    <t>244</t>
+  </si>
+  <si>
     <t>Anim_Magic_run_R</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Magic_run_R.FBX</t>
   </si>
   <si>
+    <t>245</t>
+  </si>
+  <si>
     <t>Anim_Make_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Make_loop.FBX</t>
   </si>
   <si>
+    <t>246</t>
+  </si>
+  <si>
     <t>Anim_Mayhem_down</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mayhem_down.FBX</t>
   </si>
   <si>
+    <t>247</t>
+  </si>
+  <si>
     <t>Anim_Mayhem_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mayhem_loop.FBX</t>
   </si>
   <si>
+    <t>248</t>
+  </si>
+  <si>
     <t>Anim_Mayhem_start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mayhem_start.FBX</t>
   </si>
   <si>
+    <t>249</t>
+  </si>
+  <si>
     <t>Anim_Mayhem_up</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mayhem_up.FBX</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Anim_Mining_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mining_loop.FBX</t>
   </si>
   <si>
+    <t>251</t>
+  </si>
+  <si>
     <t>Anim_Mount_down</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_down.FBX</t>
   </si>
   <si>
+    <t>252</t>
+  </si>
+  <si>
     <t>Anim_Mount_hit</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_hit.FBX</t>
   </si>
   <si>
+    <t>253</t>
+  </si>
+  <si>
     <t>Anim_Mount_hitdown</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_hitdown.FBX</t>
   </si>
   <si>
+    <t>254</t>
+  </si>
+  <si>
     <t>Anim_Mount_idle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_idle.FBX</t>
   </si>
   <si>
+    <t>255</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_fall_end_L</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_fall_end_L.FBX</t>
   </si>
   <si>
+    <t>256</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_fall_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_fall_loop.FBX</t>
   </si>
   <si>
+    <t>257</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_inplace</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_inplace.FBX</t>
   </si>
   <si>
+    <t>258</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_run.FBX</t>
   </si>
   <si>
+    <t>259</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_run_fallground</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_run_fallground.FBX</t>
   </si>
   <si>
+    <t>260</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_sprint.FBX</t>
   </si>
   <si>
+    <t>261</t>
+  </si>
+  <si>
     <t>Anim_Mount_jump_sprint_fallground</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_jump_sprint_fallground.FBX</t>
   </si>
   <si>
+    <t>262</t>
+  </si>
+  <si>
     <t>Anim_Mount_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_run.FBX</t>
   </si>
   <si>
+    <t>263</t>
+  </si>
+  <si>
     <t>Anim_Mount_run_stop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_run_stop.FBX</t>
   </si>
   <si>
+    <t>264</t>
+  </si>
+  <si>
     <t>Anim_Mount_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_sprint.FBX</t>
   </si>
   <si>
+    <t>265</t>
+  </si>
+  <si>
     <t>Anim_Mount_sprint_stop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_sprint_stop.FBX</t>
   </si>
   <si>
+    <t>266</t>
+  </si>
+  <si>
     <t>Anim_Mount_up</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_up.FBX</t>
   </si>
   <si>
+    <t>267</t>
+  </si>
+  <si>
     <t>Anim_Mount_walk</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Mount_walk.FBX</t>
   </si>
   <si>
+    <t>268</t>
+  </si>
+  <si>
     <t>Anim_Res_idlet_talking</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Res_idlet_talking.FBX</t>
   </si>
   <si>
+    <t>270</t>
+  </si>
+  <si>
     <t>Anim_Rest_idle_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_idle_mir.FBX</t>
   </si>
   <si>
+    <t>271</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_end</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_end.FBX</t>
   </si>
   <si>
+    <t>272</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_end_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_end_mir.FBX</t>
   </si>
   <si>
+    <t>273</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_end_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_end_run.FBX</t>
   </si>
   <si>
+    <t>274</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_end_run_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_end_run_mir.FBX</t>
   </si>
   <si>
+    <t>275</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_end_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_end_sprint.FBX</t>
   </si>
   <si>
+    <t>276</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_end_sprint_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_end_sprint_mir.FBX</t>
   </si>
   <si>
+    <t>277</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_loop.FBX</t>
   </si>
   <si>
+    <t>278</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_loop_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_loop_mir.FBX</t>
   </si>
   <si>
+    <t>279</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_loop_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_loop_run.FBX</t>
   </si>
   <si>
+    <t>280</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_loop_run_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_loop_run_mir.FBX</t>
   </si>
   <si>
+    <t>281</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_loop_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_loop_sprint.FBX</t>
   </si>
   <si>
+    <t>282</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_loop_sprint_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_loop_sprint_mir.FBX</t>
   </si>
   <si>
+    <t>283</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_start.FBX</t>
   </si>
   <si>
+    <t>284</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_start_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_start_mir.FBX</t>
   </si>
   <si>
+    <t>285</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_start_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_start_run.FBX</t>
   </si>
   <si>
+    <t>286</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_start_run_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_start_run_mir.FBX</t>
   </si>
   <si>
+    <t>287</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_start_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_start_sprint.FBX</t>
   </si>
   <si>
+    <t>288</t>
+  </si>
+  <si>
     <t>Anim_Rest_jump_start_sprint_mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_jump_start_sprint_mir.FBX</t>
   </si>
   <si>
+    <t>292</t>
+  </si>
+  <si>
     <t>Anim_Rest_run</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_run.FBX</t>
   </si>
   <si>
+    <t>293</t>
+  </si>
+  <si>
     <t>Anim_Rest_run_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_run_Mir.FBX</t>
   </si>
   <si>
+    <t>294</t>
+  </si>
+  <si>
     <t>Anim_Rest_runstop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_runstop.FBX</t>
   </si>
   <si>
+    <t>295</t>
+  </si>
+  <si>
     <t>Anim_Rest_runstop_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_runstop_Mir.FBX</t>
   </si>
   <si>
+    <t>296</t>
+  </si>
+  <si>
     <t>Anim_Rest_rush</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_rush.FBX</t>
   </si>
   <si>
+    <t>297</t>
+  </si>
+  <si>
     <t>Anim_Rest_sprint</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_sprint.FBX</t>
   </si>
   <si>
+    <t>298</t>
+  </si>
+  <si>
     <t>Anim_Rest_sprint_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_sprint_Mir.FBX</t>
   </si>
   <si>
+    <t>299</t>
+  </si>
+  <si>
     <t>Anim_Rest_sprintstop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_sprintstop.FBX</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>Anim_Rest_sprintstop_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_sprintstop_Mir.FBX</t>
   </si>
   <si>
+    <t>301</t>
+  </si>
+  <si>
     <t>Anim_Rest_to_battle</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_to_battle.FBX</t>
   </si>
   <si>
+    <t>302</t>
+  </si>
+  <si>
     <t>Anim_Rest_walk</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_walk.FBX</t>
   </si>
   <si>
+    <t>303</t>
+  </si>
+  <si>
     <t>Anim_Rest_walk_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_walk_Mir.FBX</t>
   </si>
   <si>
+    <t>304</t>
+  </si>
+  <si>
     <t>Anim_Rest_walk_stop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_walk_stop.FBX</t>
   </si>
   <si>
+    <t>305</t>
+  </si>
+  <si>
     <t>Anim_Rest_walk_stop_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Rest_walk_stop_Mir.FBX</t>
   </si>
   <si>
+    <t>306</t>
+  </si>
+  <si>
     <t>Anim_Run_turn_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Run_turn_left.FBX</t>
   </si>
   <si>
+    <t>307</t>
+  </si>
+  <si>
     <t>Anim_Run_turn_left_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Run_turn_left_Mir.FBX</t>
   </si>
   <si>
+    <t>308</t>
+  </si>
+  <si>
     <t>Anim_Run_turn_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Run_turn_right.FBX</t>
   </si>
   <si>
+    <t>309</t>
+  </si>
+  <si>
     <t>Anim_Run_turn_right_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Run_turn_right_Mir.FBX</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Anim_Sit_end</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sit_end.FBX</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Anim_Sit_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sit_loop.FBX</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Anim_Sit_start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sit_start.FBX</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Anim_Skin_loop</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Skin_loop.FBX</t>
   </si>
   <si>
+    <t>314</t>
+  </si>
+  <si>
     <t>Anim_Sprint_turn</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sprint_turn.FBX</t>
   </si>
   <si>
+    <t>315</t>
+  </si>
+  <si>
     <t>Anim_Sprint_turn_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sprint_turn_left.FBX</t>
   </si>
   <si>
+    <t>316</t>
+  </si>
+  <si>
     <t>Anim_Sprint_turn_left_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sprint_turn_left_Mir.FBX</t>
   </si>
   <si>
+    <t>317</t>
+  </si>
+  <si>
     <t>Anim_Sprint_turn_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sprint_turn_right.FBX</t>
   </si>
   <si>
+    <t>318</t>
+  </si>
+  <si>
     <t>Anim_Sprint_turn_right_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sprint_turn_right_Mir.FBX</t>
   </si>
   <si>
+    <t>319</t>
+  </si>
+  <si>
     <t>Anim_Sys_Seal_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_Seal_01.FBX</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_boxclose_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_boxclose_01.FBX</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_boxopen_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_boxopen_01.FBX</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_lie_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_lie_01.FBX</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_lieup_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_lieup_01.FBX</t>
   </si>
   <si>
+    <t>324</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_staggerrest_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_staggerrest_01.FBX</t>
   </si>
   <si>
+    <t>325</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_staggerwalk_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_staggerwalk_01.FBX</t>
   </si>
   <si>
+    <t>326</t>
+  </si>
+  <si>
     <t>Anim_Sys_juqing_worship_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_juqing_worship_01.FBX</t>
   </si>
   <si>
+    <t>327</t>
+  </si>
+  <si>
     <t>Anim_Sys_pack_show_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_pack_show_01.FBX</t>
   </si>
   <si>
+    <t>328</t>
+  </si>
+  <si>
     <t>Anim_Sys_skill_handsdown_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_skill_handsdown_01.FBX</t>
   </si>
   <si>
+    <t>329</t>
+  </si>
+  <si>
     <t>Anim_Sys_skill_handshold_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_skill_handshold_01.FBX</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
     <t>Anim_Sys_skill_handsup_01</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_skill_handsup_01.FBX</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Anim_Sys_tp_start</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Sys_tp_start.FBX</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Anim_Turn_around</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Turn_around.FBX</t>
   </si>
   <si>
+    <t>333</t>
+  </si>
+  <si>
     <t>Anim_Turn_back</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Turn_back.FBX</t>
   </si>
   <si>
+    <t>334</t>
+  </si>
+  <si>
     <t>Anim_Walk_turn_left</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Walk_turn_left.FBX</t>
   </si>
   <si>
+    <t>335</t>
+  </si>
+  <si>
     <t>Anim_Walk_turn_left_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Walk_turn_left_Mir.FBX</t>
   </si>
   <si>
+    <t>336</t>
+  </si>
+  <si>
     <t>Anim_Walk_turn_right</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Walk_turn_right.FBX</t>
   </si>
   <si>
+    <t>337</t>
+  </si>
+  <si>
     <t>Anim_Walk_turn_right_Mir</t>
   </si>
   <si>
     <t>Assets/Resources/Anim/Walk_turn_right_Mir.FBX</t>
   </si>
   <si>
+    <t>338</t>
+  </si>
+  <si>
     <t>Anim_Wizard_Attack</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_Attack.anim</t>
   </si>
   <si>
+    <t>339</t>
+  </si>
+  <si>
     <t>Anim_Wizard_Die</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_Die.anim</t>
   </si>
   <si>
+    <t>340</t>
+  </si>
+  <si>
     <t>Anim_Wizard_Hurt</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_Hurt.anim</t>
   </si>
   <si>
+    <t>341</t>
+  </si>
+  <si>
     <t>Anim_Wizard_Idle</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_Idle.anim</t>
   </si>
   <si>
+    <t>342</t>
+  </si>
+  <si>
     <t>Anim_Wizard_Jump</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_Jump.anim</t>
   </si>
   <si>
+    <t>343</t>
+  </si>
+  <si>
     <t>Anim_Wizard_LookUp</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_LookUp.anim</t>
   </si>
   <si>
+    <t>344</t>
+  </si>
+  <si>
     <t>Anim_Wizard_Run</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Animations/Wizard_Run.anim</t>
   </si>
   <si>
+    <t>345</t>
+  </si>
+  <si>
     <t>Pre_AtkNumEntity</t>
   </si>
   <si>
     <t>Assets/Abbresources/AtkNumEntity.prefab</t>
   </si>
   <si>
+    <t>346</t>
+  </si>
+  <si>
     <t>Pre_MonsterEntity</t>
   </si>
   <si>
     <t>Assets/Abbresources/MonsterEntity.prefab</t>
   </si>
   <si>
+    <t>347</t>
+  </si>
+  <si>
     <t>Pre_DrawBox</t>
   </si>
   <si>
     <t>Assets/Abbresources/DebugDraw/DrawBox.prefab</t>
   </si>
   <si>
+    <t>348</t>
+  </si>
+  <si>
     <t>Pre_DrawSphere</t>
   </si>
   <si>
     <t>Assets/Abbresources/DebugDraw/DrawSphere.prefab</t>
   </si>
   <si>
+    <t>349</t>
+  </si>
+  <si>
     <t>Pre_Cube</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/Cube.prefab</t>
   </si>
   <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>Pre_EffectAttack5</t>
   </si>
   <si>
     <t>Assets/Abbresources/Player1/EffectAttack5.prefab</t>
   </si>
   <si>
+    <t>351</t>
+  </si>
+  <si>
     <t>SO_WeakObjectSO</t>
   </si>
   <si>
     <t>Assets/Abbresources/SO/WeakObjectSO.asset</t>
   </si>
   <si>
+    <t>356</t>
+  </si>
+  <si>
     <t>Pre_Bullet</t>
   </si>
   <si>
     <t>Assets/Abbresources/EcsPrefab/Bullet.prefab</t>
   </si>
   <si>
+    <t>357</t>
+  </si>
+  <si>
     <t>Pre_SoldierEntity</t>
   </si>
   <si>
     <t>Assets/Abbresources/EcsPrefab/SoldierEntity.prefab</t>
   </si>
   <si>
+    <t>358</t>
+  </si>
+  <si>
     <t>Pre_UnitEntity</t>
   </si>
   <si>
     <t>Assets/Abbresources/EcsPrefab/UnitEntity.prefab</t>
   </si>
   <si>
+    <t>359</t>
+  </si>
+  <si>
     <t>Pre_ZombieEntity</t>
   </si>
   <si>
     <t>Assets/Abbresources/EcsPrefab/ZombieEntity.prefab</t>
   </si>
   <si>
+    <t>372</t>
+  </si>
+  <si>
     <t>Pre_UIBattleWindow</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/UIBattleWindow.prefab</t>
   </si>
   <si>
+    <t>385</t>
+  </si>
+  <si>
     <t>Pre_UIBattleBtnItem_Create</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/UIBattleBtnItem_Create.prefab</t>
   </si>
   <si>
+    <t>396</t>
+  </si>
+  <si>
     <t>Pre_MonsterEntity0</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0.prefab</t>
   </si>
   <si>
+    <t>397</t>
+  </si>
+  <si>
     <t>Pre_The_object_is_a_sleek_0314132411_stylize</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.prefab</t>
   </si>
   <si>
+    <t>406</t>
+  </si>
+  <si>
     <t>Sp_The_object_is_a_sleek_0314132411_stylize</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.png</t>
   </si>
   <si>
+    <t>407</t>
+  </si>
+  <si>
     <t>Sp_The_object_is_a_sleek_0314132436_texture</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132436_texture_fbx/The_object_is_a_sleek_0314132436_texture.png</t>
   </si>
   <si>
+    <t>416</t>
+  </si>
+  <si>
     <t>Anim_Character_output</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/Character_output.fbx</t>
   </si>
   <si>
+    <t>417</t>
+  </si>
+  <si>
     <t>Anim_The_object_is_a_sleek_0314132411_stylize</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.fbx</t>
   </si>
   <si>
+    <t>418</t>
+  </si>
+  <si>
     <t>Anim_The_object_is_a_sleek_0314132436_texture</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132436_texture_fbx/The_object_is_a_sleek_0314132436_texture.fbx</t>
   </si>
   <si>
+    <t>673</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Alert</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Alert.anim</t>
   </si>
   <si>
+    <t>674</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Arise</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Arise.anim</t>
   </si>
   <si>
+    <t>675</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_BeHit_FlyUp</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_BeHit_FlyUp.anim</t>
   </si>
   <si>
+    <t>676</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Dead</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Dead.anim</t>
   </si>
   <si>
+    <t>677</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Flying_Fist_Kick</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Flying_Fist_Kick.anim</t>
   </si>
   <si>
+    <t>678</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Idle</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Idle.anim</t>
   </si>
   <si>
+    <t>679</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_RunFast</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_RunFast.anim</t>
   </si>
   <si>
+    <t>680</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Skill_01</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Skill_01.anim</t>
   </si>
   <si>
+    <t>681</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Skill_03</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Skill_03.anim</t>
   </si>
   <si>
+    <t>682</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Stand_to_Sit_Transition_M</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Stand_to_Sit_Transition_M.anim</t>
   </si>
   <si>
-    <t>Pre_EffectPlayerSkill2_1</t>
-  </si>
-  <si>
-    <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
+    <t>2321</t>
   </si>
   <si>
     <t>Pre_EffectPlayerSkill2_2</t>
@@ -1901,130 +2813,196 @@
     <t>Assets/Abbresources/Effect/EffectPlayerSkill2_2.prefab</t>
   </si>
   <si>
+    <t>2333</t>
+  </si>
+  <si>
     <t>Pre_MonsterColonyLower</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/MonsterColonyLower.prefab</t>
   </si>
   <si>
+    <t>2339</t>
+  </si>
+  <si>
     <t>Pre_EffectHit1</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectHit1.prefab</t>
   </si>
   <si>
+    <t>2639</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_Unsteady_Walk</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_Unsteady_Walk.anim</t>
   </si>
   <si>
+    <t>2646</t>
+  </si>
+  <si>
     <t>Pre_EffectHitDefault</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectHitDefault.prefab</t>
   </si>
   <si>
+    <t>2948</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_walking_man</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_walking_man.anim</t>
   </si>
   <si>
+    <t>2974</t>
+  </si>
+  <si>
     <t>Pre_UIEntityHealthInfo</t>
   </si>
   <si>
     <t>Assets/AbbFramework/Prefabs/UIEntityHealthInfo.prefab</t>
   </si>
   <si>
+    <t>2980</t>
+  </si>
+  <si>
     <t>Pre_EffectExpiosion1</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectExpiosion1.prefab</t>
   </si>
   <si>
+    <t>2983</t>
+  </si>
+  <si>
     <t>Pre_EffectPlayerBuff2</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectPlayerBuff2.prefab</t>
   </si>
   <si>
+    <t>3284</t>
+  </si>
+  <si>
     <t>Anim_MonsterEntity0Clip_running</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/Monster0/MonsterEntity0Clip_running.anim</t>
   </si>
   <si>
+    <t>3299</t>
+  </si>
+  <si>
     <t>Pre_PlayerBuffEffect</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/PlayerBuffEffect.prefab</t>
   </si>
   <si>
+    <t>3333</t>
+  </si>
+  <si>
     <t>Sp_monster0_texture</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/Monster/The_object_is_a_sleek_0314132411_stylize_fbx/The_object_is_a_sleek_0314132411_stylize.fbm/monster0_texture.png</t>
   </si>
   <si>
+    <t>3340</t>
+  </si>
+  <si>
     <t>Pre_EffectExpiosionHit</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectExpiosionHit.prefab</t>
   </si>
   <si>
+    <t>3341</t>
+  </si>
+  <si>
     <t>Pre_EffectFireBuff</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectFireBuff.prefab</t>
   </si>
   <si>
+    <t>3351</t>
+  </si>
+  <si>
     <t>Pre_PlayerBuffEffect_1</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/PlayerBuffEffect_1.prefab</t>
   </si>
   <si>
+    <t>3358</t>
+  </si>
+  <si>
     <t>Pre_EffectExpiosionBuff</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectExpiosionBuff.prefab</t>
   </si>
   <si>
+    <t>3388</t>
+  </si>
+  <si>
     <t>Sp_material_0</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbm/material_0.png</t>
   </si>
   <si>
+    <t>3397</t>
+  </si>
+  <si>
     <t>Pre_EffectExposionBig</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectExposionBig.prefab</t>
   </si>
   <si>
+    <t>3398</t>
+  </si>
+  <si>
     <t>Pre_EffectExposionSmall</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectExposionSmall.prefab</t>
   </si>
   <si>
+    <t>3405</t>
+  </si>
+  <si>
     <t>Pre_EffectPoison</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectPoison.prefab</t>
   </si>
   <si>
+    <t>3423</t>
+  </si>
+  <si>
     <t>Pre_EffectPoisonSub</t>
   </si>
   <si>
     <t>Assets/Abbresources/Effect/EffectPoisonSub.prefab</t>
   </si>
   <si>
+    <t>3471</t>
+  </si>
+  <si>
     <t>Anim_68e53aa0d0dde601dc6ae7633158645e</t>
   </si>
   <si>
     <t>Assets/Abbresources/Perfabs/MonsterHome/Home1/68e53aa0d0dde601dc6ae7633158645e.fbx</t>
+  </si>
+  <si>
+    <t>3485</t>
   </si>
   <si>
     <t>Pre_EffectPlayerSkill2</t>
@@ -2642,7 +3620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2807,17 +3785,20 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3238,4564 +4219,4567 @@
       <c r="D5" s="54"/>
     </row>
     <row r="6">
-      <c r="A6" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="56">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="A6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="55" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="56">
-        <v>2</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>18</v>
+      <c r="A7" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="56">
-        <v>3</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>21</v>
+      <c r="A8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="56">
-        <v>11</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>22</v>
+      <c r="A9" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="56">
-        <v>12</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>24</v>
+      <c r="A10" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="56">
-        <v>13</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>26</v>
+      <c r="A11" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="56">
-        <v>14</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>28</v>
+      <c r="A12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="56">
-        <v>15</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>30</v>
+      <c r="A13" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="56">
-        <v>21</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>32</v>
+      <c r="A14" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="56">
-        <v>22</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>34</v>
+      <c r="A15" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="56">
-        <v>23</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>36</v>
+      <c r="A16" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="56">
-        <v>24</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>38</v>
+      <c r="A17" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>50</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="56">
-        <v>25</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>40</v>
+      <c r="A18" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="56">
-        <v>26</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>42</v>
+      <c r="A19" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="56">
-        <v>31</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>44</v>
+      <c r="A20" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="56">
-        <v>41</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>46</v>
+      <c r="A21" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="56">
-        <v>42</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>48</v>
+      <c r="A22" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="56">
-        <v>43</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>50</v>
+      <c r="A23" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="56">
-        <v>44</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>52</v>
+      <c r="A24" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="56">
+      <c r="A25" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="56">
+      <c r="C26" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" s="53" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="56">
-        <v>78</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>58</v>
+      <c r="A27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="58">
-        <v>79</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>60</v>
+      <c r="A28" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="58">
-        <v>80</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>62</v>
+      <c r="A29" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="58">
-        <v>81</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>64</v>
+      <c r="A30" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="53">
-        <v>82</v>
+      <c r="A31" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>91</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="53">
-        <v>83</v>
+      <c r="A32" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="53">
-        <v>84</v>
+      <c r="A33" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="53">
-        <v>85</v>
+      <c r="A34" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="53">
-        <v>86</v>
+      <c r="A35" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="53">
-        <v>87</v>
+      <c r="A36" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="53">
-        <v>88</v>
+      <c r="A37" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="53">
-        <v>89</v>
+      <c r="A38" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="53">
-        <v>90</v>
+      <c r="A39" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>115</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="53">
-        <v>91</v>
+      <c r="A40" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>118</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="53">
-        <v>92</v>
+      <c r="A41" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>121</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="53">
-        <v>93</v>
+      <c r="A42" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>124</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="53">
-        <v>94</v>
+      <c r="A43" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="53">
-        <v>95</v>
+      <c r="A44" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>130</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="53">
-        <v>97</v>
+      <c r="A45" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>133</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="53">
-        <v>98</v>
+      <c r="A46" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="53">
-        <v>99</v>
+      <c r="A47" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="53">
-        <v>105</v>
+      <c r="A48" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="53">
-        <v>106</v>
+      <c r="A49" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="53">
-        <v>107</v>
+      <c r="A50" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="53">
-        <v>108</v>
+      <c r="A51" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="53">
-        <v>109</v>
+      <c r="A52" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>154</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="53">
-        <v>110</v>
+      <c r="A53" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>157</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="53">
-        <v>112</v>
+      <c r="A54" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="53">
-        <v>113</v>
+      <c r="A55" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="53">
-        <v>115</v>
+      <c r="A56" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>166</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="53">
-        <v>116</v>
+      <c r="A57" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="53">
-        <v>117</v>
+      <c r="A58" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="53">
-        <v>118</v>
+      <c r="A59" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="53">
-        <v>119</v>
+      <c r="A60" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>178</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="53">
-        <v>120</v>
+      <c r="A61" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>181</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="53">
-        <v>121</v>
+      <c r="A62" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>184</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="53">
-        <v>122</v>
+      <c r="A63" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="53">
-        <v>123</v>
+      <c r="A64" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="53">
-        <v>124</v>
+      <c r="A65" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>193</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="53">
-        <v>125</v>
+      <c r="A66" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>196</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="53">
-        <v>126</v>
+      <c r="A67" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>199</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="53">
-        <v>127</v>
+      <c r="A68" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>202</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="53">
-        <v>128</v>
+      <c r="A69" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>205</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="53">
-        <v>129</v>
+      <c r="A70" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>208</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="53">
-        <v>130</v>
+      <c r="A71" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>211</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="53">
-        <v>131</v>
+      <c r="A72" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>214</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="53">
-        <v>132</v>
+      <c r="A73" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>217</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="53">
-        <v>133</v>
+      <c r="A74" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>220</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="53">
-        <v>134</v>
+      <c r="A75" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>223</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="53">
-        <v>135</v>
+      <c r="A76" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="53">
-        <v>136</v>
+      <c r="A77" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="53">
-        <v>137</v>
+      <c r="A78" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>232</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="53">
-        <v>138</v>
+      <c r="A79" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D79" s="53" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="53">
-        <v>139</v>
+      <c r="A80" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>238</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="53">
-        <v>140</v>
+      <c r="A81" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>241</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="53">
-        <v>141</v>
+      <c r="A82" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>244</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="53">
-        <v>142</v>
+      <c r="A83" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>247</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="53">
-        <v>143</v>
+      <c r="A84" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="53">
-        <v>144</v>
+      <c r="A85" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>253</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="53">
-        <v>145</v>
+      <c r="A86" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>256</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="53">
-        <v>146</v>
+      <c r="A87" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>259</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="53">
-        <v>147</v>
+      <c r="A88" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>262</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="53">
-        <v>148</v>
+      <c r="A89" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>265</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="53">
-        <v>149</v>
+      <c r="A90" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>268</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="53">
-        <v>150</v>
+      <c r="A91" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="53" t="s">
+        <v>271</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="D91" s="53" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="53">
-        <v>151</v>
+      <c r="A92" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>274</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="53">
-        <v>152</v>
+      <c r="A93" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>277</v>
       </c>
       <c r="C93" s="53" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="D93" s="53" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="53">
-        <v>153</v>
+      <c r="A94" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="53">
-        <v>154</v>
+      <c r="A95" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="53" t="s">
+        <v>283</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="D95" s="53" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="53">
-        <v>155</v>
+      <c r="A96" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>286</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="D96" s="53" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="53">
-        <v>156</v>
+      <c r="A97" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="53">
-        <v>157</v>
+      <c r="A98" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>292</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="53">
-        <v>158</v>
+      <c r="A99" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>295</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="53">
-        <v>159</v>
+      <c r="A100" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>298</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="53">
-        <v>160</v>
+      <c r="A101" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="53" t="s">
+        <v>301</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="D101" s="53" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="53">
-        <v>161</v>
+      <c r="A102" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="53" t="s">
+        <v>304</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="53">
-        <v>162</v>
+      <c r="A103" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="53" t="s">
+        <v>307</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="D103" s="53" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="53">
-        <v>163</v>
+      <c r="A104" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="53" t="s">
+        <v>310</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="53">
-        <v>164</v>
+      <c r="A105" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>313</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="D105" s="53" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="53">
-        <v>165</v>
+      <c r="A106" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>316</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="D106" s="53" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="53">
-        <v>166</v>
+      <c r="A107" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>319</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="D107" s="53" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="53">
-        <v>167</v>
+      <c r="A108" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>322</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>221</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="53">
-        <v>168</v>
+      <c r="A109" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>325</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="D109" s="53" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="53">
-        <v>169</v>
+      <c r="A110" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>328</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="53">
-        <v>170</v>
+      <c r="A111" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="D111" s="53" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="53">
-        <v>171</v>
+      <c r="A112" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>334</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="53">
-        <v>172</v>
+      <c r="A113" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>337</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="53">
-        <v>173</v>
+      <c r="A114" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>340</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="53">
-        <v>174</v>
+      <c r="A115" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>343</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="D115" s="53" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="53">
-        <v>175</v>
+      <c r="A116" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>346</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="D116" s="53" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="53">
-        <v>176</v>
+      <c r="A117" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>349</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="D117" s="53" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="53">
-        <v>177</v>
+      <c r="A118" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>352</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="D118" s="53" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="53">
-        <v>178</v>
+      <c r="A119" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="53" t="s">
+        <v>355</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="D119" s="53" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="53">
-        <v>179</v>
+      <c r="A120" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>358</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>245</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="53">
-        <v>181</v>
+      <c r="A121" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="53" t="s">
+        <v>361</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="D121" s="53" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="53">
-        <v>185</v>
+      <c r="A122" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="53" t="s">
+        <v>364</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="53">
-        <v>186</v>
+      <c r="A123" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>367</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>250</v>
+        <v>368</v>
       </c>
       <c r="D123" s="53" t="s">
-        <v>251</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="53">
-        <v>187</v>
+      <c r="A124" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="53" t="s">
+        <v>370</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="53">
-        <v>188</v>
+      <c r="A125" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="53" t="s">
+        <v>373</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>254</v>
+        <v>374</v>
       </c>
       <c r="D125" s="53" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="53">
-        <v>189</v>
+      <c r="A126" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="53" t="s">
+        <v>376</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>256</v>
+        <v>377</v>
       </c>
       <c r="D126" s="53" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="53">
-        <v>190</v>
+      <c r="A127" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>379</v>
       </c>
       <c r="C127" s="53" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="D127" s="53" t="s">
-        <v>259</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="53">
-        <v>191</v>
+      <c r="A128" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="53" t="s">
+        <v>382</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>260</v>
+        <v>383</v>
       </c>
       <c r="D128" s="53" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="53">
-        <v>192</v>
+      <c r="A129" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="D129" s="53" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="53">
-        <v>193</v>
+      <c r="A130" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="53" t="s">
+        <v>388</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="D130" s="53" t="s">
-        <v>265</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="53">
-        <v>194</v>
+      <c r="A131" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="53" t="s">
+        <v>391</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="D131" s="53" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="53">
-        <v>195</v>
+      <c r="A132" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="53" t="s">
+        <v>394</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>268</v>
+        <v>395</v>
       </c>
       <c r="D132" s="53" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="53">
-        <v>196</v>
+      <c r="A133" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>397</v>
       </c>
       <c r="C133" s="53" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="D133" s="53" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="53">
-        <v>197</v>
+      <c r="A134" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="53" t="s">
+        <v>400</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="D134" s="53" t="s">
-        <v>273</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="53">
-        <v>198</v>
+      <c r="A135" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="53" t="s">
+        <v>403</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="D135" s="53" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="53">
-        <v>199</v>
+      <c r="A136" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="53" t="s">
+        <v>406</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="D136" s="53" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="53">
-        <v>200</v>
+      <c r="A137" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="53" t="s">
+        <v>409</v>
       </c>
       <c r="C137" s="53" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="D137" s="53" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="53">
-        <v>201</v>
+      <c r="A138" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>412</v>
       </c>
       <c r="C138" s="53" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
       <c r="D138" s="53" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="53">
-        <v>202</v>
+      <c r="A139" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="C139" s="53" t="s">
-        <v>282</v>
+        <v>416</v>
       </c>
       <c r="D139" s="53" t="s">
-        <v>283</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="53">
-        <v>203</v>
+      <c r="A140" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>418</v>
       </c>
       <c r="C140" s="53" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="D140" s="53" t="s">
-        <v>285</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="53">
-        <v>204</v>
+      <c r="A141" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="53" t="s">
+        <v>421</v>
       </c>
       <c r="C141" s="53" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
       <c r="D141" s="53" t="s">
-        <v>287</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="53">
-        <v>205</v>
+      <c r="A142" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="53" t="s">
+        <v>424</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>288</v>
+        <v>425</v>
       </c>
       <c r="D142" s="53" t="s">
-        <v>289</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="53">
-        <v>206</v>
+      <c r="A143" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="53" t="s">
+        <v>427</v>
       </c>
       <c r="C143" s="53" t="s">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="D143" s="53" t="s">
-        <v>291</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="53">
-        <v>207</v>
+      <c r="A144" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="53" t="s">
+        <v>430</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="D144" s="53" t="s">
-        <v>293</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="53">
-        <v>208</v>
+      <c r="A145" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="53" t="s">
+        <v>433</v>
       </c>
       <c r="C145" s="53" t="s">
-        <v>294</v>
+        <v>434</v>
       </c>
       <c r="D145" s="53" t="s">
-        <v>295</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="53">
-        <v>209</v>
+      <c r="A146" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="53" t="s">
+        <v>436</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>296</v>
+        <v>437</v>
       </c>
       <c r="D146" s="53" t="s">
-        <v>297</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="53">
-        <v>210</v>
+      <c r="A147" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="53" t="s">
+        <v>439</v>
       </c>
       <c r="C147" s="53" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="D147" s="53" t="s">
-        <v>299</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="53">
-        <v>211</v>
+      <c r="A148" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="53" t="s">
+        <v>442</v>
       </c>
       <c r="C148" s="53" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="D148" s="53" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="53">
-        <v>212</v>
+      <c r="A149" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="53" t="s">
+        <v>445</v>
       </c>
       <c r="C149" s="53" t="s">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="D149" s="53" t="s">
-        <v>303</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="53">
-        <v>213</v>
+      <c r="A150" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="53" t="s">
+        <v>448</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>304</v>
+        <v>449</v>
       </c>
       <c r="D150" s="53" t="s">
-        <v>305</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="53">
-        <v>214</v>
+      <c r="A151" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="53" t="s">
+        <v>451</v>
       </c>
       <c r="C151" s="53" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="D151" s="53" t="s">
-        <v>307</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="53">
-        <v>215</v>
+      <c r="A152" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="53" t="s">
+        <v>454</v>
       </c>
       <c r="C152" s="53" t="s">
-        <v>308</v>
+        <v>455</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>309</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="53">
-        <v>216</v>
+      <c r="A153" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="53" t="s">
+        <v>457</v>
       </c>
       <c r="C153" s="53" t="s">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>311</v>
+        <v>459</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="53">
-        <v>217</v>
+      <c r="A154" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="53" t="s">
+        <v>460</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="53">
-        <v>218</v>
+      <c r="A155" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="53" t="s">
+        <v>463</v>
       </c>
       <c r="C155" s="53" t="s">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="D155" s="53" t="s">
-        <v>315</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="53">
-        <v>219</v>
+      <c r="A156" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="53" t="s">
+        <v>466</v>
       </c>
       <c r="C156" s="53" t="s">
-        <v>316</v>
+        <v>467</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>317</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="53">
-        <v>220</v>
+      <c r="A157" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="53" t="s">
+        <v>469</v>
       </c>
       <c r="C157" s="53" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="D157" s="53" t="s">
-        <v>319</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="53">
-        <v>221</v>
+      <c r="A158" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="53" t="s">
+        <v>472</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="D158" s="53" t="s">
-        <v>321</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" s="53">
-        <v>222</v>
+      <c r="A159" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="53" t="s">
+        <v>475</v>
       </c>
       <c r="C159" s="53" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="D159" s="53" t="s">
-        <v>323</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" s="53">
-        <v>223</v>
+      <c r="A160" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="53" t="s">
+        <v>478</v>
       </c>
       <c r="C160" s="53" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="D160" s="53" t="s">
-        <v>325</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="53">
-        <v>224</v>
+      <c r="A161" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="53" t="s">
+        <v>481</v>
       </c>
       <c r="C161" s="53" t="s">
-        <v>326</v>
+        <v>482</v>
       </c>
       <c r="D161" s="53" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" s="53">
-        <v>225</v>
+      <c r="A162" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="53" t="s">
+        <v>484</v>
       </c>
       <c r="C162" s="53" t="s">
-        <v>328</v>
+        <v>485</v>
       </c>
       <c r="D162" s="53" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="53">
-        <v>226</v>
+      <c r="A163" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="53" t="s">
+        <v>487</v>
       </c>
       <c r="C163" s="53" t="s">
-        <v>330</v>
+        <v>488</v>
       </c>
       <c r="D163" s="53" t="s">
-        <v>331</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="53">
-        <v>227</v>
+      <c r="A164" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="53" t="s">
+        <v>490</v>
       </c>
       <c r="C164" s="53" t="s">
-        <v>332</v>
+        <v>491</v>
       </c>
       <c r="D164" s="53" t="s">
-        <v>333</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="53">
-        <v>228</v>
+      <c r="A165" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>493</v>
       </c>
       <c r="C165" s="53" t="s">
-        <v>334</v>
+        <v>494</v>
       </c>
       <c r="D165" s="53" t="s">
-        <v>335</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="53">
-        <v>229</v>
+      <c r="A166" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>496</v>
       </c>
       <c r="C166" s="53" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
       <c r="D166" s="53" t="s">
-        <v>337</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="53">
-        <v>230</v>
+      <c r="A167" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="53" t="s">
+        <v>499</v>
       </c>
       <c r="C167" s="53" t="s">
-        <v>338</v>
+        <v>500</v>
       </c>
       <c r="D167" s="53" t="s">
-        <v>339</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="53">
-        <v>231</v>
+      <c r="A168" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>502</v>
       </c>
       <c r="C168" s="53" t="s">
-        <v>340</v>
+        <v>503</v>
       </c>
       <c r="D168" s="53" t="s">
-        <v>341</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="53">
-        <v>232</v>
+      <c r="A169" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>505</v>
       </c>
       <c r="C169" s="53" t="s">
-        <v>342</v>
+        <v>506</v>
       </c>
       <c r="D169" s="53" t="s">
-        <v>343</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="53">
-        <v>233</v>
+      <c r="A170" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="53" t="s">
+        <v>508</v>
       </c>
       <c r="C170" s="53" t="s">
-        <v>344</v>
+        <v>509</v>
       </c>
       <c r="D170" s="53" t="s">
-        <v>345</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171" s="53">
-        <v>234</v>
+      <c r="A171" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="53" t="s">
+        <v>511</v>
       </c>
       <c r="C171" s="53" t="s">
-        <v>346</v>
+        <v>512</v>
       </c>
       <c r="D171" s="53" t="s">
-        <v>347</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="53">
-        <v>235</v>
+      <c r="A172" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="53" t="s">
+        <v>514</v>
       </c>
       <c r="C172" s="53" t="s">
-        <v>348</v>
+        <v>515</v>
       </c>
       <c r="D172" s="53" t="s">
-        <v>349</v>
+        <v>516</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="53">
-        <v>236</v>
+      <c r="A173" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="53" t="s">
+        <v>517</v>
       </c>
       <c r="C173" s="53" t="s">
-        <v>350</v>
+        <v>518</v>
       </c>
       <c r="D173" s="53" t="s">
-        <v>351</v>
+        <v>519</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="53">
-        <v>237</v>
+      <c r="A174" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="53" t="s">
+        <v>520</v>
       </c>
       <c r="C174" s="53" t="s">
-        <v>352</v>
+        <v>521</v>
       </c>
       <c r="D174" s="53" t="s">
-        <v>353</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="53">
-        <v>238</v>
+      <c r="A175" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="53" t="s">
+        <v>523</v>
       </c>
       <c r="C175" s="53" t="s">
-        <v>354</v>
+        <v>524</v>
       </c>
       <c r="D175" s="53" t="s">
-        <v>355</v>
+        <v>525</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="53">
-        <v>239</v>
+      <c r="A176" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>526</v>
       </c>
       <c r="C176" s="53" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="D176" s="53" t="s">
-        <v>357</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="53">
-        <v>240</v>
+      <c r="A177" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="53" t="s">
+        <v>529</v>
       </c>
       <c r="C177" s="53" t="s">
-        <v>358</v>
+        <v>530</v>
       </c>
       <c r="D177" s="53" t="s">
-        <v>359</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="53">
-        <v>241</v>
+      <c r="A178" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="53" t="s">
+        <v>532</v>
       </c>
       <c r="C178" s="53" t="s">
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="D178" s="53" t="s">
-        <v>361</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="53">
-        <v>242</v>
+      <c r="A179" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="53" t="s">
+        <v>535</v>
       </c>
       <c r="C179" s="53" t="s">
-        <v>362</v>
+        <v>536</v>
       </c>
       <c r="D179" s="53" t="s">
-        <v>363</v>
+        <v>537</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="53">
-        <v>243</v>
+      <c r="A180" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="53" t="s">
+        <v>538</v>
       </c>
       <c r="C180" s="53" t="s">
-        <v>364</v>
+        <v>539</v>
       </c>
       <c r="D180" s="53" t="s">
-        <v>365</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="53">
-        <v>244</v>
+      <c r="A181" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="53" t="s">
+        <v>541</v>
       </c>
       <c r="C181" s="53" t="s">
-        <v>366</v>
+        <v>542</v>
       </c>
       <c r="D181" s="53" t="s">
-        <v>367</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="53">
-        <v>245</v>
+      <c r="A182" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="53" t="s">
+        <v>544</v>
       </c>
       <c r="C182" s="53" t="s">
-        <v>368</v>
+        <v>545</v>
       </c>
       <c r="D182" s="53" t="s">
-        <v>369</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="53">
-        <v>246</v>
+      <c r="A183" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="53" t="s">
+        <v>547</v>
       </c>
       <c r="C183" s="53" t="s">
-        <v>370</v>
+        <v>548</v>
       </c>
       <c r="D183" s="53" t="s">
-        <v>371</v>
+        <v>549</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="53">
-        <v>247</v>
+      <c r="A184" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="53" t="s">
+        <v>550</v>
       </c>
       <c r="C184" s="53" t="s">
-        <v>372</v>
+        <v>551</v>
       </c>
       <c r="D184" s="53" t="s">
-        <v>373</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="53">
-        <v>248</v>
+      <c r="A185" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="53" t="s">
+        <v>553</v>
       </c>
       <c r="C185" s="53" t="s">
-        <v>374</v>
+        <v>554</v>
       </c>
       <c r="D185" s="53" t="s">
-        <v>375</v>
+        <v>555</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="53">
-        <v>249</v>
+      <c r="A186" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="53" t="s">
+        <v>556</v>
       </c>
       <c r="C186" s="53" t="s">
-        <v>376</v>
+        <v>557</v>
       </c>
       <c r="D186" s="53" t="s">
-        <v>377</v>
+        <v>558</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="53">
-        <v>250</v>
+      <c r="A187" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="53" t="s">
+        <v>559</v>
       </c>
       <c r="C187" s="53" t="s">
-        <v>378</v>
+        <v>560</v>
       </c>
       <c r="D187" s="53" t="s">
-        <v>379</v>
+        <v>561</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="53">
-        <v>251</v>
+      <c r="A188" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="53" t="s">
+        <v>562</v>
       </c>
       <c r="C188" s="53" t="s">
-        <v>380</v>
+        <v>563</v>
       </c>
       <c r="D188" s="53" t="s">
-        <v>381</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="53">
-        <v>252</v>
+      <c r="A189" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="53" t="s">
+        <v>565</v>
       </c>
       <c r="C189" s="53" t="s">
-        <v>382</v>
+        <v>566</v>
       </c>
       <c r="D189" s="53" t="s">
-        <v>383</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="53">
-        <v>253</v>
+      <c r="A190" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="53" t="s">
+        <v>568</v>
       </c>
       <c r="C190" s="53" t="s">
-        <v>384</v>
+        <v>569</v>
       </c>
       <c r="D190" s="53" t="s">
-        <v>385</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="53">
-        <v>254</v>
+      <c r="A191" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="53" t="s">
+        <v>571</v>
       </c>
       <c r="C191" s="53" t="s">
-        <v>386</v>
+        <v>572</v>
       </c>
       <c r="D191" s="53" t="s">
-        <v>387</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="53">
-        <v>255</v>
+      <c r="A192" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="53" t="s">
+        <v>574</v>
       </c>
       <c r="C192" s="53" t="s">
-        <v>388</v>
+        <v>575</v>
       </c>
       <c r="D192" s="53" t="s">
-        <v>389</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="53">
-        <v>256</v>
+      <c r="A193" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="53" t="s">
+        <v>577</v>
       </c>
       <c r="C193" s="53" t="s">
-        <v>390</v>
+        <v>578</v>
       </c>
       <c r="D193" s="53" t="s">
-        <v>391</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="53">
-        <v>257</v>
+      <c r="A194" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="53" t="s">
+        <v>580</v>
       </c>
       <c r="C194" s="53" t="s">
-        <v>392</v>
+        <v>581</v>
       </c>
       <c r="D194" s="53" t="s">
-        <v>393</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="53">
-        <v>258</v>
+      <c r="A195" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="53" t="s">
+        <v>583</v>
       </c>
       <c r="C195" s="53" t="s">
-        <v>394</v>
+        <v>584</v>
       </c>
       <c r="D195" s="53" t="s">
-        <v>395</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="53">
-        <v>259</v>
+      <c r="A196" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="53" t="s">
+        <v>586</v>
       </c>
       <c r="C196" s="53" t="s">
-        <v>396</v>
+        <v>587</v>
       </c>
       <c r="D196" s="53" t="s">
-        <v>397</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="53">
-        <v>260</v>
+      <c r="A197" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="53" t="s">
+        <v>589</v>
       </c>
       <c r="C197" s="53" t="s">
-        <v>398</v>
+        <v>590</v>
       </c>
       <c r="D197" s="53" t="s">
-        <v>399</v>
+        <v>591</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="53">
-        <v>261</v>
+      <c r="A198" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="53" t="s">
+        <v>592</v>
       </c>
       <c r="C198" s="53" t="s">
-        <v>400</v>
+        <v>593</v>
       </c>
       <c r="D198" s="53" t="s">
-        <v>401</v>
+        <v>594</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="53">
-        <v>262</v>
+      <c r="A199" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="53" t="s">
+        <v>595</v>
       </c>
       <c r="C199" s="53" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D199" s="53" t="s">
-        <v>403</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="53">
-        <v>263</v>
+      <c r="A200" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="53" t="s">
+        <v>598</v>
       </c>
       <c r="C200" s="53" t="s">
-        <v>404</v>
+        <v>599</v>
       </c>
       <c r="D200" s="53" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="53">
-        <v>264</v>
+      <c r="A201" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="53" t="s">
+        <v>601</v>
       </c>
       <c r="C201" s="53" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="D201" s="53" t="s">
-        <v>407</v>
+        <v>603</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="53">
-        <v>265</v>
+      <c r="A202" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="53" t="s">
+        <v>604</v>
       </c>
       <c r="C202" s="53" t="s">
-        <v>408</v>
+        <v>605</v>
       </c>
       <c r="D202" s="53" t="s">
-        <v>409</v>
+        <v>606</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="53">
-        <v>266</v>
+      <c r="A203" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="53" t="s">
+        <v>607</v>
       </c>
       <c r="C203" s="53" t="s">
-        <v>410</v>
+        <v>608</v>
       </c>
       <c r="D203" s="53" t="s">
-        <v>411</v>
+        <v>609</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="53">
-        <v>267</v>
+      <c r="A204" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="53" t="s">
+        <v>610</v>
       </c>
       <c r="C204" s="53" t="s">
-        <v>412</v>
+        <v>611</v>
       </c>
       <c r="D204" s="53" t="s">
-        <v>413</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" s="53">
-        <v>268</v>
+      <c r="A205" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="53" t="s">
+        <v>613</v>
       </c>
       <c r="C205" s="53" t="s">
-        <v>414</v>
+        <v>614</v>
       </c>
       <c r="D205" s="53" t="s">
-        <v>415</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="53">
-        <v>270</v>
+      <c r="A206" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="53" t="s">
+        <v>616</v>
       </c>
       <c r="C206" s="53" t="s">
-        <v>416</v>
+        <v>617</v>
       </c>
       <c r="D206" s="53" t="s">
-        <v>417</v>
+        <v>618</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="53">
-        <v>271</v>
+      <c r="A207" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="53" t="s">
+        <v>619</v>
       </c>
       <c r="C207" s="53" t="s">
-        <v>418</v>
+        <v>620</v>
       </c>
       <c r="D207" s="53" t="s">
-        <v>419</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="53">
-        <v>272</v>
+      <c r="A208" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="53" t="s">
+        <v>622</v>
       </c>
       <c r="C208" s="53" t="s">
-        <v>420</v>
+        <v>623</v>
       </c>
       <c r="D208" s="53" t="s">
-        <v>421</v>
+        <v>624</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="53">
-        <v>273</v>
+      <c r="A209" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="53" t="s">
+        <v>625</v>
       </c>
       <c r="C209" s="53" t="s">
-        <v>422</v>
+        <v>626</v>
       </c>
       <c r="D209" s="53" t="s">
-        <v>423</v>
+        <v>627</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="53">
-        <v>274</v>
+      <c r="A210" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="53" t="s">
+        <v>628</v>
       </c>
       <c r="C210" s="53" t="s">
-        <v>424</v>
+        <v>629</v>
       </c>
       <c r="D210" s="53" t="s">
-        <v>425</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" s="53">
-        <v>275</v>
+      <c r="A211" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="53" t="s">
+        <v>631</v>
       </c>
       <c r="C211" s="53" t="s">
-        <v>426</v>
+        <v>632</v>
       </c>
       <c r="D211" s="53" t="s">
-        <v>427</v>
+        <v>633</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="53">
-        <v>276</v>
+      <c r="A212" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="53" t="s">
+        <v>634</v>
       </c>
       <c r="C212" s="53" t="s">
-        <v>428</v>
+        <v>635</v>
       </c>
       <c r="D212" s="53" t="s">
-        <v>429</v>
+        <v>636</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="53">
-        <v>277</v>
+      <c r="A213" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="53" t="s">
+        <v>637</v>
       </c>
       <c r="C213" s="53" t="s">
-        <v>430</v>
+        <v>638</v>
       </c>
       <c r="D213" s="53" t="s">
-        <v>431</v>
+        <v>639</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="53">
-        <v>278</v>
+      <c r="A214" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="53" t="s">
+        <v>640</v>
       </c>
       <c r="C214" s="53" t="s">
-        <v>432</v>
+        <v>641</v>
       </c>
       <c r="D214" s="53" t="s">
-        <v>433</v>
+        <v>642</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="53">
-        <v>279</v>
+      <c r="A215" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="53" t="s">
+        <v>643</v>
       </c>
       <c r="C215" s="53" t="s">
-        <v>434</v>
+        <v>644</v>
       </c>
       <c r="D215" s="53" t="s">
-        <v>435</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="53">
-        <v>280</v>
+      <c r="A216" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="53" t="s">
+        <v>646</v>
       </c>
       <c r="C216" s="53" t="s">
-        <v>436</v>
+        <v>647</v>
       </c>
       <c r="D216" s="53" t="s">
-        <v>437</v>
+        <v>648</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="53">
-        <v>281</v>
+      <c r="A217" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="53" t="s">
+        <v>649</v>
       </c>
       <c r="C217" s="53" t="s">
-        <v>438</v>
+        <v>650</v>
       </c>
       <c r="D217" s="53" t="s">
-        <v>439</v>
+        <v>651</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="53">
-        <v>282</v>
+      <c r="A218" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="53" t="s">
+        <v>652</v>
       </c>
       <c r="C218" s="53" t="s">
-        <v>440</v>
+        <v>653</v>
       </c>
       <c r="D218" s="53" t="s">
-        <v>441</v>
+        <v>654</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="53">
-        <v>283</v>
+      <c r="A219" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="53" t="s">
+        <v>655</v>
       </c>
       <c r="C219" s="53" t="s">
-        <v>442</v>
+        <v>656</v>
       </c>
       <c r="D219" s="53" t="s">
-        <v>443</v>
+        <v>657</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="53">
-        <v>284</v>
+      <c r="A220" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="53" t="s">
+        <v>658</v>
       </c>
       <c r="C220" s="53" t="s">
-        <v>444</v>
+        <v>659</v>
       </c>
       <c r="D220" s="53" t="s">
-        <v>445</v>
+        <v>660</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="53">
-        <v>285</v>
+      <c r="A221" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="53" t="s">
+        <v>661</v>
       </c>
       <c r="C221" s="53" t="s">
-        <v>446</v>
+        <v>662</v>
       </c>
       <c r="D221" s="53" t="s">
-        <v>447</v>
+        <v>663</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="53">
-        <v>286</v>
+      <c r="A222" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="53" t="s">
+        <v>664</v>
       </c>
       <c r="C222" s="53" t="s">
-        <v>448</v>
+        <v>665</v>
       </c>
       <c r="D222" s="53" t="s">
-        <v>449</v>
+        <v>666</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="53">
-        <v>287</v>
+      <c r="A223" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="53" t="s">
+        <v>667</v>
       </c>
       <c r="C223" s="53" t="s">
-        <v>450</v>
+        <v>668</v>
       </c>
       <c r="D223" s="53" t="s">
-        <v>451</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="53">
-        <v>288</v>
+      <c r="A224" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="53" t="s">
+        <v>670</v>
       </c>
       <c r="C224" s="53" t="s">
-        <v>452</v>
+        <v>671</v>
       </c>
       <c r="D224" s="53" t="s">
-        <v>453</v>
+        <v>672</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="53">
-        <v>292</v>
+      <c r="A225" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="53" t="s">
+        <v>673</v>
       </c>
       <c r="C225" s="53" t="s">
-        <v>454</v>
+        <v>674</v>
       </c>
       <c r="D225" s="53" t="s">
-        <v>455</v>
+        <v>675</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="53">
-        <v>293</v>
+      <c r="A226" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="53" t="s">
+        <v>676</v>
       </c>
       <c r="C226" s="53" t="s">
-        <v>456</v>
+        <v>677</v>
       </c>
       <c r="D226" s="53" t="s">
-        <v>457</v>
+        <v>678</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="53">
-        <v>294</v>
+      <c r="A227" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="53" t="s">
+        <v>679</v>
       </c>
       <c r="C227" s="53" t="s">
-        <v>458</v>
+        <v>680</v>
       </c>
       <c r="D227" s="53" t="s">
-        <v>459</v>
+        <v>681</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="53">
-        <v>295</v>
+      <c r="A228" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="53" t="s">
+        <v>682</v>
       </c>
       <c r="C228" s="53" t="s">
-        <v>460</v>
+        <v>683</v>
       </c>
       <c r="D228" s="53" t="s">
-        <v>461</v>
+        <v>684</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="53">
-        <v>296</v>
+      <c r="A229" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="53" t="s">
+        <v>685</v>
       </c>
       <c r="C229" s="53" t="s">
-        <v>462</v>
+        <v>686</v>
       </c>
       <c r="D229" s="53" t="s">
-        <v>463</v>
+        <v>687</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="53">
-        <v>297</v>
+      <c r="A230" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="53" t="s">
+        <v>688</v>
       </c>
       <c r="C230" s="53" t="s">
-        <v>464</v>
+        <v>689</v>
       </c>
       <c r="D230" s="53" t="s">
-        <v>465</v>
+        <v>690</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="53">
-        <v>298</v>
+      <c r="A231" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="53" t="s">
+        <v>691</v>
       </c>
       <c r="C231" s="53" t="s">
-        <v>466</v>
+        <v>692</v>
       </c>
       <c r="D231" s="53" t="s">
-        <v>467</v>
+        <v>693</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="53">
-        <v>299</v>
+      <c r="A232" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="53" t="s">
+        <v>694</v>
       </c>
       <c r="C232" s="53" t="s">
-        <v>468</v>
+        <v>695</v>
       </c>
       <c r="D232" s="53" t="s">
-        <v>469</v>
+        <v>696</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="53">
-        <v>300</v>
+      <c r="A233" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="53" t="s">
+        <v>697</v>
       </c>
       <c r="C233" s="53" t="s">
-        <v>470</v>
+        <v>698</v>
       </c>
       <c r="D233" s="53" t="s">
-        <v>471</v>
+        <v>699</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="53">
-        <v>301</v>
+      <c r="A234" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="53" t="s">
+        <v>700</v>
       </c>
       <c r="C234" s="53" t="s">
-        <v>472</v>
+        <v>701</v>
       </c>
       <c r="D234" s="53" t="s">
-        <v>473</v>
+        <v>702</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B235" s="53">
-        <v>302</v>
+      <c r="A235" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="53" t="s">
+        <v>703</v>
       </c>
       <c r="C235" s="53" t="s">
-        <v>474</v>
+        <v>704</v>
       </c>
       <c r="D235" s="53" t="s">
-        <v>475</v>
+        <v>705</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="53">
-        <v>303</v>
+      <c r="A236" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="53" t="s">
+        <v>706</v>
       </c>
       <c r="C236" s="53" t="s">
-        <v>476</v>
+        <v>707</v>
       </c>
       <c r="D236" s="53" t="s">
-        <v>477</v>
+        <v>708</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="53">
-        <v>304</v>
+      <c r="A237" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="53" t="s">
+        <v>709</v>
       </c>
       <c r="C237" s="53" t="s">
-        <v>478</v>
+        <v>710</v>
       </c>
       <c r="D237" s="53" t="s">
-        <v>479</v>
+        <v>711</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="53">
-        <v>305</v>
+      <c r="A238" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="53" t="s">
+        <v>712</v>
       </c>
       <c r="C238" s="53" t="s">
-        <v>480</v>
+        <v>713</v>
       </c>
       <c r="D238" s="53" t="s">
-        <v>481</v>
+        <v>714</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="53">
-        <v>306</v>
+      <c r="A239" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="53" t="s">
+        <v>715</v>
       </c>
       <c r="C239" s="53" t="s">
-        <v>482</v>
+        <v>716</v>
       </c>
       <c r="D239" s="53" t="s">
-        <v>483</v>
+        <v>717</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" s="53">
-        <v>307</v>
+      <c r="A240" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="53" t="s">
+        <v>718</v>
       </c>
       <c r="C240" s="53" t="s">
-        <v>484</v>
+        <v>719</v>
       </c>
       <c r="D240" s="53" t="s">
-        <v>485</v>
+        <v>720</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="53">
-        <v>308</v>
+      <c r="A241" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="53" t="s">
+        <v>721</v>
       </c>
       <c r="C241" s="53" t="s">
-        <v>486</v>
+        <v>722</v>
       </c>
       <c r="D241" s="53" t="s">
-        <v>487</v>
+        <v>723</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="53">
-        <v>309</v>
+      <c r="A242" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="53" t="s">
+        <v>724</v>
       </c>
       <c r="C242" s="53" t="s">
-        <v>488</v>
+        <v>725</v>
       </c>
       <c r="D242" s="53" t="s">
-        <v>489</v>
+        <v>726</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="53">
-        <v>310</v>
+      <c r="A243" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="53" t="s">
+        <v>727</v>
       </c>
       <c r="C243" s="53" t="s">
-        <v>490</v>
+        <v>728</v>
       </c>
       <c r="D243" s="53" t="s">
-        <v>491</v>
+        <v>729</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B244" s="53">
-        <v>311</v>
+      <c r="A244" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="53" t="s">
+        <v>730</v>
       </c>
       <c r="C244" s="53" t="s">
-        <v>492</v>
+        <v>731</v>
       </c>
       <c r="D244" s="53" t="s">
-        <v>493</v>
+        <v>732</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="53">
-        <v>312</v>
+      <c r="A245" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="53" t="s">
+        <v>733</v>
       </c>
       <c r="C245" s="53" t="s">
-        <v>494</v>
+        <v>734</v>
       </c>
       <c r="D245" s="53" t="s">
-        <v>495</v>
+        <v>735</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B246" s="53">
-        <v>313</v>
+      <c r="A246" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="53" t="s">
+        <v>736</v>
       </c>
       <c r="C246" s="53" t="s">
-        <v>496</v>
+        <v>737</v>
       </c>
       <c r="D246" s="53" t="s">
-        <v>497</v>
+        <v>738</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" s="53">
-        <v>314</v>
+      <c r="A247" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="53" t="s">
+        <v>739</v>
       </c>
       <c r="C247" s="53" t="s">
-        <v>498</v>
+        <v>740</v>
       </c>
       <c r="D247" s="53" t="s">
-        <v>499</v>
+        <v>741</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" s="53">
-        <v>315</v>
+      <c r="A248" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="53" t="s">
+        <v>742</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>500</v>
+        <v>743</v>
       </c>
       <c r="D248" s="53" t="s">
-        <v>501</v>
+        <v>744</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="53">
-        <v>316</v>
+      <c r="A249" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="53" t="s">
+        <v>745</v>
       </c>
       <c r="C249" s="53" t="s">
-        <v>502</v>
+        <v>746</v>
       </c>
       <c r="D249" s="53" t="s">
-        <v>503</v>
+        <v>747</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="53">
-        <v>317</v>
+      <c r="A250" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="53" t="s">
+        <v>748</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>504</v>
+        <v>749</v>
       </c>
       <c r="D250" s="53" t="s">
-        <v>505</v>
+        <v>750</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="53">
-        <v>318</v>
+      <c r="A251" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="53" t="s">
+        <v>751</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>506</v>
+        <v>752</v>
       </c>
       <c r="D251" s="53" t="s">
-        <v>507</v>
+        <v>753</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="53">
-        <v>319</v>
+      <c r="A252" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="53" t="s">
+        <v>754</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>508</v>
+        <v>755</v>
       </c>
       <c r="D252" s="53" t="s">
-        <v>509</v>
+        <v>756</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="53">
-        <v>320</v>
+      <c r="A253" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="53" t="s">
+        <v>757</v>
       </c>
       <c r="C253" s="53" t="s">
-        <v>510</v>
+        <v>758</v>
       </c>
       <c r="D253" s="53" t="s">
-        <v>511</v>
+        <v>759</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="53">
-        <v>321</v>
+      <c r="A254" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="53" t="s">
+        <v>760</v>
       </c>
       <c r="C254" s="53" t="s">
-        <v>512</v>
+        <v>761</v>
       </c>
       <c r="D254" s="53" t="s">
-        <v>513</v>
+        <v>762</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="53">
-        <v>322</v>
+      <c r="A255" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="53" t="s">
+        <v>763</v>
       </c>
       <c r="C255" s="53" t="s">
-        <v>514</v>
+        <v>764</v>
       </c>
       <c r="D255" s="53" t="s">
-        <v>515</v>
+        <v>765</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="53">
-        <v>323</v>
+      <c r="A256" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="53" t="s">
+        <v>766</v>
       </c>
       <c r="C256" s="53" t="s">
-        <v>516</v>
+        <v>767</v>
       </c>
       <c r="D256" s="53" t="s">
-        <v>517</v>
+        <v>768</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" s="53">
-        <v>324</v>
+      <c r="A257" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="53" t="s">
+        <v>769</v>
       </c>
       <c r="C257" s="53" t="s">
-        <v>518</v>
+        <v>770</v>
       </c>
       <c r="D257" s="53" t="s">
-        <v>519</v>
+        <v>771</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" s="53">
-        <v>325</v>
+      <c r="A258" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="53" t="s">
+        <v>772</v>
       </c>
       <c r="C258" s="53" t="s">
-        <v>520</v>
+        <v>773</v>
       </c>
       <c r="D258" s="53" t="s">
-        <v>521</v>
+        <v>774</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="53">
-        <v>326</v>
+      <c r="A259" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="53" t="s">
+        <v>775</v>
       </c>
       <c r="C259" s="53" t="s">
-        <v>522</v>
+        <v>776</v>
       </c>
       <c r="D259" s="53" t="s">
-        <v>523</v>
+        <v>777</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="53">
-        <v>327</v>
+      <c r="A260" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="53" t="s">
+        <v>778</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>524</v>
+        <v>779</v>
       </c>
       <c r="D260" s="53" t="s">
-        <v>525</v>
+        <v>780</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="53">
-        <v>328</v>
+      <c r="A261" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="53" t="s">
+        <v>781</v>
       </c>
       <c r="C261" s="53" t="s">
-        <v>526</v>
+        <v>782</v>
       </c>
       <c r="D261" s="53" t="s">
-        <v>527</v>
+        <v>783</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" s="53">
-        <v>329</v>
+      <c r="A262" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="53" t="s">
+        <v>784</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>528</v>
+        <v>785</v>
       </c>
       <c r="D262" s="53" t="s">
-        <v>529</v>
+        <v>786</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B263" s="53">
-        <v>330</v>
+      <c r="A263" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="53" t="s">
+        <v>787</v>
       </c>
       <c r="C263" s="53" t="s">
-        <v>530</v>
+        <v>788</v>
       </c>
       <c r="D263" s="53" t="s">
-        <v>531</v>
+        <v>789</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="53">
-        <v>331</v>
+      <c r="A264" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="53" t="s">
+        <v>790</v>
       </c>
       <c r="C264" s="53" t="s">
-        <v>532</v>
+        <v>791</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>533</v>
+        <v>792</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="53">
-        <v>332</v>
+      <c r="A265" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="53" t="s">
+        <v>793</v>
       </c>
       <c r="C265" s="53" t="s">
-        <v>534</v>
+        <v>794</v>
       </c>
       <c r="D265" s="53" t="s">
-        <v>535</v>
+        <v>795</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="53">
-        <v>333</v>
+      <c r="A266" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="53" t="s">
+        <v>796</v>
       </c>
       <c r="C266" s="53" t="s">
-        <v>536</v>
+        <v>797</v>
       </c>
       <c r="D266" s="53" t="s">
-        <v>537</v>
+        <v>798</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="53">
-        <v>334</v>
+      <c r="A267" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="53" t="s">
+        <v>799</v>
       </c>
       <c r="C267" s="53" t="s">
-        <v>538</v>
+        <v>800</v>
       </c>
       <c r="D267" s="53" t="s">
-        <v>539</v>
+        <v>801</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="53">
-        <v>335</v>
+      <c r="A268" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="53" t="s">
+        <v>802</v>
       </c>
       <c r="C268" s="53" t="s">
-        <v>540</v>
+        <v>803</v>
       </c>
       <c r="D268" s="53" t="s">
-        <v>541</v>
+        <v>804</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="53">
-        <v>336</v>
+      <c r="A269" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="53" t="s">
+        <v>805</v>
       </c>
       <c r="C269" s="53" t="s">
-        <v>542</v>
+        <v>806</v>
       </c>
       <c r="D269" s="53" t="s">
-        <v>543</v>
+        <v>807</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="53">
-        <v>337</v>
+      <c r="A270" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="53" t="s">
+        <v>808</v>
       </c>
       <c r="C270" s="53" t="s">
-        <v>544</v>
+        <v>809</v>
       </c>
       <c r="D270" s="53" t="s">
-        <v>545</v>
+        <v>810</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="53">
-        <v>338</v>
+      <c r="A271" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="53" t="s">
+        <v>811</v>
       </c>
       <c r="C271" s="53" t="s">
-        <v>546</v>
+        <v>812</v>
       </c>
       <c r="D271" s="53" t="s">
-        <v>547</v>
+        <v>813</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="53">
-        <v>339</v>
+      <c r="A272" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="53" t="s">
+        <v>814</v>
       </c>
       <c r="C272" s="53" t="s">
-        <v>548</v>
+        <v>815</v>
       </c>
       <c r="D272" s="53" t="s">
-        <v>549</v>
+        <v>816</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="53">
-        <v>340</v>
+      <c r="A273" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="53" t="s">
+        <v>817</v>
       </c>
       <c r="C273" s="53" t="s">
-        <v>550</v>
+        <v>818</v>
       </c>
       <c r="D273" s="53" t="s">
-        <v>551</v>
+        <v>819</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="53">
-        <v>341</v>
+      <c r="A274" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="53" t="s">
+        <v>820</v>
       </c>
       <c r="C274" s="53" t="s">
-        <v>552</v>
+        <v>821</v>
       </c>
       <c r="D274" s="53" t="s">
-        <v>553</v>
+        <v>822</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="53">
-        <v>342</v>
+      <c r="A275" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="53" t="s">
+        <v>823</v>
       </c>
       <c r="C275" s="53" t="s">
-        <v>554</v>
+        <v>824</v>
       </c>
       <c r="D275" s="53" t="s">
-        <v>555</v>
+        <v>825</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="53">
-        <v>343</v>
+      <c r="A276" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="53" t="s">
+        <v>826</v>
       </c>
       <c r="C276" s="53" t="s">
-        <v>556</v>
+        <v>827</v>
       </c>
       <c r="D276" s="53" t="s">
-        <v>557</v>
+        <v>828</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="53">
-        <v>344</v>
+      <c r="A277" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="53" t="s">
+        <v>829</v>
       </c>
       <c r="C277" s="53" t="s">
-        <v>558</v>
+        <v>830</v>
       </c>
       <c r="D277" s="53" t="s">
-        <v>559</v>
+        <v>831</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" s="53">
-        <v>345</v>
+      <c r="A278" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="53" t="s">
+        <v>832</v>
       </c>
       <c r="C278" s="53" t="s">
-        <v>560</v>
+        <v>833</v>
       </c>
       <c r="D278" s="53" t="s">
-        <v>561</v>
+        <v>834</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="53">
-        <v>346</v>
+      <c r="A279" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="53" t="s">
+        <v>835</v>
       </c>
       <c r="C279" s="53" t="s">
-        <v>562</v>
+        <v>836</v>
       </c>
       <c r="D279" s="53" t="s">
-        <v>563</v>
+        <v>837</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B280" s="53">
-        <v>347</v>
+      <c r="A280" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="53" t="s">
+        <v>838</v>
       </c>
       <c r="C280" s="53" t="s">
-        <v>564</v>
+        <v>839</v>
       </c>
       <c r="D280" s="53" t="s">
-        <v>565</v>
+        <v>840</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="53">
-        <v>348</v>
+      <c r="A281" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="53" t="s">
+        <v>841</v>
       </c>
       <c r="C281" s="53" t="s">
-        <v>566</v>
+        <v>842</v>
       </c>
       <c r="D281" s="53" t="s">
-        <v>567</v>
+        <v>843</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="53">
-        <v>349</v>
+      <c r="A282" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="53" t="s">
+        <v>844</v>
       </c>
       <c r="C282" s="53" t="s">
-        <v>568</v>
+        <v>845</v>
       </c>
       <c r="D282" s="53" t="s">
-        <v>569</v>
+        <v>846</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="53">
-        <v>350</v>
+      <c r="A283" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="53" t="s">
+        <v>847</v>
       </c>
       <c r="C283" s="53" t="s">
-        <v>570</v>
+        <v>848</v>
       </c>
       <c r="D283" s="53" t="s">
-        <v>571</v>
+        <v>849</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="53">
-        <v>351</v>
+      <c r="A284" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="53" t="s">
+        <v>850</v>
       </c>
       <c r="C284" s="53" t="s">
-        <v>572</v>
+        <v>851</v>
       </c>
       <c r="D284" s="53" t="s">
-        <v>573</v>
+        <v>852</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="53">
-        <v>356</v>
+      <c r="A285" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="53" t="s">
+        <v>853</v>
       </c>
       <c r="C285" s="53" t="s">
-        <v>574</v>
+        <v>854</v>
       </c>
       <c r="D285" s="53" t="s">
-        <v>575</v>
+        <v>855</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="53">
-        <v>357</v>
+      <c r="A286" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="53" t="s">
+        <v>856</v>
       </c>
       <c r="C286" s="53" t="s">
-        <v>576</v>
+        <v>857</v>
       </c>
       <c r="D286" s="53" t="s">
-        <v>577</v>
+        <v>858</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="53">
-        <v>358</v>
+      <c r="A287" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="53" t="s">
+        <v>859</v>
       </c>
       <c r="C287" s="53" t="s">
-        <v>578</v>
+        <v>860</v>
       </c>
       <c r="D287" s="53" t="s">
-        <v>579</v>
+        <v>861</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="53">
-        <v>359</v>
+      <c r="A288" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="53" t="s">
+        <v>862</v>
       </c>
       <c r="C288" s="53" t="s">
-        <v>580</v>
+        <v>863</v>
       </c>
       <c r="D288" s="53" t="s">
-        <v>581</v>
+        <v>864</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="53">
-        <v>372</v>
+      <c r="A289" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="53" t="s">
+        <v>865</v>
       </c>
       <c r="C289" s="53" t="s">
-        <v>582</v>
+        <v>866</v>
       </c>
       <c r="D289" s="53" t="s">
-        <v>583</v>
+        <v>867</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="53">
-        <v>385</v>
+      <c r="A290" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="53" t="s">
+        <v>868</v>
       </c>
       <c r="C290" s="53" t="s">
-        <v>584</v>
+        <v>869</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>585</v>
+        <v>870</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="53">
-        <v>396</v>
+      <c r="A291" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="53" t="s">
+        <v>871</v>
       </c>
       <c r="C291" s="53" t="s">
-        <v>586</v>
+        <v>872</v>
       </c>
       <c r="D291" s="53" t="s">
-        <v>587</v>
+        <v>873</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="53">
-        <v>397</v>
+      <c r="A292" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="53" t="s">
+        <v>874</v>
       </c>
       <c r="C292" s="53" t="s">
-        <v>588</v>
+        <v>875</v>
       </c>
       <c r="D292" s="53" t="s">
-        <v>589</v>
+        <v>876</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="53">
-        <v>406</v>
+      <c r="A293" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="53" t="s">
+        <v>877</v>
       </c>
       <c r="C293" s="53" t="s">
-        <v>590</v>
+        <v>878</v>
       </c>
       <c r="D293" s="53" t="s">
-        <v>591</v>
+        <v>879</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" s="53">
-        <v>407</v>
+      <c r="A294" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="53" t="s">
+        <v>880</v>
       </c>
       <c r="C294" s="53" t="s">
-        <v>592</v>
+        <v>881</v>
       </c>
       <c r="D294" s="53" t="s">
-        <v>593</v>
+        <v>882</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="53">
-        <v>416</v>
+      <c r="A295" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="53" t="s">
+        <v>883</v>
       </c>
       <c r="C295" s="53" t="s">
-        <v>594</v>
+        <v>884</v>
       </c>
       <c r="D295" s="53" t="s">
-        <v>595</v>
+        <v>885</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" s="53">
-        <v>417</v>
+      <c r="A296" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="53" t="s">
+        <v>886</v>
       </c>
       <c r="C296" s="53" t="s">
-        <v>596</v>
+        <v>887</v>
       </c>
       <c r="D296" s="53" t="s">
-        <v>597</v>
+        <v>888</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="53">
-        <v>418</v>
+      <c r="A297" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" s="53" t="s">
+        <v>889</v>
       </c>
       <c r="C297" s="53" t="s">
-        <v>598</v>
+        <v>890</v>
       </c>
       <c r="D297" s="53" t="s">
-        <v>599</v>
+        <v>891</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="53">
-        <v>673</v>
+      <c r="A298" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="53" t="s">
+        <v>892</v>
       </c>
       <c r="C298" s="53" t="s">
-        <v>600</v>
+        <v>893</v>
       </c>
       <c r="D298" s="53" t="s">
-        <v>601</v>
+        <v>894</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="53">
-        <v>674</v>
+      <c r="A299" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="53" t="s">
+        <v>895</v>
       </c>
       <c r="C299" s="53" t="s">
-        <v>602</v>
+        <v>896</v>
       </c>
       <c r="D299" s="53" t="s">
-        <v>603</v>
+        <v>897</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="53">
-        <v>675</v>
+      <c r="A300" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="53" t="s">
+        <v>898</v>
       </c>
       <c r="C300" s="53" t="s">
-        <v>604</v>
+        <v>899</v>
       </c>
       <c r="D300" s="53" t="s">
-        <v>605</v>
+        <v>900</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="53">
-        <v>676</v>
+      <c r="A301" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="53" t="s">
+        <v>901</v>
       </c>
       <c r="C301" s="53" t="s">
-        <v>606</v>
+        <v>902</v>
       </c>
       <c r="D301" s="53" t="s">
-        <v>607</v>
+        <v>903</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="53">
-        <v>677</v>
+      <c r="A302" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="53" t="s">
+        <v>904</v>
       </c>
       <c r="C302" s="53" t="s">
-        <v>608</v>
+        <v>905</v>
       </c>
       <c r="D302" s="53" t="s">
-        <v>609</v>
+        <v>906</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B303" s="53">
-        <v>678</v>
+      <c r="A303" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="53" t="s">
+        <v>907</v>
       </c>
       <c r="C303" s="53" t="s">
-        <v>610</v>
+        <v>908</v>
       </c>
       <c r="D303" s="53" t="s">
-        <v>611</v>
+        <v>909</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="53">
-        <v>679</v>
+      <c r="A304" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" s="53" t="s">
+        <v>910</v>
       </c>
       <c r="C304" s="53" t="s">
-        <v>612</v>
+        <v>911</v>
       </c>
       <c r="D304" s="53" t="s">
-        <v>613</v>
+        <v>912</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="53">
-        <v>680</v>
+      <c r="A305" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" s="53" t="s">
+        <v>913</v>
       </c>
       <c r="C305" s="53" t="s">
-        <v>614</v>
+        <v>914</v>
       </c>
       <c r="D305" s="53" t="s">
-        <v>615</v>
+        <v>915</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="53">
-        <v>681</v>
+      <c r="A306" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" s="53" t="s">
+        <v>916</v>
       </c>
       <c r="C306" s="53" t="s">
-        <v>616</v>
+        <v>917</v>
       </c>
       <c r="D306" s="53" t="s">
-        <v>617</v>
+        <v>918</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="53">
-        <v>682</v>
+      <c r="A307" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="53" t="s">
+        <v>919</v>
       </c>
       <c r="C307" s="53" t="s">
-        <v>618</v>
+        <v>920</v>
       </c>
       <c r="D307" s="53" t="s">
-        <v>619</v>
+        <v>921</v>
       </c>
     </row>
     <row r="308">
-      <c r="B308" s="53">
-        <v>2320</v>
+      <c r="A308" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308" s="53" t="s">
+        <v>922</v>
       </c>
       <c r="C308" s="53" t="s">
-        <v>620</v>
+        <v>923</v>
       </c>
       <c r="D308" s="53" t="s">
-        <v>621</v>
+        <v>924</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="53">
-        <v>2321</v>
+      <c r="A309" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="53" t="s">
+        <v>925</v>
       </c>
       <c r="C309" s="53" t="s">
-        <v>622</v>
+        <v>926</v>
       </c>
       <c r="D309" s="53" t="s">
-        <v>623</v>
+        <v>927</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="53">
-        <v>2333</v>
+      <c r="A310" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" s="53" t="s">
+        <v>928</v>
       </c>
       <c r="C310" s="53" t="s">
-        <v>624</v>
+        <v>929</v>
       </c>
       <c r="D310" s="53" t="s">
-        <v>625</v>
+        <v>930</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="53">
-        <v>2339</v>
+      <c r="A311" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="53" t="s">
+        <v>931</v>
       </c>
       <c r="C311" s="53" t="s">
-        <v>626</v>
+        <v>932</v>
       </c>
       <c r="D311" s="53" t="s">
-        <v>627</v>
+        <v>933</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B312" s="53">
-        <v>2639</v>
+      <c r="A312" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" s="53" t="s">
+        <v>934</v>
       </c>
       <c r="C312" s="53" t="s">
-        <v>628</v>
+        <v>935</v>
       </c>
       <c r="D312" s="53" t="s">
-        <v>629</v>
+        <v>936</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="53">
-        <v>2646</v>
+      <c r="A313" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="53" t="s">
+        <v>937</v>
       </c>
       <c r="C313" s="53" t="s">
-        <v>630</v>
+        <v>938</v>
       </c>
       <c r="D313" s="53" t="s">
-        <v>631</v>
+        <v>939</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="53">
-        <v>2948</v>
+      <c r="A314" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="53" t="s">
+        <v>940</v>
       </c>
       <c r="C314" s="53" t="s">
-        <v>632</v>
+        <v>941</v>
       </c>
       <c r="D314" s="53" t="s">
-        <v>633</v>
+        <v>942</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="53">
-        <v>2974</v>
+      <c r="A315" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="53" t="s">
+        <v>943</v>
       </c>
       <c r="C315" s="53" t="s">
-        <v>634</v>
+        <v>944</v>
       </c>
       <c r="D315" s="53" t="s">
-        <v>635</v>
+        <v>945</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316" s="53">
-        <v>2980</v>
+      <c r="A316" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" s="53" t="s">
+        <v>946</v>
       </c>
       <c r="C316" s="53" t="s">
-        <v>636</v>
+        <v>947</v>
       </c>
       <c r="D316" s="53" t="s">
-        <v>637</v>
+        <v>948</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="53">
-        <v>2983</v>
+      <c r="A317" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" s="53" t="s">
+        <v>949</v>
       </c>
       <c r="C317" s="53" t="s">
-        <v>638</v>
+        <v>950</v>
       </c>
       <c r="D317" s="53" t="s">
-        <v>639</v>
+        <v>951</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B318" s="53">
-        <v>3284</v>
+      <c r="A318" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" s="53" t="s">
+        <v>952</v>
       </c>
       <c r="C318" s="53" t="s">
-        <v>640</v>
+        <v>953</v>
       </c>
       <c r="D318" s="53" t="s">
-        <v>641</v>
+        <v>954</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="53">
-        <v>3299</v>
+      <c r="A319" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="53" t="s">
+        <v>955</v>
       </c>
       <c r="C319" s="53" t="s">
-        <v>642</v>
+        <v>956</v>
       </c>
       <c r="D319" s="53" t="s">
-        <v>643</v>
+        <v>957</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="53">
-        <v>3333</v>
+      <c r="A320" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="53" t="s">
+        <v>958</v>
       </c>
       <c r="C320" s="53" t="s">
-        <v>644</v>
+        <v>959</v>
       </c>
       <c r="D320" s="53" t="s">
-        <v>645</v>
+        <v>960</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="53">
-        <v>3340</v>
+      <c r="A321" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="53" t="s">
+        <v>961</v>
       </c>
       <c r="C321" s="53" t="s">
-        <v>646</v>
+        <v>962</v>
       </c>
       <c r="D321" s="53" t="s">
-        <v>647</v>
+        <v>963</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B322" s="53">
-        <v>3341</v>
+      <c r="A322" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="53" t="s">
+        <v>964</v>
       </c>
       <c r="C322" s="53" t="s">
-        <v>648</v>
+        <v>965</v>
       </c>
       <c r="D322" s="53" t="s">
-        <v>649</v>
+        <v>966</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="53">
-        <v>3351</v>
+      <c r="A323" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="53" t="s">
+        <v>967</v>
       </c>
       <c r="C323" s="53" t="s">
-        <v>650</v>
+        <v>968</v>
       </c>
       <c r="D323" s="53" t="s">
-        <v>651</v>
+        <v>969</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="53">
-        <v>3358</v>
+      <c r="A324" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="53" t="s">
+        <v>970</v>
       </c>
       <c r="C324" s="53" t="s">
-        <v>652</v>
+        <v>971</v>
       </c>
       <c r="D324" s="53" t="s">
-        <v>653</v>
+        <v>972</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" s="53">
-        <v>3388</v>
+      <c r="A325" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="53" t="s">
+        <v>973</v>
       </c>
       <c r="C325" s="53" t="s">
-        <v>654</v>
+        <v>974</v>
       </c>
       <c r="D325" s="53" t="s">
-        <v>655</v>
+        <v>975</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="53">
-        <v>3397</v>
+      <c r="A326" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="53" t="s">
+        <v>976</v>
       </c>
       <c r="C326" s="53" t="s">
-        <v>656</v>
+        <v>977</v>
       </c>
       <c r="D326" s="53" t="s">
-        <v>657</v>
+        <v>978</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B327" s="52">
-        <v>3398</v>
+      <c r="A327" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" s="52" t="s">
+        <v>979</v>
       </c>
       <c r="C327" s="53" t="s">
-        <v>658</v>
+        <v>980</v>
       </c>
       <c r="D327" s="53" t="s">
-        <v>659</v>
+        <v>981</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B328" s="52">
-        <v>3405</v>
+      <c r="A328" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="52" t="s">
+        <v>982</v>
       </c>
       <c r="C328" s="53" t="s">
-        <v>660</v>
+        <v>983</v>
       </c>
       <c r="D328" s="53" t="s">
-        <v>661</v>
+        <v>984</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="51">
-        <v>3423</v>
+      <c r="A329" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="51" t="s">
+        <v>985</v>
       </c>
       <c r="C329" s="53" t="s">
-        <v>662</v>
+        <v>986</v>
       </c>
       <c r="D329" s="53" t="s">
-        <v>663</v>
+        <v>987</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B330" s="50">
-        <v>3471</v>
+      <c r="A330" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="50" t="s">
+        <v>988</v>
       </c>
       <c r="C330" s="53" t="s">
-        <v>664</v>
+        <v>989</v>
       </c>
       <c r="D330" s="53" t="s">
-        <v>665</v>
+        <v>990</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B331" s="50">
-        <v>3485</v>
+      <c r="A331" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="50" t="s">
+        <v>991</v>
       </c>
       <c r="C331" s="53" t="s">
-        <v>666</v>
+        <v>992</v>
       </c>
       <c r="D331" s="53" t="s">
-        <v>667</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1126">
   <si>
     <t>${name}</t>
   </si>
@@ -83,7 +83,7 @@
     <t>AvaMask_AvatarLayer_Bottom</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/AvatarLayer_Bottom.mask</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/AvatarLayer_Bottom.mask</t>
   </si>
   <si>
     <t>2</t>
@@ -92,7 +92,7 @@
     <t>AvaMask_AvatarLayer_Top</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/AvatarLayer_Top.mask</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/AvatarLayer_Top.mask</t>
   </si>
   <si>
     <t>3</t>
@@ -101,7 +101,7 @@
     <t>AvaMask_AvatarLayer_Base</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/AvatarLayer_Base.mask</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/AvatarLayer_Base.mask</t>
   </si>
   <si>
     <t>4</t>
@@ -113,6 +113,60 @@
     <t>Assets/Abbresources/Effect/EffectPlayerSkill2_1.prefab</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Pre_EffectElectricHit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectElectricHit.prefab</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Pre_EffectElectrifiedLoop</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectElectrifiedLoop.prefab</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Pre_EffectWaterBuff</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectWaterBuff.prefab</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Pre_EffectWaterHit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectWaterHit.prefab</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Pre_EffectWaterHit2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectWaterHit2.prefab</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Pre_EffectAttackAddBuff</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectAttackAddBuff.prefab</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -158,6 +212,51 @@
     <t>Assets/Resources/Anim/Rest_relax_03.FBX</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Pre_EffectAttackAddBuffLoop</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectAttackAddBuffLoop.prefab</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Pre_CharacterPasterEntity</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Pastor/CharacterPasterEntity.prefab</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Pre_PlayerEntitySword</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/PlayerEntitySword.prefab</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Pre_UICharacterItem</t>
+  </si>
+  <si>
+    <t>Assets/AbbFramework/Prefabs/UICharacterItem.prefab</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1001_Diffuse</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1001_Diffuse.png</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -212,6 +311,42 @@
     <t>Assets/Resources/Anim/Attack_06.FBX</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1001_Glossiness</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1001_Glossiness.png</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1001_Normal</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1001_Normal.png</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1001_Specular</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1001_Specular.png</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1002_Diffuse</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1002_Diffuse.png</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -221,6 +356,87 @@
     <t>Assets/Resources/Anim/Battle_run.FBX</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1002_Glossiness</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1002_Glossiness.png</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1002_Normal</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1002_Normal.png</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Sp_Ch30_1002_Specular</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/Standing Run Forward-3.fbm/Ch30_1002_Specular.png</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Body_diffuse</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Body_diffuse.png</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Bottom_normal</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Bottom_normal.png</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Bottom_specular</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Bottom_specular.png</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Hair_diffuse</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Hair_diffuse.png</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Hair_normal</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Hair_normal.png</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Hair_specular</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Hair_specular.png</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -257,13 +473,193 @@
     <t>Assets/Resources/Anim/Jump_fall_end_L_Battle.FBX</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Moustache_diffuse</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Moustache_diffuse.png</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Moustache_normal</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Moustache_normal.png</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Moustache_specular</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Moustache_specular.png</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Shoes_normal</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Shoes_normal.png</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_Shoes_specular</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_Shoes_specular.png</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Sp_MaleBruteA_StdNM</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/MaleBruteA_StdNM.png</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Sp_axe_DIF2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/axe_DIF2.png</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Sp_axe_NM2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/axe_NM2.png</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Sp_axe_SPEC</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/axe_SPEC.png</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Anim_StandingRunForward_3</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster2/StandingRunForward_3.fbx</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Anim_Unarmed</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbx</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Anim_MutantFlexingMuscles</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/MutantFlexingMuscles.fbx</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Anim_MutantRun</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/MutantRun.fbx</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Anim_StandingMeleeAttack360Low</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/StandingMeleeAttack360Low.fbx</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Anim_StandingTauntBattlecry</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Monster/Monster3/StandingTauntBattlecry.fbx</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight1_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight1_1.prefab</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight1_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight1_2.prefab</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight1_3</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight1_3.prefab</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight2_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight2_1.prefab</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight2_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight2_2.prefab</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
     <t>Pre_PlayerEntity</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/PlayerEntity.prefab</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/PlayerEntity.prefab</t>
   </si>
   <si>
     <t>77</t>
@@ -272,7 +668,7 @@
     <t>Pre_Player_ZhanShi</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Player_ZhanShi.prefab</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Player_ZhanShi.prefab</t>
   </si>
   <si>
     <t>78</t>
@@ -281,7 +677,7 @@
     <t>Pre_Wizard</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Wizard.prefab</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Wizard.prefab</t>
   </si>
   <si>
     <t>79</t>
@@ -335,7 +731,7 @@
     <t>Sp_Square</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Sprites/Square.png</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Sprites/Square.png</t>
   </si>
   <si>
     <t>85</t>
@@ -389,7 +785,7 @@
     <t>Anim_Role_Zhanshi_Tz_Boy1</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Role_Zhanshi_Tz_Boy1.FBX</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Role_Zhanshi_Tz_Boy1.FBX</t>
   </si>
   <si>
     <t>91</t>
@@ -2477,7 +2873,7 @@
     <t>Anim_Wizard_Attack</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_Attack.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_Attack.anim</t>
   </si>
   <si>
     <t>339</t>
@@ -2486,7 +2882,7 @@
     <t>Anim_Wizard_Die</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_Die.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_Die.anim</t>
   </si>
   <si>
     <t>340</t>
@@ -2495,7 +2891,7 @@
     <t>Anim_Wizard_Hurt</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_Hurt.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_Hurt.anim</t>
   </si>
   <si>
     <t>341</t>
@@ -2504,7 +2900,7 @@
     <t>Anim_Wizard_Idle</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_Idle.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_Idle.anim</t>
   </si>
   <si>
     <t>342</t>
@@ -2513,7 +2909,7 @@
     <t>Anim_Wizard_Jump</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_Jump.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_Jump.anim</t>
   </si>
   <si>
     <t>343</t>
@@ -2522,7 +2918,7 @@
     <t>Anim_Wizard_LookUp</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_LookUp.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_LookUp.anim</t>
   </si>
   <si>
     <t>344</t>
@@ -2531,7 +2927,7 @@
     <t>Anim_Wizard_Run</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/Animations/Wizard_Run.anim</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/Animations/Wizard_Run.anim</t>
   </si>
   <si>
     <t>345</t>
@@ -2585,7 +2981,7 @@
     <t>Pre_EffectAttack5</t>
   </si>
   <si>
-    <t>Assets/Abbresources/Player1/EffectAttack5.prefab</t>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/EffectAttack5.prefab</t>
   </si>
   <si>
     <t>351</t>
@@ -3620,7 +4016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3766,18 +4162,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -4140,4646 +4524,5262 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A59" sqref="$A59:$XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="53"/>
-    <col min="4" max="4" width="100" customWidth="1" style="53"/>
+    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="49"/>
+    <col min="4" max="4" width="100" customWidth="1" style="49"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6">
-      <c r="A6" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="A8" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="55" t="s">
+      <c r="A13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="49" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="49" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="55" t="s">
+      <c r="A23" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="55" t="s">
+      <c r="A25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="49" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="55" t="s">
+      <c r="A27" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="57" t="s">
+      <c r="A30" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="49" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="49" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="49" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="49" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="49" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="49" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="49" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="49" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="49" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="53" t="s">
+      <c r="D47" s="49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="53" t="s">
+      <c r="A48" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="49" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="49" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="49" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="49" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="53" t="s">
+      <c r="A54" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="49" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="49" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="49" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="49" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="53" t="s">
+      <c r="A59" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="49" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="53" t="s">
+      <c r="A60" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="49" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="49" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="49" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="53" t="s">
+      <c r="A63" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="49" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="53" t="s">
+      <c r="A64" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="49" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="49" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="53" t="s">
+      <c r="A66" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="49" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="49" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="53" t="s">
+      <c r="A68" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="49" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="53" t="s">
+      <c r="D69" s="49" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="49" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="53" t="s">
+      <c r="A72" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="49" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="49" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="53" t="s">
+      <c r="A74" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="53" t="s">
+      <c r="D74" s="49" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="53" t="s">
+      <c r="A75" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D75" s="49" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="53" t="s">
+      <c r="D76" s="49" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="53" t="s">
+      <c r="A77" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="53" t="s">
+      <c r="D77" s="49" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="53" t="s">
+      <c r="A78" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="49" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="53" t="s">
+      <c r="D79" s="49" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="53" t="s">
+      <c r="A80" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="53" t="s">
+      <c r="D80" s="49" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="53" t="s">
+      <c r="D81" s="49" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="53" t="s">
+      <c r="A82" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D82" s="49" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D83" s="49" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="53" t="s">
+      <c r="A84" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="53" t="s">
+      <c r="D84" s="49" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="53" t="s">
+      <c r="A85" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="49" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="53" t="s">
+      <c r="A86" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="53" t="s">
+      <c r="D86" s="49" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="53" t="s">
+      <c r="A87" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="53" t="s">
+      <c r="D87" s="49" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="53" t="s">
+      <c r="D88" s="49" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="49" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="53" t="s">
+      <c r="A90" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="53" t="s">
+      <c r="D90" s="49" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="53" t="s">
+      <c r="A91" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="49" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="53" t="s">
+      <c r="A92" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="53" t="s">
+      <c r="D92" s="49" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="53" t="s">
+      <c r="A93" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="49" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="53" t="s">
+      <c r="D94" s="49" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="53" t="s">
+      <c r="D95" s="49" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="53" t="s">
+      <c r="A96" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="53" t="s">
+      <c r="D96" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="53" t="s">
+      <c r="D97" s="49" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="53" t="s">
+      <c r="A98" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C98" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="53" t="s">
+      <c r="D98" s="49" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="53" t="s">
+      <c r="A99" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="53" t="s">
+      <c r="C99" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="53" t="s">
+      <c r="D99" s="49" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="53" t="s">
+      <c r="A100" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="53" t="s">
+      <c r="D100" s="49" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="53" t="s">
+      <c r="D101" s="49" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="53" t="s">
+      <c r="A102" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="53" t="s">
+      <c r="D102" s="49" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="53" t="s">
+      <c r="A103" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="53" t="s">
+      <c r="D103" s="49" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="53" t="s">
+      <c r="A104" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D104" s="49" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="53" t="s">
+      <c r="A105" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" s="49" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="53" t="s">
+      <c r="A106" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="53" t="s">
+      <c r="D106" s="49" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="53" t="s">
+      <c r="A107" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D107" s="49" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="53" t="s">
+      <c r="A108" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="D108" s="53" t="s">
+      <c r="D108" s="49" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D109" s="53" t="s">
+      <c r="D109" s="49" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="53" t="s">
+      <c r="A110" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="53" t="s">
+      <c r="C110" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="D110" s="53" t="s">
+      <c r="D110" s="49" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="49" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="53" t="s">
+      <c r="A112" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="C112" s="53" t="s">
+      <c r="C112" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="D112" s="53" t="s">
+      <c r="D112" s="49" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="53" t="s">
+      <c r="A113" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="53" t="s">
+      <c r="C113" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="D113" s="53" t="s">
+      <c r="D113" s="49" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="53" t="s">
+      <c r="A114" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="D114" s="53" t="s">
+      <c r="D114" s="49" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C115" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="D115" s="49" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="53" t="s">
+      <c r="A116" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C116" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="D116" s="53" t="s">
+      <c r="D116" s="49" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="53" t="s">
+      <c r="A117" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="D117" s="53" t="s">
+      <c r="D117" s="49" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="53" t="s">
+      <c r="A118" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="53" t="s">
+      <c r="D118" s="49" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="53" t="s">
+      <c r="A119" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="C119" s="53" t="s">
+      <c r="C119" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="D119" s="53" t="s">
+      <c r="D119" s="49" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="53" t="s">
+      <c r="A120" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="53" t="s">
+      <c r="D120" s="49" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="D121" s="53" t="s">
+      <c r="D121" s="49" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="53" t="s">
+      <c r="A122" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C122" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="53" t="s">
+      <c r="D122" s="49" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="53" t="s">
+      <c r="A123" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="D123" s="53" t="s">
+      <c r="D123" s="49" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="53" t="s">
+      <c r="A124" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="C124" s="53" t="s">
+      <c r="C124" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="D124" s="53" t="s">
+      <c r="D124" s="49" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="53" t="s">
+      <c r="A125" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="C125" s="53" t="s">
+      <c r="C125" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="D125" s="53" t="s">
+      <c r="D125" s="49" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="53" t="s">
+      <c r="A126" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="53" t="s">
+      <c r="C126" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="53" t="s">
+      <c r="D126" s="49" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="53" t="s">
+      <c r="A127" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="53" t="s">
+      <c r="C127" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="D127" s="53" t="s">
+      <c r="D127" s="49" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="53" t="s">
+      <c r="A128" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="53" t="s">
+      <c r="C128" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="D128" s="53" t="s">
+      <c r="D128" s="49" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="53" t="s">
+      <c r="A129" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="C129" s="53" t="s">
+      <c r="C129" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="53" t="s">
+      <c r="D129" s="49" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="53" t="s">
+      <c r="A130" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="C130" s="53" t="s">
+      <c r="C130" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="53" t="s">
+      <c r="D130" s="49" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="53" t="s">
+      <c r="A131" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="C131" s="53" t="s">
+      <c r="C131" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="D131" s="53" t="s">
+      <c r="D131" s="49" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="53" t="s">
+      <c r="A132" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="53" t="s">
+      <c r="D132" s="49" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="53" t="s">
+      <c r="A133" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="53" t="s">
+      <c r="C133" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D133" s="53" t="s">
+      <c r="D133" s="49" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="53" t="s">
+      <c r="A134" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C134" s="53" t="s">
+      <c r="C134" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="D134" s="53" t="s">
+      <c r="D134" s="49" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="53" t="s">
+      <c r="A135" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="53" t="s">
+      <c r="C135" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="D135" s="53" t="s">
+      <c r="D135" s="49" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="53" t="s">
+      <c r="A136" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="C136" s="53" t="s">
+      <c r="C136" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="D136" s="53" t="s">
+      <c r="D136" s="49" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="53" t="s">
+      <c r="A137" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="C137" s="53" t="s">
+      <c r="C137" s="49" t="s">
         <v>410</v>
       </c>
-      <c r="D137" s="53" t="s">
+      <c r="D137" s="49" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="53" t="s">
+      <c r="A138" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="49" t="s">
         <v>412</v>
       </c>
-      <c r="C138" s="53" t="s">
+      <c r="C138" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="D138" s="53" t="s">
+      <c r="D138" s="49" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="53" t="s">
+      <c r="A139" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="C139" s="53" t="s">
+      <c r="C139" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="D139" s="53" t="s">
+      <c r="D139" s="49" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="53" t="s">
+      <c r="A140" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="C140" s="53" t="s">
+      <c r="C140" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="D140" s="53" t="s">
+      <c r="D140" s="49" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="53" t="s">
+      <c r="A141" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="C141" s="53" t="s">
+      <c r="C141" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="D141" s="53" t="s">
+      <c r="D141" s="49" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="53" t="s">
+      <c r="A142" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="C142" s="53" t="s">
+      <c r="C142" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="D142" s="53" t="s">
+      <c r="D142" s="49" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="53" t="s">
+      <c r="A143" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="C143" s="53" t="s">
+      <c r="C143" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="D143" s="53" t="s">
+      <c r="D143" s="49" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="53" t="s">
+      <c r="A144" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C144" s="53" t="s">
+      <c r="C144" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D144" s="49" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="53" t="s">
+      <c r="A145" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="C145" s="53" t="s">
+      <c r="C145" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="53" t="s">
+      <c r="A146" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="C146" s="53" t="s">
+      <c r="C146" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="D146" s="53" t="s">
+      <c r="D146" s="49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="53" t="s">
+      <c r="A147" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="C147" s="53" t="s">
+      <c r="C147" s="49" t="s">
         <v>440</v>
       </c>
-      <c r="D147" s="53" t="s">
+      <c r="D147" s="49" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="53" t="s">
+      <c r="A148" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="C148" s="53" t="s">
+      <c r="C148" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="D148" s="53" t="s">
+      <c r="D148" s="49" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="53" t="s">
+      <c r="A149" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="49" t="s">
         <v>445</v>
       </c>
-      <c r="C149" s="53" t="s">
+      <c r="C149" s="49" t="s">
         <v>446</v>
       </c>
-      <c r="D149" s="53" t="s">
+      <c r="D149" s="49" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="53" t="s">
+      <c r="A150" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="C150" s="53" t="s">
+      <c r="C150" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="D150" s="53" t="s">
+      <c r="D150" s="49" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="53" t="s">
+      <c r="A151" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C151" s="53" t="s">
+      <c r="C151" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="D151" s="53" t="s">
+      <c r="D151" s="49" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="53" t="s">
+      <c r="A152" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="53" t="s">
+      <c r="C152" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="D152" s="53" t="s">
+      <c r="D152" s="49" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="53" t="s">
+      <c r="A153" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="C153" s="53" t="s">
+      <c r="C153" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="D153" s="53" t="s">
+      <c r="D153" s="49" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="53" t="s">
+      <c r="A154" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="C154" s="53" t="s">
+      <c r="C154" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="D154" s="53" t="s">
+      <c r="D154" s="49" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="53" t="s">
+      <c r="A155" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="C155" s="53" t="s">
+      <c r="C155" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="D155" s="53" t="s">
+      <c r="D155" s="49" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="53" t="s">
+      <c r="A156" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="C156" s="53" t="s">
+      <c r="C156" s="49" t="s">
         <v>467</v>
       </c>
-      <c r="D156" s="53" t="s">
+      <c r="D156" s="49" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="53" t="s">
+      <c r="A157" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="C157" s="53" t="s">
+      <c r="C157" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="D157" s="53" t="s">
+      <c r="D157" s="49" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="53" t="s">
+      <c r="A158" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="C158" s="53" t="s">
+      <c r="C158" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="D158" s="53" t="s">
+      <c r="D158" s="49" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" s="53" t="s">
+      <c r="A159" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="C159" s="53" t="s">
+      <c r="C159" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="D159" s="53" t="s">
+      <c r="D159" s="49" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" s="53" t="s">
+      <c r="A160" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="C160" s="53" t="s">
+      <c r="C160" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="D160" s="53" t="s">
+      <c r="D160" s="49" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="53" t="s">
+      <c r="A161" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="C161" s="53" t="s">
+      <c r="C161" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="D161" s="53" t="s">
+      <c r="D161" s="49" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" s="53" t="s">
+      <c r="A162" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="C162" s="53" t="s">
+      <c r="C162" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="D162" s="53" t="s">
+      <c r="D162" s="49" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="53" t="s">
+      <c r="A163" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="C163" s="53" t="s">
+      <c r="C163" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="D163" s="53" t="s">
+      <c r="D163" s="49" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="53" t="s">
+      <c r="A164" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="C164" s="53" t="s">
+      <c r="C164" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="D164" s="53" t="s">
+      <c r="D164" s="49" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="53" t="s">
+      <c r="A165" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="C165" s="53" t="s">
+      <c r="C165" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="D165" s="53" t="s">
+      <c r="D165" s="49" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="53" t="s">
+      <c r="A166" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="C166" s="53" t="s">
+      <c r="C166" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="D166" s="53" t="s">
+      <c r="D166" s="49" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="53" t="s">
+      <c r="A167" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="C167" s="53" t="s">
+      <c r="C167" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="D167" s="53" t="s">
+      <c r="D167" s="49" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="53" t="s">
+      <c r="A168" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="C168" s="53" t="s">
+      <c r="C168" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="D168" s="53" t="s">
+      <c r="D168" s="49" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="53" t="s">
+      <c r="A169" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="C169" s="53" t="s">
+      <c r="C169" s="49" t="s">
         <v>506</v>
       </c>
-      <c r="D169" s="53" t="s">
+      <c r="D169" s="49" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="53" t="s">
+      <c r="A170" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="C170" s="53" t="s">
+      <c r="C170" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="D170" s="53" t="s">
+      <c r="D170" s="49" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171" s="53" t="s">
+      <c r="A171" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="C171" s="53" t="s">
+      <c r="C171" s="49" t="s">
         <v>512</v>
       </c>
-      <c r="D171" s="53" t="s">
+      <c r="D171" s="49" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="53" t="s">
+      <c r="A172" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="C172" s="53" t="s">
+      <c r="C172" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="D172" s="53" t="s">
+      <c r="D172" s="49" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="53" t="s">
+      <c r="A173" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="C173" s="53" t="s">
+      <c r="C173" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="D173" s="53" t="s">
+      <c r="D173" s="49" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="53" t="s">
+      <c r="A174" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="C174" s="53" t="s">
+      <c r="C174" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="D174" s="53" t="s">
+      <c r="D174" s="49" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="53" t="s">
+      <c r="A175" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="53" t="s">
+      <c r="C175" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="D175" s="53" t="s">
+      <c r="D175" s="49" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="53" t="s">
+      <c r="A176" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="49" t="s">
         <v>526</v>
       </c>
-      <c r="C176" s="53" t="s">
+      <c r="C176" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="D176" s="53" t="s">
+      <c r="D176" s="49" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="53" t="s">
+      <c r="A177" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="49" t="s">
         <v>529</v>
       </c>
-      <c r="C177" s="53" t="s">
+      <c r="C177" s="49" t="s">
         <v>530</v>
       </c>
-      <c r="D177" s="53" t="s">
+      <c r="D177" s="49" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="53" t="s">
+      <c r="A178" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="C178" s="53" t="s">
+      <c r="C178" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="D178" s="53" t="s">
+      <c r="D178" s="49" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="53" t="s">
+      <c r="A179" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="C179" s="53" t="s">
+      <c r="C179" s="49" t="s">
         <v>536</v>
       </c>
-      <c r="D179" s="53" t="s">
+      <c r="D179" s="49" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="53" t="s">
+      <c r="A180" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="C180" s="53" t="s">
+      <c r="C180" s="49" t="s">
         <v>539</v>
       </c>
-      <c r="D180" s="53" t="s">
+      <c r="D180" s="49" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="53" t="s">
+      <c r="A181" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="C181" s="53" t="s">
+      <c r="C181" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="D181" s="53" t="s">
+      <c r="D181" s="49" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="53" t="s">
+      <c r="A182" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="C182" s="53" t="s">
+      <c r="C182" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="D182" s="53" t="s">
+      <c r="D182" s="49" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="53" t="s">
+      <c r="A183" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="C183" s="53" t="s">
+      <c r="C183" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="D183" s="53" t="s">
+      <c r="D183" s="49" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="53" t="s">
+      <c r="A184" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="49" t="s">
         <v>550</v>
       </c>
-      <c r="C184" s="53" t="s">
+      <c r="C184" s="49" t="s">
         <v>551</v>
       </c>
-      <c r="D184" s="53" t="s">
+      <c r="D184" s="49" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="53" t="s">
+      <c r="A185" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="C185" s="53" t="s">
+      <c r="C185" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="D185" s="53" t="s">
+      <c r="D185" s="49" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="53" t="s">
+      <c r="A186" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="49" t="s">
         <v>556</v>
       </c>
-      <c r="C186" s="53" t="s">
+      <c r="C186" s="49" t="s">
         <v>557</v>
       </c>
-      <c r="D186" s="53" t="s">
+      <c r="D186" s="49" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="53" t="s">
+      <c r="A187" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="49" t="s">
         <v>559</v>
       </c>
-      <c r="C187" s="53" t="s">
+      <c r="C187" s="49" t="s">
         <v>560</v>
       </c>
-      <c r="D187" s="53" t="s">
+      <c r="D187" s="49" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="53" t="s">
+      <c r="A188" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="C188" s="53" t="s">
+      <c r="C188" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="D188" s="53" t="s">
+      <c r="D188" s="49" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="53" t="s">
+      <c r="A189" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="C189" s="53" t="s">
+      <c r="C189" s="49" t="s">
         <v>566</v>
       </c>
-      <c r="D189" s="53" t="s">
+      <c r="D189" s="49" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="53" t="s">
+      <c r="A190" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="C190" s="53" t="s">
+      <c r="C190" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="D190" s="53" t="s">
+      <c r="D190" s="49" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="53" t="s">
+      <c r="A191" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="C191" s="53" t="s">
+      <c r="C191" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="D191" s="53" t="s">
+      <c r="D191" s="49" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="53" t="s">
+      <c r="A192" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="49" t="s">
         <v>574</v>
       </c>
-      <c r="C192" s="53" t="s">
+      <c r="C192" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="D192" s="53" t="s">
+      <c r="D192" s="49" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="53" t="s">
+      <c r="A193" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="49" t="s">
         <v>577</v>
       </c>
-      <c r="C193" s="53" t="s">
+      <c r="C193" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="D193" s="53" t="s">
+      <c r="D193" s="49" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="53" t="s">
+      <c r="A194" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="49" t="s">
         <v>580</v>
       </c>
-      <c r="C194" s="53" t="s">
+      <c r="C194" s="49" t="s">
         <v>581</v>
       </c>
-      <c r="D194" s="53" t="s">
+      <c r="D194" s="49" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="53" t="s">
+      <c r="A195" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="49" t="s">
         <v>583</v>
       </c>
-      <c r="C195" s="53" t="s">
+      <c r="C195" s="49" t="s">
         <v>584</v>
       </c>
-      <c r="D195" s="53" t="s">
+      <c r="D195" s="49" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="53" t="s">
+      <c r="A196" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="C196" s="53" t="s">
+      <c r="C196" s="49" t="s">
         <v>587</v>
       </c>
-      <c r="D196" s="53" t="s">
+      <c r="D196" s="49" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="53" t="s">
+      <c r="A197" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="C197" s="53" t="s">
+      <c r="C197" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="D197" s="53" t="s">
+      <c r="D197" s="49" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="53" t="s">
+      <c r="A198" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="C198" s="53" t="s">
+      <c r="C198" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="D198" s="53" t="s">
+      <c r="D198" s="49" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="53" t="s">
+      <c r="A199" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="49" t="s">
         <v>595</v>
       </c>
-      <c r="C199" s="53" t="s">
+      <c r="C199" s="49" t="s">
         <v>596</v>
       </c>
-      <c r="D199" s="53" t="s">
+      <c r="D199" s="49" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="53" t="s">
+      <c r="A200" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="49" t="s">
         <v>598</v>
       </c>
-      <c r="C200" s="53" t="s">
+      <c r="C200" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="D200" s="53" t="s">
+      <c r="D200" s="49" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="53" t="s">
+      <c r="A201" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="49" t="s">
         <v>601</v>
       </c>
-      <c r="C201" s="53" t="s">
+      <c r="C201" s="49" t="s">
         <v>602</v>
       </c>
-      <c r="D201" s="53" t="s">
+      <c r="D201" s="49" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="53" t="s">
+      <c r="A202" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="49" t="s">
         <v>604</v>
       </c>
-      <c r="C202" s="53" t="s">
+      <c r="C202" s="49" t="s">
         <v>605</v>
       </c>
-      <c r="D202" s="53" t="s">
+      <c r="D202" s="49" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="53" t="s">
+      <c r="A203" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="49" t="s">
         <v>607</v>
       </c>
-      <c r="C203" s="53" t="s">
+      <c r="C203" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="D203" s="53" t="s">
+      <c r="D203" s="49" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="53" t="s">
+      <c r="A204" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="C204" s="53" t="s">
+      <c r="C204" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="D204" s="53" t="s">
+      <c r="D204" s="49" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" s="53" t="s">
+      <c r="A205" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="49" t="s">
         <v>613</v>
       </c>
-      <c r="C205" s="53" t="s">
+      <c r="C205" s="49" t="s">
         <v>614</v>
       </c>
-      <c r="D205" s="53" t="s">
+      <c r="D205" s="49" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="53" t="s">
+      <c r="A206" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="49" t="s">
         <v>616</v>
       </c>
-      <c r="C206" s="53" t="s">
+      <c r="C206" s="49" t="s">
         <v>617</v>
       </c>
-      <c r="D206" s="53" t="s">
+      <c r="D206" s="49" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="53" t="s">
+      <c r="A207" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="49" t="s">
         <v>619</v>
       </c>
-      <c r="C207" s="53" t="s">
+      <c r="C207" s="49" t="s">
         <v>620</v>
       </c>
-      <c r="D207" s="53" t="s">
+      <c r="D207" s="49" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="53" t="s">
+      <c r="A208" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="49" t="s">
         <v>622</v>
       </c>
-      <c r="C208" s="53" t="s">
+      <c r="C208" s="49" t="s">
         <v>623</v>
       </c>
-      <c r="D208" s="53" t="s">
+      <c r="D208" s="49" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="53" t="s">
+      <c r="A209" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="49" t="s">
         <v>625</v>
       </c>
-      <c r="C209" s="53" t="s">
+      <c r="C209" s="49" t="s">
         <v>626</v>
       </c>
-      <c r="D209" s="53" t="s">
+      <c r="D209" s="49" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="53" t="s">
+      <c r="A210" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="49" t="s">
         <v>628</v>
       </c>
-      <c r="C210" s="53" t="s">
+      <c r="C210" s="49" t="s">
         <v>629</v>
       </c>
-      <c r="D210" s="53" t="s">
+      <c r="D210" s="49" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" s="53" t="s">
+      <c r="A211" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="49" t="s">
         <v>631</v>
       </c>
-      <c r="C211" s="53" t="s">
+      <c r="C211" s="49" t="s">
         <v>632</v>
       </c>
-      <c r="D211" s="53" t="s">
+      <c r="D211" s="49" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="53" t="s">
+      <c r="A212" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="49" t="s">
         <v>634</v>
       </c>
-      <c r="C212" s="53" t="s">
+      <c r="C212" s="49" t="s">
         <v>635</v>
       </c>
-      <c r="D212" s="53" t="s">
+      <c r="D212" s="49" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="53" t="s">
+      <c r="A213" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="49" t="s">
         <v>637</v>
       </c>
-      <c r="C213" s="53" t="s">
+      <c r="C213" s="49" t="s">
         <v>638</v>
       </c>
-      <c r="D213" s="53" t="s">
+      <c r="D213" s="49" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="53" t="s">
+      <c r="A214" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="C214" s="53" t="s">
+      <c r="C214" s="49" t="s">
         <v>641</v>
       </c>
-      <c r="D214" s="53" t="s">
+      <c r="D214" s="49" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="53" t="s">
+      <c r="A215" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="49" t="s">
         <v>643</v>
       </c>
-      <c r="C215" s="53" t="s">
+      <c r="C215" s="49" t="s">
         <v>644</v>
       </c>
-      <c r="D215" s="53" t="s">
+      <c r="D215" s="49" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="53" t="s">
+      <c r="A216" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="49" t="s">
         <v>646</v>
       </c>
-      <c r="C216" s="53" t="s">
+      <c r="C216" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="D216" s="53" t="s">
+      <c r="D216" s="49" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="53" t="s">
+      <c r="A217" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="49" t="s">
         <v>649</v>
       </c>
-      <c r="C217" s="53" t="s">
+      <c r="C217" s="49" t="s">
         <v>650</v>
       </c>
-      <c r="D217" s="53" t="s">
+      <c r="D217" s="49" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="53" t="s">
+      <c r="A218" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="49" t="s">
         <v>652</v>
       </c>
-      <c r="C218" s="53" t="s">
+      <c r="C218" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="D218" s="53" t="s">
+      <c r="D218" s="49" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="53" t="s">
+      <c r="A219" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="49" t="s">
         <v>655</v>
       </c>
-      <c r="C219" s="53" t="s">
+      <c r="C219" s="49" t="s">
         <v>656</v>
       </c>
-      <c r="D219" s="53" t="s">
+      <c r="D219" s="49" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="53" t="s">
+      <c r="A220" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="49" t="s">
         <v>658</v>
       </c>
-      <c r="C220" s="53" t="s">
+      <c r="C220" s="49" t="s">
         <v>659</v>
       </c>
-      <c r="D220" s="53" t="s">
+      <c r="D220" s="49" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="53" t="s">
+      <c r="A221" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="49" t="s">
         <v>661</v>
       </c>
-      <c r="C221" s="53" t="s">
+      <c r="C221" s="49" t="s">
         <v>662</v>
       </c>
-      <c r="D221" s="53" t="s">
+      <c r="D221" s="49" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="53" t="s">
+      <c r="A222" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="49" t="s">
         <v>664</v>
       </c>
-      <c r="C222" s="53" t="s">
+      <c r="C222" s="49" t="s">
         <v>665</v>
       </c>
-      <c r="D222" s="53" t="s">
+      <c r="D222" s="49" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="53" t="s">
+      <c r="A223" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="49" t="s">
         <v>667</v>
       </c>
-      <c r="C223" s="53" t="s">
+      <c r="C223" s="49" t="s">
         <v>668</v>
       </c>
-      <c r="D223" s="53" t="s">
+      <c r="D223" s="49" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="53" t="s">
+      <c r="A224" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="49" t="s">
         <v>670</v>
       </c>
-      <c r="C224" s="53" t="s">
+      <c r="C224" s="49" t="s">
         <v>671</v>
       </c>
-      <c r="D224" s="53" t="s">
+      <c r="D224" s="49" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="53" t="s">
+      <c r="A225" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="49" t="s">
         <v>673</v>
       </c>
-      <c r="C225" s="53" t="s">
+      <c r="C225" s="49" t="s">
         <v>674</v>
       </c>
-      <c r="D225" s="53" t="s">
+      <c r="D225" s="49" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="53" t="s">
+      <c r="A226" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="49" t="s">
         <v>676</v>
       </c>
-      <c r="C226" s="53" t="s">
+      <c r="C226" s="49" t="s">
         <v>677</v>
       </c>
-      <c r="D226" s="53" t="s">
+      <c r="D226" s="49" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="53" t="s">
+      <c r="A227" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="49" t="s">
         <v>679</v>
       </c>
-      <c r="C227" s="53" t="s">
+      <c r="C227" s="49" t="s">
         <v>680</v>
       </c>
-      <c r="D227" s="53" t="s">
+      <c r="D227" s="49" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="53" t="s">
+      <c r="A228" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="49" t="s">
         <v>682</v>
       </c>
-      <c r="C228" s="53" t="s">
+      <c r="C228" s="49" t="s">
         <v>683</v>
       </c>
-      <c r="D228" s="53" t="s">
+      <c r="D228" s="49" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="53" t="s">
+      <c r="A229" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="49" t="s">
         <v>685</v>
       </c>
-      <c r="C229" s="53" t="s">
+      <c r="C229" s="49" t="s">
         <v>686</v>
       </c>
-      <c r="D229" s="53" t="s">
+      <c r="D229" s="49" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="53" t="s">
+      <c r="A230" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="C230" s="53" t="s">
+      <c r="C230" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="D230" s="53" t="s">
+      <c r="D230" s="49" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="53" t="s">
+      <c r="A231" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="49" t="s">
         <v>691</v>
       </c>
-      <c r="C231" s="53" t="s">
+      <c r="C231" s="49" t="s">
         <v>692</v>
       </c>
-      <c r="D231" s="53" t="s">
+      <c r="D231" s="49" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="53" t="s">
+      <c r="A232" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="49" t="s">
         <v>694</v>
       </c>
-      <c r="C232" s="53" t="s">
+      <c r="C232" s="49" t="s">
         <v>695</v>
       </c>
-      <c r="D232" s="53" t="s">
+      <c r="D232" s="49" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="53" t="s">
+      <c r="A233" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="49" t="s">
         <v>697</v>
       </c>
-      <c r="C233" s="53" t="s">
+      <c r="C233" s="49" t="s">
         <v>698</v>
       </c>
-      <c r="D233" s="53" t="s">
+      <c r="D233" s="49" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="53" t="s">
+      <c r="A234" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="49" t="s">
         <v>700</v>
       </c>
-      <c r="C234" s="53" t="s">
+      <c r="C234" s="49" t="s">
         <v>701</v>
       </c>
-      <c r="D234" s="53" t="s">
+      <c r="D234" s="49" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B235" s="53" t="s">
+      <c r="A235" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="49" t="s">
         <v>703</v>
       </c>
-      <c r="C235" s="53" t="s">
+      <c r="C235" s="49" t="s">
         <v>704</v>
       </c>
-      <c r="D235" s="53" t="s">
+      <c r="D235" s="49" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="53" t="s">
+      <c r="A236" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="49" t="s">
         <v>706</v>
       </c>
-      <c r="C236" s="53" t="s">
+      <c r="C236" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="D236" s="53" t="s">
+      <c r="D236" s="49" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="53" t="s">
+      <c r="A237" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="49" t="s">
         <v>709</v>
       </c>
-      <c r="C237" s="53" t="s">
+      <c r="C237" s="49" t="s">
         <v>710</v>
       </c>
-      <c r="D237" s="53" t="s">
+      <c r="D237" s="49" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="53" t="s">
+      <c r="A238" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="49" t="s">
         <v>712</v>
       </c>
-      <c r="C238" s="53" t="s">
+      <c r="C238" s="49" t="s">
         <v>713</v>
       </c>
-      <c r="D238" s="53" t="s">
+      <c r="D238" s="49" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="53" t="s">
+      <c r="A239" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="49" t="s">
         <v>715</v>
       </c>
-      <c r="C239" s="53" t="s">
+      <c r="C239" s="49" t="s">
         <v>716</v>
       </c>
-      <c r="D239" s="53" t="s">
+      <c r="D239" s="49" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" s="53" t="s">
+      <c r="A240" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="49" t="s">
         <v>718</v>
       </c>
-      <c r="C240" s="53" t="s">
+      <c r="C240" s="49" t="s">
         <v>719</v>
       </c>
-      <c r="D240" s="53" t="s">
+      <c r="D240" s="49" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="53" t="s">
+      <c r="A241" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="49" t="s">
         <v>721</v>
       </c>
-      <c r="C241" s="53" t="s">
+      <c r="C241" s="49" t="s">
         <v>722</v>
       </c>
-      <c r="D241" s="53" t="s">
+      <c r="D241" s="49" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="53" t="s">
+      <c r="A242" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="49" t="s">
         <v>724</v>
       </c>
-      <c r="C242" s="53" t="s">
+      <c r="C242" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="D242" s="53" t="s">
+      <c r="D242" s="49" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="53" t="s">
+      <c r="A243" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="49" t="s">
         <v>727</v>
       </c>
-      <c r="C243" s="53" t="s">
+      <c r="C243" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="D243" s="53" t="s">
+      <c r="D243" s="49" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B244" s="53" t="s">
+      <c r="A244" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="49" t="s">
         <v>730</v>
       </c>
-      <c r="C244" s="53" t="s">
+      <c r="C244" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="D244" s="53" t="s">
+      <c r="D244" s="49" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="53" t="s">
+      <c r="A245" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C245" s="53" t="s">
+      <c r="C245" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="53" t="s">
+      <c r="D245" s="49" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B246" s="53" t="s">
+      <c r="A246" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="C246" s="53" t="s">
+      <c r="C246" s="49" t="s">
         <v>737</v>
       </c>
-      <c r="D246" s="53" t="s">
+      <c r="D246" s="49" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" s="53" t="s">
+      <c r="A247" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="C247" s="53" t="s">
+      <c r="C247" s="49" t="s">
         <v>740</v>
       </c>
-      <c r="D247" s="53" t="s">
+      <c r="D247" s="49" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" s="53" t="s">
+      <c r="A248" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="49" t="s">
         <v>742</v>
       </c>
-      <c r="C248" s="53" t="s">
+      <c r="C248" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="D248" s="53" t="s">
+      <c r="D248" s="49" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="53" t="s">
+      <c r="A249" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C249" s="53" t="s">
+      <c r="C249" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="D249" s="53" t="s">
+      <c r="D249" s="49" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="53" t="s">
+      <c r="A250" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="49" t="s">
         <v>748</v>
       </c>
-      <c r="C250" s="53" t="s">
+      <c r="C250" s="49" t="s">
         <v>749</v>
       </c>
-      <c r="D250" s="53" t="s">
+      <c r="D250" s="49" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="53" t="s">
+      <c r="A251" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="49" t="s">
         <v>751</v>
       </c>
-      <c r="C251" s="53" t="s">
+      <c r="C251" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="D251" s="53" t="s">
+      <c r="D251" s="49" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="53" t="s">
+      <c r="A252" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="49" t="s">
         <v>754</v>
       </c>
-      <c r="C252" s="53" t="s">
+      <c r="C252" s="49" t="s">
         <v>755</v>
       </c>
-      <c r="D252" s="53" t="s">
+      <c r="D252" s="49" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="53" t="s">
+      <c r="A253" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="49" t="s">
         <v>757</v>
       </c>
-      <c r="C253" s="53" t="s">
+      <c r="C253" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="D253" s="53" t="s">
+      <c r="D253" s="49" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="53" t="s">
+      <c r="A254" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="49" t="s">
         <v>760</v>
       </c>
-      <c r="C254" s="53" t="s">
+      <c r="C254" s="49" t="s">
         <v>761</v>
       </c>
-      <c r="D254" s="53" t="s">
+      <c r="D254" s="49" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="53" t="s">
+      <c r="A255" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="49" t="s">
         <v>763</v>
       </c>
-      <c r="C255" s="53" t="s">
+      <c r="C255" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="D255" s="53" t="s">
+      <c r="D255" s="49" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="53" t="s">
+      <c r="A256" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="49" t="s">
         <v>766</v>
       </c>
-      <c r="C256" s="53" t="s">
+      <c r="C256" s="49" t="s">
         <v>767</v>
       </c>
-      <c r="D256" s="53" t="s">
+      <c r="D256" s="49" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" s="53" t="s">
+      <c r="A257" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="49" t="s">
         <v>769</v>
       </c>
-      <c r="C257" s="53" t="s">
+      <c r="C257" s="49" t="s">
         <v>770</v>
       </c>
-      <c r="D257" s="53" t="s">
+      <c r="D257" s="49" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" s="53" t="s">
+      <c r="A258" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="49" t="s">
         <v>772</v>
       </c>
-      <c r="C258" s="53" t="s">
+      <c r="C258" s="49" t="s">
         <v>773</v>
       </c>
-      <c r="D258" s="53" t="s">
+      <c r="D258" s="49" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="53" t="s">
+      <c r="A259" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="49" t="s">
         <v>775</v>
       </c>
-      <c r="C259" s="53" t="s">
+      <c r="C259" s="49" t="s">
         <v>776</v>
       </c>
-      <c r="D259" s="53" t="s">
+      <c r="D259" s="49" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="53" t="s">
+      <c r="A260" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="49" t="s">
         <v>778</v>
       </c>
-      <c r="C260" s="53" t="s">
+      <c r="C260" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="D260" s="53" t="s">
+      <c r="D260" s="49" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="53" t="s">
+      <c r="A261" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="49" t="s">
         <v>781</v>
       </c>
-      <c r="C261" s="53" t="s">
+      <c r="C261" s="49" t="s">
         <v>782</v>
       </c>
-      <c r="D261" s="53" t="s">
+      <c r="D261" s="49" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" s="53" t="s">
+      <c r="A262" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="C262" s="53" t="s">
+      <c r="C262" s="49" t="s">
         <v>785</v>
       </c>
-      <c r="D262" s="53" t="s">
+      <c r="D262" s="49" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B263" s="53" t="s">
+      <c r="A263" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="C263" s="53" t="s">
+      <c r="C263" s="49" t="s">
         <v>788</v>
       </c>
-      <c r="D263" s="53" t="s">
+      <c r="D263" s="49" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="53" t="s">
+      <c r="A264" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="49" t="s">
         <v>790</v>
       </c>
-      <c r="C264" s="53" t="s">
+      <c r="C264" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="D264" s="53" t="s">
+      <c r="D264" s="49" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="53" t="s">
+      <c r="A265" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="49" t="s">
         <v>793</v>
       </c>
-      <c r="C265" s="53" t="s">
+      <c r="C265" s="49" t="s">
         <v>794</v>
       </c>
-      <c r="D265" s="53" t="s">
+      <c r="D265" s="49" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="53" t="s">
+      <c r="A266" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="49" t="s">
         <v>796</v>
       </c>
-      <c r="C266" s="53" t="s">
+      <c r="C266" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="D266" s="53" t="s">
+      <c r="D266" s="49" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="53" t="s">
+      <c r="A267" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="49" t="s">
         <v>799</v>
       </c>
-      <c r="C267" s="53" t="s">
+      <c r="C267" s="49" t="s">
         <v>800</v>
       </c>
-      <c r="D267" s="53" t="s">
+      <c r="D267" s="49" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="53" t="s">
+      <c r="A268" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="49" t="s">
         <v>802</v>
       </c>
-      <c r="C268" s="53" t="s">
+      <c r="C268" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="D268" s="53" t="s">
+      <c r="D268" s="49" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="53" t="s">
+      <c r="A269" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="49" t="s">
         <v>805</v>
       </c>
-      <c r="C269" s="53" t="s">
+      <c r="C269" s="49" t="s">
         <v>806</v>
       </c>
-      <c r="D269" s="53" t="s">
+      <c r="D269" s="49" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="53" t="s">
+      <c r="A270" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="C270" s="53" t="s">
+      <c r="C270" s="49" t="s">
         <v>809</v>
       </c>
-      <c r="D270" s="53" t="s">
+      <c r="D270" s="49" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="53" t="s">
+      <c r="A271" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="49" t="s">
         <v>811</v>
       </c>
-      <c r="C271" s="53" t="s">
+      <c r="C271" s="49" t="s">
         <v>812</v>
       </c>
-      <c r="D271" s="53" t="s">
+      <c r="D271" s="49" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="53" t="s">
+      <c r="A272" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="49" t="s">
         <v>814</v>
       </c>
-      <c r="C272" s="53" t="s">
+      <c r="C272" s="49" t="s">
         <v>815</v>
       </c>
-      <c r="D272" s="53" t="s">
+      <c r="D272" s="49" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="53" t="s">
+      <c r="A273" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="49" t="s">
         <v>817</v>
       </c>
-      <c r="C273" s="53" t="s">
+      <c r="C273" s="49" t="s">
         <v>818</v>
       </c>
-      <c r="D273" s="53" t="s">
+      <c r="D273" s="49" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="53" t="s">
+      <c r="A274" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="49" t="s">
         <v>820</v>
       </c>
-      <c r="C274" s="53" t="s">
+      <c r="C274" s="49" t="s">
         <v>821</v>
       </c>
-      <c r="D274" s="53" t="s">
+      <c r="D274" s="49" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="53" t="s">
+      <c r="A275" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="49" t="s">
         <v>823</v>
       </c>
-      <c r="C275" s="53" t="s">
+      <c r="C275" s="49" t="s">
         <v>824</v>
       </c>
-      <c r="D275" s="53" t="s">
+      <c r="D275" s="49" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="53" t="s">
+      <c r="A276" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="49" t="s">
         <v>826</v>
       </c>
-      <c r="C276" s="53" t="s">
+      <c r="C276" s="49" t="s">
         <v>827</v>
       </c>
-      <c r="D276" s="53" t="s">
+      <c r="D276" s="49" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="53" t="s">
+      <c r="A277" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="49" t="s">
         <v>829</v>
       </c>
-      <c r="C277" s="53" t="s">
+      <c r="C277" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="D277" s="53" t="s">
+      <c r="D277" s="49" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" s="53" t="s">
+      <c r="A278" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="49" t="s">
         <v>832</v>
       </c>
-      <c r="C278" s="53" t="s">
+      <c r="C278" s="49" t="s">
         <v>833</v>
       </c>
-      <c r="D278" s="53" t="s">
+      <c r="D278" s="49" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="53" t="s">
+      <c r="A279" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="49" t="s">
         <v>835</v>
       </c>
-      <c r="C279" s="53" t="s">
+      <c r="C279" s="49" t="s">
         <v>836</v>
       </c>
-      <c r="D279" s="53" t="s">
+      <c r="D279" s="49" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B280" s="53" t="s">
+      <c r="A280" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="49" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="53" t="s">
+      <c r="C280" s="49" t="s">
         <v>839</v>
       </c>
-      <c r="D280" s="53" t="s">
+      <c r="D280" s="49" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="53" t="s">
+      <c r="A281" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="49" t="s">
         <v>841</v>
       </c>
-      <c r="C281" s="53" t="s">
+      <c r="C281" s="49" t="s">
         <v>842</v>
       </c>
-      <c r="D281" s="53" t="s">
+      <c r="D281" s="49" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="53" t="s">
+      <c r="A282" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="49" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="53" t="s">
+      <c r="C282" s="49" t="s">
         <v>845</v>
       </c>
-      <c r="D282" s="53" t="s">
+      <c r="D282" s="49" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="53" t="s">
+      <c r="A283" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="49" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="53" t="s">
+      <c r="C283" s="49" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="53" t="s">
+      <c r="D283" s="49" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="53" t="s">
+      <c r="A284" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="49" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="53" t="s">
+      <c r="C284" s="49" t="s">
         <v>851</v>
       </c>
-      <c r="D284" s="53" t="s">
+      <c r="D284" s="49" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="53" t="s">
+      <c r="A285" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="49" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="53" t="s">
+      <c r="C285" s="49" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="53" t="s">
+      <c r="D285" s="49" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="53" t="s">
+      <c r="A286" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="49" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="53" t="s">
+      <c r="C286" s="49" t="s">
         <v>857</v>
       </c>
-      <c r="D286" s="53" t="s">
+      <c r="D286" s="49" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="53" t="s">
+      <c r="A287" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="49" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="53" t="s">
+      <c r="C287" s="49" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="53" t="s">
+      <c r="D287" s="49" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="53" t="s">
+      <c r="A288" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="49" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="53" t="s">
+      <c r="C288" s="49" t="s">
         <v>863</v>
       </c>
-      <c r="D288" s="53" t="s">
+      <c r="D288" s="49" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="53" t="s">
+      <c r="A289" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="49" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="53" t="s">
+      <c r="C289" s="49" t="s">
         <v>866</v>
       </c>
-      <c r="D289" s="53" t="s">
+      <c r="D289" s="49" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="53" t="s">
+      <c r="A290" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="49" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="53" t="s">
+      <c r="C290" s="49" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="53" t="s">
+      <c r="D290" s="49" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="53" t="s">
+      <c r="A291" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="49" t="s">
         <v>871</v>
       </c>
-      <c r="C291" s="53" t="s">
+      <c r="C291" s="49" t="s">
         <v>872</v>
       </c>
-      <c r="D291" s="53" t="s">
+      <c r="D291" s="49" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="53" t="s">
+      <c r="A292" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="49" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="53" t="s">
+      <c r="C292" s="49" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="53" t="s">
+      <c r="D292" s="49" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="53" t="s">
+      <c r="A293" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="49" t="s">
         <v>877</v>
       </c>
-      <c r="C293" s="53" t="s">
+      <c r="C293" s="49" t="s">
         <v>878</v>
       </c>
-      <c r="D293" s="53" t="s">
+      <c r="D293" s="49" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" s="53" t="s">
+      <c r="A294" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="49" t="s">
         <v>880</v>
       </c>
-      <c r="C294" s="53" t="s">
+      <c r="C294" s="49" t="s">
         <v>881</v>
       </c>
-      <c r="D294" s="53" t="s">
+      <c r="D294" s="49" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="53" t="s">
+      <c r="A295" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="49" t="s">
         <v>883</v>
       </c>
-      <c r="C295" s="53" t="s">
+      <c r="C295" s="49" t="s">
         <v>884</v>
       </c>
-      <c r="D295" s="53" t="s">
+      <c r="D295" s="49" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" s="53" t="s">
+      <c r="A296" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="49" t="s">
         <v>886</v>
       </c>
-      <c r="C296" s="53" t="s">
+      <c r="C296" s="49" t="s">
         <v>887</v>
       </c>
-      <c r="D296" s="53" t="s">
+      <c r="D296" s="49" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="53" t="s">
+      <c r="A297" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" s="49" t="s">
         <v>889</v>
       </c>
-      <c r="C297" s="53" t="s">
+      <c r="C297" s="49" t="s">
         <v>890</v>
       </c>
-      <c r="D297" s="53" t="s">
+      <c r="D297" s="49" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="53" t="s">
+      <c r="A298" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="49" t="s">
         <v>892</v>
       </c>
-      <c r="C298" s="53" t="s">
+      <c r="C298" s="49" t="s">
         <v>893</v>
       </c>
-      <c r="D298" s="53" t="s">
+      <c r="D298" s="49" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="53" t="s">
+      <c r="A299" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="49" t="s">
         <v>895</v>
       </c>
-      <c r="C299" s="53" t="s">
+      <c r="C299" s="49" t="s">
         <v>896</v>
       </c>
-      <c r="D299" s="53" t="s">
+      <c r="D299" s="49" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="53" t="s">
+      <c r="A300" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="49" t="s">
         <v>898</v>
       </c>
-      <c r="C300" s="53" t="s">
+      <c r="C300" s="49" t="s">
         <v>899</v>
       </c>
-      <c r="D300" s="53" t="s">
+      <c r="D300" s="49" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="53" t="s">
+      <c r="A301" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="49" t="s">
         <v>901</v>
       </c>
-      <c r="C301" s="53" t="s">
+      <c r="C301" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="D301" s="53" t="s">
+      <c r="D301" s="49" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="53" t="s">
+      <c r="A302" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="49" t="s">
         <v>904</v>
       </c>
-      <c r="C302" s="53" t="s">
+      <c r="C302" s="49" t="s">
         <v>905</v>
       </c>
-      <c r="D302" s="53" t="s">
+      <c r="D302" s="49" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B303" s="53" t="s">
+      <c r="A303" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="49" t="s">
         <v>907</v>
       </c>
-      <c r="C303" s="53" t="s">
+      <c r="C303" s="49" t="s">
         <v>908</v>
       </c>
-      <c r="D303" s="53" t="s">
+      <c r="D303" s="49" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="53" t="s">
+      <c r="A304" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" s="49" t="s">
         <v>910</v>
       </c>
-      <c r="C304" s="53" t="s">
+      <c r="C304" s="49" t="s">
         <v>911</v>
       </c>
-      <c r="D304" s="53" t="s">
+      <c r="D304" s="49" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="53" t="s">
+      <c r="A305" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" s="49" t="s">
         <v>913</v>
       </c>
-      <c r="C305" s="53" t="s">
+      <c r="C305" s="49" t="s">
         <v>914</v>
       </c>
-      <c r="D305" s="53" t="s">
+      <c r="D305" s="49" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="53" t="s">
+      <c r="A306" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" s="49" t="s">
         <v>916</v>
       </c>
-      <c r="C306" s="53" t="s">
+      <c r="C306" s="49" t="s">
         <v>917</v>
       </c>
-      <c r="D306" s="53" t="s">
+      <c r="D306" s="49" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="53" t="s">
+      <c r="A307" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="C307" s="53" t="s">
+      <c r="C307" s="49" t="s">
         <v>920</v>
       </c>
-      <c r="D307" s="53" t="s">
+      <c r="D307" s="49" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B308" s="53" t="s">
+      <c r="A308" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308" s="49" t="s">
         <v>922</v>
       </c>
-      <c r="C308" s="53" t="s">
+      <c r="C308" s="49" t="s">
         <v>923</v>
       </c>
-      <c r="D308" s="53" t="s">
+      <c r="D308" s="49" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="53" t="s">
+      <c r="A309" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="49" t="s">
         <v>925</v>
       </c>
-      <c r="C309" s="53" t="s">
+      <c r="C309" s="49" t="s">
         <v>926</v>
       </c>
-      <c r="D309" s="53" t="s">
+      <c r="D309" s="49" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="53" t="s">
+      <c r="A310" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" s="49" t="s">
         <v>928</v>
       </c>
-      <c r="C310" s="53" t="s">
+      <c r="C310" s="49" t="s">
         <v>929</v>
       </c>
-      <c r="D310" s="53" t="s">
+      <c r="D310" s="49" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="53" t="s">
+      <c r="A311" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="49" t="s">
         <v>931</v>
       </c>
-      <c r="C311" s="53" t="s">
+      <c r="C311" s="49" t="s">
         <v>932</v>
       </c>
-      <c r="D311" s="53" t="s">
+      <c r="D311" s="49" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B312" s="53" t="s">
+      <c r="A312" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" s="49" t="s">
         <v>934</v>
       </c>
-      <c r="C312" s="53" t="s">
+      <c r="C312" s="49" t="s">
         <v>935</v>
       </c>
-      <c r="D312" s="53" t="s">
+      <c r="D312" s="49" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="53" t="s">
+      <c r="A313" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="49" t="s">
         <v>937</v>
       </c>
-      <c r="C313" s="53" t="s">
+      <c r="C313" s="49" t="s">
         <v>938</v>
       </c>
-      <c r="D313" s="53" t="s">
+      <c r="D313" s="49" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="53" t="s">
+      <c r="A314" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="C314" s="53" t="s">
+      <c r="C314" s="49" t="s">
         <v>941</v>
       </c>
-      <c r="D314" s="53" t="s">
+      <c r="D314" s="49" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="53" t="s">
+      <c r="A315" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="49" t="s">
         <v>943</v>
       </c>
-      <c r="C315" s="53" t="s">
+      <c r="C315" s="49" t="s">
         <v>944</v>
       </c>
-      <c r="D315" s="53" t="s">
+      <c r="D315" s="49" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316" s="53" t="s">
+      <c r="A316" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" s="49" t="s">
         <v>946</v>
       </c>
-      <c r="C316" s="53" t="s">
+      <c r="C316" s="49" t="s">
         <v>947</v>
       </c>
-      <c r="D316" s="53" t="s">
+      <c r="D316" s="49" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="53" t="s">
+      <c r="A317" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" s="49" t="s">
         <v>949</v>
       </c>
-      <c r="C317" s="53" t="s">
+      <c r="C317" s="49" t="s">
         <v>950</v>
       </c>
-      <c r="D317" s="53" t="s">
+      <c r="D317" s="49" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B318" s="53" t="s">
+      <c r="A318" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" s="49" t="s">
         <v>952</v>
       </c>
-      <c r="C318" s="53" t="s">
+      <c r="C318" s="49" t="s">
         <v>953</v>
       </c>
-      <c r="D318" s="53" t="s">
+      <c r="D318" s="49" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="53" t="s">
+      <c r="A319" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="49" t="s">
         <v>955</v>
       </c>
-      <c r="C319" s="53" t="s">
+      <c r="C319" s="49" t="s">
         <v>956</v>
       </c>
-      <c r="D319" s="53" t="s">
+      <c r="D319" s="49" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="53" t="s">
+      <c r="A320" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="49" t="s">
         <v>958</v>
       </c>
-      <c r="C320" s="53" t="s">
+      <c r="C320" s="49" t="s">
         <v>959</v>
       </c>
-      <c r="D320" s="53" t="s">
+      <c r="D320" s="49" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="53" t="s">
+      <c r="A321" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="C321" s="53" t="s">
+      <c r="C321" s="49" t="s">
         <v>962</v>
       </c>
-      <c r="D321" s="53" t="s">
+      <c r="D321" s="49" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B322" s="53" t="s">
+      <c r="A322" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="49" t="s">
         <v>964</v>
       </c>
-      <c r="C322" s="53" t="s">
+      <c r="C322" s="49" t="s">
         <v>965</v>
       </c>
-      <c r="D322" s="53" t="s">
+      <c r="D322" s="49" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="53" t="s">
+      <c r="A323" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="49" t="s">
         <v>967</v>
       </c>
-      <c r="C323" s="53" t="s">
+      <c r="C323" s="49" t="s">
         <v>968</v>
       </c>
-      <c r="D323" s="53" t="s">
+      <c r="D323" s="49" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="53" t="s">
+      <c r="A324" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="49" t="s">
         <v>970</v>
       </c>
-      <c r="C324" s="53" t="s">
+      <c r="C324" s="49" t="s">
         <v>971</v>
       </c>
-      <c r="D324" s="53" t="s">
+      <c r="D324" s="49" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" s="53" t="s">
+      <c r="A325" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="49" t="s">
         <v>973</v>
       </c>
-      <c r="C325" s="53" t="s">
+      <c r="C325" s="49" t="s">
         <v>974</v>
       </c>
-      <c r="D325" s="53" t="s">
+      <c r="D325" s="49" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="53" t="s">
+      <c r="A326" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="49" t="s">
         <v>976</v>
       </c>
-      <c r="C326" s="53" t="s">
+      <c r="C326" s="49" t="s">
         <v>977</v>
       </c>
-      <c r="D326" s="53" t="s">
+      <c r="D326" s="49" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B327" s="52" t="s">
+      <c r="A327" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" s="49" t="s">
         <v>979</v>
       </c>
-      <c r="C327" s="53" t="s">
+      <c r="C327" s="49" t="s">
         <v>980</v>
       </c>
-      <c r="D327" s="53" t="s">
+      <c r="D327" s="49" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B328" s="52" t="s">
+      <c r="A328" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="49" t="s">
         <v>982</v>
       </c>
-      <c r="C328" s="53" t="s">
+      <c r="C328" s="49" t="s">
         <v>983</v>
       </c>
-      <c r="D328" s="53" t="s">
+      <c r="D328" s="49" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="51" t="s">
+      <c r="A329" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="49" t="s">
         <v>985</v>
       </c>
-      <c r="C329" s="53" t="s">
+      <c r="C329" s="49" t="s">
         <v>986</v>
       </c>
-      <c r="D329" s="53" t="s">
+      <c r="D329" s="49" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B330" s="50" t="s">
+      <c r="A330" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="49" t="s">
         <v>988</v>
       </c>
-      <c r="C330" s="53" t="s">
+      <c r="C330" s="49" t="s">
         <v>989</v>
       </c>
-      <c r="D330" s="53" t="s">
+      <c r="D330" s="49" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B331" s="50" t="s">
+      <c r="A331" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="49" t="s">
         <v>991</v>
       </c>
-      <c r="C331" s="53" t="s">
+      <c r="C331" s="49" t="s">
         <v>992</v>
       </c>
-      <c r="D331" s="53" t="s">
+      <c r="D331" s="49" t="s">
         <v>993</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="C332" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="D332" s="49" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="49" t="s">
+        <v>997</v>
+      </c>
+      <c r="C333" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="D333" s="49" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C334" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D334" s="49" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B335" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C335" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D335" s="49" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C336" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D336" s="49" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" s="49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C337" s="49" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D337" s="49" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C338" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D338" s="49" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C339" s="49" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D339" s="49" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B340" s="49" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C340" s="49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D340" s="49" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341" s="49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C341" s="49" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D341" s="49" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B342" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C342" s="49" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D342" s="49" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" s="49" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C343" s="49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D343" s="49" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B344" s="49" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C344" s="49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D344" s="49" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345" s="49" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C345" s="49" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D345" s="49" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="49" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C346" s="49" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D346" s="49" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" s="49" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C347" s="49" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D347" s="49" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C348" s="49" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D348" s="49" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" s="49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C349" s="49" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D349" s="49" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350" s="49" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C350" s="49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D350" s="49" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" s="49" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C351" s="49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D351" s="49" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B352" s="49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C352" s="49" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D352" s="49" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C353" s="49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D353" s="49" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B354" s="49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C354" s="49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D354" s="49" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B355" s="49" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C355" s="49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D355" s="49" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356" s="49" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C356" s="49" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D356" s="49" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" s="49" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C357" s="49" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D357" s="49" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358" s="49" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C358" s="49" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D358" s="49" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359" s="49" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C359" s="49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D359" s="49" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B360" s="49" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C360" s="49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D360" s="49" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="49" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C361" s="49" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D361" s="49" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B362" s="49" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C362" s="49" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D362" s="49" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B363" s="49" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C363" s="49" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D363" s="49" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B364" s="49" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C364" s="49" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D364" s="49" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B365" s="49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C365" s="49" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D365" s="49" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B366" s="49" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C366" s="49" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D366" s="49" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="49" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C367" s="49" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D367" s="49" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B368" s="49" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C368" s="49" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D368" s="49" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369" s="49" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C369" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D369" s="49" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="49" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C370" s="49" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D370" s="49" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371" s="49" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C371" s="49" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D371" s="49" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B372" s="49" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C372" s="49" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D372" s="49" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B373" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C373" s="49" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D373" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B374" s="49" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C374" s="49" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D374" s="49" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B375" s="49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C375" s="49" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D375" s="49" t="s">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1177">
   <si>
     <t>${name}</t>
   </si>
@@ -554,6 +554,24 @@
     <t>Assets/Abbresources/Perfabs/Monster/Monster3/Unarmed.fbm/axe_SPEC.png</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Pre_CyborgGirl</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Player2/CyborgGirl.prefab</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Pre_PlayerEntity2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Player2/PlayerEntity2.prefab</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
@@ -563,6 +581,24 @@
     <t>Assets/Abbresources/Perfabs/Monster/Monster2/StandingRunForward_3.fbx</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Anim_CyborgGirl</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Player2/CyborgGirl.fbx</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight1_1Hit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight1_1Hit.prefab</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -653,6 +689,69 @@
     <t>Assets/Abbresources/Effect/EffectSwordLight2_2.prefab</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight1_2Hit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight1_2Hit.prefab</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Pre_EffectBuff3</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectBuff3.prefab</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Pre_EffectElectric3</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectElectric3.prefab</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Pre_EffectMagicEffect</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectMagicEffect.prefab</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Pre_EffectBuff19_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectBuff19_1.prefab</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Pre_EffectBuff19_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectBuff19_2.prefab</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Pre_EffectBuff19_2_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectBuff19_2_2.prefab</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
@@ -833,6 +932,15 @@
     <t>Assets/Resources/Anim/Attack.FBX</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Pre_EffectBuff20_1</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectBuff20_1.prefab</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
@@ -858,6 +966,51 @@
   </si>
   <si>
     <t>Assets/Resources/Anim/Attack_01_B_Start.FBX</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Pre_EffectBuff20_2</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectBuff20_2.prefab</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Pre_vfx_Lightning_01</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/vfx_Lightning_01.prefab</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Pre_vfx_Lightning_02</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/vfx_Lightning_02.prefab</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Pre_vfx_LootDrop_01</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/vfx_LootDrop_01.prefab</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Pre_vfx_LootDrop_02</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/vfx_LootDrop_02.prefab</t>
   </si>
   <si>
     <t>105</t>
@@ -4524,10 +4677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A59" sqref="$A59:$XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A106" sqref="$A106:$XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -9782,6 +9935,244 @@
         <v>1125</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" s="49" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C376" s="49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D376" s="49" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B377" s="49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C377" s="49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D377" s="49" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378" s="49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C378" s="49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D378" s="49" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B379" s="49" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C379" s="49" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D379" s="49" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380" s="49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C380" s="49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D380" s="49" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B381" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C381" s="49" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D381" s="49" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382" s="49" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C382" s="49" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D382" s="49" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383" s="49" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C383" s="49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D383" s="49" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384" s="49" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C384" s="49" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D384" s="49" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385" s="49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C385" s="49" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D385" s="49" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B386" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C386" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D386" s="49" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B387" s="49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C387" s="49" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D387" s="49" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="49" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C388" s="49" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D388" s="49" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C389" s="49" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D389" s="49" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" s="49" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C390" s="49" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D390" s="49" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" s="49" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C391" s="49" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D391" s="49" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" s="49" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C392" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D392" s="49" t="s">
+        <v>1176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1180">
   <si>
     <t>${name}</t>
   </si>
@@ -1065,6 +1065,15 @@
   </si>
   <si>
     <t>Assets/Resources/Anim/Battle_fail.FBX</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Pre_EffectSwordLight1_3Hit</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Effect/EffectSwordLight1_3Hit.prefab</t>
   </si>
   <si>
     <t>112</t>
@@ -4169,7 +4178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4315,6 +4324,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -4677,7 +4689,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A106" sqref="$A106:$XFD109"/>
@@ -4685,5492 +4697,5506 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="49"/>
-    <col min="4" max="4" width="100" customWidth="1" style="49"/>
+    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="50"/>
+    <col min="4" max="4" width="100" customWidth="1" style="50"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="A21" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="50" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="50" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="50" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="50" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="50" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="50" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="50" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="50" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="50" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="50" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="49" t="s">
+      <c r="A43" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="50" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="50" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="50" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="49" t="s">
+      <c r="A47" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="50" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="49" t="s">
+      <c r="A48" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="49" t="s">
+      <c r="D49" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="50" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="50" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="50" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="50" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="50" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="50" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="49" t="s">
+      <c r="A57" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="50" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="50" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="49" t="s">
+      <c r="A59" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="50" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="50" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="49" t="s">
+      <c r="A61" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="50" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="49" t="s">
+      <c r="A62" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="50" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="49" t="s">
+      <c r="A63" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="50" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="50" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="49" t="s">
+      <c r="A66" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="50" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="49" t="s">
+      <c r="A67" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="50" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="50" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="50" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="49" t="s">
+      <c r="A70" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="50" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="49" t="s">
+      <c r="A72" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="50" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="49" t="s">
+      <c r="A73" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="50" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="49" t="s">
+      <c r="A74" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="50" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="49" t="s">
+      <c r="A75" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="50" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="50" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="50" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="50" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="50" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="49" t="s">
+      <c r="A80" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="49" t="s">
+      <c r="D80" s="50" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="49" t="s">
+      <c r="A81" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="50" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="49" t="s">
+      <c r="A82" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="49" t="s">
+      <c r="D82" s="50" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="49" t="s">
+      <c r="A83" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="50" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="49" t="s">
+      <c r="A84" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="50" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="49" t="s">
+      <c r="A85" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D85" s="50" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="49" t="s">
+      <c r="A86" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="50" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="49" t="s">
+      <c r="A87" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="49" t="s">
+      <c r="A88" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="49" t="s">
+      <c r="A89" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="50" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="49" t="s">
+      <c r="A90" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="50" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="49" t="s">
+      <c r="A91" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="50" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="49" t="s">
+      <c r="A92" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="50" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="50" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="50" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="50" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="49" t="s">
+      <c r="A96" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="50" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="50" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="49" t="s">
+      <c r="A100" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="50" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="49" t="s">
+      <c r="A101" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="50" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="49" t="s">
+      <c r="A102" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="49" t="s">
+      <c r="C102" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="49" t="s">
+      <c r="D102" s="50" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="49" t="s">
+      <c r="A103" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="49" t="s">
+      <c r="D103" s="50" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="49" t="s">
+      <c r="A104" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="49" t="s">
+      <c r="C104" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="49" t="s">
+      <c r="D104" s="50" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="49" t="s">
+      <c r="A105" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D105" s="50" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="49" t="s">
+      <c r="A106" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="50" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="49" t="s">
+      <c r="A107" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="49" t="s">
+      <c r="D107" s="50" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="49" t="s">
+      <c r="A108" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="D108" s="49" t="s">
+      <c r="D108" s="50" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="49" t="s">
+      <c r="A109" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D109" s="49" t="s">
+      <c r="D109" s="50" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="49" t="s">
+      <c r="A110" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C110" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="D110" s="49" t="s">
+      <c r="D110" s="50" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="49" t="s">
+      <c r="A111" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="49" t="s">
+      <c r="D111" s="50" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="49" t="s">
+      <c r="A112" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C112" s="49" t="s">
+      <c r="C112" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="D112" s="49" t="s">
+      <c r="D112" s="50" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="49" t="s">
+      <c r="A113" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D113" s="49" t="s">
+      <c r="D113" s="50" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="49" t="s">
+      <c r="A114" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C114" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D114" s="49" t="s">
+      <c r="D114" s="50" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="49" t="s">
+      <c r="A115" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="50" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="49" t="s">
+      <c r="A116" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="D116" s="49" t="s">
+      <c r="D116" s="50" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="49" t="s">
+      <c r="A117" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="D117" s="49" t="s">
+      <c r="D117" s="50" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="49" t="s">
+      <c r="A118" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="49" t="s">
+      <c r="D118" s="50" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="49" t="s">
+      <c r="A119" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="D119" s="49" t="s">
+      <c r="D119" s="50" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="49" t="s">
+      <c r="A120" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="49" t="s">
+      <c r="C120" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="49" t="s">
+      <c r="D120" s="50" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="49" t="s">
+      <c r="A121" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="D121" s="49" t="s">
+      <c r="D121" s="50" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="49" t="s">
+      <c r="A122" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="49" t="s">
+      <c r="C122" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="49" t="s">
+      <c r="D122" s="50" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="49" t="s">
+      <c r="A123" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D123" s="49" t="s">
+      <c r="D123" s="50" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="49" t="s">
+      <c r="A124" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="D124" s="49" t="s">
+      <c r="D124" s="50" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="49" t="s">
+      <c r="A125" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="D125" s="49" t="s">
+      <c r="D125" s="50" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="49" t="s">
+      <c r="A126" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="49" t="s">
+      <c r="C126" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="49" t="s">
+      <c r="D126" s="50" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="49" t="s">
+      <c r="A127" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="50" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="49" t="s">
+      <c r="C127" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="D127" s="49" t="s">
+      <c r="D127" s="50" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="49" t="s">
+      <c r="A128" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="49" t="s">
+      <c r="C128" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="D128" s="49" t="s">
+      <c r="D128" s="50" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="49" t="s">
+      <c r="A129" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="C129" s="49" t="s">
+      <c r="C129" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="49" t="s">
+      <c r="D129" s="50" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="49" t="s">
+      <c r="A130" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C130" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="49" t="s">
+      <c r="D130" s="50" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="49" t="s">
+      <c r="A131" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="C131" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="D131" s="49" t="s">
+      <c r="D131" s="50" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="49" t="s">
+      <c r="A132" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="49" t="s">
+      <c r="D132" s="50" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="49" t="s">
+      <c r="A133" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="49" t="s">
+      <c r="C133" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="D133" s="49" t="s">
+      <c r="D133" s="50" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="49" t="s">
+      <c r="A134" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="C134" s="49" t="s">
+      <c r="C134" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="D134" s="49" t="s">
+      <c r="D134" s="50" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="49" t="s">
+      <c r="A135" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="D135" s="49" t="s">
+      <c r="D135" s="50" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="49" t="s">
+      <c r="A136" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="C136" s="49" t="s">
+      <c r="C136" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="D136" s="49" t="s">
+      <c r="D136" s="50" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="49" t="s">
+      <c r="A137" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="D137" s="49" t="s">
+      <c r="D137" s="50" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="49" t="s">
+      <c r="A138" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="C138" s="49" t="s">
+      <c r="C138" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="50" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="49" t="s">
+      <c r="A139" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D139" s="50" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="49" t="s">
+      <c r="A140" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="C140" s="49" t="s">
+      <c r="C140" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="50" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="49" t="s">
+      <c r="A141" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="C141" s="49" t="s">
+      <c r="C141" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="D141" s="49" t="s">
+      <c r="D141" s="50" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="49" t="s">
+      <c r="A142" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="50" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="49" t="s">
+      <c r="A143" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="50" t="s">
         <v>427</v>
       </c>
-      <c r="C143" s="49" t="s">
+      <c r="C143" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="D143" s="49" t="s">
+      <c r="D143" s="50" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="49" t="s">
+      <c r="A144" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="C144" s="49" t="s">
+      <c r="C144" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="D144" s="49" t="s">
+      <c r="D144" s="50" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="49" t="s">
+      <c r="A145" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="C145" s="49" t="s">
+      <c r="C145" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="D145" s="49" t="s">
+      <c r="D145" s="50" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="49" t="s">
+      <c r="A146" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="C146" s="49" t="s">
+      <c r="C146" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="D146" s="49" t="s">
+      <c r="D146" s="50" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="49" t="s">
+      <c r="A147" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="D147" s="49" t="s">
+      <c r="D147" s="50" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="49" t="s">
+      <c r="A148" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="D148" s="49" t="s">
+      <c r="D148" s="50" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="49" t="s">
+      <c r="A149" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="C149" s="49" t="s">
+      <c r="C149" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="D149" s="49" t="s">
+      <c r="D149" s="50" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="49" t="s">
+      <c r="A150" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="50" t="s">
         <v>448</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="D150" s="49" t="s">
+      <c r="D150" s="50" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="49" t="s">
+      <c r="A151" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="C151" s="49" t="s">
+      <c r="C151" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="50" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="49" t="s">
+      <c r="A152" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C152" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="D152" s="49" t="s">
+      <c r="D152" s="50" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="49" t="s">
+      <c r="A153" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="D153" s="49" t="s">
+      <c r="D153" s="50" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="49" t="s">
+      <c r="A154" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="50" t="s">
         <v>461</v>
       </c>
-      <c r="D154" s="49" t="s">
+      <c r="D154" s="50" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="49" t="s">
+      <c r="A155" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="C155" s="49" t="s">
+      <c r="C155" s="50" t="s">
         <v>464</v>
       </c>
-      <c r="D155" s="49" t="s">
+      <c r="D155" s="50" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="49" t="s">
+      <c r="A156" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="C156" s="49" t="s">
+      <c r="C156" s="50" t="s">
         <v>467</v>
       </c>
-      <c r="D156" s="49" t="s">
+      <c r="D156" s="50" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="49" t="s">
+      <c r="A157" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="D157" s="49" t="s">
+      <c r="D157" s="50" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="49" t="s">
+      <c r="A158" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="D158" s="49" t="s">
+      <c r="D158" s="50" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" s="49" t="s">
+      <c r="A159" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="C159" s="49" t="s">
+      <c r="C159" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="D159" s="49" t="s">
+      <c r="D159" s="50" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" s="49" t="s">
+      <c r="A160" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="C160" s="49" t="s">
+      <c r="C160" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="D160" s="49" t="s">
+      <c r="D160" s="50" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="49" t="s">
+      <c r="A161" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="C161" s="49" t="s">
+      <c r="C161" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="D161" s="49" t="s">
+      <c r="D161" s="50" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" s="49" t="s">
+      <c r="A162" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="C162" s="49" t="s">
+      <c r="C162" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="D162" s="49" t="s">
+      <c r="D162" s="50" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="49" t="s">
+      <c r="A163" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="C163" s="49" t="s">
+      <c r="C163" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="D163" s="49" t="s">
+      <c r="D163" s="50" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="49" t="s">
+      <c r="A164" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="C164" s="49" t="s">
+      <c r="C164" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="D164" s="49" t="s">
+      <c r="D164" s="50" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="49" t="s">
+      <c r="A165" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="C165" s="49" t="s">
+      <c r="C165" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="D165" s="49" t="s">
+      <c r="D165" s="50" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="49" t="s">
+      <c r="A166" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="C166" s="49" t="s">
+      <c r="C166" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="D166" s="49" t="s">
+      <c r="D166" s="50" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="49" t="s">
+      <c r="A167" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="C167" s="49" t="s">
+      <c r="C167" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="D167" s="49" t="s">
+      <c r="D167" s="50" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="49" t="s">
+      <c r="A168" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="C168" s="49" t="s">
+      <c r="C168" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="D168" s="49" t="s">
+      <c r="D168" s="50" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="49" t="s">
+      <c r="A169" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="C169" s="49" t="s">
+      <c r="C169" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="D169" s="49" t="s">
+      <c r="D169" s="50" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="49" t="s">
+      <c r="A170" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="C170" s="49" t="s">
+      <c r="C170" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="D170" s="49" t="s">
+      <c r="D170" s="50" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171" s="49" t="s">
+      <c r="A171" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="D171" s="49" t="s">
+      <c r="D171" s="50" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="49" t="s">
+      <c r="A172" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="C172" s="49" t="s">
+      <c r="C172" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="D172" s="49" t="s">
+      <c r="D172" s="50" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="49" t="s">
+      <c r="A173" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="C173" s="49" t="s">
+      <c r="C173" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="D173" s="49" t="s">
+      <c r="D173" s="50" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="49" t="s">
+      <c r="A174" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="C174" s="49" t="s">
+      <c r="C174" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="D174" s="49" t="s">
+      <c r="D174" s="50" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="49" t="s">
+      <c r="A175" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="49" t="s">
+      <c r="C175" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="D175" s="49" t="s">
+      <c r="D175" s="50" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="49" t="s">
+      <c r="A176" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="C176" s="49" t="s">
+      <c r="C176" s="50" t="s">
         <v>527</v>
       </c>
-      <c r="D176" s="49" t="s">
+      <c r="D176" s="50" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="49" t="s">
+      <c r="A177" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="C177" s="49" t="s">
+      <c r="C177" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="D177" s="49" t="s">
+      <c r="D177" s="50" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="49" t="s">
+      <c r="A178" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="C178" s="49" t="s">
+      <c r="C178" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="D178" s="49" t="s">
+      <c r="D178" s="50" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="49" t="s">
+      <c r="A179" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="C179" s="49" t="s">
+      <c r="C179" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="D179" s="49" t="s">
+      <c r="D179" s="50" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="49" t="s">
+      <c r="A180" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="D180" s="49" t="s">
+      <c r="D180" s="50" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="49" t="s">
+      <c r="A181" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="C181" s="49" t="s">
+      <c r="C181" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="D181" s="49" t="s">
+      <c r="D181" s="50" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="49" t="s">
+      <c r="A182" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="50" t="s">
         <v>544</v>
       </c>
-      <c r="C182" s="49" t="s">
+      <c r="C182" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="D182" s="49" t="s">
+      <c r="D182" s="50" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="49" t="s">
+      <c r="A183" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="C183" s="49" t="s">
+      <c r="C183" s="50" t="s">
         <v>548</v>
       </c>
-      <c r="D183" s="49" t="s">
+      <c r="D183" s="50" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="49" t="s">
+      <c r="A184" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="C184" s="49" t="s">
+      <c r="C184" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="D184" s="49" t="s">
+      <c r="D184" s="50" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="49" t="s">
+      <c r="A185" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="50" t="s">
         <v>553</v>
       </c>
-      <c r="C185" s="49" t="s">
+      <c r="C185" s="50" t="s">
         <v>554</v>
       </c>
-      <c r="D185" s="49" t="s">
+      <c r="D185" s="50" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="49" t="s">
+      <c r="A186" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="50" t="s">
         <v>556</v>
       </c>
-      <c r="C186" s="49" t="s">
+      <c r="C186" s="50" t="s">
         <v>557</v>
       </c>
-      <c r="D186" s="49" t="s">
+      <c r="D186" s="50" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="49" t="s">
+      <c r="A187" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="50" t="s">
         <v>559</v>
       </c>
-      <c r="C187" s="49" t="s">
+      <c r="C187" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="D187" s="49" t="s">
+      <c r="D187" s="50" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="49" t="s">
+      <c r="A188" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="C188" s="49" t="s">
+      <c r="C188" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="D188" s="49" t="s">
+      <c r="D188" s="50" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="49" t="s">
+      <c r="A189" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="50" t="s">
         <v>565</v>
       </c>
-      <c r="C189" s="49" t="s">
+      <c r="C189" s="50" t="s">
         <v>566</v>
       </c>
-      <c r="D189" s="49" t="s">
+      <c r="D189" s="50" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="49" t="s">
+      <c r="A190" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="C190" s="49" t="s">
+      <c r="C190" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="D190" s="49" t="s">
+      <c r="D190" s="50" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="49" t="s">
+      <c r="A191" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="C191" s="49" t="s">
+      <c r="C191" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="D191" s="49" t="s">
+      <c r="D191" s="50" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="49" t="s">
+      <c r="A192" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="C192" s="49" t="s">
+      <c r="C192" s="50" t="s">
         <v>575</v>
       </c>
-      <c r="D192" s="49" t="s">
+      <c r="D192" s="50" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="49" t="s">
+      <c r="A193" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="C193" s="49" t="s">
+      <c r="C193" s="50" t="s">
         <v>578</v>
       </c>
-      <c r="D193" s="49" t="s">
+      <c r="D193" s="50" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="49" t="s">
+      <c r="A194" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="50" t="s">
         <v>580</v>
       </c>
-      <c r="C194" s="49" t="s">
+      <c r="C194" s="50" t="s">
         <v>581</v>
       </c>
-      <c r="D194" s="49" t="s">
+      <c r="D194" s="50" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="49" t="s">
+      <c r="A195" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="50" t="s">
         <v>583</v>
       </c>
-      <c r="C195" s="49" t="s">
+      <c r="C195" s="50" t="s">
         <v>584</v>
       </c>
-      <c r="D195" s="49" t="s">
+      <c r="D195" s="50" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="49" t="s">
+      <c r="A196" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="C196" s="49" t="s">
+      <c r="C196" s="50" t="s">
         <v>587</v>
       </c>
-      <c r="D196" s="49" t="s">
+      <c r="D196" s="50" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="49" t="s">
+      <c r="A197" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="C197" s="49" t="s">
+      <c r="C197" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="D197" s="49" t="s">
+      <c r="D197" s="50" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="49" t="s">
+      <c r="A198" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="C198" s="49" t="s">
+      <c r="C198" s="50" t="s">
         <v>593</v>
       </c>
-      <c r="D198" s="49" t="s">
+      <c r="D198" s="50" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="49" t="s">
+      <c r="A199" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="50" t="s">
         <v>595</v>
       </c>
-      <c r="C199" s="49" t="s">
+      <c r="C199" s="50" t="s">
         <v>596</v>
       </c>
-      <c r="D199" s="49" t="s">
+      <c r="D199" s="50" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="49" t="s">
+      <c r="A200" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="50" t="s">
         <v>598</v>
       </c>
-      <c r="C200" s="49" t="s">
+      <c r="C200" s="50" t="s">
         <v>599</v>
       </c>
-      <c r="D200" s="49" t="s">
+      <c r="D200" s="50" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="49" t="s">
+      <c r="A201" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="C201" s="49" t="s">
+      <c r="C201" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="D201" s="49" t="s">
+      <c r="D201" s="50" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="49" t="s">
+      <c r="A202" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="50" t="s">
         <v>604</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="50" t="s">
         <v>605</v>
       </c>
-      <c r="D202" s="49" t="s">
+      <c r="D202" s="50" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="49" t="s">
+      <c r="A203" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="C203" s="49" t="s">
+      <c r="C203" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="D203" s="49" t="s">
+      <c r="D203" s="50" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="49" t="s">
+      <c r="A204" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="C204" s="49" t="s">
+      <c r="C204" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="D204" s="49" t="s">
+      <c r="D204" s="50" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" s="49" t="s">
+      <c r="A205" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="C205" s="49" t="s">
+      <c r="C205" s="50" t="s">
         <v>614</v>
       </c>
-      <c r="D205" s="49" t="s">
+      <c r="D205" s="50" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="49" t="s">
+      <c r="A206" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="50" t="s">
         <v>616</v>
       </c>
-      <c r="C206" s="49" t="s">
+      <c r="C206" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="D206" s="49" t="s">
+      <c r="D206" s="50" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="49" t="s">
+      <c r="A207" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="C207" s="49" t="s">
+      <c r="C207" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="D207" s="49" t="s">
+      <c r="D207" s="50" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="49" t="s">
+      <c r="A208" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="C208" s="49" t="s">
+      <c r="C208" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="D208" s="49" t="s">
+      <c r="D208" s="50" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="49" t="s">
+      <c r="A209" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="50" t="s">
         <v>625</v>
       </c>
-      <c r="C209" s="49" t="s">
+      <c r="C209" s="50" t="s">
         <v>626</v>
       </c>
-      <c r="D209" s="49" t="s">
+      <c r="D209" s="50" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="49" t="s">
+      <c r="A210" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="50" t="s">
         <v>628</v>
       </c>
-      <c r="C210" s="49" t="s">
+      <c r="C210" s="50" t="s">
         <v>629</v>
       </c>
-      <c r="D210" s="49" t="s">
+      <c r="D210" s="50" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" s="49" t="s">
+      <c r="A211" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="C211" s="49" t="s">
+      <c r="C211" s="50" t="s">
         <v>632</v>
       </c>
-      <c r="D211" s="49" t="s">
+      <c r="D211" s="50" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="49" t="s">
+      <c r="A212" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="50" t="s">
         <v>634</v>
       </c>
-      <c r="C212" s="49" t="s">
+      <c r="C212" s="50" t="s">
         <v>635</v>
       </c>
-      <c r="D212" s="49" t="s">
+      <c r="D212" s="50" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="49" t="s">
+      <c r="A213" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="C213" s="49" t="s">
+      <c r="C213" s="50" t="s">
         <v>638</v>
       </c>
-      <c r="D213" s="49" t="s">
+      <c r="D213" s="50" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="49" t="s">
+      <c r="A214" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="50" t="s">
         <v>640</v>
       </c>
-      <c r="C214" s="49" t="s">
+      <c r="C214" s="50" t="s">
         <v>641</v>
       </c>
-      <c r="D214" s="49" t="s">
+      <c r="D214" s="50" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="49" t="s">
+      <c r="A215" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="50" t="s">
         <v>643</v>
       </c>
-      <c r="C215" s="49" t="s">
+      <c r="C215" s="50" t="s">
         <v>644</v>
       </c>
-      <c r="D215" s="49" t="s">
+      <c r="D215" s="50" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="49" t="s">
+      <c r="A216" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="50" t="s">
         <v>646</v>
       </c>
-      <c r="C216" s="49" t="s">
+      <c r="C216" s="50" t="s">
         <v>647</v>
       </c>
-      <c r="D216" s="49" t="s">
+      <c r="D216" s="50" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="49" t="s">
+      <c r="A217" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="50" t="s">
         <v>649</v>
       </c>
-      <c r="C217" s="49" t="s">
+      <c r="C217" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="D217" s="49" t="s">
+      <c r="D217" s="50" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="49" t="s">
+      <c r="A218" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="50" t="s">
         <v>652</v>
       </c>
-      <c r="C218" s="49" t="s">
+      <c r="C218" s="50" t="s">
         <v>653</v>
       </c>
-      <c r="D218" s="49" t="s">
+      <c r="D218" s="50" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="49" t="s">
+      <c r="A219" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="50" t="s">
         <v>655</v>
       </c>
-      <c r="C219" s="49" t="s">
+      <c r="C219" s="50" t="s">
         <v>656</v>
       </c>
-      <c r="D219" s="49" t="s">
+      <c r="D219" s="50" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="49" t="s">
+      <c r="A220" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="C220" s="49" t="s">
+      <c r="C220" s="50" t="s">
         <v>659</v>
       </c>
-      <c r="D220" s="49" t="s">
+      <c r="D220" s="50" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="49" t="s">
+      <c r="A221" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="50" t="s">
         <v>661</v>
       </c>
-      <c r="C221" s="49" t="s">
+      <c r="C221" s="50" t="s">
         <v>662</v>
       </c>
-      <c r="D221" s="49" t="s">
+      <c r="D221" s="50" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="49" t="s">
+      <c r="A222" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="50" t="s">
         <v>664</v>
       </c>
-      <c r="C222" s="49" t="s">
+      <c r="C222" s="50" t="s">
         <v>665</v>
       </c>
-      <c r="D222" s="49" t="s">
+      <c r="D222" s="50" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="49" t="s">
+      <c r="A223" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="50" t="s">
         <v>667</v>
       </c>
-      <c r="C223" s="49" t="s">
+      <c r="C223" s="50" t="s">
         <v>668</v>
       </c>
-      <c r="D223" s="49" t="s">
+      <c r="D223" s="50" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="49" t="s">
+      <c r="A224" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="50" t="s">
         <v>670</v>
       </c>
-      <c r="C224" s="49" t="s">
+      <c r="C224" s="50" t="s">
         <v>671</v>
       </c>
-      <c r="D224" s="49" t="s">
+      <c r="D224" s="50" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="49" t="s">
+      <c r="A225" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="50" t="s">
         <v>673</v>
       </c>
-      <c r="C225" s="49" t="s">
+      <c r="C225" s="50" t="s">
         <v>674</v>
       </c>
-      <c r="D225" s="49" t="s">
+      <c r="D225" s="50" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="49" t="s">
+      <c r="A226" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="50" t="s">
         <v>676</v>
       </c>
-      <c r="C226" s="49" t="s">
+      <c r="C226" s="50" t="s">
         <v>677</v>
       </c>
-      <c r="D226" s="49" t="s">
+      <c r="D226" s="50" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="49" t="s">
+      <c r="A227" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="C227" s="49" t="s">
+      <c r="C227" s="50" t="s">
         <v>680</v>
       </c>
-      <c r="D227" s="49" t="s">
+      <c r="D227" s="50" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="49" t="s">
+      <c r="A228" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="50" t="s">
         <v>682</v>
       </c>
-      <c r="C228" s="49" t="s">
+      <c r="C228" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="D228" s="49" t="s">
+      <c r="D228" s="50" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="49" t="s">
+      <c r="A229" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="50" t="s">
         <v>685</v>
       </c>
-      <c r="C229" s="49" t="s">
+      <c r="C229" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="D229" s="49" t="s">
+      <c r="D229" s="50" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="49" t="s">
+      <c r="A230" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="50" t="s">
         <v>688</v>
       </c>
-      <c r="C230" s="49" t="s">
+      <c r="C230" s="50" t="s">
         <v>689</v>
       </c>
-      <c r="D230" s="49" t="s">
+      <c r="D230" s="50" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="49" t="s">
+      <c r="A231" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="C231" s="49" t="s">
+      <c r="C231" s="50" t="s">
         <v>692</v>
       </c>
-      <c r="D231" s="49" t="s">
+      <c r="D231" s="50" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="49" t="s">
+      <c r="A232" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="50" t="s">
         <v>694</v>
       </c>
-      <c r="C232" s="49" t="s">
+      <c r="C232" s="50" t="s">
         <v>695</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D232" s="50" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="49" t="s">
+      <c r="A233" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="C233" s="49" t="s">
+      <c r="C233" s="50" t="s">
         <v>698</v>
       </c>
-      <c r="D233" s="49" t="s">
+      <c r="D233" s="50" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="49" t="s">
+      <c r="A234" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="50" t="s">
         <v>700</v>
       </c>
-      <c r="C234" s="49" t="s">
+      <c r="C234" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="D234" s="49" t="s">
+      <c r="D234" s="50" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B235" s="49" t="s">
+      <c r="A235" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="50" t="s">
         <v>703</v>
       </c>
-      <c r="C235" s="49" t="s">
+      <c r="C235" s="50" t="s">
         <v>704</v>
       </c>
-      <c r="D235" s="49" t="s">
+      <c r="D235" s="50" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="49" t="s">
+      <c r="A236" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="50" t="s">
         <v>706</v>
       </c>
-      <c r="C236" s="49" t="s">
+      <c r="C236" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="D236" s="49" t="s">
+      <c r="D236" s="50" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="49" t="s">
+      <c r="A237" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="50" t="s">
         <v>709</v>
       </c>
-      <c r="C237" s="49" t="s">
+      <c r="C237" s="50" t="s">
         <v>710</v>
       </c>
-      <c r="D237" s="49" t="s">
+      <c r="D237" s="50" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="49" t="s">
+      <c r="A238" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="50" t="s">
         <v>712</v>
       </c>
-      <c r="C238" s="49" t="s">
+      <c r="C238" s="50" t="s">
         <v>713</v>
       </c>
-      <c r="D238" s="49" t="s">
+      <c r="D238" s="50" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="49" t="s">
+      <c r="A239" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="50" t="s">
         <v>715</v>
       </c>
-      <c r="C239" s="49" t="s">
+      <c r="C239" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="D239" s="49" t="s">
+      <c r="D239" s="50" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" s="49" t="s">
+      <c r="A240" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="50" t="s">
         <v>718</v>
       </c>
-      <c r="C240" s="49" t="s">
+      <c r="C240" s="50" t="s">
         <v>719</v>
       </c>
-      <c r="D240" s="49" t="s">
+      <c r="D240" s="50" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="49" t="s">
+      <c r="A241" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="50" t="s">
         <v>721</v>
       </c>
-      <c r="C241" s="49" t="s">
+      <c r="C241" s="50" t="s">
         <v>722</v>
       </c>
-      <c r="D241" s="49" t="s">
+      <c r="D241" s="50" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="49" t="s">
+      <c r="A242" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="50" t="s">
         <v>724</v>
       </c>
-      <c r="C242" s="49" t="s">
+      <c r="C242" s="50" t="s">
         <v>725</v>
       </c>
-      <c r="D242" s="49" t="s">
+      <c r="D242" s="50" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="49" t="s">
+      <c r="A243" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="50" t="s">
         <v>727</v>
       </c>
-      <c r="C243" s="49" t="s">
+      <c r="C243" s="50" t="s">
         <v>728</v>
       </c>
-      <c r="D243" s="49" t="s">
+      <c r="D243" s="50" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B244" s="49" t="s">
+      <c r="A244" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="50" t="s">
         <v>730</v>
       </c>
-      <c r="C244" s="49" t="s">
+      <c r="C244" s="50" t="s">
         <v>731</v>
       </c>
-      <c r="D244" s="49" t="s">
+      <c r="D244" s="50" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="49" t="s">
+      <c r="A245" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="C245" s="49" t="s">
+      <c r="C245" s="50" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="49" t="s">
+      <c r="D245" s="50" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B246" s="49" t="s">
+      <c r="A246" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="50" t="s">
         <v>736</v>
       </c>
-      <c r="C246" s="49" t="s">
+      <c r="C246" s="50" t="s">
         <v>737</v>
       </c>
-      <c r="D246" s="49" t="s">
+      <c r="D246" s="50" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" s="49" t="s">
+      <c r="A247" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="50" t="s">
         <v>739</v>
       </c>
-      <c r="C247" s="49" t="s">
+      <c r="C247" s="50" t="s">
         <v>740</v>
       </c>
-      <c r="D247" s="49" t="s">
+      <c r="D247" s="50" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" s="49" t="s">
+      <c r="A248" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="C248" s="49" t="s">
+      <c r="C248" s="50" t="s">
         <v>743</v>
       </c>
-      <c r="D248" s="49" t="s">
+      <c r="D248" s="50" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="49" t="s">
+      <c r="A249" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="50" t="s">
         <v>745</v>
       </c>
-      <c r="C249" s="49" t="s">
+      <c r="C249" s="50" t="s">
         <v>746</v>
       </c>
-      <c r="D249" s="49" t="s">
+      <c r="D249" s="50" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="49" t="s">
+      <c r="A250" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="50" t="s">
         <v>748</v>
       </c>
-      <c r="C250" s="49" t="s">
+      <c r="C250" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="D250" s="49" t="s">
+      <c r="D250" s="50" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="49" t="s">
+      <c r="A251" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="C251" s="49" t="s">
+      <c r="C251" s="50" t="s">
         <v>752</v>
       </c>
-      <c r="D251" s="49" t="s">
+      <c r="D251" s="50" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="49" t="s">
+      <c r="A252" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="50" t="s">
         <v>754</v>
       </c>
-      <c r="C252" s="49" t="s">
+      <c r="C252" s="50" t="s">
         <v>755</v>
       </c>
-      <c r="D252" s="49" t="s">
+      <c r="D252" s="50" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="49" t="s">
+      <c r="A253" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="50" t="s">
         <v>757</v>
       </c>
-      <c r="C253" s="49" t="s">
+      <c r="C253" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="D253" s="49" t="s">
+      <c r="D253" s="50" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="49" t="s">
+      <c r="A254" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="50" t="s">
         <v>760</v>
       </c>
-      <c r="C254" s="49" t="s">
+      <c r="C254" s="50" t="s">
         <v>761</v>
       </c>
-      <c r="D254" s="49" t="s">
+      <c r="D254" s="50" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="49" t="s">
+      <c r="A255" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="C255" s="49" t="s">
+      <c r="C255" s="50" t="s">
         <v>764</v>
       </c>
-      <c r="D255" s="49" t="s">
+      <c r="D255" s="50" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="49" t="s">
+      <c r="A256" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="50" t="s">
         <v>766</v>
       </c>
-      <c r="C256" s="49" t="s">
+      <c r="C256" s="50" t="s">
         <v>767</v>
       </c>
-      <c r="D256" s="49" t="s">
+      <c r="D256" s="50" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" s="49" t="s">
+      <c r="A257" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="C257" s="49" t="s">
+      <c r="C257" s="50" t="s">
         <v>770</v>
       </c>
-      <c r="D257" s="49" t="s">
+      <c r="D257" s="50" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" s="49" t="s">
+      <c r="A258" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="50" t="s">
         <v>772</v>
       </c>
-      <c r="C258" s="49" t="s">
+      <c r="C258" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="D258" s="49" t="s">
+      <c r="D258" s="50" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="49" t="s">
+      <c r="A259" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="50" t="s">
         <v>775</v>
       </c>
-      <c r="C259" s="49" t="s">
+      <c r="C259" s="50" t="s">
         <v>776</v>
       </c>
-      <c r="D259" s="49" t="s">
+      <c r="D259" s="50" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="49" t="s">
+      <c r="A260" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="50" t="s">
         <v>778</v>
       </c>
-      <c r="C260" s="49" t="s">
+      <c r="C260" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="D260" s="49" t="s">
+      <c r="D260" s="50" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="49" t="s">
+      <c r="A261" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="C261" s="49" t="s">
+      <c r="C261" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="D261" s="49" t="s">
+      <c r="D261" s="50" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" s="49" t="s">
+      <c r="A262" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="50" t="s">
         <v>784</v>
       </c>
-      <c r="C262" s="49" t="s">
+      <c r="C262" s="50" t="s">
         <v>785</v>
       </c>
-      <c r="D262" s="49" t="s">
+      <c r="D262" s="50" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B263" s="49" t="s">
+      <c r="A263" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="C263" s="49" t="s">
+      <c r="C263" s="50" t="s">
         <v>788</v>
       </c>
-      <c r="D263" s="49" t="s">
+      <c r="D263" s="50" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="49" t="s">
+      <c r="A264" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="50" t="s">
         <v>790</v>
       </c>
-      <c r="C264" s="49" t="s">
+      <c r="C264" s="50" t="s">
         <v>791</v>
       </c>
-      <c r="D264" s="49" t="s">
+      <c r="D264" s="50" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="49" t="s">
+      <c r="A265" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="50" t="s">
         <v>793</v>
       </c>
-      <c r="C265" s="49" t="s">
+      <c r="C265" s="50" t="s">
         <v>794</v>
       </c>
-      <c r="D265" s="49" t="s">
+      <c r="D265" s="50" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="49" t="s">
+      <c r="A266" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="50" t="s">
         <v>796</v>
       </c>
-      <c r="C266" s="49" t="s">
+      <c r="C266" s="50" t="s">
         <v>797</v>
       </c>
-      <c r="D266" s="49" t="s">
+      <c r="D266" s="50" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="49" t="s">
+      <c r="A267" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="50" t="s">
         <v>799</v>
       </c>
-      <c r="C267" s="49" t="s">
+      <c r="C267" s="50" t="s">
         <v>800</v>
       </c>
-      <c r="D267" s="49" t="s">
+      <c r="D267" s="50" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="49" t="s">
+      <c r="A268" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="50" t="s">
         <v>802</v>
       </c>
-      <c r="C268" s="49" t="s">
+      <c r="C268" s="50" t="s">
         <v>803</v>
       </c>
-      <c r="D268" s="49" t="s">
+      <c r="D268" s="50" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="49" t="s">
+      <c r="A269" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="50" t="s">
         <v>805</v>
       </c>
-      <c r="C269" s="49" t="s">
+      <c r="C269" s="50" t="s">
         <v>806</v>
       </c>
-      <c r="D269" s="49" t="s">
+      <c r="D269" s="50" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="49" t="s">
+      <c r="A270" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="50" t="s">
         <v>808</v>
       </c>
-      <c r="C270" s="49" t="s">
+      <c r="C270" s="50" t="s">
         <v>809</v>
       </c>
-      <c r="D270" s="49" t="s">
+      <c r="D270" s="50" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="49" t="s">
+      <c r="A271" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="50" t="s">
         <v>811</v>
       </c>
-      <c r="C271" s="49" t="s">
+      <c r="C271" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="D271" s="49" t="s">
+      <c r="D271" s="50" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="49" t="s">
+      <c r="A272" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C272" s="49" t="s">
+      <c r="C272" s="50" t="s">
         <v>815</v>
       </c>
-      <c r="D272" s="49" t="s">
+      <c r="D272" s="50" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="49" t="s">
+      <c r="A273" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="C273" s="49" t="s">
+      <c r="C273" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D273" s="49" t="s">
+      <c r="D273" s="50" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="49" t="s">
+      <c r="A274" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="50" t="s">
         <v>820</v>
       </c>
-      <c r="C274" s="49" t="s">
+      <c r="C274" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="D274" s="49" t="s">
+      <c r="D274" s="50" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="49" t="s">
+      <c r="A275" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="C275" s="49" t="s">
+      <c r="C275" s="50" t="s">
         <v>824</v>
       </c>
-      <c r="D275" s="49" t="s">
+      <c r="D275" s="50" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="49" t="s">
+      <c r="A276" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="50" t="s">
         <v>826</v>
       </c>
-      <c r="C276" s="49" t="s">
+      <c r="C276" s="50" t="s">
         <v>827</v>
       </c>
-      <c r="D276" s="49" t="s">
+      <c r="D276" s="50" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="49" t="s">
+      <c r="A277" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="50" t="s">
         <v>829</v>
       </c>
-      <c r="C277" s="49" t="s">
+      <c r="C277" s="50" t="s">
         <v>830</v>
       </c>
-      <c r="D277" s="49" t="s">
+      <c r="D277" s="50" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" s="49" t="s">
+      <c r="A278" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="50" t="s">
         <v>832</v>
       </c>
-      <c r="C278" s="49" t="s">
+      <c r="C278" s="50" t="s">
         <v>833</v>
       </c>
-      <c r="D278" s="49" t="s">
+      <c r="D278" s="50" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="49" t="s">
+      <c r="A279" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="C279" s="49" t="s">
+      <c r="C279" s="50" t="s">
         <v>836</v>
       </c>
-      <c r="D279" s="49" t="s">
+      <c r="D279" s="50" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B280" s="49" t="s">
+      <c r="A280" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="50" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="49" t="s">
+      <c r="C280" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="D280" s="49" t="s">
+      <c r="D280" s="50" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="49" t="s">
+      <c r="A281" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="50" t="s">
         <v>841</v>
       </c>
-      <c r="C281" s="49" t="s">
+      <c r="C281" s="50" t="s">
         <v>842</v>
       </c>
-      <c r="D281" s="49" t="s">
+      <c r="D281" s="50" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="49" t="s">
+      <c r="A282" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="50" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="49" t="s">
+      <c r="C282" s="50" t="s">
         <v>845</v>
       </c>
-      <c r="D282" s="49" t="s">
+      <c r="D282" s="50" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="49" t="s">
+      <c r="A283" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="50" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="49" t="s">
+      <c r="C283" s="50" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="49" t="s">
+      <c r="D283" s="50" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="49" t="s">
+      <c r="A284" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="50" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="49" t="s">
+      <c r="C284" s="50" t="s">
         <v>851</v>
       </c>
-      <c r="D284" s="49" t="s">
+      <c r="D284" s="50" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="49" t="s">
+      <c r="A285" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="50" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="49" t="s">
+      <c r="C285" s="50" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="49" t="s">
+      <c r="D285" s="50" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="49" t="s">
+      <c r="A286" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="50" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="49" t="s">
+      <c r="C286" s="50" t="s">
         <v>857</v>
       </c>
-      <c r="D286" s="49" t="s">
+      <c r="D286" s="50" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="49" t="s">
+      <c r="A287" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="50" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="49" t="s">
+      <c r="C287" s="50" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="49" t="s">
+      <c r="D287" s="50" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="49" t="s">
+      <c r="A288" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="50" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="49" t="s">
+      <c r="C288" s="50" t="s">
         <v>863</v>
       </c>
-      <c r="D288" s="49" t="s">
+      <c r="D288" s="50" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="49" t="s">
+      <c r="A289" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="50" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="49" t="s">
+      <c r="C289" s="50" t="s">
         <v>866</v>
       </c>
-      <c r="D289" s="49" t="s">
+      <c r="D289" s="50" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="49" t="s">
+      <c r="A290" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="50" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="49" t="s">
+      <c r="C290" s="50" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="49" t="s">
+      <c r="D290" s="50" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="49" t="s">
+      <c r="A291" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="50" t="s">
         <v>871</v>
       </c>
-      <c r="C291" s="49" t="s">
+      <c r="C291" s="50" t="s">
         <v>872</v>
       </c>
-      <c r="D291" s="49" t="s">
+      <c r="D291" s="50" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="49" t="s">
+      <c r="A292" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="50" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="49" t="s">
+      <c r="C292" s="50" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="49" t="s">
+      <c r="D292" s="50" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="49" t="s">
+      <c r="A293" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="50" t="s">
         <v>877</v>
       </c>
-      <c r="C293" s="49" t="s">
+      <c r="C293" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="D293" s="49" t="s">
+      <c r="D293" s="50" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" s="49" t="s">
+      <c r="A294" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="50" t="s">
         <v>880</v>
       </c>
-      <c r="C294" s="49" t="s">
+      <c r="C294" s="50" t="s">
         <v>881</v>
       </c>
-      <c r="D294" s="49" t="s">
+      <c r="D294" s="50" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="49" t="s">
+      <c r="A295" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="50" t="s">
         <v>883</v>
       </c>
-      <c r="C295" s="49" t="s">
+      <c r="C295" s="50" t="s">
         <v>884</v>
       </c>
-      <c r="D295" s="49" t="s">
+      <c r="D295" s="50" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" s="49" t="s">
+      <c r="A296" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="50" t="s">
         <v>886</v>
       </c>
-      <c r="C296" s="49" t="s">
+      <c r="C296" s="50" t="s">
         <v>887</v>
       </c>
-      <c r="D296" s="49" t="s">
+      <c r="D296" s="50" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="49" t="s">
+      <c r="A297" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" s="50" t="s">
         <v>889</v>
       </c>
-      <c r="C297" s="49" t="s">
+      <c r="C297" s="50" t="s">
         <v>890</v>
       </c>
-      <c r="D297" s="49" t="s">
+      <c r="D297" s="50" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="49" t="s">
+      <c r="A298" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="50" t="s">
         <v>892</v>
       </c>
-      <c r="C298" s="49" t="s">
+      <c r="C298" s="50" t="s">
         <v>893</v>
       </c>
-      <c r="D298" s="49" t="s">
+      <c r="D298" s="50" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="49" t="s">
+      <c r="A299" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="50" t="s">
         <v>895</v>
       </c>
-      <c r="C299" s="49" t="s">
+      <c r="C299" s="50" t="s">
         <v>896</v>
       </c>
-      <c r="D299" s="49" t="s">
+      <c r="D299" s="50" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="49" t="s">
+      <c r="A300" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="50" t="s">
         <v>898</v>
       </c>
-      <c r="C300" s="49" t="s">
+      <c r="C300" s="50" t="s">
         <v>899</v>
       </c>
-      <c r="D300" s="49" t="s">
+      <c r="D300" s="50" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="49" t="s">
+      <c r="A301" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="50" t="s">
         <v>901</v>
       </c>
-      <c r="C301" s="49" t="s">
+      <c r="C301" s="50" t="s">
         <v>902</v>
       </c>
-      <c r="D301" s="49" t="s">
+      <c r="D301" s="50" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="49" t="s">
+      <c r="A302" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="50" t="s">
         <v>904</v>
       </c>
-      <c r="C302" s="49" t="s">
+      <c r="C302" s="50" t="s">
         <v>905</v>
       </c>
-      <c r="D302" s="49" t="s">
+      <c r="D302" s="50" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B303" s="49" t="s">
+      <c r="A303" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="50" t="s">
         <v>907</v>
       </c>
-      <c r="C303" s="49" t="s">
+      <c r="C303" s="50" t="s">
         <v>908</v>
       </c>
-      <c r="D303" s="49" t="s">
+      <c r="D303" s="50" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="49" t="s">
+      <c r="A304" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" s="50" t="s">
         <v>910</v>
       </c>
-      <c r="C304" s="49" t="s">
+      <c r="C304" s="50" t="s">
         <v>911</v>
       </c>
-      <c r="D304" s="49" t="s">
+      <c r="D304" s="50" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="49" t="s">
+      <c r="A305" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" s="50" t="s">
         <v>913</v>
       </c>
-      <c r="C305" s="49" t="s">
+      <c r="C305" s="50" t="s">
         <v>914</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D305" s="50" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="49" t="s">
+      <c r="A306" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" s="50" t="s">
         <v>916</v>
       </c>
-      <c r="C306" s="49" t="s">
+      <c r="C306" s="50" t="s">
         <v>917</v>
       </c>
-      <c r="D306" s="49" t="s">
+      <c r="D306" s="50" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="49" t="s">
+      <c r="A307" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="50" t="s">
         <v>919</v>
       </c>
-      <c r="C307" s="49" t="s">
+      <c r="C307" s="50" t="s">
         <v>920</v>
       </c>
-      <c r="D307" s="49" t="s">
+      <c r="D307" s="50" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B308" s="49" t="s">
+      <c r="A308" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308" s="50" t="s">
         <v>922</v>
       </c>
-      <c r="C308" s="49" t="s">
+      <c r="C308" s="50" t="s">
         <v>923</v>
       </c>
-      <c r="D308" s="49" t="s">
+      <c r="D308" s="50" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="49" t="s">
+      <c r="A309" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="50" t="s">
         <v>925</v>
       </c>
-      <c r="C309" s="49" t="s">
+      <c r="C309" s="50" t="s">
         <v>926</v>
       </c>
-      <c r="D309" s="49" t="s">
+      <c r="D309" s="50" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="49" t="s">
+      <c r="A310" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" s="50" t="s">
         <v>928</v>
       </c>
-      <c r="C310" s="49" t="s">
+      <c r="C310" s="50" t="s">
         <v>929</v>
       </c>
-      <c r="D310" s="49" t="s">
+      <c r="D310" s="50" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="49" t="s">
+      <c r="A311" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="50" t="s">
         <v>931</v>
       </c>
-      <c r="C311" s="49" t="s">
+      <c r="C311" s="50" t="s">
         <v>932</v>
       </c>
-      <c r="D311" s="49" t="s">
+      <c r="D311" s="50" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B312" s="49" t="s">
+      <c r="A312" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" s="50" t="s">
         <v>934</v>
       </c>
-      <c r="C312" s="49" t="s">
+      <c r="C312" s="50" t="s">
         <v>935</v>
       </c>
-      <c r="D312" s="49" t="s">
+      <c r="D312" s="50" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="49" t="s">
+      <c r="A313" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="50" t="s">
         <v>937</v>
       </c>
-      <c r="C313" s="49" t="s">
+      <c r="C313" s="50" t="s">
         <v>938</v>
       </c>
-      <c r="D313" s="49" t="s">
+      <c r="D313" s="50" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="49" t="s">
+      <c r="A314" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="50" t="s">
         <v>940</v>
       </c>
-      <c r="C314" s="49" t="s">
+      <c r="C314" s="50" t="s">
         <v>941</v>
       </c>
-      <c r="D314" s="49" t="s">
+      <c r="D314" s="50" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="49" t="s">
+      <c r="A315" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="50" t="s">
         <v>943</v>
       </c>
-      <c r="C315" s="49" t="s">
+      <c r="C315" s="50" t="s">
         <v>944</v>
       </c>
-      <c r="D315" s="49" t="s">
+      <c r="D315" s="50" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316" s="49" t="s">
+      <c r="A316" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" s="50" t="s">
         <v>946</v>
       </c>
-      <c r="C316" s="49" t="s">
+      <c r="C316" s="50" t="s">
         <v>947</v>
       </c>
-      <c r="D316" s="49" t="s">
+      <c r="D316" s="50" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="49" t="s">
+      <c r="A317" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" s="50" t="s">
         <v>949</v>
       </c>
-      <c r="C317" s="49" t="s">
+      <c r="C317" s="50" t="s">
         <v>950</v>
       </c>
-      <c r="D317" s="49" t="s">
+      <c r="D317" s="50" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B318" s="49" t="s">
+      <c r="A318" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" s="50" t="s">
         <v>952</v>
       </c>
-      <c r="C318" s="49" t="s">
+      <c r="C318" s="50" t="s">
         <v>953</v>
       </c>
-      <c r="D318" s="49" t="s">
+      <c r="D318" s="50" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="49" t="s">
+      <c r="A319" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="50" t="s">
         <v>955</v>
       </c>
-      <c r="C319" s="49" t="s">
+      <c r="C319" s="50" t="s">
         <v>956</v>
       </c>
-      <c r="D319" s="49" t="s">
+      <c r="D319" s="50" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="49" t="s">
+      <c r="A320" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="50" t="s">
         <v>958</v>
       </c>
-      <c r="C320" s="49" t="s">
+      <c r="C320" s="50" t="s">
         <v>959</v>
       </c>
-      <c r="D320" s="49" t="s">
+      <c r="D320" s="50" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="49" t="s">
+      <c r="A321" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="50" t="s">
         <v>961</v>
       </c>
-      <c r="C321" s="49" t="s">
+      <c r="C321" s="50" t="s">
         <v>962</v>
       </c>
-      <c r="D321" s="49" t="s">
+      <c r="D321" s="50" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B322" s="49" t="s">
+      <c r="A322" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="50" t="s">
         <v>964</v>
       </c>
-      <c r="C322" s="49" t="s">
+      <c r="C322" s="50" t="s">
         <v>965</v>
       </c>
-      <c r="D322" s="49" t="s">
+      <c r="D322" s="50" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="49" t="s">
+      <c r="A323" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="50" t="s">
         <v>967</v>
       </c>
-      <c r="C323" s="49" t="s">
+      <c r="C323" s="50" t="s">
         <v>968</v>
       </c>
-      <c r="D323" s="49" t="s">
+      <c r="D323" s="50" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="49" t="s">
+      <c r="A324" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="50" t="s">
         <v>970</v>
       </c>
-      <c r="C324" s="49" t="s">
+      <c r="C324" s="50" t="s">
         <v>971</v>
       </c>
-      <c r="D324" s="49" t="s">
+      <c r="D324" s="50" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" s="49" t="s">
+      <c r="A325" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="50" t="s">
         <v>973</v>
       </c>
-      <c r="C325" s="49" t="s">
+      <c r="C325" s="50" t="s">
         <v>974</v>
       </c>
-      <c r="D325" s="49" t="s">
+      <c r="D325" s="50" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="49" t="s">
+      <c r="A326" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="50" t="s">
         <v>976</v>
       </c>
-      <c r="C326" s="49" t="s">
+      <c r="C326" s="50" t="s">
         <v>977</v>
       </c>
-      <c r="D326" s="49" t="s">
+      <c r="D326" s="50" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B327" s="49" t="s">
+      <c r="A327" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" s="50" t="s">
         <v>979</v>
       </c>
-      <c r="C327" s="49" t="s">
+      <c r="C327" s="50" t="s">
         <v>980</v>
       </c>
-      <c r="D327" s="49" t="s">
+      <c r="D327" s="50" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B328" s="49" t="s">
+      <c r="A328" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="50" t="s">
         <v>982</v>
       </c>
-      <c r="C328" s="49" t="s">
+      <c r="C328" s="50" t="s">
         <v>983</v>
       </c>
-      <c r="D328" s="49" t="s">
+      <c r="D328" s="50" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="49" t="s">
+      <c r="A329" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="50" t="s">
         <v>985</v>
       </c>
-      <c r="C329" s="49" t="s">
+      <c r="C329" s="50" t="s">
         <v>986</v>
       </c>
-      <c r="D329" s="49" t="s">
+      <c r="D329" s="50" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B330" s="49" t="s">
+      <c r="A330" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="50" t="s">
         <v>988</v>
       </c>
-      <c r="C330" s="49" t="s">
+      <c r="C330" s="50" t="s">
         <v>989</v>
       </c>
-      <c r="D330" s="49" t="s">
+      <c r="D330" s="50" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B331" s="49" t="s">
+      <c r="A331" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="50" t="s">
         <v>991</v>
       </c>
-      <c r="C331" s="49" t="s">
+      <c r="C331" s="50" t="s">
         <v>992</v>
       </c>
-      <c r="D331" s="49" t="s">
+      <c r="D331" s="50" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B332" s="49" t="s">
+      <c r="A332" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="50" t="s">
         <v>994</v>
       </c>
-      <c r="C332" s="49" t="s">
+      <c r="C332" s="50" t="s">
         <v>995</v>
       </c>
-      <c r="D332" s="49" t="s">
+      <c r="D332" s="50" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B333" s="49" t="s">
+      <c r="A333" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="50" t="s">
         <v>997</v>
       </c>
-      <c r="C333" s="49" t="s">
+      <c r="C333" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="D333" s="49" t="s">
+      <c r="D333" s="50" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B334" s="49" t="s">
+      <c r="A334" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" s="50" t="s">
         <v>1000</v>
       </c>
-      <c r="C334" s="49" t="s">
+      <c r="C334" s="50" t="s">
         <v>1001</v>
       </c>
-      <c r="D334" s="49" t="s">
+      <c r="D334" s="50" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B335" s="49" t="s">
+      <c r="A335" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B335" s="50" t="s">
         <v>1003</v>
       </c>
-      <c r="C335" s="49" t="s">
+      <c r="C335" s="50" t="s">
         <v>1004</v>
       </c>
-      <c r="D335" s="49" t="s">
+      <c r="D335" s="50" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B336" s="49" t="s">
+      <c r="A336" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" s="50" t="s">
         <v>1006</v>
       </c>
-      <c r="C336" s="49" t="s">
+      <c r="C336" s="50" t="s">
         <v>1007</v>
       </c>
-      <c r="D336" s="49" t="s">
+      <c r="D336" s="50" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B337" s="49" t="s">
+      <c r="A337" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" s="50" t="s">
         <v>1009</v>
       </c>
-      <c r="C337" s="49" t="s">
+      <c r="C337" s="50" t="s">
         <v>1010</v>
       </c>
-      <c r="D337" s="49" t="s">
+      <c r="D337" s="50" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B338" s="49" t="s">
+      <c r="A338" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" s="50" t="s">
         <v>1012</v>
       </c>
-      <c r="C338" s="49" t="s">
+      <c r="C338" s="50" t="s">
         <v>1013</v>
       </c>
-      <c r="D338" s="49" t="s">
+      <c r="D338" s="50" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B339" s="49" t="s">
+      <c r="A339" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="50" t="s">
         <v>1015</v>
       </c>
-      <c r="C339" s="49" t="s">
+      <c r="C339" s="50" t="s">
         <v>1016</v>
       </c>
-      <c r="D339" s="49" t="s">
+      <c r="D339" s="50" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B340" s="49" t="s">
+      <c r="A340" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B340" s="50" t="s">
         <v>1018</v>
       </c>
-      <c r="C340" s="49" t="s">
+      <c r="C340" s="50" t="s">
         <v>1019</v>
       </c>
-      <c r="D340" s="49" t="s">
+      <c r="D340" s="50" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B341" s="49" t="s">
+      <c r="A341" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341" s="50" t="s">
         <v>1021</v>
       </c>
-      <c r="C341" s="49" t="s">
+      <c r="C341" s="50" t="s">
         <v>1022</v>
       </c>
-      <c r="D341" s="49" t="s">
+      <c r="D341" s="50" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B342" s="49" t="s">
+      <c r="A342" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B342" s="50" t="s">
         <v>1024</v>
       </c>
-      <c r="C342" s="49" t="s">
+      <c r="C342" s="50" t="s">
         <v>1025</v>
       </c>
-      <c r="D342" s="49" t="s">
+      <c r="D342" s="50" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B343" s="49" t="s">
+      <c r="A343" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" s="50" t="s">
         <v>1027</v>
       </c>
-      <c r="C343" s="49" t="s">
+      <c r="C343" s="50" t="s">
         <v>1028</v>
       </c>
-      <c r="D343" s="49" t="s">
+      <c r="D343" s="50" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B344" s="49" t="s">
+      <c r="A344" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B344" s="50" t="s">
         <v>1030</v>
       </c>
-      <c r="C344" s="49" t="s">
+      <c r="C344" s="50" t="s">
         <v>1031</v>
       </c>
-      <c r="D344" s="49" t="s">
+      <c r="D344" s="50" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B345" s="49" t="s">
+      <c r="A345" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345" s="50" t="s">
         <v>1033</v>
       </c>
-      <c r="C345" s="49" t="s">
+      <c r="C345" s="50" t="s">
         <v>1034</v>
       </c>
-      <c r="D345" s="49" t="s">
+      <c r="D345" s="50" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B346" s="49" t="s">
+      <c r="A346" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="50" t="s">
         <v>1036</v>
       </c>
-      <c r="C346" s="49" t="s">
+      <c r="C346" s="50" t="s">
         <v>1037</v>
       </c>
-      <c r="D346" s="49" t="s">
+      <c r="D346" s="50" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B347" s="49" t="s">
+      <c r="A347" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" s="50" t="s">
         <v>1039</v>
       </c>
-      <c r="C347" s="49" t="s">
+      <c r="C347" s="50" t="s">
         <v>1040</v>
       </c>
-      <c r="D347" s="49" t="s">
+      <c r="D347" s="50" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B348" s="49" t="s">
+      <c r="A348" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" s="50" t="s">
         <v>1042</v>
       </c>
-      <c r="C348" s="49" t="s">
+      <c r="C348" s="50" t="s">
         <v>1043</v>
       </c>
-      <c r="D348" s="49" t="s">
+      <c r="D348" s="50" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B349" s="49" t="s">
+      <c r="A349" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" s="50" t="s">
         <v>1045</v>
       </c>
-      <c r="C349" s="49" t="s">
+      <c r="C349" s="50" t="s">
         <v>1046</v>
       </c>
-      <c r="D349" s="49" t="s">
+      <c r="D349" s="50" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B350" s="49" t="s">
+      <c r="A350" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350" s="50" t="s">
         <v>1048</v>
       </c>
-      <c r="C350" s="49" t="s">
+      <c r="C350" s="50" t="s">
         <v>1049</v>
       </c>
-      <c r="D350" s="49" t="s">
+      <c r="D350" s="50" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B351" s="49" t="s">
+      <c r="A351" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" s="50" t="s">
         <v>1051</v>
       </c>
-      <c r="C351" s="49" t="s">
+      <c r="C351" s="50" t="s">
         <v>1052</v>
       </c>
-      <c r="D351" s="49" t="s">
+      <c r="D351" s="50" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B352" s="49" t="s">
+      <c r="A352" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B352" s="50" t="s">
         <v>1054</v>
       </c>
-      <c r="C352" s="49" t="s">
+      <c r="C352" s="50" t="s">
         <v>1055</v>
       </c>
-      <c r="D352" s="49" t="s">
+      <c r="D352" s="50" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B353" s="49" t="s">
+      <c r="A353" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" s="50" t="s">
         <v>1057</v>
       </c>
-      <c r="C353" s="49" t="s">
+      <c r="C353" s="50" t="s">
         <v>1058</v>
       </c>
-      <c r="D353" s="49" t="s">
+      <c r="D353" s="50" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B354" s="49" t="s">
+      <c r="A354" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B354" s="50" t="s">
         <v>1060</v>
       </c>
-      <c r="C354" s="49" t="s">
+      <c r="C354" s="50" t="s">
         <v>1061</v>
       </c>
-      <c r="D354" s="49" t="s">
+      <c r="D354" s="50" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B355" s="49" t="s">
+      <c r="A355" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B355" s="50" t="s">
         <v>1063</v>
       </c>
-      <c r="C355" s="49" t="s">
+      <c r="C355" s="50" t="s">
         <v>1064</v>
       </c>
-      <c r="D355" s="49" t="s">
+      <c r="D355" s="50" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B356" s="49" t="s">
+      <c r="A356" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356" s="50" t="s">
         <v>1066</v>
       </c>
-      <c r="C356" s="49" t="s">
+      <c r="C356" s="50" t="s">
         <v>1067</v>
       </c>
-      <c r="D356" s="49" t="s">
+      <c r="D356" s="50" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B357" s="49" t="s">
+      <c r="A357" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" s="50" t="s">
         <v>1069</v>
       </c>
-      <c r="C357" s="49" t="s">
+      <c r="C357" s="50" t="s">
         <v>1070</v>
       </c>
-      <c r="D357" s="49" t="s">
+      <c r="D357" s="50" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B358" s="49" t="s">
+      <c r="A358" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358" s="50" t="s">
         <v>1072</v>
       </c>
-      <c r="C358" s="49" t="s">
+      <c r="C358" s="50" t="s">
         <v>1073</v>
       </c>
-      <c r="D358" s="49" t="s">
+      <c r="D358" s="50" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B359" s="49" t="s">
+      <c r="A359" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359" s="50" t="s">
         <v>1075</v>
       </c>
-      <c r="C359" s="49" t="s">
+      <c r="C359" s="50" t="s">
         <v>1076</v>
       </c>
-      <c r="D359" s="49" t="s">
+      <c r="D359" s="50" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B360" s="49" t="s">
+      <c r="A360" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B360" s="50" t="s">
         <v>1078</v>
       </c>
-      <c r="C360" s="49" t="s">
+      <c r="C360" s="50" t="s">
         <v>1079</v>
       </c>
-      <c r="D360" s="49" t="s">
+      <c r="D360" s="50" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B361" s="49" t="s">
+      <c r="A361" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="50" t="s">
         <v>1081</v>
       </c>
-      <c r="C361" s="49" t="s">
+      <c r="C361" s="50" t="s">
         <v>1082</v>
       </c>
-      <c r="D361" s="49" t="s">
+      <c r="D361" s="50" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B362" s="49" t="s">
+      <c r="A362" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B362" s="50" t="s">
         <v>1084</v>
       </c>
-      <c r="C362" s="49" t="s">
+      <c r="C362" s="50" t="s">
         <v>1085</v>
       </c>
-      <c r="D362" s="49" t="s">
+      <c r="D362" s="50" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B363" s="49" t="s">
+      <c r="A363" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B363" s="50" t="s">
         <v>1087</v>
       </c>
-      <c r="C363" s="49" t="s">
+      <c r="C363" s="50" t="s">
         <v>1088</v>
       </c>
-      <c r="D363" s="49" t="s">
+      <c r="D363" s="50" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B364" s="49" t="s">
+      <c r="A364" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B364" s="50" t="s">
         <v>1090</v>
       </c>
-      <c r="C364" s="49" t="s">
+      <c r="C364" s="50" t="s">
         <v>1091</v>
       </c>
-      <c r="D364" s="49" t="s">
+      <c r="D364" s="50" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B365" s="49" t="s">
+      <c r="A365" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B365" s="50" t="s">
         <v>1093</v>
       </c>
-      <c r="C365" s="49" t="s">
+      <c r="C365" s="50" t="s">
         <v>1094</v>
       </c>
-      <c r="D365" s="49" t="s">
+      <c r="D365" s="50" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B366" s="49" t="s">
+      <c r="A366" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B366" s="50" t="s">
         <v>1096</v>
       </c>
-      <c r="C366" s="49" t="s">
+      <c r="C366" s="50" t="s">
         <v>1097</v>
       </c>
-      <c r="D366" s="49" t="s">
+      <c r="D366" s="50" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B367" s="49" t="s">
+      <c r="A367" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="50" t="s">
         <v>1099</v>
       </c>
-      <c r="C367" s="49" t="s">
+      <c r="C367" s="50" t="s">
         <v>1100</v>
       </c>
-      <c r="D367" s="49" t="s">
+      <c r="D367" s="50" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B368" s="49" t="s">
+      <c r="A368" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B368" s="50" t="s">
         <v>1102</v>
       </c>
-      <c r="C368" s="49" t="s">
+      <c r="C368" s="50" t="s">
         <v>1103</v>
       </c>
-      <c r="D368" s="49" t="s">
+      <c r="D368" s="50" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B369" s="49" t="s">
+      <c r="A369" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369" s="50" t="s">
         <v>1105</v>
       </c>
-      <c r="C369" s="49" t="s">
+      <c r="C369" s="50" t="s">
         <v>1106</v>
       </c>
-      <c r="D369" s="49" t="s">
+      <c r="D369" s="50" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B370" s="49" t="s">
+      <c r="A370" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="50" t="s">
         <v>1108</v>
       </c>
-      <c r="C370" s="49" t="s">
+      <c r="C370" s="50" t="s">
         <v>1109</v>
       </c>
-      <c r="D370" s="49" t="s">
+      <c r="D370" s="50" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B371" s="49" t="s">
+      <c r="A371" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371" s="50" t="s">
         <v>1111</v>
       </c>
-      <c r="C371" s="49" t="s">
+      <c r="C371" s="50" t="s">
         <v>1112</v>
       </c>
-      <c r="D371" s="49" t="s">
+      <c r="D371" s="50" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B372" s="49" t="s">
+      <c r="A372" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B372" s="50" t="s">
         <v>1114</v>
       </c>
-      <c r="C372" s="49" t="s">
+      <c r="C372" s="50" t="s">
         <v>1115</v>
       </c>
-      <c r="D372" s="49" t="s">
+      <c r="D372" s="50" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B373" s="49" t="s">
+      <c r="A373" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B373" s="50" t="s">
         <v>1117</v>
       </c>
-      <c r="C373" s="49" t="s">
+      <c r="C373" s="50" t="s">
         <v>1118</v>
       </c>
-      <c r="D373" s="49" t="s">
+      <c r="D373" s="50" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B374" s="49" t="s">
+      <c r="A374" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B374" s="50" t="s">
         <v>1120</v>
       </c>
-      <c r="C374" s="49" t="s">
+      <c r="C374" s="50" t="s">
         <v>1121</v>
       </c>
-      <c r="D374" s="49" t="s">
+      <c r="D374" s="50" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B375" s="49" t="s">
+      <c r="A375" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B375" s="50" t="s">
         <v>1123</v>
       </c>
-      <c r="C375" s="49" t="s">
+      <c r="C375" s="50" t="s">
         <v>1124</v>
       </c>
-      <c r="D375" s="49" t="s">
+      <c r="D375" s="50" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B376" s="49" t="s">
+      <c r="A376" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" s="50" t="s">
         <v>1126</v>
       </c>
-      <c r="C376" s="49" t="s">
+      <c r="C376" s="50" t="s">
         <v>1127</v>
       </c>
-      <c r="D376" s="49" t="s">
+      <c r="D376" s="50" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B377" s="49" t="s">
+      <c r="A377" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B377" s="50" t="s">
         <v>1129</v>
       </c>
-      <c r="C377" s="49" t="s">
+      <c r="C377" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="D377" s="49" t="s">
+      <c r="D377" s="50" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B378" s="49" t="s">
+      <c r="A378" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378" s="50" t="s">
         <v>1132</v>
       </c>
-      <c r="C378" s="49" t="s">
+      <c r="C378" s="50" t="s">
         <v>1133</v>
       </c>
-      <c r="D378" s="49" t="s">
+      <c r="D378" s="50" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B379" s="49" t="s">
+      <c r="A379" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B379" s="50" t="s">
         <v>1135</v>
       </c>
-      <c r="C379" s="49" t="s">
+      <c r="C379" s="50" t="s">
         <v>1136</v>
       </c>
-      <c r="D379" s="49" t="s">
+      <c r="D379" s="50" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B380" s="49" t="s">
+      <c r="A380" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380" s="50" t="s">
         <v>1138</v>
       </c>
-      <c r="C380" s="49" t="s">
+      <c r="C380" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="D380" s="49" t="s">
+      <c r="D380" s="50" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B381" s="49" t="s">
+      <c r="A381" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B381" s="50" t="s">
         <v>1141</v>
       </c>
-      <c r="C381" s="49" t="s">
+      <c r="C381" s="50" t="s">
         <v>1142</v>
       </c>
-      <c r="D381" s="49" t="s">
+      <c r="D381" s="50" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B382" s="49" t="s">
+      <c r="A382" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382" s="50" t="s">
         <v>1144</v>
       </c>
-      <c r="C382" s="49" t="s">
+      <c r="C382" s="50" t="s">
         <v>1145</v>
       </c>
-      <c r="D382" s="49" t="s">
+      <c r="D382" s="50" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B383" s="49" t="s">
+      <c r="A383" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383" s="50" t="s">
         <v>1147</v>
       </c>
-      <c r="C383" s="49" t="s">
+      <c r="C383" s="50" t="s">
         <v>1148</v>
       </c>
-      <c r="D383" s="49" t="s">
+      <c r="D383" s="50" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B384" s="49" t="s">
+      <c r="A384" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384" s="50" t="s">
         <v>1150</v>
       </c>
-      <c r="C384" s="49" t="s">
+      <c r="C384" s="50" t="s">
         <v>1151</v>
       </c>
-      <c r="D384" s="49" t="s">
+      <c r="D384" s="50" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B385" s="49" t="s">
+      <c r="A385" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385" s="50" t="s">
         <v>1153</v>
       </c>
-      <c r="C385" s="49" t="s">
+      <c r="C385" s="50" t="s">
         <v>1154</v>
       </c>
-      <c r="D385" s="49" t="s">
+      <c r="D385" s="50" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B386" s="49" t="s">
+      <c r="A386" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B386" s="50" t="s">
         <v>1156</v>
       </c>
-      <c r="C386" s="49" t="s">
+      <c r="C386" s="50" t="s">
         <v>1157</v>
       </c>
-      <c r="D386" s="49" t="s">
+      <c r="D386" s="50" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B387" s="49" t="s">
+      <c r="A387" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B387" s="50" t="s">
         <v>1159</v>
       </c>
-      <c r="C387" s="49" t="s">
+      <c r="C387" s="50" t="s">
         <v>1160</v>
       </c>
-      <c r="D387" s="49" t="s">
+      <c r="D387" s="50" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B388" s="49" t="s">
+      <c r="A388" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="50" t="s">
         <v>1162</v>
       </c>
-      <c r="C388" s="49" t="s">
+      <c r="C388" s="50" t="s">
         <v>1163</v>
       </c>
-      <c r="D388" s="49" t="s">
+      <c r="D388" s="50" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B389" s="49" t="s">
+      <c r="A389" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="50" t="s">
         <v>1165</v>
       </c>
-      <c r="C389" s="49" t="s">
+      <c r="C389" s="50" t="s">
         <v>1166</v>
       </c>
-      <c r="D389" s="49" t="s">
+      <c r="D389" s="50" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B390" s="49" t="s">
+      <c r="A390" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" s="50" t="s">
         <v>1168</v>
       </c>
-      <c r="C390" s="49" t="s">
+      <c r="C390" s="50" t="s">
         <v>1169</v>
       </c>
-      <c r="D390" s="49" t="s">
+      <c r="D390" s="50" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B391" s="49" t="s">
+      <c r="A391" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" s="50" t="s">
         <v>1171</v>
       </c>
-      <c r="C391" s="49" t="s">
+      <c r="C391" s="50" t="s">
         <v>1172</v>
       </c>
-      <c r="D391" s="49" t="s">
+      <c r="D391" s="50" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B392" s="49" t="s">
+      <c r="A392" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" s="50" t="s">
         <v>1174</v>
       </c>
-      <c r="C392" s="49" t="s">
+      <c r="C392" s="50" t="s">
         <v>1175</v>
       </c>
-      <c r="D392" s="49" t="s">
+      <c r="D392" s="50" t="s">
         <v>1176</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B393" s="49" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C393" s="50" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D393" s="50" t="s">
+        <v>1179</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/AssetCfg.xlsx
+++ b/Misc/Excel/AssetCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1195">
   <si>
     <t>${name}</t>
   </si>
@@ -1094,6 +1094,15 @@
     <t>Assets/Resources/Anim/Battle_parryright.FBX</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Pre_PlayerEntity3</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/PlayerEntity3.prefab</t>
+  </si>
+  <si>
     <t>115</t>
   </si>
   <si>
@@ -1679,6 +1688,15 @@
     <t>Assets/Resources/Anim/Jump_fall_end_H.FBX</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Sp_Icon_BlurWarrior</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Images/Icon_BlurWarrior.png</t>
+  </si>
+  <si>
     <t>181</t>
   </si>
   <si>
@@ -1686,6 +1704,33 @@
   </si>
   <si>
     <t>Assets/Resources/Anim/Jump_fall_end_L.FBX</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>Sp_Icon_Pastor</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Images/Icon_Pastor.png</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>Sp_Icon_Warrior</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Images/Icon_Warrior.png</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>Anim_OriginFBX</t>
+  </si>
+  <si>
+    <t>Assets/Abbresources/Perfabs/Character/Player1/OriginFBX.FBX</t>
   </si>
   <si>
     <t>185</t>
@@ -4178,7 +4223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4324,6 +4369,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -4689,7 +4737,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A106" sqref="$A106:$XFD109"/>
@@ -4697,5506 +4745,5576 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="50"/>
-    <col min="4" max="4" width="100" customWidth="1" style="50"/>
+    <col min="3" max="3" width="39.5833333333333" customWidth="1" style="51"/>
+    <col min="4" max="4" width="100" customWidth="1" style="51"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6">
-      <c r="A6" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="51" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="51" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="51" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="51" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="51" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="51" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="52" t="s">
+      <c r="A23" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="51" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="52" t="s">
+      <c r="A26" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="51" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="51" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="51" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="51" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="51" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="51" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="51" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="51" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="51" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="50" t="s">
+      <c r="A44" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="50" t="s">
+      <c r="A45" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="51" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="51" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="50" t="s">
+      <c r="A48" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="51" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="50" t="s">
+      <c r="A49" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="50" t="s">
+      <c r="A50" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="51" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="50" t="s">
+      <c r="A51" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="50" t="s">
+      <c r="A52" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="51" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="50" t="s">
+      <c r="A53" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="51" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="50" t="s">
+      <c r="A54" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="51" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="50" t="s">
+      <c r="A55" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="51" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="51" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="50" t="s">
+      <c r="A57" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="51" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="51" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="50" t="s">
+      <c r="A59" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="51" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="50" t="s">
+      <c r="A60" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="51" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="51" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="51" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="50" t="s">
+      <c r="A64" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="51" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="50" t="s">
+      <c r="A65" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="51" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="50" t="s">
+      <c r="A66" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D66" s="51" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="50" t="s">
+      <c r="A67" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="51" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="50" t="s">
+      <c r="A68" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="51" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="50" t="s">
+      <c r="A69" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="51" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="50" t="s">
+      <c r="A70" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="51" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="50" t="s">
+      <c r="A72" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="50" t="s">
+      <c r="A73" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="50" t="s">
+      <c r="A74" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="51" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="50" t="s">
+      <c r="A75" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="51" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="50" t="s">
+      <c r="A77" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="51" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="50" t="s">
+      <c r="A78" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="51" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="50" t="s">
+      <c r="A79" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="51" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="50" t="s">
+      <c r="A80" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="D80" s="51" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="50" t="s">
+      <c r="A81" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="51" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="50" t="s">
+      <c r="A82" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="51" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="50" t="s">
+      <c r="A83" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="50" t="s">
+      <c r="D83" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="51" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="50" t="s">
+      <c r="A85" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="51" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="50" t="s">
+      <c r="A86" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="51" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="50" t="s">
+      <c r="A87" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="51" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="50" t="s">
+      <c r="A88" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="51" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="50" t="s">
+      <c r="A89" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="51" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="50" t="s">
+      <c r="A90" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="51" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="50" t="s">
+      <c r="A91" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="51" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="50" t="s">
+      <c r="A92" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C92" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="51" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="50" t="s">
+      <c r="A93" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="51" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="50" t="s">
+      <c r="A94" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="51" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="50" t="s">
+      <c r="A95" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="51" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="50" t="s">
+      <c r="A96" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="51" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="50" t="s">
+      <c r="A97" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="51" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="51" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="51" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="50" t="s">
+      <c r="A100" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="51" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="50" t="s">
+      <c r="A101" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="51" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="50" t="s">
+      <c r="A102" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="51" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="50" t="s">
+      <c r="A103" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="50" t="s">
+      <c r="C103" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="51" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="50" t="s">
+      <c r="A104" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="50" t="s">
+      <c r="C104" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="51" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="50" t="s">
+      <c r="A105" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="50" t="s">
+      <c r="A106" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="50" t="s">
+      <c r="C106" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="50" t="s">
+      <c r="D106" s="51" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="50" t="s">
+      <c r="A107" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="50" t="s">
+      <c r="C107" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="50" t="s">
+      <c r="A108" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="51" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="50" t="s">
+      <c r="A109" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="C109" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="51" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="50" t="s">
+      <c r="A110" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="51" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="50" t="s">
+      <c r="A111" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="51" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="50" t="s">
+      <c r="A112" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C112" s="50" t="s">
+      <c r="C112" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="50" t="s">
+      <c r="A113" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="50" t="s">
+      <c r="C113" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="51" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="50" t="s">
+      <c r="A114" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="50" t="s">
+      <c r="C114" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D114" s="51" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="50" t="s">
+      <c r="A115" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="51" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="50" t="s">
+      <c r="A116" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="50" t="s">
+      <c r="C116" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="D116" s="50" t="s">
+      <c r="D116" s="51" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="50" t="s">
+      <c r="A117" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="50" t="s">
+      <c r="C117" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="D117" s="50" t="s">
+      <c r="D117" s="51" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="50" t="s">
+      <c r="A118" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="50" t="s">
+      <c r="C118" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="50" t="s">
+      <c r="D118" s="51" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="50" t="s">
+      <c r="A119" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C119" s="50" t="s">
+      <c r="C119" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="D119" s="51" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="50" t="s">
+      <c r="A120" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C120" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="51" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="50" t="s">
+      <c r="A121" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="C121" s="50" t="s">
+      <c r="C121" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="51" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="50" t="s">
+      <c r="A122" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="50" t="s">
+      <c r="C122" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="51" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="50" t="s">
+      <c r="A123" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="50" t="s">
+      <c r="C123" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="51" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="50" t="s">
+      <c r="A124" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="C124" s="50" t="s">
+      <c r="C124" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="51" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="50" t="s">
+      <c r="A125" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="C125" s="50" t="s">
+      <c r="C125" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="51" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="50" t="s">
+      <c r="A126" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="50" t="s">
+      <c r="D126" s="51" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="50" t="s">
+      <c r="A127" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="50" t="s">
+      <c r="C127" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="51" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="50" t="s">
+      <c r="A128" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="50" t="s">
+      <c r="C128" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="51" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="50" t="s">
+      <c r="A129" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C129" s="50" t="s">
+      <c r="C129" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="51" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="50" t="s">
+      <c r="A130" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C130" s="50" t="s">
+      <c r="C130" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="50" t="s">
+      <c r="D130" s="51" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="50" t="s">
+      <c r="A131" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="C131" s="50" t="s">
+      <c r="C131" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="D131" s="50" t="s">
+      <c r="D131" s="51" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="50" t="s">
+      <c r="A132" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="C132" s="50" t="s">
+      <c r="C132" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="50" t="s">
+      <c r="D132" s="51" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="50" t="s">
+      <c r="A133" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="50" t="s">
+      <c r="C133" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="D133" s="50" t="s">
+      <c r="D133" s="51" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="50" t="s">
+      <c r="A134" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C134" s="50" t="s">
+      <c r="C134" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="D134" s="50" t="s">
+      <c r="D134" s="51" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="50" t="s">
+      <c r="A135" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="50" t="s">
+      <c r="C135" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="D135" s="50" t="s">
+      <c r="D135" s="51" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="50" t="s">
+      <c r="A136" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="C136" s="50" t="s">
+      <c r="C136" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="D136" s="50" t="s">
+      <c r="D136" s="51" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="50" t="s">
+      <c r="A137" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="C137" s="50" t="s">
+      <c r="C137" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="D137" s="50" t="s">
+      <c r="D137" s="51" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="50" t="s">
+      <c r="A138" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="C138" s="50" t="s">
+      <c r="C138" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="51" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="50" t="s">
+      <c r="A139" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="C139" s="50" t="s">
+      <c r="C139" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="D139" s="50" t="s">
+      <c r="D139" s="51" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="50" t="s">
+      <c r="A140" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="C140" s="50" t="s">
+      <c r="C140" s="51" t="s">
         <v>419</v>
       </c>
-      <c r="D140" s="50" t="s">
+      <c r="D140" s="51" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="50" t="s">
+      <c r="A141" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="C141" s="50" t="s">
+      <c r="C141" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="D141" s="50" t="s">
+      <c r="D141" s="51" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="50" t="s">
+      <c r="A142" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="C142" s="50" t="s">
+      <c r="C142" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="D142" s="50" t="s">
+      <c r="D142" s="51" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="50" t="s">
+      <c r="A143" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="C143" s="50" t="s">
+      <c r="C143" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="51" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="50" t="s">
+      <c r="A144" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="C144" s="51" t="s">
         <v>431</v>
       </c>
-      <c r="D144" s="50" t="s">
+      <c r="D144" s="51" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="50" t="s">
+      <c r="A145" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="C145" s="50" t="s">
+      <c r="C145" s="51" t="s">
         <v>434</v>
       </c>
-      <c r="D145" s="50" t="s">
+      <c r="D145" s="51" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="50" t="s">
+      <c r="A146" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="C146" s="50" t="s">
+      <c r="C146" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="51" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="50" t="s">
+      <c r="A147" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="51" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="50" t="s">
+      <c r="A148" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="C148" s="50" t="s">
+      <c r="C148" s="51" t="s">
         <v>443</v>
       </c>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="51" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="50" t="s">
+      <c r="A149" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="C149" s="50" t="s">
+      <c r="C149" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="D149" s="50" t="s">
+      <c r="D149" s="51" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="50" t="s">
+      <c r="A150" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="C150" s="50" t="s">
+      <c r="C150" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="D150" s="50" t="s">
+      <c r="D150" s="51" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="50" t="s">
+      <c r="A151" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="C151" s="50" t="s">
+      <c r="C151" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="D151" s="50" t="s">
+      <c r="D151" s="51" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="50" t="s">
+      <c r="A152" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="51" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="50" t="s">
+      <c r="C152" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="D152" s="50" t="s">
+      <c r="D152" s="51" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="50" t="s">
+      <c r="A153" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="C153" s="50" t="s">
+      <c r="C153" s="51" t="s">
         <v>458</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D153" s="51" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B154" s="50" t="s">
+      <c r="A154" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="C154" s="50" t="s">
+      <c r="C154" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="D154" s="50" t="s">
+      <c r="D154" s="51" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" s="50" t="s">
+      <c r="A155" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="C155" s="50" t="s">
+      <c r="C155" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="D155" s="50" t="s">
+      <c r="D155" s="51" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B156" s="50" t="s">
+      <c r="A156" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="C156" s="50" t="s">
+      <c r="C156" s="51" t="s">
         <v>467</v>
       </c>
-      <c r="D156" s="50" t="s">
+      <c r="D156" s="51" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="50" t="s">
+      <c r="A157" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="C157" s="50" t="s">
+      <c r="C157" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="D157" s="50" t="s">
+      <c r="D157" s="51" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="50" t="s">
+      <c r="A158" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="C158" s="50" t="s">
+      <c r="C158" s="51" t="s">
         <v>473</v>
       </c>
-      <c r="D158" s="50" t="s">
+      <c r="D158" s="51" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B159" s="50" t="s">
+      <c r="A159" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="C159" s="50" t="s">
+      <c r="C159" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="D159" s="50" t="s">
+      <c r="D159" s="51" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B160" s="50" t="s">
+      <c r="A160" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="C160" s="50" t="s">
+      <c r="C160" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="D160" s="50" t="s">
+      <c r="D160" s="51" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B161" s="50" t="s">
+      <c r="A161" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="C161" s="50" t="s">
+      <c r="C161" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="D161" s="50" t="s">
+      <c r="D161" s="51" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162" s="50" t="s">
+      <c r="A162" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="C162" s="50" t="s">
+      <c r="C162" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="D162" s="50" t="s">
+      <c r="D162" s="51" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="50" t="s">
+      <c r="A163" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="C163" s="50" t="s">
+      <c r="C163" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="51" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B164" s="50" t="s">
+      <c r="A164" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="51" t="s">
         <v>490</v>
       </c>
-      <c r="C164" s="50" t="s">
+      <c r="C164" s="51" t="s">
         <v>491</v>
       </c>
-      <c r="D164" s="50" t="s">
+      <c r="D164" s="51" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B165" s="50" t="s">
+      <c r="A165" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="C165" s="50" t="s">
+      <c r="C165" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="D165" s="50" t="s">
+      <c r="D165" s="51" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" s="50" t="s">
+      <c r="A166" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="C166" s="50" t="s">
+      <c r="C166" s="51" t="s">
         <v>497</v>
       </c>
-      <c r="D166" s="50" t="s">
+      <c r="D166" s="51" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="50" t="s">
+      <c r="A167" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="C167" s="50" t="s">
+      <c r="C167" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="D167" s="50" t="s">
+      <c r="D167" s="51" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="50" t="s">
+      <c r="A168" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="C168" s="50" t="s">
+      <c r="C168" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="D168" s="50" t="s">
+      <c r="D168" s="51" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" s="50" t="s">
+      <c r="A169" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" s="51" t="s">
         <v>505</v>
       </c>
-      <c r="C169" s="50" t="s">
+      <c r="C169" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="D169" s="50" t="s">
+      <c r="D169" s="51" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="50" t="s">
+      <c r="A170" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="C170" s="50" t="s">
+      <c r="C170" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="D170" s="50" t="s">
+      <c r="D170" s="51" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B171" s="50" t="s">
+      <c r="A171" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="C171" s="50" t="s">
+      <c r="C171" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="D171" s="50" t="s">
+      <c r="D171" s="51" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="50" t="s">
+      <c r="A172" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="C172" s="50" t="s">
+      <c r="C172" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="D172" s="50" t="s">
+      <c r="D172" s="51" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B173" s="50" t="s">
+      <c r="A173" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B173" s="51" t="s">
         <v>517</v>
       </c>
-      <c r="C173" s="50" t="s">
+      <c r="C173" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="51" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B174" s="50" t="s">
+      <c r="A174" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="C174" s="50" t="s">
+      <c r="C174" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="D174" s="50" t="s">
+      <c r="D174" s="51" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" s="50" t="s">
+      <c r="A175" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" s="51" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="50" t="s">
+      <c r="C175" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="D175" s="50" t="s">
+      <c r="D175" s="51" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B176" s="50" t="s">
+      <c r="A176" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="C176" s="50" t="s">
+      <c r="C176" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="51" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B177" s="50" t="s">
+      <c r="A177" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B177" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="C177" s="50" t="s">
+      <c r="C177" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="D177" s="50" t="s">
+      <c r="D177" s="51" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="50" t="s">
+      <c r="A178" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="C178" s="50" t="s">
+      <c r="C178" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="D178" s="50" t="s">
+      <c r="D178" s="51" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B179" s="50" t="s">
+      <c r="A179" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="C179" s="50" t="s">
+      <c r="C179" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="D179" s="50" t="s">
+      <c r="D179" s="51" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B180" s="50" t="s">
+      <c r="A180" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="C180" s="50" t="s">
+      <c r="C180" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="D180" s="50" t="s">
+      <c r="D180" s="51" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B181" s="50" t="s">
+      <c r="A181" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" s="51" t="s">
         <v>541</v>
       </c>
-      <c r="C181" s="50" t="s">
+      <c r="C181" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="D181" s="50" t="s">
+      <c r="D181" s="51" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="50" t="s">
+      <c r="A182" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="51" t="s">
         <v>544</v>
       </c>
-      <c r="C182" s="50" t="s">
+      <c r="C182" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="D182" s="50" t="s">
+      <c r="D182" s="51" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="50" t="s">
+      <c r="A183" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="51" t="s">
         <v>547</v>
       </c>
-      <c r="C183" s="50" t="s">
+      <c r="C183" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="D183" s="50" t="s">
+      <c r="D183" s="51" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B184" s="50" t="s">
+      <c r="A184" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="C184" s="50" t="s">
+      <c r="C184" s="51" t="s">
         <v>551</v>
       </c>
-      <c r="D184" s="50" t="s">
+      <c r="D184" s="51" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B185" s="50" t="s">
+      <c r="A185" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="C185" s="50" t="s">
+      <c r="C185" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="D185" s="50" t="s">
+      <c r="D185" s="51" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B186" s="50" t="s">
+      <c r="A186" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="C186" s="50" t="s">
+      <c r="C186" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="D186" s="50" t="s">
+      <c r="D186" s="51" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B187" s="50" t="s">
+      <c r="A187" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="C187" s="50" t="s">
+      <c r="C187" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="D187" s="50" t="s">
+      <c r="D187" s="51" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" s="50" t="s">
+      <c r="A188" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="C188" s="50" t="s">
+      <c r="C188" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="D188" s="50" t="s">
+      <c r="D188" s="51" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B189" s="50" t="s">
+      <c r="A189" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" s="51" t="s">
         <v>565</v>
       </c>
-      <c r="C189" s="50" t="s">
+      <c r="C189" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="D189" s="50" t="s">
+      <c r="D189" s="51" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B190" s="50" t="s">
+      <c r="A190" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="C190" s="50" t="s">
+      <c r="C190" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="D190" s="50" t="s">
+      <c r="D190" s="51" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B191" s="50" t="s">
+      <c r="A191" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B191" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="C191" s="50" t="s">
+      <c r="C191" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="D191" s="50" t="s">
+      <c r="D191" s="51" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B192" s="50" t="s">
+      <c r="A192" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="C192" s="50" t="s">
+      <c r="C192" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="D192" s="50" t="s">
+      <c r="D192" s="51" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="50" t="s">
+      <c r="A193" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193" s="51" t="s">
         <v>577</v>
       </c>
-      <c r="C193" s="50" t="s">
+      <c r="C193" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="D193" s="50" t="s">
+      <c r="D193" s="51" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="50" t="s">
+      <c r="A194" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="C194" s="50" t="s">
+      <c r="C194" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="D194" s="50" t="s">
+      <c r="D194" s="51" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B195" s="50" t="s">
+      <c r="A195" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="C195" s="50" t="s">
+      <c r="C195" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="D195" s="50" t="s">
+      <c r="D195" s="51" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B196" s="50" t="s">
+      <c r="A196" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="C196" s="50" t="s">
+      <c r="C196" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="D196" s="50" t="s">
+      <c r="D196" s="51" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B197" s="50" t="s">
+      <c r="A197" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="C197" s="50" t="s">
+      <c r="C197" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="D197" s="50" t="s">
+      <c r="D197" s="51" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" s="50" t="s">
+      <c r="A198" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="C198" s="50" t="s">
+      <c r="C198" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="D198" s="50" t="s">
+      <c r="D198" s="51" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" s="50" t="s">
+      <c r="A199" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="C199" s="50" t="s">
+      <c r="C199" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="D199" s="50" t="s">
+      <c r="D199" s="51" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" s="50" t="s">
+      <c r="A200" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="51" t="s">
         <v>598</v>
       </c>
-      <c r="C200" s="50" t="s">
+      <c r="C200" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="D200" s="50" t="s">
+      <c r="D200" s="51" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B201" s="50" t="s">
+      <c r="A201" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="C201" s="50" t="s">
+      <c r="C201" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="D201" s="50" t="s">
+      <c r="D201" s="51" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="50" t="s">
+      <c r="A202" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="C202" s="50" t="s">
+      <c r="C202" s="51" t="s">
         <v>605</v>
       </c>
-      <c r="D202" s="50" t="s">
+      <c r="D202" s="51" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B203" s="50" t="s">
+      <c r="A203" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" s="51" t="s">
         <v>607</v>
       </c>
-      <c r="C203" s="50" t="s">
+      <c r="C203" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="D203" s="50" t="s">
+      <c r="D203" s="51" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B204" s="50" t="s">
+      <c r="A204" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="C204" s="50" t="s">
+      <c r="C204" s="51" t="s">
         <v>611</v>
       </c>
-      <c r="D204" s="50" t="s">
+      <c r="D204" s="51" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B205" s="50" t="s">
+      <c r="A205" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="51" t="s">
         <v>613</v>
       </c>
-      <c r="C205" s="50" t="s">
+      <c r="C205" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="D205" s="50" t="s">
+      <c r="D205" s="51" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="50" t="s">
+      <c r="A206" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="C206" s="50" t="s">
+      <c r="C206" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="D206" s="50" t="s">
+      <c r="D206" s="51" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B207" s="50" t="s">
+      <c r="A207" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="C207" s="50" t="s">
+      <c r="C207" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D207" s="50" t="s">
+      <c r="D207" s="51" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B208" s="50" t="s">
+      <c r="A208" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" s="51" t="s">
         <v>622</v>
       </c>
-      <c r="C208" s="50" t="s">
+      <c r="C208" s="51" t="s">
         <v>623</v>
       </c>
-      <c r="D208" s="50" t="s">
+      <c r="D208" s="51" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B209" s="50" t="s">
+      <c r="A209" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="C209" s="50" t="s">
+      <c r="C209" s="51" t="s">
         <v>626</v>
       </c>
-      <c r="D209" s="50" t="s">
+      <c r="D209" s="51" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="50" t="s">
+      <c r="A210" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="C210" s="50" t="s">
+      <c r="C210" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="D210" s="50" t="s">
+      <c r="D210" s="51" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B211" s="50" t="s">
+      <c r="A211" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="C211" s="50" t="s">
+      <c r="C211" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="D211" s="50" t="s">
+      <c r="D211" s="51" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B212" s="50" t="s">
+      <c r="A212" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="C212" s="50" t="s">
+      <c r="C212" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="D212" s="50" t="s">
+      <c r="D212" s="51" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B213" s="50" t="s">
+      <c r="A213" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="C213" s="50" t="s">
+      <c r="C213" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="D213" s="50" t="s">
+      <c r="D213" s="51" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B214" s="50" t="s">
+      <c r="A214" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="C214" s="50" t="s">
+      <c r="C214" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="D214" s="50" t="s">
+      <c r="D214" s="51" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B215" s="50" t="s">
+      <c r="A215" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" s="51" t="s">
         <v>643</v>
       </c>
-      <c r="C215" s="50" t="s">
+      <c r="C215" s="51" t="s">
         <v>644</v>
       </c>
-      <c r="D215" s="50" t="s">
+      <c r="D215" s="51" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" s="50" t="s">
+      <c r="A216" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="51" t="s">
         <v>646</v>
       </c>
-      <c r="C216" s="50" t="s">
+      <c r="C216" s="51" t="s">
         <v>647</v>
       </c>
-      <c r="D216" s="50" t="s">
+      <c r="D216" s="51" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B217" s="50" t="s">
+      <c r="A217" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" s="51" t="s">
         <v>649</v>
       </c>
-      <c r="C217" s="50" t="s">
+      <c r="C217" s="51" t="s">
         <v>650</v>
       </c>
-      <c r="D217" s="50" t="s">
+      <c r="D217" s="51" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="50" t="s">
+      <c r="A218" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="C218" s="50" t="s">
+      <c r="C218" s="51" t="s">
         <v>653</v>
       </c>
-      <c r="D218" s="50" t="s">
+      <c r="D218" s="51" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B219" s="50" t="s">
+      <c r="A219" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B219" s="51" t="s">
         <v>655</v>
       </c>
-      <c r="C219" s="50" t="s">
+      <c r="C219" s="51" t="s">
         <v>656</v>
       </c>
-      <c r="D219" s="50" t="s">
+      <c r="D219" s="51" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" s="50" t="s">
+      <c r="A220" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B220" s="51" t="s">
         <v>658</v>
       </c>
-      <c r="C220" s="50" t="s">
+      <c r="C220" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="D220" s="50" t="s">
+      <c r="D220" s="51" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B221" s="50" t="s">
+      <c r="A221" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B221" s="51" t="s">
         <v>661</v>
       </c>
-      <c r="C221" s="50" t="s">
+      <c r="C221" s="51" t="s">
         <v>662</v>
       </c>
-      <c r="D221" s="50" t="s">
+      <c r="D221" s="51" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B222" s="50" t="s">
+      <c r="A222" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="C222" s="50" t="s">
+      <c r="C222" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="D222" s="50" t="s">
+      <c r="D222" s="51" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B223" s="50" t="s">
+      <c r="A223" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B223" s="51" t="s">
         <v>667</v>
       </c>
-      <c r="C223" s="50" t="s">
+      <c r="C223" s="51" t="s">
         <v>668</v>
       </c>
-      <c r="D223" s="50" t="s">
+      <c r="D223" s="51" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B224" s="50" t="s">
+      <c r="A224" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B224" s="51" t="s">
         <v>670</v>
       </c>
-      <c r="C224" s="50" t="s">
+      <c r="C224" s="51" t="s">
         <v>671</v>
       </c>
-      <c r="D224" s="50" t="s">
+      <c r="D224" s="51" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B225" s="50" t="s">
+      <c r="A225" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225" s="51" t="s">
         <v>673</v>
       </c>
-      <c r="C225" s="50" t="s">
+      <c r="C225" s="51" t="s">
         <v>674</v>
       </c>
-      <c r="D225" s="50" t="s">
+      <c r="D225" s="51" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B226" s="50" t="s">
+      <c r="A226" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B226" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="C226" s="50" t="s">
+      <c r="C226" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="D226" s="50" t="s">
+      <c r="D226" s="51" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B227" s="50" t="s">
+      <c r="A227" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B227" s="51" t="s">
         <v>679</v>
       </c>
-      <c r="C227" s="50" t="s">
+      <c r="C227" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="D227" s="50" t="s">
+      <c r="D227" s="51" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="50" t="s">
+      <c r="A228" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="C228" s="50" t="s">
+      <c r="C228" s="51" t="s">
         <v>683</v>
       </c>
-      <c r="D228" s="50" t="s">
+      <c r="D228" s="51" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="50" t="s">
+      <c r="A229" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" s="51" t="s">
         <v>685</v>
       </c>
-      <c r="C229" s="50" t="s">
+      <c r="C229" s="51" t="s">
         <v>686</v>
       </c>
-      <c r="D229" s="50" t="s">
+      <c r="D229" s="51" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="50" t="s">
+      <c r="A230" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="C230" s="50" t="s">
+      <c r="C230" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="D230" s="50" t="s">
+      <c r="D230" s="51" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="50" t="s">
+      <c r="A231" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="51" t="s">
         <v>691</v>
       </c>
-      <c r="C231" s="50" t="s">
+      <c r="C231" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="D231" s="50" t="s">
+      <c r="D231" s="51" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B232" s="50" t="s">
+      <c r="A232" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="C232" s="50" t="s">
+      <c r="C232" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="D232" s="50" t="s">
+      <c r="D232" s="51" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B233" s="50" t="s">
+      <c r="A233" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B233" s="51" t="s">
         <v>697</v>
       </c>
-      <c r="C233" s="50" t="s">
+      <c r="C233" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="D233" s="50" t="s">
+      <c r="D233" s="51" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B234" s="50" t="s">
+      <c r="A234" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="51" t="s">
         <v>700</v>
       </c>
-      <c r="C234" s="50" t="s">
+      <c r="C234" s="51" t="s">
         <v>701</v>
       </c>
-      <c r="D234" s="50" t="s">
+      <c r="D234" s="51" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B235" s="50" t="s">
+      <c r="A235" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B235" s="51" t="s">
         <v>703</v>
       </c>
-      <c r="C235" s="50" t="s">
+      <c r="C235" s="51" t="s">
         <v>704</v>
       </c>
-      <c r="D235" s="50" t="s">
+      <c r="D235" s="51" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B236" s="50" t="s">
+      <c r="A236" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B236" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="C236" s="50" t="s">
+      <c r="C236" s="51" t="s">
         <v>707</v>
       </c>
-      <c r="D236" s="50" t="s">
+      <c r="D236" s="51" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B237" s="50" t="s">
+      <c r="A237" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="C237" s="50" t="s">
+      <c r="C237" s="51" t="s">
         <v>710</v>
       </c>
-      <c r="D237" s="50" t="s">
+      <c r="D237" s="51" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B238" s="50" t="s">
+      <c r="A238" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B238" s="51" t="s">
         <v>712</v>
       </c>
-      <c r="C238" s="50" t="s">
+      <c r="C238" s="51" t="s">
         <v>713</v>
       </c>
-      <c r="D238" s="50" t="s">
+      <c r="D238" s="51" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" s="50" t="s">
+      <c r="A239" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B239" s="51" t="s">
         <v>715</v>
       </c>
-      <c r="C239" s="50" t="s">
+      <c r="C239" s="51" t="s">
         <v>716</v>
       </c>
-      <c r="D239" s="50" t="s">
+      <c r="D239" s="51" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240" s="50" t="s">
+      <c r="A240" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="C240" s="50" t="s">
+      <c r="C240" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="D240" s="50" t="s">
+      <c r="D240" s="51" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B241" s="50" t="s">
+      <c r="A241" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B241" s="51" t="s">
         <v>721</v>
       </c>
-      <c r="C241" s="50" t="s">
+      <c r="C241" s="51" t="s">
         <v>722</v>
       </c>
-      <c r="D241" s="50" t="s">
+      <c r="D241" s="51" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="50" t="s">
+      <c r="A242" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="C242" s="50" t="s">
+      <c r="C242" s="51" t="s">
         <v>725</v>
       </c>
-      <c r="D242" s="50" t="s">
+      <c r="D242" s="51" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B243" s="50" t="s">
+      <c r="A243" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="51" t="s">
         <v>727</v>
       </c>
-      <c r="C243" s="50" t="s">
+      <c r="C243" s="51" t="s">
         <v>728</v>
       </c>
-      <c r="D243" s="50" t="s">
+      <c r="D243" s="51" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B244" s="50" t="s">
+      <c r="A244" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="C244" s="50" t="s">
+      <c r="C244" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="D244" s="50" t="s">
+      <c r="D244" s="51" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B245" s="50" t="s">
+      <c r="A245" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="51" t="s">
         <v>733</v>
       </c>
-      <c r="C245" s="50" t="s">
+      <c r="C245" s="51" t="s">
         <v>734</v>
       </c>
-      <c r="D245" s="50" t="s">
+      <c r="D245" s="51" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B246" s="50" t="s">
+      <c r="A246" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" s="51" t="s">
         <v>736</v>
       </c>
-      <c r="C246" s="50" t="s">
+      <c r="C246" s="51" t="s">
         <v>737</v>
       </c>
-      <c r="D246" s="50" t="s">
+      <c r="D246" s="51" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B247" s="50" t="s">
+      <c r="A247" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="51" t="s">
         <v>739</v>
       </c>
-      <c r="C247" s="50" t="s">
+      <c r="C247" s="51" t="s">
         <v>740</v>
       </c>
-      <c r="D247" s="50" t="s">
+      <c r="D247" s="51" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B248" s="50" t="s">
+      <c r="A248" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" s="51" t="s">
         <v>742</v>
       </c>
-      <c r="C248" s="50" t="s">
+      <c r="C248" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="D248" s="50" t="s">
+      <c r="D248" s="51" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B249" s="50" t="s">
+      <c r="A249" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" s="51" t="s">
         <v>745</v>
       </c>
-      <c r="C249" s="50" t="s">
+      <c r="C249" s="51" t="s">
         <v>746</v>
       </c>
-      <c r="D249" s="50" t="s">
+      <c r="D249" s="51" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B250" s="50" t="s">
+      <c r="A250" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" s="51" t="s">
         <v>748</v>
       </c>
-      <c r="C250" s="50" t="s">
+      <c r="C250" s="51" t="s">
         <v>749</v>
       </c>
-      <c r="D250" s="50" t="s">
+      <c r="D250" s="51" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B251" s="50" t="s">
+      <c r="A251" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="C251" s="50" t="s">
+      <c r="C251" s="51" t="s">
         <v>752</v>
       </c>
-      <c r="D251" s="50" t="s">
+      <c r="D251" s="51" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="50" t="s">
+      <c r="A252" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="51" t="s">
         <v>754</v>
       </c>
-      <c r="C252" s="50" t="s">
+      <c r="C252" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="D252" s="50" t="s">
+      <c r="D252" s="51" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B253" s="50" t="s">
+      <c r="A253" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="C253" s="50" t="s">
+      <c r="C253" s="51" t="s">
         <v>758</v>
       </c>
-      <c r="D253" s="50" t="s">
+      <c r="D253" s="51" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="50" t="s">
+      <c r="A254" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" s="51" t="s">
         <v>760</v>
       </c>
-      <c r="C254" s="50" t="s">
+      <c r="C254" s="51" t="s">
         <v>761</v>
       </c>
-      <c r="D254" s="50" t="s">
+      <c r="D254" s="51" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B255" s="50" t="s">
+      <c r="A255" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" s="51" t="s">
         <v>763</v>
       </c>
-      <c r="C255" s="50" t="s">
+      <c r="C255" s="51" t="s">
         <v>764</v>
       </c>
-      <c r="D255" s="50" t="s">
+      <c r="D255" s="51" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B256" s="50" t="s">
+      <c r="A256" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" s="51" t="s">
         <v>766</v>
       </c>
-      <c r="C256" s="50" t="s">
+      <c r="C256" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="D256" s="50" t="s">
+      <c r="D256" s="51" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B257" s="50" t="s">
+      <c r="A257" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" s="51" t="s">
         <v>769</v>
       </c>
-      <c r="C257" s="50" t="s">
+      <c r="C257" s="51" t="s">
         <v>770</v>
       </c>
-      <c r="D257" s="50" t="s">
+      <c r="D257" s="51" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B258" s="50" t="s">
+      <c r="A258" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" s="51" t="s">
         <v>772</v>
       </c>
-      <c r="C258" s="50" t="s">
+      <c r="C258" s="51" t="s">
         <v>773</v>
       </c>
-      <c r="D258" s="50" t="s">
+      <c r="D258" s="51" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B259" s="50" t="s">
+      <c r="A259" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="51" t="s">
         <v>775</v>
       </c>
-      <c r="C259" s="50" t="s">
+      <c r="C259" s="51" t="s">
         <v>776</v>
       </c>
-      <c r="D259" s="50" t="s">
+      <c r="D259" s="51" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B260" s="50" t="s">
+      <c r="A260" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="51" t="s">
         <v>778</v>
       </c>
-      <c r="C260" s="50" t="s">
+      <c r="C260" s="51" t="s">
         <v>779</v>
       </c>
-      <c r="D260" s="50" t="s">
+      <c r="D260" s="51" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B261" s="50" t="s">
+      <c r="A261" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" s="51" t="s">
         <v>781</v>
       </c>
-      <c r="C261" s="50" t="s">
+      <c r="C261" s="51" t="s">
         <v>782</v>
       </c>
-      <c r="D261" s="50" t="s">
+      <c r="D261" s="51" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B262" s="50" t="s">
+      <c r="A262" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="51" t="s">
         <v>784</v>
       </c>
-      <c r="C262" s="50" t="s">
+      <c r="C262" s="51" t="s">
         <v>785</v>
       </c>
-      <c r="D262" s="50" t="s">
+      <c r="D262" s="51" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B263" s="50" t="s">
+      <c r="A263" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="51" t="s">
         <v>787</v>
       </c>
-      <c r="C263" s="50" t="s">
+      <c r="C263" s="51" t="s">
         <v>788</v>
       </c>
-      <c r="D263" s="50" t="s">
+      <c r="D263" s="51" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B264" s="50" t="s">
+      <c r="A264" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" s="51" t="s">
         <v>790</v>
       </c>
-      <c r="C264" s="50" t="s">
+      <c r="C264" s="51" t="s">
         <v>791</v>
       </c>
-      <c r="D264" s="50" t="s">
+      <c r="D264" s="51" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B265" s="50" t="s">
+      <c r="A265" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" s="51" t="s">
         <v>793</v>
       </c>
-      <c r="C265" s="50" t="s">
+      <c r="C265" s="51" t="s">
         <v>794</v>
       </c>
-      <c r="D265" s="50" t="s">
+      <c r="D265" s="51" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B266" s="50" t="s">
+      <c r="A266" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" s="51" t="s">
         <v>796</v>
       </c>
-      <c r="C266" s="50" t="s">
+      <c r="C266" s="51" t="s">
         <v>797</v>
       </c>
-      <c r="D266" s="50" t="s">
+      <c r="D266" s="51" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B267" s="50" t="s">
+      <c r="A267" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" s="51" t="s">
         <v>799</v>
       </c>
-      <c r="C267" s="50" t="s">
+      <c r="C267" s="51" t="s">
         <v>800</v>
       </c>
-      <c r="D267" s="50" t="s">
+      <c r="D267" s="51" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="50" t="s">
+      <c r="A268" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="51" t="s">
         <v>802</v>
       </c>
-      <c r="C268" s="50" t="s">
+      <c r="C268" s="51" t="s">
         <v>803</v>
       </c>
-      <c r="D268" s="50" t="s">
+      <c r="D268" s="51" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B269" s="50" t="s">
+      <c r="A269" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" s="51" t="s">
         <v>805</v>
       </c>
-      <c r="C269" s="50" t="s">
+      <c r="C269" s="51" t="s">
         <v>806</v>
       </c>
-      <c r="D269" s="50" t="s">
+      <c r="D269" s="51" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="50" t="s">
+      <c r="A270" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="51" t="s">
         <v>808</v>
       </c>
-      <c r="C270" s="50" t="s">
+      <c r="C270" s="51" t="s">
         <v>809</v>
       </c>
-      <c r="D270" s="50" t="s">
+      <c r="D270" s="51" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B271" s="50" t="s">
+      <c r="A271" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" s="51" t="s">
         <v>811</v>
       </c>
-      <c r="C271" s="50" t="s">
+      <c r="C271" s="51" t="s">
         <v>812</v>
       </c>
-      <c r="D271" s="50" t="s">
+      <c r="D271" s="51" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B272" s="50" t="s">
+      <c r="A272" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" s="51" t="s">
         <v>814</v>
       </c>
-      <c r="C272" s="50" t="s">
+      <c r="C272" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="D272" s="50" t="s">
+      <c r="D272" s="51" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B273" s="50" t="s">
+      <c r="A273" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B273" s="51" t="s">
         <v>817</v>
       </c>
-      <c r="C273" s="50" t="s">
+      <c r="C273" s="51" t="s">
         <v>818</v>
       </c>
-      <c r="D273" s="50" t="s">
+      <c r="D273" s="51" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B274" s="50" t="s">
+      <c r="A274" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="51" t="s">
         <v>820</v>
       </c>
-      <c r="C274" s="50" t="s">
+      <c r="C274" s="51" t="s">
         <v>821</v>
       </c>
-      <c r="D274" s="50" t="s">
+      <c r="D274" s="51" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B275" s="50" t="s">
+      <c r="A275" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B275" s="51" t="s">
         <v>823</v>
       </c>
-      <c r="C275" s="50" t="s">
+      <c r="C275" s="51" t="s">
         <v>824</v>
       </c>
-      <c r="D275" s="50" t="s">
+      <c r="D275" s="51" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B276" s="50" t="s">
+      <c r="A276" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B276" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="C276" s="50" t="s">
+      <c r="C276" s="51" t="s">
         <v>827</v>
       </c>
-      <c r="D276" s="50" t="s">
+      <c r="D276" s="51" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="50" t="s">
+      <c r="A277" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B277" s="51" t="s">
         <v>829</v>
       </c>
-      <c r="C277" s="50" t="s">
+      <c r="C277" s="51" t="s">
         <v>830</v>
       </c>
-      <c r="D277" s="50" t="s">
+      <c r="D277" s="51" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B278" s="50" t="s">
+      <c r="A278" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B278" s="51" t="s">
         <v>832</v>
       </c>
-      <c r="C278" s="50" t="s">
+      <c r="C278" s="51" t="s">
         <v>833</v>
       </c>
-      <c r="D278" s="50" t="s">
+      <c r="D278" s="51" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B279" s="50" t="s">
+      <c r="A279" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="51" t="s">
         <v>835</v>
       </c>
-      <c r="C279" s="50" t="s">
+      <c r="C279" s="51" t="s">
         <v>836</v>
       </c>
-      <c r="D279" s="50" t="s">
+      <c r="D279" s="51" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B280" s="50" t="s">
+      <c r="A280" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B280" s="51" t="s">
         <v>838</v>
       </c>
-      <c r="C280" s="50" t="s">
+      <c r="C280" s="51" t="s">
         <v>839</v>
       </c>
-      <c r="D280" s="50" t="s">
+      <c r="D280" s="51" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B281" s="50" t="s">
+      <c r="A281" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B281" s="51" t="s">
         <v>841</v>
       </c>
-      <c r="C281" s="50" t="s">
+      <c r="C281" s="51" t="s">
         <v>842</v>
       </c>
-      <c r="D281" s="50" t="s">
+      <c r="D281" s="51" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B282" s="50" t="s">
+      <c r="A282" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B282" s="51" t="s">
         <v>844</v>
       </c>
-      <c r="C282" s="50" t="s">
+      <c r="C282" s="51" t="s">
         <v>845</v>
       </c>
-      <c r="D282" s="50" t="s">
+      <c r="D282" s="51" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B283" s="50" t="s">
+      <c r="A283" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283" s="51" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="50" t="s">
+      <c r="C283" s="51" t="s">
         <v>848</v>
       </c>
-      <c r="D283" s="50" t="s">
+      <c r="D283" s="51" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B284" s="50" t="s">
+      <c r="A284" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B284" s="51" t="s">
         <v>850</v>
       </c>
-      <c r="C284" s="50" t="s">
+      <c r="C284" s="51" t="s">
         <v>851</v>
       </c>
-      <c r="D284" s="50" t="s">
+      <c r="D284" s="51" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B285" s="50" t="s">
+      <c r="A285" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B285" s="51" t="s">
         <v>853</v>
       </c>
-      <c r="C285" s="50" t="s">
+      <c r="C285" s="51" t="s">
         <v>854</v>
       </c>
-      <c r="D285" s="50" t="s">
+      <c r="D285" s="51" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="50" t="s">
+      <c r="A286" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="51" t="s">
         <v>856</v>
       </c>
-      <c r="C286" s="50" t="s">
+      <c r="C286" s="51" t="s">
         <v>857</v>
       </c>
-      <c r="D286" s="50" t="s">
+      <c r="D286" s="51" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B287" s="50" t="s">
+      <c r="A287" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B287" s="51" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="50" t="s">
+      <c r="C287" s="51" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="50" t="s">
+      <c r="D287" s="51" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B288" s="50" t="s">
+      <c r="A288" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B288" s="51" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="50" t="s">
+      <c r="C288" s="51" t="s">
         <v>863</v>
       </c>
-      <c r="D288" s="50" t="s">
+      <c r="D288" s="51" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B289" s="50" t="s">
+      <c r="A289" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" s="51" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="50" t="s">
+      <c r="C289" s="51" t="s">
         <v>866</v>
       </c>
-      <c r="D289" s="50" t="s">
+      <c r="D289" s="51" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B290" s="50" t="s">
+      <c r="A290" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B290" s="51" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="50" t="s">
+      <c r="C290" s="51" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="50" t="s">
+      <c r="D290" s="51" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B291" s="50" t="s">
+      <c r="A291" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" s="51" t="s">
         <v>871</v>
       </c>
-      <c r="C291" s="50" t="s">
+      <c r="C291" s="51" t="s">
         <v>872</v>
       </c>
-      <c r="D291" s="50" t="s">
+      <c r="D291" s="51" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B292" s="50" t="s">
+      <c r="A292" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="51" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="50" t="s">
+      <c r="C292" s="51" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="50" t="s">
+      <c r="D292" s="51" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B293" s="50" t="s">
+      <c r="A293" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="51" t="s">
         <v>877</v>
       </c>
-      <c r="C293" s="50" t="s">
+      <c r="C293" s="51" t="s">
         <v>878</v>
       </c>
-      <c r="D293" s="50" t="s">
+      <c r="D293" s="51" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B294" s="50" t="s">
+      <c r="A294" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B294" s="51" t="s">
         <v>880</v>
       </c>
-      <c r="C294" s="50" t="s">
+      <c r="C294" s="51" t="s">
         <v>881</v>
       </c>
-      <c r="D294" s="50" t="s">
+      <c r="D294" s="51" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B295" s="50" t="s">
+      <c r="A295" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="51" t="s">
         <v>883</v>
       </c>
-      <c r="C295" s="50" t="s">
+      <c r="C295" s="51" t="s">
         <v>884</v>
       </c>
-      <c r="D295" s="50" t="s">
+      <c r="D295" s="51" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B296" s="50" t="s">
+      <c r="A296" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B296" s="51" t="s">
         <v>886</v>
       </c>
-      <c r="C296" s="50" t="s">
+      <c r="C296" s="51" t="s">
         <v>887</v>
       </c>
-      <c r="D296" s="50" t="s">
+      <c r="D296" s="51" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="50" t="s">
+      <c r="A297" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B297" s="51" t="s">
         <v>889</v>
       </c>
-      <c r="C297" s="50" t="s">
+      <c r="C297" s="51" t="s">
         <v>890</v>
       </c>
-      <c r="D297" s="50" t="s">
+      <c r="D297" s="51" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="50" t="s">
+      <c r="A298" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="51" t="s">
         <v>892</v>
       </c>
-      <c r="C298" s="50" t="s">
+      <c r="C298" s="51" t="s">
         <v>893</v>
       </c>
-      <c r="D298" s="50" t="s">
+      <c r="D298" s="51" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B299" s="50" t="s">
+      <c r="A299" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B299" s="51" t="s">
         <v>895</v>
       </c>
-      <c r="C299" s="50" t="s">
+      <c r="C299" s="51" t="s">
         <v>896</v>
       </c>
-      <c r="D299" s="50" t="s">
+      <c r="D299" s="51" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B300" s="50" t="s">
+      <c r="A300" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B300" s="51" t="s">
         <v>898</v>
       </c>
-      <c r="C300" s="50" t="s">
+      <c r="C300" s="51" t="s">
         <v>899</v>
       </c>
-      <c r="D300" s="50" t="s">
+      <c r="D300" s="51" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B301" s="50" t="s">
+      <c r="A301" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B301" s="51" t="s">
         <v>901</v>
       </c>
-      <c r="C301" s="50" t="s">
+      <c r="C301" s="51" t="s">
         <v>902</v>
       </c>
-      <c r="D301" s="50" t="s">
+      <c r="D301" s="51" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="50" t="s">
+      <c r="A302" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="51" t="s">
         <v>904</v>
       </c>
-      <c r="C302" s="50" t="s">
+      <c r="C302" s="51" t="s">
         <v>905</v>
       </c>
-      <c r="D302" s="50" t="s">
+      <c r="D302" s="51" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B303" s="50" t="s">
+      <c r="A303" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="51" t="s">
         <v>907</v>
       </c>
-      <c r="C303" s="50" t="s">
+      <c r="C303" s="51" t="s">
         <v>908</v>
       </c>
-      <c r="D303" s="50" t="s">
+      <c r="D303" s="51" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B304" s="50" t="s">
+      <c r="A304" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B304" s="51" t="s">
         <v>910</v>
       </c>
-      <c r="C304" s="50" t="s">
+      <c r="C304" s="51" t="s">
         <v>911</v>
       </c>
-      <c r="D304" s="50" t="s">
+      <c r="D304" s="51" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B305" s="50" t="s">
+      <c r="A305" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B305" s="51" t="s">
         <v>913</v>
       </c>
-      <c r="C305" s="50" t="s">
+      <c r="C305" s="51" t="s">
         <v>914</v>
       </c>
-      <c r="D305" s="50" t="s">
+      <c r="D305" s="51" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B306" s="50" t="s">
+      <c r="A306" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B306" s="51" t="s">
         <v>916</v>
       </c>
-      <c r="C306" s="50" t="s">
+      <c r="C306" s="51" t="s">
         <v>917</v>
       </c>
-      <c r="D306" s="50" t="s">
+      <c r="D306" s="51" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B307" s="50" t="s">
+      <c r="A307" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B307" s="51" t="s">
         <v>919</v>
       </c>
-      <c r="C307" s="50" t="s">
+      <c r="C307" s="51" t="s">
         <v>920</v>
       </c>
-      <c r="D307" s="50" t="s">
+      <c r="D307" s="51" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B308" s="50" t="s">
+      <c r="A308" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B308" s="51" t="s">
         <v>922</v>
       </c>
-      <c r="C308" s="50" t="s">
+      <c r="C308" s="51" t="s">
         <v>923</v>
       </c>
-      <c r="D308" s="50" t="s">
+      <c r="D308" s="51" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B309" s="50" t="s">
+      <c r="A309" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B309" s="51" t="s">
         <v>925</v>
       </c>
-      <c r="C309" s="50" t="s">
+      <c r="C309" s="51" t="s">
         <v>926</v>
       </c>
-      <c r="D309" s="50" t="s">
+      <c r="D309" s="51" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B310" s="50" t="s">
+      <c r="A310" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B310" s="51" t="s">
         <v>928</v>
       </c>
-      <c r="C310" s="50" t="s">
+      <c r="C310" s="51" t="s">
         <v>929</v>
       </c>
-      <c r="D310" s="50" t="s">
+      <c r="D310" s="51" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B311" s="50" t="s">
+      <c r="A311" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B311" s="51" t="s">
         <v>931</v>
       </c>
-      <c r="C311" s="50" t="s">
+      <c r="C311" s="51" t="s">
         <v>932</v>
       </c>
-      <c r="D311" s="50" t="s">
+      <c r="D311" s="51" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B312" s="50" t="s">
+      <c r="A312" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312" s="51" t="s">
         <v>934</v>
       </c>
-      <c r="C312" s="50" t="s">
+      <c r="C312" s="51" t="s">
         <v>935</v>
       </c>
-      <c r="D312" s="50" t="s">
+      <c r="D312" s="51" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B313" s="50" t="s">
+      <c r="A313" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B313" s="51" t="s">
         <v>937</v>
       </c>
-      <c r="C313" s="50" t="s">
+      <c r="C313" s="51" t="s">
         <v>938</v>
       </c>
-      <c r="D313" s="50" t="s">
+      <c r="D313" s="51" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B314" s="50" t="s">
+      <c r="A314" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B314" s="51" t="s">
         <v>940</v>
       </c>
-      <c r="C314" s="50" t="s">
+      <c r="C314" s="51" t="s">
         <v>941</v>
       </c>
-      <c r="D314" s="50" t="s">
+      <c r="D314" s="51" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B315" s="50" t="s">
+      <c r="A315" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="51" t="s">
         <v>943</v>
       </c>
-      <c r="C315" s="50" t="s">
+      <c r="C315" s="51" t="s">
         <v>944</v>
       </c>
-      <c r="D315" s="50" t="s">
+      <c r="D315" s="51" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B316" s="50" t="s">
+      <c r="A316" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B316" s="51" t="s">
         <v>946</v>
       </c>
-      <c r="C316" s="50" t="s">
+      <c r="C316" s="51" t="s">
         <v>947</v>
       </c>
-      <c r="D316" s="50" t="s">
+      <c r="D316" s="51" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B317" s="50" t="s">
+      <c r="A317" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B317" s="51" t="s">
         <v>949</v>
       </c>
-      <c r="C317" s="50" t="s">
+      <c r="C317" s="51" t="s">
         <v>950</v>
       </c>
-      <c r="D317" s="50" t="s">
+      <c r="D317" s="51" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B318" s="50" t="s">
+      <c r="A318" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B318" s="51" t="s">
         <v>952</v>
       </c>
-      <c r="C318" s="50" t="s">
+      <c r="C318" s="51" t="s">
         <v>953</v>
       </c>
-      <c r="D318" s="50" t="s">
+      <c r="D318" s="51" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B319" s="50" t="s">
+      <c r="A319" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B319" s="51" t="s">
         <v>955</v>
       </c>
-      <c r="C319" s="50" t="s">
+      <c r="C319" s="51" t="s">
         <v>956</v>
       </c>
-      <c r="D319" s="50" t="s">
+      <c r="D319" s="51" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="50" t="s">
+      <c r="A320" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="51" t="s">
         <v>958</v>
       </c>
-      <c r="C320" s="50" t="s">
+      <c r="C320" s="51" t="s">
         <v>959</v>
       </c>
-      <c r="D320" s="50" t="s">
+      <c r="D320" s="51" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B321" s="50" t="s">
+      <c r="A321" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321" s="51" t="s">
         <v>961</v>
       </c>
-      <c r="C321" s="50" t="s">
+      <c r="C321" s="51" t="s">
         <v>962</v>
       </c>
-      <c r="D321" s="50" t="s">
+      <c r="D321" s="51" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B322" s="50" t="s">
+      <c r="A322" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B322" s="51" t="s">
         <v>964</v>
       </c>
-      <c r="C322" s="50" t="s">
+      <c r="C322" s="51" t="s">
         <v>965</v>
       </c>
-      <c r="D322" s="50" t="s">
+      <c r="D322" s="51" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B323" s="50" t="s">
+      <c r="A323" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323" s="51" t="s">
         <v>967</v>
       </c>
-      <c r="C323" s="50" t="s">
+      <c r="C323" s="51" t="s">
         <v>968</v>
       </c>
-      <c r="D323" s="50" t="s">
+      <c r="D323" s="51" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B324" s="50" t="s">
+      <c r="A324" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" s="51" t="s">
         <v>970</v>
       </c>
-      <c r="C324" s="50" t="s">
+      <c r="C324" s="51" t="s">
         <v>971</v>
       </c>
-      <c r="D324" s="50" t="s">
+      <c r="D324" s="51" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B325" s="50" t="s">
+      <c r="A325" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" s="51" t="s">
         <v>973</v>
       </c>
-      <c r="C325" s="50" t="s">
+      <c r="C325" s="51" t="s">
         <v>974</v>
       </c>
-      <c r="D325" s="50" t="s">
+      <c r="D325" s="51" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B326" s="50" t="s">
+      <c r="A326" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B326" s="51" t="s">
         <v>976</v>
       </c>
-      <c r="C326" s="50" t="s">
+      <c r="C326" s="51" t="s">
         <v>977</v>
       </c>
-      <c r="D326" s="50" t="s">
+      <c r="D326" s="51" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B327" s="50" t="s">
+      <c r="A327" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B327" s="51" t="s">
         <v>979</v>
       </c>
-      <c r="C327" s="50" t="s">
+      <c r="C327" s="51" t="s">
         <v>980</v>
       </c>
-      <c r="D327" s="50" t="s">
+      <c r="D327" s="51" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B328" s="50" t="s">
+      <c r="A328" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B328" s="51" t="s">
         <v>982</v>
       </c>
-      <c r="C328" s="50" t="s">
+      <c r="C328" s="51" t="s">
         <v>983</v>
       </c>
-      <c r="D328" s="50" t="s">
+      <c r="D328" s="51" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B329" s="50" t="s">
+      <c r="A329" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B329" s="51" t="s">
         <v>985</v>
       </c>
-      <c r="C329" s="50" t="s">
+      <c r="C329" s="51" t="s">
         <v>986</v>
       </c>
-      <c r="D329" s="50" t="s">
+      <c r="D329" s="51" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B330" s="50" t="s">
+      <c r="A330" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B330" s="51" t="s">
         <v>988</v>
       </c>
-      <c r="C330" s="50" t="s">
+      <c r="C330" s="51" t="s">
         <v>989</v>
       </c>
-      <c r="D330" s="50" t="s">
+      <c r="D330" s="51" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B331" s="50" t="s">
+      <c r="A331" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B331" s="51" t="s">
         <v>991</v>
       </c>
-      <c r="C331" s="50" t="s">
+      <c r="C331" s="51" t="s">
         <v>992</v>
       </c>
-      <c r="D331" s="50" t="s">
+      <c r="D331" s="51" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B332" s="50" t="s">
+      <c r="A332" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="51" t="s">
         <v>994</v>
       </c>
-      <c r="C332" s="50" t="s">
+      <c r="C332" s="51" t="s">
         <v>995</v>
       </c>
-      <c r="D332" s="50" t="s">
+      <c r="D332" s="51" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B333" s="50" t="s">
+      <c r="A333" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B333" s="51" t="s">
         <v>997</v>
       </c>
-      <c r="C333" s="50" t="s">
+      <c r="C333" s="51" t="s">
         <v>998</v>
       </c>
-      <c r="D333" s="50" t="s">
+      <c r="D333" s="51" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B334" s="50" t="s">
+      <c r="A334" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B334" s="51" t="s">
         <v>1000</v>
       </c>
-      <c r="C334" s="50" t="s">
+      <c r="C334" s="51" t="s">
         <v>1001</v>
       </c>
-      <c r="D334" s="50" t="s">
+      <c r="D334" s="51" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B335" s="50" t="s">
+      <c r="A335" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B335" s="51" t="s">
         <v>1003</v>
       </c>
-      <c r="C335" s="50" t="s">
+      <c r="C335" s="51" t="s">
         <v>1004</v>
       </c>
-      <c r="D335" s="50" t="s">
+      <c r="D335" s="51" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B336" s="50" t="s">
+      <c r="A336" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" s="51" t="s">
         <v>1006</v>
       </c>
-      <c r="C336" s="50" t="s">
+      <c r="C336" s="51" t="s">
         <v>1007</v>
       </c>
-      <c r="D336" s="50" t="s">
+      <c r="D336" s="51" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B337" s="50" t="s">
+      <c r="A337" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B337" s="51" t="s">
         <v>1009</v>
       </c>
-      <c r="C337" s="50" t="s">
+      <c r="C337" s="51" t="s">
         <v>1010</v>
       </c>
-      <c r="D337" s="50" t="s">
+      <c r="D337" s="51" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B338" s="50" t="s">
+      <c r="A338" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B338" s="51" t="s">
         <v>1012</v>
       </c>
-      <c r="C338" s="50" t="s">
+      <c r="C338" s="51" t="s">
         <v>1013</v>
       </c>
-      <c r="D338" s="50" t="s">
+      <c r="D338" s="51" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B339" s="50" t="s">
+      <c r="A339" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B339" s="51" t="s">
         <v>1015</v>
       </c>
-      <c r="C339" s="50" t="s">
+      <c r="C339" s="51" t="s">
         <v>1016</v>
       </c>
-      <c r="D339" s="50" t="s">
+      <c r="D339" s="51" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B340" s="50" t="s">
+      <c r="A340" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B340" s="51" t="s">
         <v>1018</v>
       </c>
-      <c r="C340" s="50" t="s">
+      <c r="C340" s="51" t="s">
         <v>1019</v>
       </c>
-      <c r="D340" s="50" t="s">
+      <c r="D340" s="51" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B341" s="50" t="s">
+      <c r="A341" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B341" s="51" t="s">
         <v>1021</v>
       </c>
-      <c r="C341" s="50" t="s">
+      <c r="C341" s="51" t="s">
         <v>1022</v>
       </c>
-      <c r="D341" s="50" t="s">
+      <c r="D341" s="51" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B342" s="50" t="s">
+      <c r="A342" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B342" s="51" t="s">
         <v>1024</v>
       </c>
-      <c r="C342" s="50" t="s">
+      <c r="C342" s="51" t="s">
         <v>1025</v>
       </c>
-      <c r="D342" s="50" t="s">
+      <c r="D342" s="51" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B343" s="50" t="s">
+      <c r="A343" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" s="51" t="s">
         <v>1027</v>
       </c>
-      <c r="C343" s="50" t="s">
+      <c r="C343" s="51" t="s">
         <v>1028</v>
       </c>
-      <c r="D343" s="50" t="s">
+      <c r="D343" s="51" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B344" s="50" t="s">
+      <c r="A344" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B344" s="51" t="s">
         <v>1030</v>
       </c>
-      <c r="C344" s="50" t="s">
+      <c r="C344" s="51" t="s">
         <v>1031</v>
       </c>
-      <c r="D344" s="50" t="s">
+      <c r="D344" s="51" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B345" s="50" t="s">
+      <c r="A345" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345" s="51" t="s">
         <v>1033</v>
       </c>
-      <c r="C345" s="50" t="s">
+      <c r="C345" s="51" t="s">
         <v>1034</v>
       </c>
-      <c r="D345" s="50" t="s">
+      <c r="D345" s="51" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B346" s="50" t="s">
+      <c r="A346" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B346" s="51" t="s">
         <v>1036</v>
       </c>
-      <c r="C346" s="50" t="s">
+      <c r="C346" s="51" t="s">
         <v>1037</v>
       </c>
-      <c r="D346" s="50" t="s">
+      <c r="D346" s="51" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B347" s="50" t="s">
+      <c r="A347" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B347" s="51" t="s">
         <v>1039</v>
       </c>
-      <c r="C347" s="50" t="s">
+      <c r="C347" s="51" t="s">
         <v>1040</v>
       </c>
-      <c r="D347" s="50" t="s">
+      <c r="D347" s="51" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B348" s="50" t="s">
+      <c r="A348" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" s="51" t="s">
         <v>1042</v>
       </c>
-      <c r="C348" s="50" t="s">
+      <c r="C348" s="51" t="s">
         <v>1043</v>
       </c>
-      <c r="D348" s="50" t="s">
+      <c r="D348" s="51" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B349" s="50" t="s">
+      <c r="A349" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B349" s="51" t="s">
         <v>1045</v>
       </c>
-      <c r="C349" s="50" t="s">
+      <c r="C349" s="51" t="s">
         <v>1046</v>
       </c>
-      <c r="D349" s="50" t="s">
+      <c r="D349" s="51" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B350" s="50" t="s">
+      <c r="A350" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B350" s="51" t="s">
         <v>1048</v>
       </c>
-      <c r="C350" s="50" t="s">
+      <c r="C350" s="51" t="s">
         <v>1049</v>
       </c>
-      <c r="D350" s="50" t="s">
+      <c r="D350" s="51" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B351" s="50" t="s">
+      <c r="A351" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B351" s="51" t="s">
         <v>1051</v>
       </c>
-      <c r="C351" s="50" t="s">
+      <c r="C351" s="51" t="s">
         <v>1052</v>
       </c>
-      <c r="D351" s="50" t="s">
+      <c r="D351" s="51" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B352" s="50" t="s">
+      <c r="A352" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B352" s="51" t="s">
         <v>1054</v>
       </c>
-      <c r="C352" s="50" t="s">
+      <c r="C352" s="51" t="s">
         <v>1055</v>
       </c>
-      <c r="D352" s="50" t="s">
+      <c r="D352" s="51" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B353" s="50" t="s">
+      <c r="A353" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353" s="51" t="s">
         <v>1057</v>
       </c>
-      <c r="C353" s="50" t="s">
+      <c r="C353" s="51" t="s">
         <v>1058</v>
       </c>
-      <c r="D353" s="50" t="s">
+      <c r="D353" s="51" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B354" s="50" t="s">
+      <c r="A354" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B354" s="51" t="s">
         <v>1060</v>
       </c>
-      <c r="C354" s="50" t="s">
+      <c r="C354" s="51" t="s">
         <v>1061</v>
       </c>
-      <c r="D354" s="50" t="s">
+      <c r="D354" s="51" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B355" s="50" t="s">
+      <c r="A355" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B355" s="51" t="s">
         <v>1063</v>
       </c>
-      <c r="C355" s="50" t="s">
+      <c r="C355" s="51" t="s">
         <v>1064</v>
       </c>
-      <c r="D355" s="50" t="s">
+      <c r="D355" s="51" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B356" s="50" t="s">
+      <c r="A356" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B356" s="51" t="s">
         <v>1066</v>
       </c>
-      <c r="C356" s="50" t="s">
+      <c r="C356" s="51" t="s">
         <v>1067</v>
       </c>
-      <c r="D356" s="50" t="s">
+      <c r="D356" s="51" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B357" s="50" t="s">
+      <c r="A357" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" s="51" t="s">
         <v>1069</v>
       </c>
-      <c r="C357" s="50" t="s">
+      <c r="C357" s="51" t="s">
         <v>1070</v>
       </c>
-      <c r="D357" s="50" t="s">
+      <c r="D357" s="51" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B358" s="50" t="s">
+      <c r="A358" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B358" s="51" t="s">
         <v>1072</v>
       </c>
-      <c r="C358" s="50" t="s">
+      <c r="C358" s="51" t="s">
         <v>1073</v>
       </c>
-      <c r="D358" s="50" t="s">
+      <c r="D358" s="51" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B359" s="50" t="s">
+      <c r="A359" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B359" s="51" t="s">
         <v>1075</v>
       </c>
-      <c r="C359" s="50" t="s">
+      <c r="C359" s="51" t="s">
         <v>1076</v>
       </c>
-      <c r="D359" s="50" t="s">
+      <c r="D359" s="51" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B360" s="50" t="s">
+      <c r="A360" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B360" s="51" t="s">
         <v>1078</v>
       </c>
-      <c r="C360" s="50" t="s">
+      <c r="C360" s="51" t="s">
         <v>1079</v>
       </c>
-      <c r="D360" s="50" t="s">
+      <c r="D360" s="51" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B361" s="50" t="s">
+      <c r="A361" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="51" t="s">
         <v>1081</v>
       </c>
-      <c r="C361" s="50" t="s">
+      <c r="C361" s="51" t="s">
         <v>1082</v>
       </c>
-      <c r="D361" s="50" t="s">
+      <c r="D361" s="51" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B362" s="50" t="s">
+      <c r="A362" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B362" s="51" t="s">
         <v>1084</v>
       </c>
-      <c r="C362" s="50" t="s">
+      <c r="C362" s="51" t="s">
         <v>1085</v>
       </c>
-      <c r="D362" s="50" t="s">
+      <c r="D362" s="51" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B363" s="50" t="s">
+      <c r="A363" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B363" s="51" t="s">
         <v>1087</v>
       </c>
-      <c r="C363" s="50" t="s">
+      <c r="C363" s="51" t="s">
         <v>1088</v>
       </c>
-      <c r="D363" s="50" t="s">
+      <c r="D363" s="51" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B364" s="50" t="s">
+      <c r="A364" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B364" s="51" t="s">
         <v>1090</v>
       </c>
-      <c r="C364" s="50" t="s">
+      <c r="C364" s="51" t="s">
         <v>1091</v>
       </c>
-      <c r="D364" s="50" t="s">
+      <c r="D364" s="51" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B365" s="50" t="s">
+      <c r="A365" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B365" s="51" t="s">
         <v>1093</v>
       </c>
-      <c r="C365" s="50" t="s">
+      <c r="C365" s="51" t="s">
         <v>1094</v>
       </c>
-      <c r="D365" s="50" t="s">
+      <c r="D365" s="51" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B366" s="50" t="s">
+      <c r="A366" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B366" s="51" t="s">
         <v>1096</v>
       </c>
-      <c r="C366" s="50" t="s">
+      <c r="C366" s="51" t="s">
         <v>1097</v>
       </c>
-      <c r="D366" s="50" t="s">
+      <c r="D366" s="51" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B367" s="50" t="s">
+      <c r="A367" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B367" s="51" t="s">
         <v>1099</v>
       </c>
-      <c r="C367" s="50" t="s">
+      <c r="C367" s="51" t="s">
         <v>1100</v>
       </c>
-      <c r="D367" s="50" t="s">
+      <c r="D367" s="51" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B368" s="50" t="s">
+      <c r="A368" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B368" s="51" t="s">
         <v>1102</v>
       </c>
-      <c r="C368" s="50" t="s">
+      <c r="C368" s="51" t="s">
         <v>1103</v>
       </c>
-      <c r="D368" s="50" t="s">
+      <c r="D368" s="51" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B369" s="50" t="s">
+      <c r="A369" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B369" s="51" t="s">
         <v>1105</v>
       </c>
-      <c r="C369" s="50" t="s">
+      <c r="C369" s="51" t="s">
         <v>1106</v>
       </c>
-      <c r="D369" s="50" t="s">
+      <c r="D369" s="51" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B370" s="50" t="s">
+      <c r="A370" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="51" t="s">
         <v>1108</v>
       </c>
-      <c r="C370" s="50" t="s">
+      <c r="C370" s="51" t="s">
         <v>1109</v>
       </c>
-      <c r="D370" s="50" t="s">
+      <c r="D370" s="51" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B371" s="50" t="s">
+      <c r="A371" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B371" s="51" t="s">
         <v>1111</v>
       </c>
-      <c r="C371" s="50" t="s">
+      <c r="C371" s="51" t="s">
         <v>1112</v>
       </c>
-      <c r="D371" s="50" t="s">
+      <c r="D371" s="51" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B372" s="50" t="s">
+      <c r="A372" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B372" s="51" t="s">
         <v>1114</v>
       </c>
-      <c r="C372" s="50" t="s">
+      <c r="C372" s="51" t="s">
         <v>1115</v>
       </c>
-      <c r="D372" s="50" t="s">
+      <c r="D372" s="51" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B373" s="50" t="s">
+      <c r="A373" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B373" s="51" t="s">
         <v>1117</v>
       </c>
-      <c r="C373" s="50" t="s">
+      <c r="C373" s="51" t="s">
         <v>1118</v>
       </c>
-      <c r="D373" s="50" t="s">
+      <c r="D373" s="51" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B374" s="50" t="s">
+      <c r="A374" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B374" s="51" t="s">
         <v>1120</v>
       </c>
-      <c r="C374" s="50" t="s">
+      <c r="C374" s="51" t="s">
         <v>1121</v>
       </c>
-      <c r="D374" s="50" t="s">
+      <c r="D374" s="51" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B375" s="50" t="s">
+      <c r="A375" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B375" s="51" t="s">
         <v>1123</v>
       </c>
-      <c r="C375" s="50" t="s">
+      <c r="C375" s="51" t="s">
         <v>1124</v>
       </c>
-      <c r="D375" s="50" t="s">
+      <c r="D375" s="51" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B376" s="50" t="s">
+      <c r="A376" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B376" s="51" t="s">
         <v>1126</v>
       </c>
-      <c r="C376" s="50" t="s">
+      <c r="C376" s="51" t="s">
         <v>1127</v>
       </c>
-      <c r="D376" s="50" t="s">
+      <c r="D376" s="51" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B377" s="50" t="s">
+      <c r="A377" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B377" s="51" t="s">
         <v>1129</v>
       </c>
-      <c r="C377" s="50" t="s">
+      <c r="C377" s="51" t="s">
         <v>1130</v>
       </c>
-      <c r="D377" s="50" t="s">
+      <c r="D377" s="51" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B378" s="50" t="s">
+      <c r="A378" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378" s="51" t="s">
         <v>1132</v>
       </c>
-      <c r="C378" s="50" t="s">
+      <c r="C378" s="51" t="s">
         <v>1133</v>
       </c>
-      <c r="D378" s="50" t="s">
+      <c r="D378" s="51" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B379" s="50" t="s">
+      <c r="A379" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B379" s="51" t="s">
         <v>1135</v>
       </c>
-      <c r="C379" s="50" t="s">
+      <c r="C379" s="51" t="s">
         <v>1136</v>
       </c>
-      <c r="D379" s="50" t="s">
+      <c r="D379" s="51" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B380" s="50" t="s">
+      <c r="A380" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B380" s="51" t="s">
         <v>1138</v>
       </c>
-      <c r="C380" s="50" t="s">
+      <c r="C380" s="51" t="s">
         <v>1139</v>
       </c>
-      <c r="D380" s="50" t="s">
+      <c r="D380" s="51" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B381" s="50" t="s">
+      <c r="A381" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B381" s="51" t="s">
         <v>1141</v>
       </c>
-      <c r="C381" s="50" t="s">
+      <c r="C381" s="51" t="s">
         <v>1142</v>
       </c>
-      <c r="D381" s="50" t="s">
+      <c r="D381" s="51" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B382" s="50" t="s">
+      <c r="A382" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B382" s="51" t="s">
         <v>1144</v>
       </c>
-      <c r="C382" s="50" t="s">
+      <c r="C382" s="51" t="s">
         <v>1145</v>
       </c>
-      <c r="D382" s="50" t="s">
+      <c r="D382" s="51" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B383" s="50" t="s">
+      <c r="A383" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383" s="51" t="s">
         <v>1147</v>
       </c>
-      <c r="C383" s="50" t="s">
+      <c r="C383" s="51" t="s">
         <v>1148</v>
       </c>
-      <c r="D383" s="50" t="s">
+      <c r="D383" s="51" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B384" s="50" t="s">
+      <c r="A384" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384" s="51" t="s">
         <v>1150</v>
       </c>
-      <c r="C384" s="50" t="s">
+      <c r="C384" s="51" t="s">
         <v>1151</v>
       </c>
-      <c r="D384" s="50" t="s">
+      <c r="D384" s="51" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B385" s="50" t="s">
+      <c r="A385" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385" s="51" t="s">
         <v>1153</v>
       </c>
-      <c r="C385" s="50" t="s">
+      <c r="C385" s="51" t="s">
         <v>1154</v>
       </c>
-      <c r="D385" s="50" t="s">
+      <c r="D385" s="51" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B386" s="50" t="s">
+      <c r="A386" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B386" s="51" t="s">
         <v>1156</v>
       </c>
-      <c r="C386" s="50" t="s">
+      <c r="C386" s="51" t="s">
         <v>1157</v>
       </c>
-      <c r="D386" s="50" t="s">
+      <c r="D386" s="51" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B387" s="50" t="s">
+      <c r="A387" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B387" s="51" t="s">
         <v>1159</v>
       </c>
-      <c r="C387" s="50" t="s">
+      <c r="C387" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="D387" s="50" t="s">
+      <c r="D387" s="51" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B388" s="50" t="s">
+      <c r="A388" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="51" t="s">
         <v>1162</v>
       </c>
-      <c r="C388" s="50" t="s">
+      <c r="C388" s="51" t="s">
         <v>1163</v>
       </c>
-      <c r="D388" s="50" t="s">
+      <c r="D388" s="51" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B389" s="50" t="s">
+      <c r="A389" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B389" s="51" t="s">
         <v>1165</v>
       </c>
-      <c r="C389" s="50" t="s">
+      <c r="C389" s="51" t="s">
         <v>1166</v>
       </c>
-      <c r="D389" s="50" t="s">
+      <c r="D389" s="51" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B390" s="50" t="s">
+      <c r="A390" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" s="51" t="s">
         <v>1168</v>
       </c>
-      <c r="C390" s="50" t="s">
+      <c r="C390" s="51" t="s">
         <v>1169</v>
       </c>
-      <c r="D390" s="50" t="s">
+      <c r="D390" s="51" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B391" s="50" t="s">
+      <c r="A391" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B391" s="51" t="s">
         <v>1171</v>
       </c>
-      <c r="C391" s="50" t="s">
+      <c r="C391" s="51" t="s">
         <v>1172</v>
       </c>
-      <c r="D391" s="50" t="s">
+      <c r="D391" s="51" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B392" s="50" t="s">
+      <c r="A392" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" s="51" t="s">
         <v>1174</v>
       </c>
-      <c r="C392" s="50" t="s">
+      <c r="C392" s="51" t="s">
         <v>1175</v>
       </c>
-      <c r="D392" s="50" t="s">
+      <c r="D392" s="51" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B393" s="49" t="s">
+      <c r="A393" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B393" s="50" t="s">
         <v>1177</v>
       </c>
-      <c r="C393" s="50" t="s">
+      <c r="C393" s="51" t="s">
         <v>1178</v>
       </c>
-      <c r="D393" s="50" t="s">
+      <c r="D393" s="51" t="s">
         <v>1179</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B394" s="49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C394" s="51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D394" s="51" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B395" s="49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C395" s="51" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D395" s="51" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B396" s="49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C396" s="51" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D396" s="51" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B397" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C397" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D397" s="51" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B398" s="49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C398" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D398" s="51" t="s">
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
